--- a/dataset/results/report.xlsx
+++ b/dataset/results/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,121 +493,41 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>JPEG</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.03310478559592</v>
+        <v>28.87812833396015</v>
       </c>
       <c r="C2" t="n">
-        <v>32.64385036318568</v>
+        <v>28.87734444058098</v>
       </c>
       <c r="D2" t="n">
-        <v>30.929151249316</v>
+        <v>28.47737803786903</v>
       </c>
       <c r="E2" t="n">
-        <v>28.99892748642025</v>
+        <v>28.29929275506085</v>
       </c>
       <c r="F2" t="n">
-        <v>29.33899396062358</v>
+        <v>28.68374862996903</v>
       </c>
       <c r="G2" t="n">
-        <v>33.28095350627934</v>
+        <v>30.07273097624211</v>
       </c>
       <c r="H2" t="n">
-        <v>32.73571551800662</v>
+        <v>29.44403587723852</v>
       </c>
       <c r="I2" t="n">
-        <v>33.60944882042957</v>
+        <v>29.19328653393499</v>
       </c>
       <c r="J2" t="n">
-        <v>31.96461372645265</v>
+        <v>28.82107464525119</v>
       </c>
       <c r="K2" t="n">
-        <v>32.9927317200907</v>
+        <v>30.24122175494741</v>
       </c>
       <c r="L2" t="n">
-        <v>32.52235277266808</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>CFFT</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>29.5335876475622</v>
-      </c>
-      <c r="C3" t="n">
-        <v>29.78306610298991</v>
-      </c>
-      <c r="D3" t="n">
-        <v>28.64431550747934</v>
-      </c>
-      <c r="E3" t="n">
-        <v>28.71336305426024</v>
-      </c>
-      <c r="F3" t="n">
-        <v>28.79991041419033</v>
-      </c>
-      <c r="G3" t="n">
-        <v>30.2765765184176</v>
-      </c>
-      <c r="H3" t="n">
-        <v>29.61806985421897</v>
-      </c>
-      <c r="I3" t="n">
-        <v>29.34703187093243</v>
-      </c>
-      <c r="J3" t="n">
-        <v>29.05432926825603</v>
-      </c>
-      <c r="K3" t="n">
-        <v>29.06953348695446</v>
-      </c>
-      <c r="L3" t="n">
-        <v>29.59619851090176</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>CDCT</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>34.20928166881997</v>
-      </c>
-      <c r="C4" t="n">
-        <v>34.72200850075101</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32.06040980071533</v>
-      </c>
-      <c r="E4" t="n">
-        <v>29.08818307780163</v>
-      </c>
-      <c r="F4" t="n">
-        <v>29.62939412183173</v>
-      </c>
-      <c r="G4" t="n">
-        <v>34.33176546156775</v>
-      </c>
-      <c r="H4" t="n">
-        <v>34.56421535745713</v>
-      </c>
-      <c r="I4" t="n">
-        <v>32.81195059863862</v>
-      </c>
-      <c r="J4" t="n">
-        <v>31.76077440049859</v>
-      </c>
-      <c r="K4" t="n">
-        <v>32.83974857217064</v>
-      </c>
-      <c r="L4" t="n">
-        <v>33.92538875211523</v>
+        <v>29.23340313231281</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/results/report.xlsx
+++ b/dataset/results/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,37 +497,2397 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.87812833396015</v>
+        <v>44.14332633213833</v>
       </c>
       <c r="C2" t="n">
-        <v>28.87734444058098</v>
+        <v>42.16233699236276</v>
       </c>
       <c r="D2" t="n">
-        <v>28.47737803786903</v>
+        <v>41.92260106764665</v>
       </c>
       <c r="E2" t="n">
-        <v>28.29929275506085</v>
+        <v>29.21467275699754</v>
       </c>
       <c r="F2" t="n">
-        <v>28.68374862996903</v>
+        <v>35.72454435000154</v>
       </c>
       <c r="G2" t="n">
-        <v>30.07273097624211</v>
+        <v>40.08527412907645</v>
       </c>
       <c r="H2" t="n">
-        <v>29.44403587723852</v>
+        <v>40.5000533109061</v>
       </c>
       <c r="I2" t="n">
-        <v>29.19328653393499</v>
+        <v>45.67738517557684</v>
       </c>
       <c r="J2" t="n">
-        <v>28.82107464525119</v>
+        <v>43.81069615187591</v>
       </c>
       <c r="K2" t="n">
-        <v>30.24122175494741</v>
+        <v>39.63995246784103</v>
       </c>
       <c r="L2" t="n">
-        <v>29.23340313231281</v>
+        <v>46.1172591695454</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>30.86582328275821</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30.76955703573594</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.91152709546702</v>
+      </c>
+      <c r="E3" t="n">
+        <v>28.88093017768197</v>
+      </c>
+      <c r="F3" t="n">
+        <v>29.33261492102278</v>
+      </c>
+      <c r="G3" t="n">
+        <v>32.09113391031599</v>
+      </c>
+      <c r="H3" t="n">
+        <v>30.82661701779566</v>
+      </c>
+      <c r="I3" t="n">
+        <v>31.47950140765245</v>
+      </c>
+      <c r="J3" t="n">
+        <v>31.08323717828295</v>
+      </c>
+      <c r="K3" t="n">
+        <v>31.9979380431846</v>
+      </c>
+      <c r="L3" t="n">
+        <v>31.44211439391727</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>29.68115350727165</v>
+      </c>
+      <c r="C4" t="n">
+        <v>29.7169877615322</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.41996195758605</v>
+      </c>
+      <c r="E4" t="n">
+        <v>28.75206641822521</v>
+      </c>
+      <c r="F4" t="n">
+        <v>28.96460432461073</v>
+      </c>
+      <c r="G4" t="n">
+        <v>31.35274037118141</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30.41497656696784</v>
+      </c>
+      <c r="I4" t="n">
+        <v>30.38535997772616</v>
+      </c>
+      <c r="J4" t="n">
+        <v>29.89091873612694</v>
+      </c>
+      <c r="K4" t="n">
+        <v>31.15534670009191</v>
+      </c>
+      <c r="L4" t="n">
+        <v>30.40053583689396</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>29.24428657218865</v>
+      </c>
+      <c r="C5" t="n">
+        <v>29.33769902846516</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.15231789357701</v>
+      </c>
+      <c r="E5" t="n">
+        <v>28.69569942423549</v>
+      </c>
+      <c r="F5" t="n">
+        <v>28.81168232789794</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30.83188048002742</v>
+      </c>
+      <c r="H5" t="n">
+        <v>30.1304402830347</v>
+      </c>
+      <c r="I5" t="n">
+        <v>29.95792679772269</v>
+      </c>
+      <c r="J5" t="n">
+        <v>29.42850573694825</v>
+      </c>
+      <c r="K5" t="n">
+        <v>30.82036762134215</v>
+      </c>
+      <c r="L5" t="n">
+        <v>29.94715689024737</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>29.07887073513971</v>
+      </c>
+      <c r="C6" t="n">
+        <v>29.18814120436199</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28.83450208300882</v>
+      </c>
+      <c r="E6" t="n">
+        <v>28.6166123029804</v>
+      </c>
+      <c r="F6" t="n">
+        <v>28.72777148877407</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30.61401999044422</v>
+      </c>
+      <c r="H6" t="n">
+        <v>29.97039327697355</v>
+      </c>
+      <c r="I6" t="n">
+        <v>29.67331771799352</v>
+      </c>
+      <c r="J6" t="n">
+        <v>29.17008401302102</v>
+      </c>
+      <c r="K6" t="n">
+        <v>30.63577602840208</v>
+      </c>
+      <c r="L6" t="n">
+        <v>29.69365927952358</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>38.88023437067066</v>
+      </c>
+      <c r="C7" t="n">
+        <v>37.20676548178709</v>
+      </c>
+      <c r="D7" t="n">
+        <v>37.87056518374899</v>
+      </c>
+      <c r="E7" t="n">
+        <v>29.37030201189024</v>
+      </c>
+      <c r="F7" t="n">
+        <v>35.60136045022786</v>
+      </c>
+      <c r="G7" t="n">
+        <v>36.26103206177383</v>
+      </c>
+      <c r="H7" t="n">
+        <v>36.81664091342798</v>
+      </c>
+      <c r="I7" t="n">
+        <v>37.5541838857775</v>
+      </c>
+      <c r="J7" t="n">
+        <v>36.87716060425125</v>
+      </c>
+      <c r="K7" t="n">
+        <v>36.31083424275173</v>
+      </c>
+      <c r="L7" t="n">
+        <v>36.38452111730803</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>30.77521102009833</v>
+      </c>
+      <c r="C8" t="n">
+        <v>30.57994113334524</v>
+      </c>
+      <c r="D8" t="n">
+        <v>29.95846983060295</v>
+      </c>
+      <c r="E8" t="n">
+        <v>28.87623692080384</v>
+      </c>
+      <c r="F8" t="n">
+        <v>29.25253401005119</v>
+      </c>
+      <c r="G8" t="n">
+        <v>31.67723944792442</v>
+      </c>
+      <c r="H8" t="n">
+        <v>30.82296212947565</v>
+      </c>
+      <c r="I8" t="n">
+        <v>31.14115923086194</v>
+      </c>
+      <c r="J8" t="n">
+        <v>30.66223282862353</v>
+      </c>
+      <c r="K8" t="n">
+        <v>31.35470150443151</v>
+      </c>
+      <c r="L8" t="n">
+        <v>30.80276668796933</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>29.59133891109489</v>
+      </c>
+      <c r="C9" t="n">
+        <v>29.5671830259148</v>
+      </c>
+      <c r="D9" t="n">
+        <v>29.4429591225386</v>
+      </c>
+      <c r="E9" t="n">
+        <v>28.70080234788449</v>
+      </c>
+      <c r="F9" t="n">
+        <v>28.88486789907799</v>
+      </c>
+      <c r="G9" t="n">
+        <v>31.05166506404721</v>
+      </c>
+      <c r="H9" t="n">
+        <v>30.32694895762929</v>
+      </c>
+      <c r="I9" t="n">
+        <v>30.17928948971747</v>
+      </c>
+      <c r="J9" t="n">
+        <v>29.7948299573239</v>
+      </c>
+      <c r="K9" t="n">
+        <v>30.74195914201766</v>
+      </c>
+      <c r="L9" t="n">
+        <v>29.93888290677283</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>29.22704051867619</v>
+      </c>
+      <c r="C10" t="n">
+        <v>29.2870952740707</v>
+      </c>
+      <c r="D10" t="n">
+        <v>29.29907591944021</v>
+      </c>
+      <c r="E10" t="n">
+        <v>28.61405769202415</v>
+      </c>
+      <c r="F10" t="n">
+        <v>28.74321056409836</v>
+      </c>
+      <c r="G10" t="n">
+        <v>30.54585372350462</v>
+      </c>
+      <c r="H10" t="n">
+        <v>30.14110860743404</v>
+      </c>
+      <c r="I10" t="n">
+        <v>29.77471834104167</v>
+      </c>
+      <c r="J10" t="n">
+        <v>29.30140330667827</v>
+      </c>
+      <c r="K10" t="n">
+        <v>30.41098657373102</v>
+      </c>
+      <c r="L10" t="n">
+        <v>29.61577542424573</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>29.04815063971401</v>
+      </c>
+      <c r="C11" t="n">
+        <v>29.08680656955257</v>
+      </c>
+      <c r="D11" t="n">
+        <v>29.11531269173366</v>
+      </c>
+      <c r="E11" t="n">
+        <v>28.55517056266504</v>
+      </c>
+      <c r="F11" t="n">
+        <v>28.65501849416134</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30.25069529101954</v>
+      </c>
+      <c r="H11" t="n">
+        <v>29.94448669239613</v>
+      </c>
+      <c r="I11" t="n">
+        <v>29.58907060874047</v>
+      </c>
+      <c r="J11" t="n">
+        <v>28.99226830264187</v>
+      </c>
+      <c r="K11" t="n">
+        <v>30.24188759200406</v>
+      </c>
+      <c r="L11" t="n">
+        <v>29.40901050566309</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>43.62999352204768</v>
+      </c>
+      <c r="C12" t="n">
+        <v>41.41188687892635</v>
+      </c>
+      <c r="D12" t="n">
+        <v>42.13734225512724</v>
+      </c>
+      <c r="E12" t="n">
+        <v>30.01966874029556</v>
+      </c>
+      <c r="F12" t="n">
+        <v>35.8365824835735</v>
+      </c>
+      <c r="G12" t="n">
+        <v>39.60835272906975</v>
+      </c>
+      <c r="H12" t="n">
+        <v>42.33687223829861</v>
+      </c>
+      <c r="I12" t="n">
+        <v>41.81701750031199</v>
+      </c>
+      <c r="J12" t="n">
+        <v>40.98187406339061</v>
+      </c>
+      <c r="K12" t="n">
+        <v>38.46172028221521</v>
+      </c>
+      <c r="L12" t="n">
+        <v>39.69770501865513</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>31.02012102372486</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30.61550403620598</v>
+      </c>
+      <c r="D13" t="n">
+        <v>29.80868001587865</v>
+      </c>
+      <c r="E13" t="n">
+        <v>28.88162373295053</v>
+      </c>
+      <c r="F13" t="n">
+        <v>29.1911470518578</v>
+      </c>
+      <c r="G13" t="n">
+        <v>31.77255467470302</v>
+      </c>
+      <c r="H13" t="n">
+        <v>30.89738374136079</v>
+      </c>
+      <c r="I13" t="n">
+        <v>31.38900339742634</v>
+      </c>
+      <c r="J13" t="n">
+        <v>30.8119446227102</v>
+      </c>
+      <c r="K13" t="n">
+        <v>31.53390894505212</v>
+      </c>
+      <c r="L13" t="n">
+        <v>30.97914458621313</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>29.68469475017899</v>
+      </c>
+      <c r="C14" t="n">
+        <v>29.60106355451888</v>
+      </c>
+      <c r="D14" t="n">
+        <v>29.3779605222957</v>
+      </c>
+      <c r="E14" t="n">
+        <v>28.68131520913693</v>
+      </c>
+      <c r="F14" t="n">
+        <v>28.82064837531505</v>
+      </c>
+      <c r="G14" t="n">
+        <v>31.00076038671917</v>
+      </c>
+      <c r="H14" t="n">
+        <v>30.25704194447242</v>
+      </c>
+      <c r="I14" t="n">
+        <v>30.29296451201208</v>
+      </c>
+      <c r="J14" t="n">
+        <v>29.72828079886295</v>
+      </c>
+      <c r="K14" t="n">
+        <v>30.72658516081275</v>
+      </c>
+      <c r="L14" t="n">
+        <v>29.97330835885637</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>29.24051768702742</v>
+      </c>
+      <c r="C15" t="n">
+        <v>29.38891176818169</v>
+      </c>
+      <c r="D15" t="n">
+        <v>29.23266003373487</v>
+      </c>
+      <c r="E15" t="n">
+        <v>28.57387312075877</v>
+      </c>
+      <c r="F15" t="n">
+        <v>28.70781109951545</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30.55740084253946</v>
+      </c>
+      <c r="H15" t="n">
+        <v>29.98469377844037</v>
+      </c>
+      <c r="I15" t="n">
+        <v>29.73755744962398</v>
+      </c>
+      <c r="J15" t="n">
+        <v>29.23635200978607</v>
+      </c>
+      <c r="K15" t="n">
+        <v>30.45000670198878</v>
+      </c>
+      <c r="L15" t="n">
+        <v>29.57065097317334</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>28.99649334911846</v>
+      </c>
+      <c r="C16" t="n">
+        <v>29.22161141872402</v>
+      </c>
+      <c r="D16" t="n">
+        <v>29.1662914715512</v>
+      </c>
+      <c r="E16" t="n">
+        <v>28.49411814435769</v>
+      </c>
+      <c r="F16" t="n">
+        <v>28.5955502207792</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30.24890555662077</v>
+      </c>
+      <c r="H16" t="n">
+        <v>29.90386088534395</v>
+      </c>
+      <c r="I16" t="n">
+        <v>29.3713165910388</v>
+      </c>
+      <c r="J16" t="n">
+        <v>28.98236696081148</v>
+      </c>
+      <c r="K16" t="n">
+        <v>30.25504424436803</v>
+      </c>
+      <c r="L16" t="n">
+        <v>29.37931897439211</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>43.55356243144656</v>
+      </c>
+      <c r="C17" t="n">
+        <v>41.91968259237648</v>
+      </c>
+      <c r="D17" t="n">
+        <v>42.12377670532777</v>
+      </c>
+      <c r="E17" t="n">
+        <v>30.64471469295862</v>
+      </c>
+      <c r="F17" t="n">
+        <v>35.24289971627893</v>
+      </c>
+      <c r="G17" t="n">
+        <v>40.15071208833898</v>
+      </c>
+      <c r="H17" t="n">
+        <v>40.83605310039765</v>
+      </c>
+      <c r="I17" t="n">
+        <v>42.39287723772107</v>
+      </c>
+      <c r="J17" t="n">
+        <v>41.69935638888237</v>
+      </c>
+      <c r="K17" t="n">
+        <v>38.62627197654326</v>
+      </c>
+      <c r="L17" t="n">
+        <v>39.84675818973719</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>30.96328196686442</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30.66798285523879</v>
+      </c>
+      <c r="D18" t="n">
+        <v>29.7545424392903</v>
+      </c>
+      <c r="E18" t="n">
+        <v>28.86517409021451</v>
+      </c>
+      <c r="F18" t="n">
+        <v>29.1439450262894</v>
+      </c>
+      <c r="G18" t="n">
+        <v>31.72879584816677</v>
+      </c>
+      <c r="H18" t="n">
+        <v>30.90105291751401</v>
+      </c>
+      <c r="I18" t="n">
+        <v>31.40757954503958</v>
+      </c>
+      <c r="J18" t="n">
+        <v>30.82023344357177</v>
+      </c>
+      <c r="K18" t="n">
+        <v>31.5792025752174</v>
+      </c>
+      <c r="L18" t="n">
+        <v>30.94835685722669</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>29.68785095435877</v>
+      </c>
+      <c r="C19" t="n">
+        <v>29.60730894007192</v>
+      </c>
+      <c r="D19" t="n">
+        <v>29.41376814904155</v>
+      </c>
+      <c r="E19" t="n">
+        <v>28.677913227026</v>
+      </c>
+      <c r="F19" t="n">
+        <v>28.80615719759836</v>
+      </c>
+      <c r="G19" t="n">
+        <v>30.80170997967102</v>
+      </c>
+      <c r="H19" t="n">
+        <v>30.20625080046598</v>
+      </c>
+      <c r="I19" t="n">
+        <v>30.28466485026271</v>
+      </c>
+      <c r="J19" t="n">
+        <v>29.77635582888481</v>
+      </c>
+      <c r="K19" t="n">
+        <v>30.62837802366922</v>
+      </c>
+      <c r="L19" t="n">
+        <v>29.99166896952273</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>29.17095288453935</v>
+      </c>
+      <c r="C20" t="n">
+        <v>29.25575799569661</v>
+      </c>
+      <c r="D20" t="n">
+        <v>29.17987391689896</v>
+      </c>
+      <c r="E20" t="n">
+        <v>28.56042786563365</v>
+      </c>
+      <c r="F20" t="n">
+        <v>28.65984756467504</v>
+      </c>
+      <c r="G20" t="n">
+        <v>30.44671741005169</v>
+      </c>
+      <c r="H20" t="n">
+        <v>29.96433750126331</v>
+      </c>
+      <c r="I20" t="n">
+        <v>29.64054440856938</v>
+      </c>
+      <c r="J20" t="n">
+        <v>29.17035425385064</v>
+      </c>
+      <c r="K20" t="n">
+        <v>30.34691052444955</v>
+      </c>
+      <c r="L20" t="n">
+        <v>29.61786359519138</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>28.92628701624822</v>
+      </c>
+      <c r="C21" t="n">
+        <v>29.08398553376173</v>
+      </c>
+      <c r="D21" t="n">
+        <v>29.10297137726892</v>
+      </c>
+      <c r="E21" t="n">
+        <v>28.48705197822633</v>
+      </c>
+      <c r="F21" t="n">
+        <v>28.56627206621199</v>
+      </c>
+      <c r="G21" t="n">
+        <v>29.98309562595104</v>
+      </c>
+      <c r="H21" t="n">
+        <v>29.79882319911327</v>
+      </c>
+      <c r="I21" t="n">
+        <v>29.24123817030233</v>
+      </c>
+      <c r="J21" t="n">
+        <v>28.9123431577249</v>
+      </c>
+      <c r="K21" t="n">
+        <v>30.21716507493394</v>
+      </c>
+      <c r="L21" t="n">
+        <v>29.30965679780932</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>43.83473057245337</v>
+      </c>
+      <c r="C22" t="n">
+        <v>41.18910741492713</v>
+      </c>
+      <c r="D22" t="n">
+        <v>43.35872966188936</v>
+      </c>
+      <c r="E22" t="n">
+        <v>29.21594576655898</v>
+      </c>
+      <c r="F22" t="n">
+        <v>35.71074574627199</v>
+      </c>
+      <c r="G22" t="n">
+        <v>40.24966000490132</v>
+      </c>
+      <c r="H22" t="n">
+        <v>42.30225832841405</v>
+      </c>
+      <c r="I22" t="n">
+        <v>44.23787709393189</v>
+      </c>
+      <c r="J22" t="n">
+        <v>42.28644293727398</v>
+      </c>
+      <c r="K22" t="n">
+        <v>38.11309317765504</v>
+      </c>
+      <c r="L22" t="n">
+        <v>43.85805628045802</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>31.06640941575451</v>
+      </c>
+      <c r="C23" t="n">
+        <v>30.6290435167497</v>
+      </c>
+      <c r="D23" t="n">
+        <v>29.81456248092254</v>
+      </c>
+      <c r="E23" t="n">
+        <v>28.88796873903487</v>
+      </c>
+      <c r="F23" t="n">
+        <v>29.16506993004144</v>
+      </c>
+      <c r="G23" t="n">
+        <v>31.67648976005439</v>
+      </c>
+      <c r="H23" t="n">
+        <v>30.74936926762446</v>
+      </c>
+      <c r="I23" t="n">
+        <v>31.53836816678181</v>
+      </c>
+      <c r="J23" t="n">
+        <v>30.84316529724912</v>
+      </c>
+      <c r="K23" t="n">
+        <v>31.58055446968681</v>
+      </c>
+      <c r="L23" t="n">
+        <v>31.01642588711266</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>29.76706846373682</v>
+      </c>
+      <c r="C24" t="n">
+        <v>29.55036801324124</v>
+      </c>
+      <c r="D24" t="n">
+        <v>29.2740161884963</v>
+      </c>
+      <c r="E24" t="n">
+        <v>28.66309327725725</v>
+      </c>
+      <c r="F24" t="n">
+        <v>28.82231446436357</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30.75817037964156</v>
+      </c>
+      <c r="H24" t="n">
+        <v>30.15600137849859</v>
+      </c>
+      <c r="I24" t="n">
+        <v>30.24780056424542</v>
+      </c>
+      <c r="J24" t="n">
+        <v>29.75213916867893</v>
+      </c>
+      <c r="K24" t="n">
+        <v>30.64867010726994</v>
+      </c>
+      <c r="L24" t="n">
+        <v>30.10951532084459</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>29.26321805921692</v>
+      </c>
+      <c r="C25" t="n">
+        <v>29.20220187442897</v>
+      </c>
+      <c r="D25" t="n">
+        <v>29.15224579102188</v>
+      </c>
+      <c r="E25" t="n">
+        <v>28.57172620300053</v>
+      </c>
+      <c r="F25" t="n">
+        <v>28.6410260324787</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30.33674812081325</v>
+      </c>
+      <c r="H25" t="n">
+        <v>29.94401784105465</v>
+      </c>
+      <c r="I25" t="n">
+        <v>29.7066907560175</v>
+      </c>
+      <c r="J25" t="n">
+        <v>29.28785639607007</v>
+      </c>
+      <c r="K25" t="n">
+        <v>30.35804731242337</v>
+      </c>
+      <c r="L25" t="n">
+        <v>29.60806312463937</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>28.98474116040408</v>
+      </c>
+      <c r="C26" t="n">
+        <v>28.9457734501336</v>
+      </c>
+      <c r="D26" t="n">
+        <v>29.01888033920972</v>
+      </c>
+      <c r="E26" t="n">
+        <v>28.48144624879775</v>
+      </c>
+      <c r="F26" t="n">
+        <v>28.58584523556557</v>
+      </c>
+      <c r="G26" t="n">
+        <v>29.84184401767234</v>
+      </c>
+      <c r="H26" t="n">
+        <v>29.77882290400906</v>
+      </c>
+      <c r="I26" t="n">
+        <v>29.3798190058757</v>
+      </c>
+      <c r="J26" t="n">
+        <v>28.95984448117159</v>
+      </c>
+      <c r="K26" t="n">
+        <v>30.0694128863997</v>
+      </c>
+      <c r="L26" t="n">
+        <v>29.32447561117669</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>43.17531111466074</v>
+      </c>
+      <c r="C27" t="n">
+        <v>43.04712181114135</v>
+      </c>
+      <c r="D27" t="n">
+        <v>42.47035367395746</v>
+      </c>
+      <c r="E27" t="n">
+        <v>29.43005348357521</v>
+      </c>
+      <c r="F27" t="n">
+        <v>34.31517492032241</v>
+      </c>
+      <c r="G27" t="n">
+        <v>39.33835268138682</v>
+      </c>
+      <c r="H27" t="n">
+        <v>41.91355067051704</v>
+      </c>
+      <c r="I27" t="n">
+        <v>42.88250434246357</v>
+      </c>
+      <c r="J27" t="n">
+        <v>40.67824633149225</v>
+      </c>
+      <c r="K27" t="n">
+        <v>38.71649033559589</v>
+      </c>
+      <c r="L27" t="n">
+        <v>41.45605176675338</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>31.0332934272302</v>
+      </c>
+      <c r="C28" t="n">
+        <v>30.73391839512469</v>
+      </c>
+      <c r="D28" t="n">
+        <v>29.72812380303991</v>
+      </c>
+      <c r="E28" t="n">
+        <v>28.87513105988628</v>
+      </c>
+      <c r="F28" t="n">
+        <v>29.10847485520353</v>
+      </c>
+      <c r="G28" t="n">
+        <v>31.55271019614183</v>
+      </c>
+      <c r="H28" t="n">
+        <v>30.9448463979462</v>
+      </c>
+      <c r="I28" t="n">
+        <v>31.31308336942462</v>
+      </c>
+      <c r="J28" t="n">
+        <v>30.74210905840737</v>
+      </c>
+      <c r="K28" t="n">
+        <v>31.3992322456044</v>
+      </c>
+      <c r="L28" t="n">
+        <v>30.86185934844604</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>29.71436279219485</v>
+      </c>
+      <c r="C29" t="n">
+        <v>29.62455006707026</v>
+      </c>
+      <c r="D29" t="n">
+        <v>29.25511923113111</v>
+      </c>
+      <c r="E29" t="n">
+        <v>28.66313578825899</v>
+      </c>
+      <c r="F29" t="n">
+        <v>28.76842949831053</v>
+      </c>
+      <c r="G29" t="n">
+        <v>30.62104550974862</v>
+      </c>
+      <c r="H29" t="n">
+        <v>30.06363016142862</v>
+      </c>
+      <c r="I29" t="n">
+        <v>30.17132808349134</v>
+      </c>
+      <c r="J29" t="n">
+        <v>29.69372196068246</v>
+      </c>
+      <c r="K29" t="n">
+        <v>30.60465192421275</v>
+      </c>
+      <c r="L29" t="n">
+        <v>29.90883878971954</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>29.1997973444189</v>
+      </c>
+      <c r="C30" t="n">
+        <v>29.16235601592019</v>
+      </c>
+      <c r="D30" t="n">
+        <v>29.04429948726857</v>
+      </c>
+      <c r="E30" t="n">
+        <v>28.54898755312713</v>
+      </c>
+      <c r="F30" t="n">
+        <v>28.64554709199948</v>
+      </c>
+      <c r="G30" t="n">
+        <v>30.3247958421327</v>
+      </c>
+      <c r="H30" t="n">
+        <v>29.84505854328592</v>
+      </c>
+      <c r="I30" t="n">
+        <v>29.73658860820832</v>
+      </c>
+      <c r="J30" t="n">
+        <v>29.23528023590913</v>
+      </c>
+      <c r="K30" t="n">
+        <v>30.13848483621472</v>
+      </c>
+      <c r="L30" t="n">
+        <v>29.46147500693698</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>28.95451643821865</v>
+      </c>
+      <c r="C31" t="n">
+        <v>28.94532257329661</v>
+      </c>
+      <c r="D31" t="n">
+        <v>28.9325647515648</v>
+      </c>
+      <c r="E31" t="n">
+        <v>28.4575104579607</v>
+      </c>
+      <c r="F31" t="n">
+        <v>28.56251723590432</v>
+      </c>
+      <c r="G31" t="n">
+        <v>29.84049894851451</v>
+      </c>
+      <c r="H31" t="n">
+        <v>29.72699245218885</v>
+      </c>
+      <c r="I31" t="n">
+        <v>29.43713797577092</v>
+      </c>
+      <c r="J31" t="n">
+        <v>28.89989608280418</v>
+      </c>
+      <c r="K31" t="n">
+        <v>29.95063070441715</v>
+      </c>
+      <c r="L31" t="n">
+        <v>29.24378734725228</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>33.36562785930246</v>
+      </c>
+      <c r="C32" t="n">
+        <v>33.77574531250357</v>
+      </c>
+      <c r="D32" t="n">
+        <v>33.48605604611868</v>
+      </c>
+      <c r="E32" t="n">
+        <v>29.60285749726442</v>
+      </c>
+      <c r="F32" t="n">
+        <v>34.19568752835097</v>
+      </c>
+      <c r="G32" t="n">
+        <v>32.70418337295838</v>
+      </c>
+      <c r="H32" t="n">
+        <v>33.60461759129969</v>
+      </c>
+      <c r="I32" t="n">
+        <v>33.3343567353403</v>
+      </c>
+      <c r="J32" t="n">
+        <v>33.03145977844309</v>
+      </c>
+      <c r="K32" t="n">
+        <v>33.6432041665386</v>
+      </c>
+      <c r="L32" t="n">
+        <v>33.63495192565837</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>30.14521741929048</v>
+      </c>
+      <c r="C33" t="n">
+        <v>29.98799246165074</v>
+      </c>
+      <c r="D33" t="n">
+        <v>29.41982642084882</v>
+      </c>
+      <c r="E33" t="n">
+        <v>28.89215704558274</v>
+      </c>
+      <c r="F33" t="n">
+        <v>29.09750446173172</v>
+      </c>
+      <c r="G33" t="n">
+        <v>30.7849803778627</v>
+      </c>
+      <c r="H33" t="n">
+        <v>30.18518053507213</v>
+      </c>
+      <c r="I33" t="n">
+        <v>30.22159638915353</v>
+      </c>
+      <c r="J33" t="n">
+        <v>29.88747347052934</v>
+      </c>
+      <c r="K33" t="n">
+        <v>30.45991447697863</v>
+      </c>
+      <c r="L33" t="n">
+        <v>30.11730652746681</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>29.32893890471573</v>
+      </c>
+      <c r="C34" t="n">
+        <v>29.12609049615968</v>
+      </c>
+      <c r="D34" t="n">
+        <v>29.19814309552659</v>
+      </c>
+      <c r="E34" t="n">
+        <v>28.65518168218432</v>
+      </c>
+      <c r="F34" t="n">
+        <v>28.76361316411903</v>
+      </c>
+      <c r="G34" t="n">
+        <v>30.15925204946391</v>
+      </c>
+      <c r="H34" t="n">
+        <v>29.61607953681326</v>
+      </c>
+      <c r="I34" t="n">
+        <v>29.56339249311694</v>
+      </c>
+      <c r="J34" t="n">
+        <v>29.24532373915834</v>
+      </c>
+      <c r="K34" t="n">
+        <v>29.78922363912082</v>
+      </c>
+      <c r="L34" t="n">
+        <v>29.42734439563056</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>28.9613526213912</v>
+      </c>
+      <c r="C35" t="n">
+        <v>28.91766257301312</v>
+      </c>
+      <c r="D35" t="n">
+        <v>28.99458405043379</v>
+      </c>
+      <c r="E35" t="n">
+        <v>28.53353816724385</v>
+      </c>
+      <c r="F35" t="n">
+        <v>28.61247311413072</v>
+      </c>
+      <c r="G35" t="n">
+        <v>29.82517456253268</v>
+      </c>
+      <c r="H35" t="n">
+        <v>29.40300992725557</v>
+      </c>
+      <c r="I35" t="n">
+        <v>29.29857035689902</v>
+      </c>
+      <c r="J35" t="n">
+        <v>28.94283000528307</v>
+      </c>
+      <c r="K35" t="n">
+        <v>29.50631484203391</v>
+      </c>
+      <c r="L35" t="n">
+        <v>29.1600095555226</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>28.76745011261971</v>
+      </c>
+      <c r="C36" t="n">
+        <v>28.72934070973494</v>
+      </c>
+      <c r="D36" t="n">
+        <v>28.89379175042212</v>
+      </c>
+      <c r="E36" t="n">
+        <v>28.46491029931804</v>
+      </c>
+      <c r="F36" t="n">
+        <v>28.54692473641486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>29.55063265997671</v>
+      </c>
+      <c r="H36" t="n">
+        <v>29.2207153195113</v>
+      </c>
+      <c r="I36" t="n">
+        <v>29.0699563128999</v>
+      </c>
+      <c r="J36" t="n">
+        <v>28.66803726779392</v>
+      </c>
+      <c r="K36" t="n">
+        <v>29.36480342817058</v>
+      </c>
+      <c r="L36" t="n">
+        <v>28.94415083220856</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>34.24369194846871</v>
+      </c>
+      <c r="C37" t="n">
+        <v>34.48239886250897</v>
+      </c>
+      <c r="D37" t="n">
+        <v>34.01660995090293</v>
+      </c>
+      <c r="E37" t="n">
+        <v>29.40460103705843</v>
+      </c>
+      <c r="F37" t="n">
+        <v>34.89464977128402</v>
+      </c>
+      <c r="G37" t="n">
+        <v>33.29728863806123</v>
+      </c>
+      <c r="H37" t="n">
+        <v>33.97934240508474</v>
+      </c>
+      <c r="I37" t="n">
+        <v>33.87853221357278</v>
+      </c>
+      <c r="J37" t="n">
+        <v>33.69770570369204</v>
+      </c>
+      <c r="K37" t="n">
+        <v>33.75667170693563</v>
+      </c>
+      <c r="L37" t="n">
+        <v>34.10481339328243</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>30.36100209177483</v>
+      </c>
+      <c r="C38" t="n">
+        <v>30.20430730012895</v>
+      </c>
+      <c r="D38" t="n">
+        <v>29.52842636332683</v>
+      </c>
+      <c r="E38" t="n">
+        <v>28.89001897731289</v>
+      </c>
+      <c r="F38" t="n">
+        <v>29.11314833053651</v>
+      </c>
+      <c r="G38" t="n">
+        <v>30.97058921327036</v>
+      </c>
+      <c r="H38" t="n">
+        <v>30.3847118649299</v>
+      </c>
+      <c r="I38" t="n">
+        <v>30.38786870721177</v>
+      </c>
+      <c r="J38" t="n">
+        <v>30.04116028489657</v>
+      </c>
+      <c r="K38" t="n">
+        <v>30.50298390046213</v>
+      </c>
+      <c r="L38" t="n">
+        <v>30.12967056167898</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>29.40800375677455</v>
+      </c>
+      <c r="C39" t="n">
+        <v>29.32870925697546</v>
+      </c>
+      <c r="D39" t="n">
+        <v>29.22767260716848</v>
+      </c>
+      <c r="E39" t="n">
+        <v>28.64730294617993</v>
+      </c>
+      <c r="F39" t="n">
+        <v>28.77587083060755</v>
+      </c>
+      <c r="G39" t="n">
+        <v>30.15438751493632</v>
+      </c>
+      <c r="H39" t="n">
+        <v>29.86854453674166</v>
+      </c>
+      <c r="I39" t="n">
+        <v>29.64233854742771</v>
+      </c>
+      <c r="J39" t="n">
+        <v>29.3525736139905</v>
+      </c>
+      <c r="K39" t="n">
+        <v>29.8196472562678</v>
+      </c>
+      <c r="L39" t="n">
+        <v>29.48290464003711</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>29.08935839033372</v>
+      </c>
+      <c r="C40" t="n">
+        <v>29.0188405004195</v>
+      </c>
+      <c r="D40" t="n">
+        <v>29.04480819669878</v>
+      </c>
+      <c r="E40" t="n">
+        <v>28.53130699082809</v>
+      </c>
+      <c r="F40" t="n">
+        <v>28.61037567352303</v>
+      </c>
+      <c r="G40" t="n">
+        <v>29.81958859694258</v>
+      </c>
+      <c r="H40" t="n">
+        <v>29.52391321086317</v>
+      </c>
+      <c r="I40" t="n">
+        <v>29.36280174777781</v>
+      </c>
+      <c r="J40" t="n">
+        <v>28.92577051474134</v>
+      </c>
+      <c r="K40" t="n">
+        <v>29.56834269901253</v>
+      </c>
+      <c r="L40" t="n">
+        <v>29.13992630057204</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>28.81954997632818</v>
+      </c>
+      <c r="C41" t="n">
+        <v>28.73419378625461</v>
+      </c>
+      <c r="D41" t="n">
+        <v>28.96636613705702</v>
+      </c>
+      <c r="E41" t="n">
+        <v>28.45318390770331</v>
+      </c>
+      <c r="F41" t="n">
+        <v>28.54212829611573</v>
+      </c>
+      <c r="G41" t="n">
+        <v>29.67119705036761</v>
+      </c>
+      <c r="H41" t="n">
+        <v>29.36925461887531</v>
+      </c>
+      <c r="I41" t="n">
+        <v>29.12175252032745</v>
+      </c>
+      <c r="J41" t="n">
+        <v>28.73621591604071</v>
+      </c>
+      <c r="K41" t="n">
+        <v>29.34100242704653</v>
+      </c>
+      <c r="L41" t="n">
+        <v>29.03508923755604</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>34.02797781821597</v>
+      </c>
+      <c r="C42" t="n">
+        <v>34.26625921039945</v>
+      </c>
+      <c r="D42" t="n">
+        <v>33.79602399811659</v>
+      </c>
+      <c r="E42" t="n">
+        <v>32.03509064674914</v>
+      </c>
+      <c r="F42" t="n">
+        <v>37.00026292986084</v>
+      </c>
+      <c r="G42" t="n">
+        <v>33.12124840442799</v>
+      </c>
+      <c r="H42" t="n">
+        <v>33.98536948641229</v>
+      </c>
+      <c r="I42" t="n">
+        <v>33.40304098516435</v>
+      </c>
+      <c r="J42" t="n">
+        <v>33.50547334187791</v>
+      </c>
+      <c r="K42" t="n">
+        <v>33.7684339313269</v>
+      </c>
+      <c r="L42" t="n">
+        <v>33.79130529865811</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>30.1685599209641</v>
+      </c>
+      <c r="C43" t="n">
+        <v>30.06349055229757</v>
+      </c>
+      <c r="D43" t="n">
+        <v>29.47022541280447</v>
+      </c>
+      <c r="E43" t="n">
+        <v>28.86990548390591</v>
+      </c>
+      <c r="F43" t="n">
+        <v>29.07917987700146</v>
+      </c>
+      <c r="G43" t="n">
+        <v>30.83967574948986</v>
+      </c>
+      <c r="H43" t="n">
+        <v>30.17905690270826</v>
+      </c>
+      <c r="I43" t="n">
+        <v>30.28819408028413</v>
+      </c>
+      <c r="J43" t="n">
+        <v>29.95001409850895</v>
+      </c>
+      <c r="K43" t="n">
+        <v>30.33970607205631</v>
+      </c>
+      <c r="L43" t="n">
+        <v>30.05820422109045</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>29.37814598160572</v>
+      </c>
+      <c r="C44" t="n">
+        <v>29.18504662416526</v>
+      </c>
+      <c r="D44" t="n">
+        <v>29.20054755733174</v>
+      </c>
+      <c r="E44" t="n">
+        <v>28.64625815352825</v>
+      </c>
+      <c r="F44" t="n">
+        <v>28.73815629388547</v>
+      </c>
+      <c r="G44" t="n">
+        <v>30.0521279851315</v>
+      </c>
+      <c r="H44" t="n">
+        <v>29.70988587028667</v>
+      </c>
+      <c r="I44" t="n">
+        <v>29.61808572070376</v>
+      </c>
+      <c r="J44" t="n">
+        <v>29.20461113073588</v>
+      </c>
+      <c r="K44" t="n">
+        <v>29.74175282015092</v>
+      </c>
+      <c r="L44" t="n">
+        <v>29.46384876038558</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>29.05469651108367</v>
+      </c>
+      <c r="C45" t="n">
+        <v>28.90445898400062</v>
+      </c>
+      <c r="D45" t="n">
+        <v>29.00401902828114</v>
+      </c>
+      <c r="E45" t="n">
+        <v>28.52447304041674</v>
+      </c>
+      <c r="F45" t="n">
+        <v>28.6120126045285</v>
+      </c>
+      <c r="G45" t="n">
+        <v>29.76847793631133</v>
+      </c>
+      <c r="H45" t="n">
+        <v>29.568199683602</v>
+      </c>
+      <c r="I45" t="n">
+        <v>29.24014209053421</v>
+      </c>
+      <c r="J45" t="n">
+        <v>28.89543517091528</v>
+      </c>
+      <c r="K45" t="n">
+        <v>29.49919751677905</v>
+      </c>
+      <c r="L45" t="n">
+        <v>29.12201893771844</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>28.82074916155963</v>
+      </c>
+      <c r="C46" t="n">
+        <v>28.69080810658021</v>
+      </c>
+      <c r="D46" t="n">
+        <v>28.86770060161195</v>
+      </c>
+      <c r="E46" t="n">
+        <v>28.44556157050216</v>
+      </c>
+      <c r="F46" t="n">
+        <v>28.54225159856171</v>
+      </c>
+      <c r="G46" t="n">
+        <v>29.48515888401771</v>
+      </c>
+      <c r="H46" t="n">
+        <v>29.39849651644981</v>
+      </c>
+      <c r="I46" t="n">
+        <v>29.045370954359</v>
+      </c>
+      <c r="J46" t="n">
+        <v>28.72180511082801</v>
+      </c>
+      <c r="K46" t="n">
+        <v>29.34819122643745</v>
+      </c>
+      <c r="L46" t="n">
+        <v>28.91192270886172</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>32.48546347259588</v>
+      </c>
+      <c r="C47" t="n">
+        <v>32.98159519126801</v>
+      </c>
+      <c r="D47" t="n">
+        <v>32.57577678726655</v>
+      </c>
+      <c r="E47" t="n">
+        <v>29.17993762014289</v>
+      </c>
+      <c r="F47" t="n">
+        <v>33.43134980235325</v>
+      </c>
+      <c r="G47" t="n">
+        <v>32.4000936233729</v>
+      </c>
+      <c r="H47" t="n">
+        <v>33.12522516825837</v>
+      </c>
+      <c r="I47" t="n">
+        <v>32.41519866969345</v>
+      </c>
+      <c r="J47" t="n">
+        <v>32.35033491221812</v>
+      </c>
+      <c r="K47" t="n">
+        <v>32.48178576245245</v>
+      </c>
+      <c r="L47" t="n">
+        <v>32.84240287365349</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>29.82018402588825</v>
+      </c>
+      <c r="C48" t="n">
+        <v>29.8477568455009</v>
+      </c>
+      <c r="D48" t="n">
+        <v>29.35156493964494</v>
+      </c>
+      <c r="E48" t="n">
+        <v>28.87832885551889</v>
+      </c>
+      <c r="F48" t="n">
+        <v>29.0209337512431</v>
+      </c>
+      <c r="G48" t="n">
+        <v>30.49300945940363</v>
+      </c>
+      <c r="H48" t="n">
+        <v>29.92615072169231</v>
+      </c>
+      <c r="I48" t="n">
+        <v>29.86100311023282</v>
+      </c>
+      <c r="J48" t="n">
+        <v>29.5442681507514</v>
+      </c>
+      <c r="K48" t="n">
+        <v>30.07267086964995</v>
+      </c>
+      <c r="L48" t="n">
+        <v>29.79941189519991</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>29.16858831106478</v>
+      </c>
+      <c r="C49" t="n">
+        <v>29.07983780413094</v>
+      </c>
+      <c r="D49" t="n">
+        <v>29.05760439984197</v>
+      </c>
+      <c r="E49" t="n">
+        <v>28.63184424195197</v>
+      </c>
+      <c r="F49" t="n">
+        <v>28.72074414035435</v>
+      </c>
+      <c r="G49" t="n">
+        <v>29.9165527886884</v>
+      </c>
+      <c r="H49" t="n">
+        <v>29.48268389381852</v>
+      </c>
+      <c r="I49" t="n">
+        <v>29.32170690501072</v>
+      </c>
+      <c r="J49" t="n">
+        <v>29.02532358233457</v>
+      </c>
+      <c r="K49" t="n">
+        <v>29.58677291195029</v>
+      </c>
+      <c r="L49" t="n">
+        <v>29.24164723894215</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>28.88903881386172</v>
+      </c>
+      <c r="C50" t="n">
+        <v>28.77944047155627</v>
+      </c>
+      <c r="D50" t="n">
+        <v>28.94719273863641</v>
+      </c>
+      <c r="E50" t="n">
+        <v>28.50826030355218</v>
+      </c>
+      <c r="F50" t="n">
+        <v>28.6110526878442</v>
+      </c>
+      <c r="G50" t="n">
+        <v>29.51671777316812</v>
+      </c>
+      <c r="H50" t="n">
+        <v>29.32611761172369</v>
+      </c>
+      <c r="I50" t="n">
+        <v>29.05284421890821</v>
+      </c>
+      <c r="J50" t="n">
+        <v>28.78302902775248</v>
+      </c>
+      <c r="K50" t="n">
+        <v>29.43171265131852</v>
+      </c>
+      <c r="L50" t="n">
+        <v>28.94137859774189</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>28.66734137726175</v>
+      </c>
+      <c r="C51" t="n">
+        <v>28.61682389629524</v>
+      </c>
+      <c r="D51" t="n">
+        <v>28.86884246876074</v>
+      </c>
+      <c r="E51" t="n">
+        <v>28.44492429289631</v>
+      </c>
+      <c r="F51" t="n">
+        <v>28.49847360717113</v>
+      </c>
+      <c r="G51" t="n">
+        <v>29.29628608679143</v>
+      </c>
+      <c r="H51" t="n">
+        <v>29.23612122273094</v>
+      </c>
+      <c r="I51" t="n">
+        <v>28.90757226358163</v>
+      </c>
+      <c r="J51" t="n">
+        <v>28.63118294084088</v>
+      </c>
+      <c r="K51" t="n">
+        <v>29.35595337056431</v>
+      </c>
+      <c r="L51" t="n">
+        <v>28.80786594674026</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>43.74830994066255</v>
+      </c>
+      <c r="C52" t="n">
+        <v>45.66099328017699</v>
+      </c>
+      <c r="D52" t="n">
+        <v>44.01940927287672</v>
+      </c>
+      <c r="E52" t="n">
+        <v>29.9792947620972</v>
+      </c>
+      <c r="F52" t="n">
+        <v>35.30078546175632</v>
+      </c>
+      <c r="G52" t="n">
+        <v>40.43265615346475</v>
+      </c>
+      <c r="H52" t="n">
+        <v>41.87025651139655</v>
+      </c>
+      <c r="I52" t="n">
+        <v>44.5601274710785</v>
+      </c>
+      <c r="J52" t="n">
+        <v>44.12192174583871</v>
+      </c>
+      <c r="K52" t="n">
+        <v>38.66372723998734</v>
+      </c>
+      <c r="L52" t="n">
+        <v>42.34445417256217</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>31.00058972222959</v>
+      </c>
+      <c r="C53" t="n">
+        <v>30.60639876850417</v>
+      </c>
+      <c r="D53" t="n">
+        <v>29.84679163852846</v>
+      </c>
+      <c r="E53" t="n">
+        <v>28.8616362267728</v>
+      </c>
+      <c r="F53" t="n">
+        <v>29.06484259379321</v>
+      </c>
+      <c r="G53" t="n">
+        <v>31.37523164813523</v>
+      </c>
+      <c r="H53" t="n">
+        <v>30.84691278594463</v>
+      </c>
+      <c r="I53" t="n">
+        <v>31.23827799380749</v>
+      </c>
+      <c r="J53" t="n">
+        <v>30.61917993688662</v>
+      </c>
+      <c r="K53" t="n">
+        <v>31.48745335045435</v>
+      </c>
+      <c r="L53" t="n">
+        <v>30.75940711585321</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>29.72465315629535</v>
+      </c>
+      <c r="C54" t="n">
+        <v>29.52823894539278</v>
+      </c>
+      <c r="D54" t="n">
+        <v>29.21802472595508</v>
+      </c>
+      <c r="E54" t="n">
+        <v>28.64746976313231</v>
+      </c>
+      <c r="F54" t="n">
+        <v>28.73206109795433</v>
+      </c>
+      <c r="G54" t="n">
+        <v>30.3778135671887</v>
+      </c>
+      <c r="H54" t="n">
+        <v>29.91067041042856</v>
+      </c>
+      <c r="I54" t="n">
+        <v>30.03507084604984</v>
+      </c>
+      <c r="J54" t="n">
+        <v>29.60393998650125</v>
+      </c>
+      <c r="K54" t="n">
+        <v>30.29690423043835</v>
+      </c>
+      <c r="L54" t="n">
+        <v>29.873377179045</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>29.23471966848784</v>
+      </c>
+      <c r="C55" t="n">
+        <v>29.07534148294742</v>
+      </c>
+      <c r="D55" t="n">
+        <v>29.00469484007014</v>
+      </c>
+      <c r="E55" t="n">
+        <v>28.52563463054507</v>
+      </c>
+      <c r="F55" t="n">
+        <v>28.60308101614075</v>
+      </c>
+      <c r="G55" t="n">
+        <v>29.92152825544886</v>
+      </c>
+      <c r="H55" t="n">
+        <v>29.61070100727309</v>
+      </c>
+      <c r="I55" t="n">
+        <v>29.53932054734057</v>
+      </c>
+      <c r="J55" t="n">
+        <v>29.16395633498452</v>
+      </c>
+      <c r="K55" t="n">
+        <v>29.98518633914749</v>
+      </c>
+      <c r="L55" t="n">
+        <v>29.42270927153071</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>28.96941561066111</v>
+      </c>
+      <c r="C56" t="n">
+        <v>28.84978031579623</v>
+      </c>
+      <c r="D56" t="n">
+        <v>28.9165665628991</v>
+      </c>
+      <c r="E56" t="n">
+        <v>28.445599510883</v>
+      </c>
+      <c r="F56" t="n">
+        <v>28.5332820634376</v>
+      </c>
+      <c r="G56" t="n">
+        <v>29.64936740940704</v>
+      </c>
+      <c r="H56" t="n">
+        <v>29.47930805582793</v>
+      </c>
+      <c r="I56" t="n">
+        <v>29.25410375454869</v>
+      </c>
+      <c r="J56" t="n">
+        <v>28.88466392218639</v>
+      </c>
+      <c r="K56" t="n">
+        <v>29.73458254665846</v>
+      </c>
+      <c r="L56" t="n">
+        <v>29.14484404521632</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>34.92797881919103</v>
+      </c>
+      <c r="C57" t="n">
+        <v>34.92048254795448</v>
+      </c>
+      <c r="D57" t="n">
+        <v>34.05995824110821</v>
+      </c>
+      <c r="E57" t="n">
+        <v>29.81143581943619</v>
+      </c>
+      <c r="F57" t="n">
+        <v>36.02742152968142</v>
+      </c>
+      <c r="G57" t="n">
+        <v>33.47967703957454</v>
+      </c>
+      <c r="H57" t="n">
+        <v>34.49033868341124</v>
+      </c>
+      <c r="I57" t="n">
+        <v>33.69657404269633</v>
+      </c>
+      <c r="J57" t="n">
+        <v>34.27735092836265</v>
+      </c>
+      <c r="K57" t="n">
+        <v>33.85756574510663</v>
+      </c>
+      <c r="L57" t="n">
+        <v>34.00914620568453</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>30.37573065570994</v>
+      </c>
+      <c r="C58" t="n">
+        <v>30.03457156807324</v>
+      </c>
+      <c r="D58" t="n">
+        <v>29.53690519380657</v>
+      </c>
+      <c r="E58" t="n">
+        <v>28.8775683394653</v>
+      </c>
+      <c r="F58" t="n">
+        <v>29.07914422151742</v>
+      </c>
+      <c r="G58" t="n">
+        <v>30.79793636944518</v>
+      </c>
+      <c r="H58" t="n">
+        <v>30.32179424759837</v>
+      </c>
+      <c r="I58" t="n">
+        <v>30.21080043095808</v>
+      </c>
+      <c r="J58" t="n">
+        <v>30.11832016039553</v>
+      </c>
+      <c r="K58" t="n">
+        <v>30.33206798926675</v>
+      </c>
+      <c r="L58" t="n">
+        <v>30.09606324266096</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>29.4301607381874</v>
+      </c>
+      <c r="C59" t="n">
+        <v>29.17172676434348</v>
+      </c>
+      <c r="D59" t="n">
+        <v>29.1136047159311</v>
+      </c>
+      <c r="E59" t="n">
+        <v>28.64946571920273</v>
+      </c>
+      <c r="F59" t="n">
+        <v>28.74725768503556</v>
+      </c>
+      <c r="G59" t="n">
+        <v>29.9881611712483</v>
+      </c>
+      <c r="H59" t="n">
+        <v>29.7971509591357</v>
+      </c>
+      <c r="I59" t="n">
+        <v>29.57339000581743</v>
+      </c>
+      <c r="J59" t="n">
+        <v>29.26227721849855</v>
+      </c>
+      <c r="K59" t="n">
+        <v>29.73830485220287</v>
+      </c>
+      <c r="L59" t="n">
+        <v>29.45096989859158</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>29.00724182882621</v>
+      </c>
+      <c r="C60" t="n">
+        <v>28.91859916602052</v>
+      </c>
+      <c r="D60" t="n">
+        <v>28.9564474692558</v>
+      </c>
+      <c r="E60" t="n">
+        <v>28.53417058476627</v>
+      </c>
+      <c r="F60" t="n">
+        <v>28.62637169384024</v>
+      </c>
+      <c r="G60" t="n">
+        <v>29.64771319912693</v>
+      </c>
+      <c r="H60" t="n">
+        <v>29.48717792772077</v>
+      </c>
+      <c r="I60" t="n">
+        <v>29.17794132627784</v>
+      </c>
+      <c r="J60" t="n">
+        <v>28.8995092679472</v>
+      </c>
+      <c r="K60" t="n">
+        <v>29.5024797983687</v>
+      </c>
+      <c r="L60" t="n">
+        <v>29.16876924930317</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>28.79137066822057</v>
+      </c>
+      <c r="C61" t="n">
+        <v>28.7548661153427</v>
+      </c>
+      <c r="D61" t="n">
+        <v>28.90390548171505</v>
+      </c>
+      <c r="E61" t="n">
+        <v>28.44742032626234</v>
+      </c>
+      <c r="F61" t="n">
+        <v>28.51596733067559</v>
+      </c>
+      <c r="G61" t="n">
+        <v>29.26702047789273</v>
+      </c>
+      <c r="H61" t="n">
+        <v>29.3233216964179</v>
+      </c>
+      <c r="I61" t="n">
+        <v>29.06730404890231</v>
+      </c>
+      <c r="J61" t="n">
+        <v>28.67033044617698</v>
+      </c>
+      <c r="K61" t="n">
+        <v>29.34116529864184</v>
+      </c>
+      <c r="L61" t="n">
+        <v>28.93432896090237</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/results/report.xlsx
+++ b/dataset/results/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,93 +441,2453 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>boats.tif</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cameraman.tif</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>fingerprint.tif</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>flinstones.tif</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>foreman.tif</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>house.tif</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>lena256.tif</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Monarch.tif</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Parrots.tif</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>lena256.tif</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>boats.tif</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>foreman.tif</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>house.tif</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>fingerprint.tif</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>flinstones.tif</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>peppers256.tif</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Monarch.tif</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>cameraman.tif</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29.65033485044689</v>
+        <v>44.14332633213833</v>
       </c>
       <c r="C2" t="n">
-        <v>31.31732003309957</v>
+        <v>42.16233699236276</v>
       </c>
       <c r="D2" t="n">
-        <v>30.48736434990148</v>
+        <v>41.92260106764665</v>
       </c>
       <c r="E2" t="n">
-        <v>29.72819655649619</v>
+        <v>29.21467275699754</v>
       </c>
       <c r="F2" t="n">
-        <v>31.39721294620831</v>
+        <v>35.72454435000154</v>
       </c>
       <c r="G2" t="n">
-        <v>30.50757134793432</v>
+        <v>40.08527412907645</v>
       </c>
       <c r="H2" t="n">
-        <v>28.5078461284737</v>
+        <v>40.5000533109061</v>
       </c>
       <c r="I2" t="n">
-        <v>28.80573935616913</v>
+        <v>45.67738517557684</v>
       </c>
       <c r="J2" t="n">
-        <v>30.47094994320373</v>
+        <v>43.81069615187591</v>
       </c>
       <c r="K2" t="n">
-        <v>30.07137567107401</v>
+        <v>39.63995246784103</v>
       </c>
       <c r="L2" t="n">
-        <v>29.62482394708389</v>
+        <v>46.1172591695454</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>30.86582328275821</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30.76955703573594</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.91152709546702</v>
+      </c>
+      <c r="E3" t="n">
+        <v>28.88093017768197</v>
+      </c>
+      <c r="F3" t="n">
+        <v>29.33261492102278</v>
+      </c>
+      <c r="G3" t="n">
+        <v>32.09113391031599</v>
+      </c>
+      <c r="H3" t="n">
+        <v>30.82661701779566</v>
+      </c>
+      <c r="I3" t="n">
+        <v>31.47950140765245</v>
+      </c>
+      <c r="J3" t="n">
+        <v>31.08323717828295</v>
+      </c>
+      <c r="K3" t="n">
+        <v>31.9979380431846</v>
+      </c>
+      <c r="L3" t="n">
+        <v>31.44211439391727</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>29.68115350727165</v>
+      </c>
+      <c r="C4" t="n">
+        <v>29.7169877615322</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.41996195758605</v>
+      </c>
+      <c r="E4" t="n">
+        <v>28.75206641822521</v>
+      </c>
+      <c r="F4" t="n">
+        <v>28.96460432461073</v>
+      </c>
+      <c r="G4" t="n">
+        <v>31.35274037118141</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30.41497656696784</v>
+      </c>
+      <c r="I4" t="n">
+        <v>30.38535997772616</v>
+      </c>
+      <c r="J4" t="n">
+        <v>29.89091873612694</v>
+      </c>
+      <c r="K4" t="n">
+        <v>31.15534670009191</v>
+      </c>
+      <c r="L4" t="n">
+        <v>30.40053583689396</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>29.24428657218865</v>
+      </c>
+      <c r="C5" t="n">
+        <v>29.33769902846516</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.15231789357701</v>
+      </c>
+      <c r="E5" t="n">
+        <v>28.69569942423549</v>
+      </c>
+      <c r="F5" t="n">
+        <v>28.81168232789794</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30.83188048002742</v>
+      </c>
+      <c r="H5" t="n">
+        <v>30.1304402830347</v>
+      </c>
+      <c r="I5" t="n">
+        <v>29.95792679772269</v>
+      </c>
+      <c r="J5" t="n">
+        <v>29.42850573694825</v>
+      </c>
+      <c r="K5" t="n">
+        <v>30.82036762134215</v>
+      </c>
+      <c r="L5" t="n">
+        <v>29.94715689024737</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>29.07887073513971</v>
+      </c>
+      <c r="C6" t="n">
+        <v>29.18814120436199</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28.83450208300882</v>
+      </c>
+      <c r="E6" t="n">
+        <v>28.6166123029804</v>
+      </c>
+      <c r="F6" t="n">
+        <v>28.72777148877407</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30.61401999044422</v>
+      </c>
+      <c r="H6" t="n">
+        <v>29.97039327697355</v>
+      </c>
+      <c r="I6" t="n">
+        <v>29.67331771799352</v>
+      </c>
+      <c r="J6" t="n">
+        <v>29.17008401302102</v>
+      </c>
+      <c r="K6" t="n">
+        <v>30.63577602840208</v>
+      </c>
+      <c r="L6" t="n">
+        <v>29.69365927952358</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>38.88023437067066</v>
+      </c>
+      <c r="C7" t="n">
+        <v>37.20676548178709</v>
+      </c>
+      <c r="D7" t="n">
+        <v>37.87056518374899</v>
+      </c>
+      <c r="E7" t="n">
+        <v>29.37030201189024</v>
+      </c>
+      <c r="F7" t="n">
+        <v>35.60136045022786</v>
+      </c>
+      <c r="G7" t="n">
+        <v>36.26103206177383</v>
+      </c>
+      <c r="H7" t="n">
+        <v>36.81664091342798</v>
+      </c>
+      <c r="I7" t="n">
+        <v>37.5541838857775</v>
+      </c>
+      <c r="J7" t="n">
+        <v>36.87716060425125</v>
+      </c>
+      <c r="K7" t="n">
+        <v>36.31083424275173</v>
+      </c>
+      <c r="L7" t="n">
+        <v>36.38452111730803</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>30.77521102009833</v>
+      </c>
+      <c r="C8" t="n">
+        <v>30.57994113334524</v>
+      </c>
+      <c r="D8" t="n">
+        <v>29.95846983060295</v>
+      </c>
+      <c r="E8" t="n">
+        <v>28.87623692080384</v>
+      </c>
+      <c r="F8" t="n">
+        <v>29.25253401005119</v>
+      </c>
+      <c r="G8" t="n">
+        <v>31.67723944792442</v>
+      </c>
+      <c r="H8" t="n">
+        <v>30.82296212947565</v>
+      </c>
+      <c r="I8" t="n">
+        <v>31.14115923086194</v>
+      </c>
+      <c r="J8" t="n">
+        <v>30.66223282862353</v>
+      </c>
+      <c r="K8" t="n">
+        <v>31.35470150443151</v>
+      </c>
+      <c r="L8" t="n">
+        <v>30.80276668796933</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>29.59133891109489</v>
+      </c>
+      <c r="C9" t="n">
+        <v>29.5671830259148</v>
+      </c>
+      <c r="D9" t="n">
+        <v>29.4429591225386</v>
+      </c>
+      <c r="E9" t="n">
+        <v>28.70080234788449</v>
+      </c>
+      <c r="F9" t="n">
+        <v>28.88486789907799</v>
+      </c>
+      <c r="G9" t="n">
+        <v>31.05166506404721</v>
+      </c>
+      <c r="H9" t="n">
+        <v>30.32694895762929</v>
+      </c>
+      <c r="I9" t="n">
+        <v>30.17928948971747</v>
+      </c>
+      <c r="J9" t="n">
+        <v>29.7948299573239</v>
+      </c>
+      <c r="K9" t="n">
+        <v>30.74195914201766</v>
+      </c>
+      <c r="L9" t="n">
+        <v>29.93888290677283</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>29.22704051867619</v>
+      </c>
+      <c r="C10" t="n">
+        <v>29.2870952740707</v>
+      </c>
+      <c r="D10" t="n">
+        <v>29.29907591944021</v>
+      </c>
+      <c r="E10" t="n">
+        <v>28.61405769202415</v>
+      </c>
+      <c r="F10" t="n">
+        <v>28.74321056409836</v>
+      </c>
+      <c r="G10" t="n">
+        <v>30.54585372350462</v>
+      </c>
+      <c r="H10" t="n">
+        <v>30.14110860743404</v>
+      </c>
+      <c r="I10" t="n">
+        <v>29.77471834104167</v>
+      </c>
+      <c r="J10" t="n">
+        <v>29.30140330667827</v>
+      </c>
+      <c r="K10" t="n">
+        <v>30.41098657373102</v>
+      </c>
+      <c r="L10" t="n">
+        <v>29.61577542424573</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>29.04815063971401</v>
+      </c>
+      <c r="C11" t="n">
+        <v>29.08680656955257</v>
+      </c>
+      <c r="D11" t="n">
+        <v>29.11531269173366</v>
+      </c>
+      <c r="E11" t="n">
+        <v>28.55517056266504</v>
+      </c>
+      <c r="F11" t="n">
+        <v>28.65501849416134</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30.25069529101954</v>
+      </c>
+      <c r="H11" t="n">
+        <v>29.94448669239613</v>
+      </c>
+      <c r="I11" t="n">
+        <v>29.58907060874047</v>
+      </c>
+      <c r="J11" t="n">
+        <v>28.99226830264187</v>
+      </c>
+      <c r="K11" t="n">
+        <v>30.24188759200406</v>
+      </c>
+      <c r="L11" t="n">
+        <v>29.40901050566309</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>43.62999352204768</v>
+      </c>
+      <c r="C12" t="n">
+        <v>41.41188687892635</v>
+      </c>
+      <c r="D12" t="n">
+        <v>42.13734225512724</v>
+      </c>
+      <c r="E12" t="n">
+        <v>30.01966874029556</v>
+      </c>
+      <c r="F12" t="n">
+        <v>35.8365824835735</v>
+      </c>
+      <c r="G12" t="n">
+        <v>39.60835272906975</v>
+      </c>
+      <c r="H12" t="n">
+        <v>42.33687223829861</v>
+      </c>
+      <c r="I12" t="n">
+        <v>41.81701750031199</v>
+      </c>
+      <c r="J12" t="n">
+        <v>40.98187406339061</v>
+      </c>
+      <c r="K12" t="n">
+        <v>38.46172028221521</v>
+      </c>
+      <c r="L12" t="n">
+        <v>39.69770501865513</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>31.02012102372486</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30.61550403620598</v>
+      </c>
+      <c r="D13" t="n">
+        <v>29.80868001587865</v>
+      </c>
+      <c r="E13" t="n">
+        <v>28.88162373295053</v>
+      </c>
+      <c r="F13" t="n">
+        <v>29.1911470518578</v>
+      </c>
+      <c r="G13" t="n">
+        <v>31.77255467470302</v>
+      </c>
+      <c r="H13" t="n">
+        <v>30.89738374136079</v>
+      </c>
+      <c r="I13" t="n">
+        <v>31.38900339742634</v>
+      </c>
+      <c r="J13" t="n">
+        <v>30.8119446227102</v>
+      </c>
+      <c r="K13" t="n">
+        <v>31.53390894505212</v>
+      </c>
+      <c r="L13" t="n">
+        <v>30.97914458621313</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>29.68469475017899</v>
+      </c>
+      <c r="C14" t="n">
+        <v>29.60106355451888</v>
+      </c>
+      <c r="D14" t="n">
+        <v>29.3779605222957</v>
+      </c>
+      <c r="E14" t="n">
+        <v>28.68131520913693</v>
+      </c>
+      <c r="F14" t="n">
+        <v>28.82064837531505</v>
+      </c>
+      <c r="G14" t="n">
+        <v>31.00076038671917</v>
+      </c>
+      <c r="H14" t="n">
+        <v>30.25704194447242</v>
+      </c>
+      <c r="I14" t="n">
+        <v>30.29296451201208</v>
+      </c>
+      <c r="J14" t="n">
+        <v>29.72828079886295</v>
+      </c>
+      <c r="K14" t="n">
+        <v>30.72658516081275</v>
+      </c>
+      <c r="L14" t="n">
+        <v>29.97330835885637</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>29.24051768702742</v>
+      </c>
+      <c r="C15" t="n">
+        <v>29.38891176818169</v>
+      </c>
+      <c r="D15" t="n">
+        <v>29.23266003373487</v>
+      </c>
+      <c r="E15" t="n">
+        <v>28.57387312075877</v>
+      </c>
+      <c r="F15" t="n">
+        <v>28.70781109951545</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30.55740084253946</v>
+      </c>
+      <c r="H15" t="n">
+        <v>29.98469377844037</v>
+      </c>
+      <c r="I15" t="n">
+        <v>29.73755744962398</v>
+      </c>
+      <c r="J15" t="n">
+        <v>29.23635200978607</v>
+      </c>
+      <c r="K15" t="n">
+        <v>30.45000670198878</v>
+      </c>
+      <c r="L15" t="n">
+        <v>29.57065097317334</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>28.99649334911846</v>
+      </c>
+      <c r="C16" t="n">
+        <v>29.22161141872402</v>
+      </c>
+      <c r="D16" t="n">
+        <v>29.1662914715512</v>
+      </c>
+      <c r="E16" t="n">
+        <v>28.49411814435769</v>
+      </c>
+      <c r="F16" t="n">
+        <v>28.5955502207792</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30.24890555662077</v>
+      </c>
+      <c r="H16" t="n">
+        <v>29.90386088534395</v>
+      </c>
+      <c r="I16" t="n">
+        <v>29.3713165910388</v>
+      </c>
+      <c r="J16" t="n">
+        <v>28.98236696081148</v>
+      </c>
+      <c r="K16" t="n">
+        <v>30.25504424436803</v>
+      </c>
+      <c r="L16" t="n">
+        <v>29.37931897439211</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>43.55356243144656</v>
+      </c>
+      <c r="C17" t="n">
+        <v>41.91968259237648</v>
+      </c>
+      <c r="D17" t="n">
+        <v>42.12377670532777</v>
+      </c>
+      <c r="E17" t="n">
+        <v>30.64471469295862</v>
+      </c>
+      <c r="F17" t="n">
+        <v>35.24289971627893</v>
+      </c>
+      <c r="G17" t="n">
+        <v>40.15071208833898</v>
+      </c>
+      <c r="H17" t="n">
+        <v>40.83605310039765</v>
+      </c>
+      <c r="I17" t="n">
+        <v>42.39287723772107</v>
+      </c>
+      <c r="J17" t="n">
+        <v>41.69935638888237</v>
+      </c>
+      <c r="K17" t="n">
+        <v>38.62627197654326</v>
+      </c>
+      <c r="L17" t="n">
+        <v>39.84675818973719</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>30.96328196686442</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30.66798285523879</v>
+      </c>
+      <c r="D18" t="n">
+        <v>29.7545424392903</v>
+      </c>
+      <c r="E18" t="n">
+        <v>28.86517409021451</v>
+      </c>
+      <c r="F18" t="n">
+        <v>29.1439450262894</v>
+      </c>
+      <c r="G18" t="n">
+        <v>31.72879584816677</v>
+      </c>
+      <c r="H18" t="n">
+        <v>30.90105291751401</v>
+      </c>
+      <c r="I18" t="n">
+        <v>31.40757954503958</v>
+      </c>
+      <c r="J18" t="n">
+        <v>30.82023344357177</v>
+      </c>
+      <c r="K18" t="n">
+        <v>31.5792025752174</v>
+      </c>
+      <c r="L18" t="n">
+        <v>30.94835685722669</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>29.68785095435877</v>
+      </c>
+      <c r="C19" t="n">
+        <v>29.60730894007192</v>
+      </c>
+      <c r="D19" t="n">
+        <v>29.41376814904155</v>
+      </c>
+      <c r="E19" t="n">
+        <v>28.677913227026</v>
+      </c>
+      <c r="F19" t="n">
+        <v>28.80615719759836</v>
+      </c>
+      <c r="G19" t="n">
+        <v>30.80170997967102</v>
+      </c>
+      <c r="H19" t="n">
+        <v>30.20625080046598</v>
+      </c>
+      <c r="I19" t="n">
+        <v>30.28466485026271</v>
+      </c>
+      <c r="J19" t="n">
+        <v>29.77635582888481</v>
+      </c>
+      <c r="K19" t="n">
+        <v>30.62837802366922</v>
+      </c>
+      <c r="L19" t="n">
+        <v>29.99166896952273</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>29.17095288453935</v>
+      </c>
+      <c r="C20" t="n">
+        <v>29.25575799569661</v>
+      </c>
+      <c r="D20" t="n">
+        <v>29.17987391689896</v>
+      </c>
+      <c r="E20" t="n">
+        <v>28.56042786563365</v>
+      </c>
+      <c r="F20" t="n">
+        <v>28.65984756467504</v>
+      </c>
+      <c r="G20" t="n">
+        <v>30.44671741005169</v>
+      </c>
+      <c r="H20" t="n">
+        <v>29.96433750126331</v>
+      </c>
+      <c r="I20" t="n">
+        <v>29.64054440856938</v>
+      </c>
+      <c r="J20" t="n">
+        <v>29.17035425385064</v>
+      </c>
+      <c r="K20" t="n">
+        <v>30.34691052444955</v>
+      </c>
+      <c r="L20" t="n">
+        <v>29.61786359519138</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>28.92628701624822</v>
+      </c>
+      <c r="C21" t="n">
+        <v>29.08398553376173</v>
+      </c>
+      <c r="D21" t="n">
+        <v>29.10297137726892</v>
+      </c>
+      <c r="E21" t="n">
+        <v>28.48705197822633</v>
+      </c>
+      <c r="F21" t="n">
+        <v>28.56627206621199</v>
+      </c>
+      <c r="G21" t="n">
+        <v>29.98309562595104</v>
+      </c>
+      <c r="H21" t="n">
+        <v>29.79882319911327</v>
+      </c>
+      <c r="I21" t="n">
+        <v>29.24123817030233</v>
+      </c>
+      <c r="J21" t="n">
+        <v>28.9123431577249</v>
+      </c>
+      <c r="K21" t="n">
+        <v>30.21716507493394</v>
+      </c>
+      <c r="L21" t="n">
+        <v>29.30965679780932</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>43.83473057245337</v>
+      </c>
+      <c r="C22" t="n">
+        <v>41.18910741492713</v>
+      </c>
+      <c r="D22" t="n">
+        <v>43.35872966188936</v>
+      </c>
+      <c r="E22" t="n">
+        <v>29.21594576655898</v>
+      </c>
+      <c r="F22" t="n">
+        <v>35.71074574627199</v>
+      </c>
+      <c r="G22" t="n">
+        <v>40.24966000490132</v>
+      </c>
+      <c r="H22" t="n">
+        <v>42.30225832841405</v>
+      </c>
+      <c r="I22" t="n">
+        <v>44.23787709393189</v>
+      </c>
+      <c r="J22" t="n">
+        <v>42.28644293727398</v>
+      </c>
+      <c r="K22" t="n">
+        <v>38.11309317765504</v>
+      </c>
+      <c r="L22" t="n">
+        <v>43.85805628045802</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>31.06640941575451</v>
+      </c>
+      <c r="C23" t="n">
+        <v>30.6290435167497</v>
+      </c>
+      <c r="D23" t="n">
+        <v>29.81456248092254</v>
+      </c>
+      <c r="E23" t="n">
+        <v>28.88796873903487</v>
+      </c>
+      <c r="F23" t="n">
+        <v>29.16506993004144</v>
+      </c>
+      <c r="G23" t="n">
+        <v>31.67648976005439</v>
+      </c>
+      <c r="H23" t="n">
+        <v>30.74936926762446</v>
+      </c>
+      <c r="I23" t="n">
+        <v>31.53836816678181</v>
+      </c>
+      <c r="J23" t="n">
+        <v>30.84316529724912</v>
+      </c>
+      <c r="K23" t="n">
+        <v>31.58055446968681</v>
+      </c>
+      <c r="L23" t="n">
+        <v>31.01642588711266</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>29.76706846373682</v>
+      </c>
+      <c r="C24" t="n">
+        <v>29.55036801324124</v>
+      </c>
+      <c r="D24" t="n">
+        <v>29.2740161884963</v>
+      </c>
+      <c r="E24" t="n">
+        <v>28.66309327725725</v>
+      </c>
+      <c r="F24" t="n">
+        <v>28.82231446436357</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30.75817037964156</v>
+      </c>
+      <c r="H24" t="n">
+        <v>30.15600137849859</v>
+      </c>
+      <c r="I24" t="n">
+        <v>30.24780056424542</v>
+      </c>
+      <c r="J24" t="n">
+        <v>29.75213916867893</v>
+      </c>
+      <c r="K24" t="n">
+        <v>30.64867010726994</v>
+      </c>
+      <c r="L24" t="n">
+        <v>30.10951532084459</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>29.26321805921692</v>
+      </c>
+      <c r="C25" t="n">
+        <v>29.20220187442897</v>
+      </c>
+      <c r="D25" t="n">
+        <v>29.15224579102188</v>
+      </c>
+      <c r="E25" t="n">
+        <v>28.57172620300053</v>
+      </c>
+      <c r="F25" t="n">
+        <v>28.6410260324787</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30.33674812081325</v>
+      </c>
+      <c r="H25" t="n">
+        <v>29.94401784105465</v>
+      </c>
+      <c r="I25" t="n">
+        <v>29.7066907560175</v>
+      </c>
+      <c r="J25" t="n">
+        <v>29.28785639607007</v>
+      </c>
+      <c r="K25" t="n">
+        <v>30.35804731242337</v>
+      </c>
+      <c r="L25" t="n">
+        <v>29.60806312463937</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>28.98474116040408</v>
+      </c>
+      <c r="C26" t="n">
+        <v>28.9457734501336</v>
+      </c>
+      <c r="D26" t="n">
+        <v>29.01888033920972</v>
+      </c>
+      <c r="E26" t="n">
+        <v>28.48144624879775</v>
+      </c>
+      <c r="F26" t="n">
+        <v>28.58584523556557</v>
+      </c>
+      <c r="G26" t="n">
+        <v>29.84184401767234</v>
+      </c>
+      <c r="H26" t="n">
+        <v>29.77882290400906</v>
+      </c>
+      <c r="I26" t="n">
+        <v>29.3798190058757</v>
+      </c>
+      <c r="J26" t="n">
+        <v>28.95984448117159</v>
+      </c>
+      <c r="K26" t="n">
+        <v>30.0694128863997</v>
+      </c>
+      <c r="L26" t="n">
+        <v>29.32447561117669</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>43.17531111466074</v>
+      </c>
+      <c r="C27" t="n">
+        <v>43.04712181114135</v>
+      </c>
+      <c r="D27" t="n">
+        <v>42.47035367395746</v>
+      </c>
+      <c r="E27" t="n">
+        <v>29.43005348357521</v>
+      </c>
+      <c r="F27" t="n">
+        <v>34.31517492032241</v>
+      </c>
+      <c r="G27" t="n">
+        <v>39.33835268138682</v>
+      </c>
+      <c r="H27" t="n">
+        <v>41.91355067051704</v>
+      </c>
+      <c r="I27" t="n">
+        <v>42.88250434246357</v>
+      </c>
+      <c r="J27" t="n">
+        <v>40.67824633149225</v>
+      </c>
+      <c r="K27" t="n">
+        <v>38.71649033559589</v>
+      </c>
+      <c r="L27" t="n">
+        <v>41.45605176675338</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>31.0332934272302</v>
+      </c>
+      <c r="C28" t="n">
+        <v>30.73391839512469</v>
+      </c>
+      <c r="D28" t="n">
+        <v>29.72812380303991</v>
+      </c>
+      <c r="E28" t="n">
+        <v>28.87513105988628</v>
+      </c>
+      <c r="F28" t="n">
+        <v>29.10847485520353</v>
+      </c>
+      <c r="G28" t="n">
+        <v>31.55271019614183</v>
+      </c>
+      <c r="H28" t="n">
+        <v>30.9448463979462</v>
+      </c>
+      <c r="I28" t="n">
+        <v>31.31308336942462</v>
+      </c>
+      <c r="J28" t="n">
+        <v>30.74210905840737</v>
+      </c>
+      <c r="K28" t="n">
+        <v>31.3992322456044</v>
+      </c>
+      <c r="L28" t="n">
+        <v>30.86185934844604</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>29.71436279219485</v>
+      </c>
+      <c r="C29" t="n">
+        <v>29.62455006707026</v>
+      </c>
+      <c r="D29" t="n">
+        <v>29.25511923113111</v>
+      </c>
+      <c r="E29" t="n">
+        <v>28.66313578825899</v>
+      </c>
+      <c r="F29" t="n">
+        <v>28.76842949831053</v>
+      </c>
+      <c r="G29" t="n">
+        <v>30.62104550974862</v>
+      </c>
+      <c r="H29" t="n">
+        <v>30.06363016142862</v>
+      </c>
+      <c r="I29" t="n">
+        <v>30.17132808349134</v>
+      </c>
+      <c r="J29" t="n">
+        <v>29.69372196068246</v>
+      </c>
+      <c r="K29" t="n">
+        <v>30.60465192421275</v>
+      </c>
+      <c r="L29" t="n">
+        <v>29.90883878971954</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>29.1997973444189</v>
+      </c>
+      <c r="C30" t="n">
+        <v>29.16235601592019</v>
+      </c>
+      <c r="D30" t="n">
+        <v>29.04429948726857</v>
+      </c>
+      <c r="E30" t="n">
+        <v>28.54898755312713</v>
+      </c>
+      <c r="F30" t="n">
+        <v>28.64554709199948</v>
+      </c>
+      <c r="G30" t="n">
+        <v>30.3247958421327</v>
+      </c>
+      <c r="H30" t="n">
+        <v>29.84505854328592</v>
+      </c>
+      <c r="I30" t="n">
+        <v>29.73658860820832</v>
+      </c>
+      <c r="J30" t="n">
+        <v>29.23528023590913</v>
+      </c>
+      <c r="K30" t="n">
+        <v>30.13848483621472</v>
+      </c>
+      <c r="L30" t="n">
+        <v>29.46147500693698</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>28.95451643821865</v>
+      </c>
+      <c r="C31" t="n">
+        <v>28.94532257329661</v>
+      </c>
+      <c r="D31" t="n">
+        <v>28.9325647515648</v>
+      </c>
+      <c r="E31" t="n">
+        <v>28.4575104579607</v>
+      </c>
+      <c r="F31" t="n">
+        <v>28.56251723590432</v>
+      </c>
+      <c r="G31" t="n">
+        <v>29.84049894851451</v>
+      </c>
+      <c r="H31" t="n">
+        <v>29.72699245218885</v>
+      </c>
+      <c r="I31" t="n">
+        <v>29.43713797577092</v>
+      </c>
+      <c r="J31" t="n">
+        <v>28.89989608280418</v>
+      </c>
+      <c r="K31" t="n">
+        <v>29.95063070441715</v>
+      </c>
+      <c r="L31" t="n">
+        <v>29.24378734725228</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>33.36562785930246</v>
+      </c>
+      <c r="C32" t="n">
+        <v>33.77574531250357</v>
+      </c>
+      <c r="D32" t="n">
+        <v>33.48605604611868</v>
+      </c>
+      <c r="E32" t="n">
+        <v>29.60285749726442</v>
+      </c>
+      <c r="F32" t="n">
+        <v>34.19568752835097</v>
+      </c>
+      <c r="G32" t="n">
+        <v>32.70418337295838</v>
+      </c>
+      <c r="H32" t="n">
+        <v>33.60461759129969</v>
+      </c>
+      <c r="I32" t="n">
+        <v>33.3343567353403</v>
+      </c>
+      <c r="J32" t="n">
+        <v>33.03145977844309</v>
+      </c>
+      <c r="K32" t="n">
+        <v>33.6432041665386</v>
+      </c>
+      <c r="L32" t="n">
+        <v>33.63495192565837</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>30.14521741929048</v>
+      </c>
+      <c r="C33" t="n">
+        <v>29.98799246165074</v>
+      </c>
+      <c r="D33" t="n">
+        <v>29.41982642084882</v>
+      </c>
+      <c r="E33" t="n">
+        <v>28.89215704558274</v>
+      </c>
+      <c r="F33" t="n">
+        <v>29.09750446173172</v>
+      </c>
+      <c r="G33" t="n">
+        <v>30.7849803778627</v>
+      </c>
+      <c r="H33" t="n">
+        <v>30.18518053507213</v>
+      </c>
+      <c r="I33" t="n">
+        <v>30.22159638915353</v>
+      </c>
+      <c r="J33" t="n">
+        <v>29.88747347052934</v>
+      </c>
+      <c r="K33" t="n">
+        <v>30.45991447697863</v>
+      </c>
+      <c r="L33" t="n">
+        <v>30.11730652746681</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>29.32893890471573</v>
+      </c>
+      <c r="C34" t="n">
+        <v>29.12609049615968</v>
+      </c>
+      <c r="D34" t="n">
+        <v>29.19814309552659</v>
+      </c>
+      <c r="E34" t="n">
+        <v>28.65518168218432</v>
+      </c>
+      <c r="F34" t="n">
+        <v>28.76361316411903</v>
+      </c>
+      <c r="G34" t="n">
+        <v>30.15925204946391</v>
+      </c>
+      <c r="H34" t="n">
+        <v>29.61607953681326</v>
+      </c>
+      <c r="I34" t="n">
+        <v>29.56339249311694</v>
+      </c>
+      <c r="J34" t="n">
+        <v>29.24532373915834</v>
+      </c>
+      <c r="K34" t="n">
+        <v>29.78922363912082</v>
+      </c>
+      <c r="L34" t="n">
+        <v>29.42734439563056</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>28.9613526213912</v>
+      </c>
+      <c r="C35" t="n">
+        <v>28.91766257301312</v>
+      </c>
+      <c r="D35" t="n">
+        <v>28.99458405043379</v>
+      </c>
+      <c r="E35" t="n">
+        <v>28.53353816724385</v>
+      </c>
+      <c r="F35" t="n">
+        <v>28.61247311413072</v>
+      </c>
+      <c r="G35" t="n">
+        <v>29.82517456253268</v>
+      </c>
+      <c r="H35" t="n">
+        <v>29.40300992725557</v>
+      </c>
+      <c r="I35" t="n">
+        <v>29.29857035689902</v>
+      </c>
+      <c r="J35" t="n">
+        <v>28.94283000528307</v>
+      </c>
+      <c r="K35" t="n">
+        <v>29.50631484203391</v>
+      </c>
+      <c r="L35" t="n">
+        <v>29.1600095555226</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>28.76745011261971</v>
+      </c>
+      <c r="C36" t="n">
+        <v>28.72934070973494</v>
+      </c>
+      <c r="D36" t="n">
+        <v>28.89379175042212</v>
+      </c>
+      <c r="E36" t="n">
+        <v>28.46491029931804</v>
+      </c>
+      <c r="F36" t="n">
+        <v>28.54692473641486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>29.55063265997671</v>
+      </c>
+      <c r="H36" t="n">
+        <v>29.2207153195113</v>
+      </c>
+      <c r="I36" t="n">
+        <v>29.0699563128999</v>
+      </c>
+      <c r="J36" t="n">
+        <v>28.66803726779392</v>
+      </c>
+      <c r="K36" t="n">
+        <v>29.36480342817058</v>
+      </c>
+      <c r="L36" t="n">
+        <v>28.94415083220856</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>34.24369194846871</v>
+      </c>
+      <c r="C37" t="n">
+        <v>34.48239886250897</v>
+      </c>
+      <c r="D37" t="n">
+        <v>34.01660995090293</v>
+      </c>
+      <c r="E37" t="n">
+        <v>29.40460103705843</v>
+      </c>
+      <c r="F37" t="n">
+        <v>34.89464977128402</v>
+      </c>
+      <c r="G37" t="n">
+        <v>33.29728863806123</v>
+      </c>
+      <c r="H37" t="n">
+        <v>33.97934240508474</v>
+      </c>
+      <c r="I37" t="n">
+        <v>33.87853221357278</v>
+      </c>
+      <c r="J37" t="n">
+        <v>33.69770570369204</v>
+      </c>
+      <c r="K37" t="n">
+        <v>33.75667170693563</v>
+      </c>
+      <c r="L37" t="n">
+        <v>34.10481339328243</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>30.36100209177483</v>
+      </c>
+      <c r="C38" t="n">
+        <v>30.20430730012895</v>
+      </c>
+      <c r="D38" t="n">
+        <v>29.52842636332683</v>
+      </c>
+      <c r="E38" t="n">
+        <v>28.89001897731289</v>
+      </c>
+      <c r="F38" t="n">
+        <v>29.11314833053651</v>
+      </c>
+      <c r="G38" t="n">
+        <v>30.97058921327036</v>
+      </c>
+      <c r="H38" t="n">
+        <v>30.3847118649299</v>
+      </c>
+      <c r="I38" t="n">
+        <v>30.38786870721177</v>
+      </c>
+      <c r="J38" t="n">
+        <v>30.04116028489657</v>
+      </c>
+      <c r="K38" t="n">
+        <v>30.50298390046213</v>
+      </c>
+      <c r="L38" t="n">
+        <v>30.12967056167898</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>29.40800375677455</v>
+      </c>
+      <c r="C39" t="n">
+        <v>29.32870925697546</v>
+      </c>
+      <c r="D39" t="n">
+        <v>29.22767260716848</v>
+      </c>
+      <c r="E39" t="n">
+        <v>28.64730294617993</v>
+      </c>
+      <c r="F39" t="n">
+        <v>28.77587083060755</v>
+      </c>
+      <c r="G39" t="n">
+        <v>30.15438751493632</v>
+      </c>
+      <c r="H39" t="n">
+        <v>29.86854453674166</v>
+      </c>
+      <c r="I39" t="n">
+        <v>29.64233854742771</v>
+      </c>
+      <c r="J39" t="n">
+        <v>29.3525736139905</v>
+      </c>
+      <c r="K39" t="n">
+        <v>29.8196472562678</v>
+      </c>
+      <c r="L39" t="n">
+        <v>29.48290464003711</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>29.08935839033372</v>
+      </c>
+      <c r="C40" t="n">
+        <v>29.0188405004195</v>
+      </c>
+      <c r="D40" t="n">
+        <v>29.04480819669878</v>
+      </c>
+      <c r="E40" t="n">
+        <v>28.53130699082809</v>
+      </c>
+      <c r="F40" t="n">
+        <v>28.61037567352303</v>
+      </c>
+      <c r="G40" t="n">
+        <v>29.81958859694258</v>
+      </c>
+      <c r="H40" t="n">
+        <v>29.52391321086317</v>
+      </c>
+      <c r="I40" t="n">
+        <v>29.36280174777781</v>
+      </c>
+      <c r="J40" t="n">
+        <v>28.92577051474134</v>
+      </c>
+      <c r="K40" t="n">
+        <v>29.56834269901253</v>
+      </c>
+      <c r="L40" t="n">
+        <v>29.13992630057204</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>28.81954997632818</v>
+      </c>
+      <c r="C41" t="n">
+        <v>28.73419378625461</v>
+      </c>
+      <c r="D41" t="n">
+        <v>28.96636613705702</v>
+      </c>
+      <c r="E41" t="n">
+        <v>28.45318390770331</v>
+      </c>
+      <c r="F41" t="n">
+        <v>28.54212829611573</v>
+      </c>
+      <c r="G41" t="n">
+        <v>29.67119705036761</v>
+      </c>
+      <c r="H41" t="n">
+        <v>29.36925461887531</v>
+      </c>
+      <c r="I41" t="n">
+        <v>29.12175252032745</v>
+      </c>
+      <c r="J41" t="n">
+        <v>28.73621591604071</v>
+      </c>
+      <c r="K41" t="n">
+        <v>29.34100242704653</v>
+      </c>
+      <c r="L41" t="n">
+        <v>29.03508923755604</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>34.02797781821597</v>
+      </c>
+      <c r="C42" t="n">
+        <v>34.26625921039945</v>
+      </c>
+      <c r="D42" t="n">
+        <v>33.79602399811659</v>
+      </c>
+      <c r="E42" t="n">
+        <v>32.03509064674914</v>
+      </c>
+      <c r="F42" t="n">
+        <v>37.00026292986084</v>
+      </c>
+      <c r="G42" t="n">
+        <v>33.12124840442799</v>
+      </c>
+      <c r="H42" t="n">
+        <v>33.98536948641229</v>
+      </c>
+      <c r="I42" t="n">
+        <v>33.40304098516435</v>
+      </c>
+      <c r="J42" t="n">
+        <v>33.50547334187791</v>
+      </c>
+      <c r="K42" t="n">
+        <v>33.7684339313269</v>
+      </c>
+      <c r="L42" t="n">
+        <v>33.79130529865811</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>30.1685599209641</v>
+      </c>
+      <c r="C43" t="n">
+        <v>30.06349055229757</v>
+      </c>
+      <c r="D43" t="n">
+        <v>29.47022541280447</v>
+      </c>
+      <c r="E43" t="n">
+        <v>28.86990548390591</v>
+      </c>
+      <c r="F43" t="n">
+        <v>29.07917987700146</v>
+      </c>
+      <c r="G43" t="n">
+        <v>30.83967574948986</v>
+      </c>
+      <c r="H43" t="n">
+        <v>30.17905690270826</v>
+      </c>
+      <c r="I43" t="n">
+        <v>30.28819408028413</v>
+      </c>
+      <c r="J43" t="n">
+        <v>29.95001409850895</v>
+      </c>
+      <c r="K43" t="n">
+        <v>30.33970607205631</v>
+      </c>
+      <c r="L43" t="n">
+        <v>30.05820422109045</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>29.37814598160572</v>
+      </c>
+      <c r="C44" t="n">
+        <v>29.18504662416526</v>
+      </c>
+      <c r="D44" t="n">
+        <v>29.20054755733174</v>
+      </c>
+      <c r="E44" t="n">
+        <v>28.64625815352825</v>
+      </c>
+      <c r="F44" t="n">
+        <v>28.73815629388547</v>
+      </c>
+      <c r="G44" t="n">
+        <v>30.0521279851315</v>
+      </c>
+      <c r="H44" t="n">
+        <v>29.70988587028667</v>
+      </c>
+      <c r="I44" t="n">
+        <v>29.61808572070376</v>
+      </c>
+      <c r="J44" t="n">
+        <v>29.20461113073588</v>
+      </c>
+      <c r="K44" t="n">
+        <v>29.74175282015092</v>
+      </c>
+      <c r="L44" t="n">
+        <v>29.46384876038558</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>29.05469651108367</v>
+      </c>
+      <c r="C45" t="n">
+        <v>28.90445898400062</v>
+      </c>
+      <c r="D45" t="n">
+        <v>29.00401902828114</v>
+      </c>
+      <c r="E45" t="n">
+        <v>28.52447304041674</v>
+      </c>
+      <c r="F45" t="n">
+        <v>28.6120126045285</v>
+      </c>
+      <c r="G45" t="n">
+        <v>29.76847793631133</v>
+      </c>
+      <c r="H45" t="n">
+        <v>29.568199683602</v>
+      </c>
+      <c r="I45" t="n">
+        <v>29.24014209053421</v>
+      </c>
+      <c r="J45" t="n">
+        <v>28.89543517091528</v>
+      </c>
+      <c r="K45" t="n">
+        <v>29.49919751677905</v>
+      </c>
+      <c r="L45" t="n">
+        <v>29.12201893771844</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>28.82074916155963</v>
+      </c>
+      <c r="C46" t="n">
+        <v>28.69080810658021</v>
+      </c>
+      <c r="D46" t="n">
+        <v>28.86770060161195</v>
+      </c>
+      <c r="E46" t="n">
+        <v>28.44556157050216</v>
+      </c>
+      <c r="F46" t="n">
+        <v>28.54225159856171</v>
+      </c>
+      <c r="G46" t="n">
+        <v>29.48515888401771</v>
+      </c>
+      <c r="H46" t="n">
+        <v>29.39849651644981</v>
+      </c>
+      <c r="I46" t="n">
+        <v>29.045370954359</v>
+      </c>
+      <c r="J46" t="n">
+        <v>28.72180511082801</v>
+      </c>
+      <c r="K46" t="n">
+        <v>29.34819122643745</v>
+      </c>
+      <c r="L46" t="n">
+        <v>28.91192270886172</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>32.48546347259588</v>
+      </c>
+      <c r="C47" t="n">
+        <v>32.98159519126801</v>
+      </c>
+      <c r="D47" t="n">
+        <v>32.57577678726655</v>
+      </c>
+      <c r="E47" t="n">
+        <v>29.17993762014289</v>
+      </c>
+      <c r="F47" t="n">
+        <v>33.43134980235325</v>
+      </c>
+      <c r="G47" t="n">
+        <v>32.4000936233729</v>
+      </c>
+      <c r="H47" t="n">
+        <v>33.12522516825837</v>
+      </c>
+      <c r="I47" t="n">
+        <v>32.41519866969345</v>
+      </c>
+      <c r="J47" t="n">
+        <v>32.35033491221812</v>
+      </c>
+      <c r="K47" t="n">
+        <v>32.48178576245245</v>
+      </c>
+      <c r="L47" t="n">
+        <v>32.84240287365349</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>29.82018402588825</v>
+      </c>
+      <c r="C48" t="n">
+        <v>29.8477568455009</v>
+      </c>
+      <c r="D48" t="n">
+        <v>29.35156493964494</v>
+      </c>
+      <c r="E48" t="n">
+        <v>28.87832885551889</v>
+      </c>
+      <c r="F48" t="n">
+        <v>29.0209337512431</v>
+      </c>
+      <c r="G48" t="n">
+        <v>30.49300945940363</v>
+      </c>
+      <c r="H48" t="n">
+        <v>29.92615072169231</v>
+      </c>
+      <c r="I48" t="n">
+        <v>29.86100311023282</v>
+      </c>
+      <c r="J48" t="n">
+        <v>29.5442681507514</v>
+      </c>
+      <c r="K48" t="n">
+        <v>30.07267086964995</v>
+      </c>
+      <c r="L48" t="n">
+        <v>29.79941189519991</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>29.16858831106478</v>
+      </c>
+      <c r="C49" t="n">
+        <v>29.07983780413094</v>
+      </c>
+      <c r="D49" t="n">
+        <v>29.05760439984197</v>
+      </c>
+      <c r="E49" t="n">
+        <v>28.63184424195197</v>
+      </c>
+      <c r="F49" t="n">
+        <v>28.72074414035435</v>
+      </c>
+      <c r="G49" t="n">
+        <v>29.9165527886884</v>
+      </c>
+      <c r="H49" t="n">
+        <v>29.48268389381852</v>
+      </c>
+      <c r="I49" t="n">
+        <v>29.32170690501072</v>
+      </c>
+      <c r="J49" t="n">
+        <v>29.02532358233457</v>
+      </c>
+      <c r="K49" t="n">
+        <v>29.58677291195029</v>
+      </c>
+      <c r="L49" t="n">
+        <v>29.24164723894215</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>28.88903881386172</v>
+      </c>
+      <c r="C50" t="n">
+        <v>28.77944047155627</v>
+      </c>
+      <c r="D50" t="n">
+        <v>28.94719273863641</v>
+      </c>
+      <c r="E50" t="n">
+        <v>28.50826030355218</v>
+      </c>
+      <c r="F50" t="n">
+        <v>28.6110526878442</v>
+      </c>
+      <c r="G50" t="n">
+        <v>29.51671777316812</v>
+      </c>
+      <c r="H50" t="n">
+        <v>29.32611761172369</v>
+      </c>
+      <c r="I50" t="n">
+        <v>29.05284421890821</v>
+      </c>
+      <c r="J50" t="n">
+        <v>28.78302902775248</v>
+      </c>
+      <c r="K50" t="n">
+        <v>29.43171265131852</v>
+      </c>
+      <c r="L50" t="n">
+        <v>28.94137859774189</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>28.66734137726175</v>
+      </c>
+      <c r="C51" t="n">
+        <v>28.61682389629524</v>
+      </c>
+      <c r="D51" t="n">
+        <v>28.86884246876074</v>
+      </c>
+      <c r="E51" t="n">
+        <v>28.44492429289631</v>
+      </c>
+      <c r="F51" t="n">
+        <v>28.49847360717113</v>
+      </c>
+      <c r="G51" t="n">
+        <v>29.29628608679143</v>
+      </c>
+      <c r="H51" t="n">
+        <v>29.23612122273094</v>
+      </c>
+      <c r="I51" t="n">
+        <v>28.90757226358163</v>
+      </c>
+      <c r="J51" t="n">
+        <v>28.63118294084088</v>
+      </c>
+      <c r="K51" t="n">
+        <v>29.35595337056431</v>
+      </c>
+      <c r="L51" t="n">
+        <v>28.80786594674026</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>43.74830994066255</v>
+      </c>
+      <c r="C52" t="n">
+        <v>45.66099328017699</v>
+      </c>
+      <c r="D52" t="n">
+        <v>44.01940927287672</v>
+      </c>
+      <c r="E52" t="n">
+        <v>29.9792947620972</v>
+      </c>
+      <c r="F52" t="n">
+        <v>35.30078546175632</v>
+      </c>
+      <c r="G52" t="n">
+        <v>40.43265615346475</v>
+      </c>
+      <c r="H52" t="n">
+        <v>41.87025651139655</v>
+      </c>
+      <c r="I52" t="n">
+        <v>44.5601274710785</v>
+      </c>
+      <c r="J52" t="n">
+        <v>44.12192174583871</v>
+      </c>
+      <c r="K52" t="n">
+        <v>38.66372723998734</v>
+      </c>
+      <c r="L52" t="n">
+        <v>42.34445417256217</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>31.00058972222959</v>
+      </c>
+      <c r="C53" t="n">
+        <v>30.60639876850417</v>
+      </c>
+      <c r="D53" t="n">
+        <v>29.84679163852846</v>
+      </c>
+      <c r="E53" t="n">
+        <v>28.8616362267728</v>
+      </c>
+      <c r="F53" t="n">
+        <v>29.06484259379321</v>
+      </c>
+      <c r="G53" t="n">
+        <v>31.37523164813523</v>
+      </c>
+      <c r="H53" t="n">
+        <v>30.84691278594463</v>
+      </c>
+      <c r="I53" t="n">
+        <v>31.23827799380749</v>
+      </c>
+      <c r="J53" t="n">
+        <v>30.61917993688662</v>
+      </c>
+      <c r="K53" t="n">
+        <v>31.48745335045435</v>
+      </c>
+      <c r="L53" t="n">
+        <v>30.75940711585321</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>29.72465315629535</v>
+      </c>
+      <c r="C54" t="n">
+        <v>29.52823894539278</v>
+      </c>
+      <c r="D54" t="n">
+        <v>29.21802472595508</v>
+      </c>
+      <c r="E54" t="n">
+        <v>28.64746976313231</v>
+      </c>
+      <c r="F54" t="n">
+        <v>28.73206109795433</v>
+      </c>
+      <c r="G54" t="n">
+        <v>30.3778135671887</v>
+      </c>
+      <c r="H54" t="n">
+        <v>29.91067041042856</v>
+      </c>
+      <c r="I54" t="n">
+        <v>30.03507084604984</v>
+      </c>
+      <c r="J54" t="n">
+        <v>29.60393998650125</v>
+      </c>
+      <c r="K54" t="n">
+        <v>30.29690423043835</v>
+      </c>
+      <c r="L54" t="n">
+        <v>29.873377179045</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>29.23471966848784</v>
+      </c>
+      <c r="C55" t="n">
+        <v>29.07534148294742</v>
+      </c>
+      <c r="D55" t="n">
+        <v>29.00469484007014</v>
+      </c>
+      <c r="E55" t="n">
+        <v>28.52563463054507</v>
+      </c>
+      <c r="F55" t="n">
+        <v>28.60308101614075</v>
+      </c>
+      <c r="G55" t="n">
+        <v>29.92152825544886</v>
+      </c>
+      <c r="H55" t="n">
+        <v>29.61070100727309</v>
+      </c>
+      <c r="I55" t="n">
+        <v>29.53932054734057</v>
+      </c>
+      <c r="J55" t="n">
+        <v>29.16395633498452</v>
+      </c>
+      <c r="K55" t="n">
+        <v>29.98518633914749</v>
+      </c>
+      <c r="L55" t="n">
+        <v>29.42270927153071</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>28.96941561066111</v>
+      </c>
+      <c r="C56" t="n">
+        <v>28.84978031579623</v>
+      </c>
+      <c r="D56" t="n">
+        <v>28.9165665628991</v>
+      </c>
+      <c r="E56" t="n">
+        <v>28.445599510883</v>
+      </c>
+      <c r="F56" t="n">
+        <v>28.5332820634376</v>
+      </c>
+      <c r="G56" t="n">
+        <v>29.64936740940704</v>
+      </c>
+      <c r="H56" t="n">
+        <v>29.47930805582793</v>
+      </c>
+      <c r="I56" t="n">
+        <v>29.25410375454869</v>
+      </c>
+      <c r="J56" t="n">
+        <v>28.88466392218639</v>
+      </c>
+      <c r="K56" t="n">
+        <v>29.73458254665846</v>
+      </c>
+      <c r="L56" t="n">
+        <v>29.14484404521632</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>34.92797881919103</v>
+      </c>
+      <c r="C57" t="n">
+        <v>34.92048254795448</v>
+      </c>
+      <c r="D57" t="n">
+        <v>34.05995824110821</v>
+      </c>
+      <c r="E57" t="n">
+        <v>29.81143581943619</v>
+      </c>
+      <c r="F57" t="n">
+        <v>36.02742152968142</v>
+      </c>
+      <c r="G57" t="n">
+        <v>33.47967703957454</v>
+      </c>
+      <c r="H57" t="n">
+        <v>34.49033868341124</v>
+      </c>
+      <c r="I57" t="n">
+        <v>33.69657404269633</v>
+      </c>
+      <c r="J57" t="n">
+        <v>34.27735092836265</v>
+      </c>
+      <c r="K57" t="n">
+        <v>33.85756574510663</v>
+      </c>
+      <c r="L57" t="n">
+        <v>34.00914620568453</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>30.37573065570994</v>
+      </c>
+      <c r="C58" t="n">
+        <v>30.03457156807324</v>
+      </c>
+      <c r="D58" t="n">
+        <v>29.53690519380657</v>
+      </c>
+      <c r="E58" t="n">
+        <v>28.8775683394653</v>
+      </c>
+      <c r="F58" t="n">
+        <v>29.07914422151742</v>
+      </c>
+      <c r="G58" t="n">
+        <v>30.79793636944518</v>
+      </c>
+      <c r="H58" t="n">
+        <v>30.32179424759837</v>
+      </c>
+      <c r="I58" t="n">
+        <v>30.21080043095808</v>
+      </c>
+      <c r="J58" t="n">
+        <v>30.11832016039553</v>
+      </c>
+      <c r="K58" t="n">
+        <v>30.33206798926675</v>
+      </c>
+      <c r="L58" t="n">
+        <v>30.09606324266096</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>29.4301607381874</v>
+      </c>
+      <c r="C59" t="n">
+        <v>29.17172676434348</v>
+      </c>
+      <c r="D59" t="n">
+        <v>29.1136047159311</v>
+      </c>
+      <c r="E59" t="n">
+        <v>28.64946571920273</v>
+      </c>
+      <c r="F59" t="n">
+        <v>28.74725768503556</v>
+      </c>
+      <c r="G59" t="n">
+        <v>29.9881611712483</v>
+      </c>
+      <c r="H59" t="n">
+        <v>29.7971509591357</v>
+      </c>
+      <c r="I59" t="n">
+        <v>29.57339000581743</v>
+      </c>
+      <c r="J59" t="n">
+        <v>29.26227721849855</v>
+      </c>
+      <c r="K59" t="n">
+        <v>29.73830485220287</v>
+      </c>
+      <c r="L59" t="n">
+        <v>29.45096989859158</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>29.00724182882621</v>
+      </c>
+      <c r="C60" t="n">
+        <v>28.91859916602052</v>
+      </c>
+      <c r="D60" t="n">
+        <v>28.9564474692558</v>
+      </c>
+      <c r="E60" t="n">
+        <v>28.53417058476627</v>
+      </c>
+      <c r="F60" t="n">
+        <v>28.62637169384024</v>
+      </c>
+      <c r="G60" t="n">
+        <v>29.64771319912693</v>
+      </c>
+      <c r="H60" t="n">
+        <v>29.48717792772077</v>
+      </c>
+      <c r="I60" t="n">
+        <v>29.17794132627784</v>
+      </c>
+      <c r="J60" t="n">
+        <v>28.8995092679472</v>
+      </c>
+      <c r="K60" t="n">
+        <v>29.5024797983687</v>
+      </c>
+      <c r="L60" t="n">
+        <v>29.16876924930317</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>28.79137066822057</v>
+      </c>
+      <c r="C61" t="n">
+        <v>28.7548661153427</v>
+      </c>
+      <c r="D61" t="n">
+        <v>28.90390548171505</v>
+      </c>
+      <c r="E61" t="n">
+        <v>28.44742032626234</v>
+      </c>
+      <c r="F61" t="n">
+        <v>28.51596733067559</v>
+      </c>
+      <c r="G61" t="n">
+        <v>29.26702047789273</v>
+      </c>
+      <c r="H61" t="n">
+        <v>29.3233216964179</v>
+      </c>
+      <c r="I61" t="n">
+        <v>29.06730404890231</v>
+      </c>
+      <c r="J61" t="n">
+        <v>28.67033044617698</v>
+      </c>
+      <c r="K61" t="n">
+        <v>29.34116529864184</v>
+      </c>
+      <c r="L61" t="n">
+        <v>28.93432896090237</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/results/report.xlsx
+++ b/dataset/results/report.xlsx
@@ -493,2401 +493,2401 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.14332633213833</v>
+        <v>43.71780952797666</v>
       </c>
       <c r="C2" t="n">
-        <v>42.16233699236276</v>
+        <v>42.39155135011529</v>
       </c>
       <c r="D2" t="n">
-        <v>41.92260106764665</v>
+        <v>43.07920442449924</v>
       </c>
       <c r="E2" t="n">
-        <v>29.21467275699754</v>
+        <v>29.45449836485516</v>
       </c>
       <c r="F2" t="n">
-        <v>35.72454435000154</v>
+        <v>35.59733894610576</v>
       </c>
       <c r="G2" t="n">
-        <v>40.08527412907645</v>
+        <v>40.8676846454566</v>
       </c>
       <c r="H2" t="n">
-        <v>40.5000533109061</v>
+        <v>42.99264240077189</v>
       </c>
       <c r="I2" t="n">
-        <v>45.67738517557684</v>
+        <v>44.26135736497336</v>
       </c>
       <c r="J2" t="n">
-        <v>43.81069615187591</v>
+        <v>43.11117115013622</v>
       </c>
       <c r="K2" t="n">
-        <v>39.63995246784103</v>
+        <v>40.17777524251588</v>
       </c>
       <c r="L2" t="n">
-        <v>46.1172591695454</v>
+        <v>44.71650425265264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.86582328275821</v>
+        <v>31.32781012791738</v>
       </c>
       <c r="C3" t="n">
-        <v>30.76955703573594</v>
+        <v>31.29915815801551</v>
       </c>
       <c r="D3" t="n">
-        <v>29.91152709546702</v>
+        <v>31.08722655101952</v>
       </c>
       <c r="E3" t="n">
-        <v>28.88093017768197</v>
+        <v>28.81368968513009</v>
       </c>
       <c r="F3" t="n">
-        <v>29.33261492102278</v>
+        <v>29.54258652551648</v>
       </c>
       <c r="G3" t="n">
-        <v>32.09113391031599</v>
+        <v>33.62426360090914</v>
       </c>
       <c r="H3" t="n">
-        <v>30.82661701779566</v>
+        <v>31.88783248724801</v>
       </c>
       <c r="I3" t="n">
-        <v>31.47950140765245</v>
+        <v>32.84181267081711</v>
       </c>
       <c r="J3" t="n">
-        <v>31.08323717828295</v>
+        <v>32.46316524368629</v>
       </c>
       <c r="K3" t="n">
-        <v>31.9979380431846</v>
+        <v>32.96007630240096</v>
       </c>
       <c r="L3" t="n">
-        <v>31.44211439391727</v>
+        <v>32.52181360474151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.68115350727165</v>
+        <v>30.7480470057673</v>
       </c>
       <c r="C4" t="n">
-        <v>29.7169877615322</v>
+        <v>30.75963411158315</v>
       </c>
       <c r="D4" t="n">
-        <v>29.41996195758605</v>
+        <v>30.42584545782853</v>
       </c>
       <c r="E4" t="n">
-        <v>28.75206641822521</v>
+        <v>28.75166712757066</v>
       </c>
       <c r="F4" t="n">
-        <v>28.96460432461073</v>
+        <v>29.07344455194402</v>
       </c>
       <c r="G4" t="n">
-        <v>31.35274037118141</v>
+        <v>33.34897024113744</v>
       </c>
       <c r="H4" t="n">
-        <v>30.41497656696784</v>
+        <v>31.57158002346062</v>
       </c>
       <c r="I4" t="n">
-        <v>30.38535997772616</v>
+        <v>32.3066865780521</v>
       </c>
       <c r="J4" t="n">
-        <v>29.89091873612694</v>
+        <v>31.32490557634785</v>
       </c>
       <c r="K4" t="n">
-        <v>31.15534670009191</v>
+        <v>32.54935654565507</v>
       </c>
       <c r="L4" t="n">
-        <v>30.40053583689396</v>
+        <v>31.88549099286785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29.24428657218865</v>
+        <v>30.56140941285509</v>
       </c>
       <c r="C5" t="n">
-        <v>29.33769902846516</v>
+        <v>30.70088178229514</v>
       </c>
       <c r="D5" t="n">
-        <v>29.15231789357701</v>
+        <v>30.30109874312344</v>
       </c>
       <c r="E5" t="n">
-        <v>28.69569942423549</v>
+        <v>28.74451822327633</v>
       </c>
       <c r="F5" t="n">
-        <v>28.81168232789794</v>
+        <v>28.90912002949761</v>
       </c>
       <c r="G5" t="n">
-        <v>30.83188048002742</v>
+        <v>33.31027707327971</v>
       </c>
       <c r="H5" t="n">
-        <v>30.1304402830347</v>
+        <v>31.53333300587202</v>
       </c>
       <c r="I5" t="n">
-        <v>29.95792679772269</v>
+        <v>32.17852388938537</v>
       </c>
       <c r="J5" t="n">
-        <v>29.42850573694825</v>
+        <v>31.01360254136473</v>
       </c>
       <c r="K5" t="n">
-        <v>30.82036762134215</v>
+        <v>32.42235258179124</v>
       </c>
       <c r="L5" t="n">
-        <v>29.94715689024737</v>
+        <v>31.66436879201859</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.07887073513971</v>
+        <v>30.51202146086057</v>
       </c>
       <c r="C6" t="n">
-        <v>29.18814120436199</v>
+        <v>30.68259106761067</v>
       </c>
       <c r="D6" t="n">
-        <v>28.83450208300882</v>
+        <v>30.21678796815858</v>
       </c>
       <c r="E6" t="n">
-        <v>28.6166123029804</v>
+        <v>28.74441842741064</v>
       </c>
       <c r="F6" t="n">
-        <v>28.72777148877407</v>
+        <v>28.88721875895509</v>
       </c>
       <c r="G6" t="n">
-        <v>30.61401999044422</v>
+        <v>33.31386467519889</v>
       </c>
       <c r="H6" t="n">
-        <v>29.97039327697355</v>
+        <v>31.53081253859707</v>
       </c>
       <c r="I6" t="n">
-        <v>29.67331771799352</v>
+        <v>32.17182410685142</v>
       </c>
       <c r="J6" t="n">
-        <v>29.17008401302102</v>
+        <v>31.00131990531284</v>
       </c>
       <c r="K6" t="n">
-        <v>30.63577602840208</v>
+        <v>32.39762723665241</v>
       </c>
       <c r="L6" t="n">
-        <v>29.69365927952358</v>
+        <v>31.56567311152346</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.88023437067066</v>
+        <v>38.34836688284405</v>
       </c>
       <c r="C7" t="n">
-        <v>37.20676548178709</v>
+        <v>36.9641429678003</v>
       </c>
       <c r="D7" t="n">
-        <v>37.87056518374899</v>
+        <v>37.91732678417189</v>
       </c>
       <c r="E7" t="n">
-        <v>29.37030201189024</v>
+        <v>29.59522378834351</v>
       </c>
       <c r="F7" t="n">
-        <v>35.60136045022786</v>
+        <v>35.33580838633738</v>
       </c>
       <c r="G7" t="n">
-        <v>36.26103206177383</v>
+        <v>36.17999574169829</v>
       </c>
       <c r="H7" t="n">
-        <v>36.81664091342798</v>
+        <v>36.62226707484566</v>
       </c>
       <c r="I7" t="n">
-        <v>37.5541838857775</v>
+        <v>36.80293271033697</v>
       </c>
       <c r="J7" t="n">
-        <v>36.87716060425125</v>
+        <v>36.80023918115467</v>
       </c>
       <c r="K7" t="n">
-        <v>36.31083424275173</v>
+        <v>36.48651984195829</v>
       </c>
       <c r="L7" t="n">
-        <v>36.38452111730803</v>
+        <v>36.42420682082286</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.77521102009833</v>
+        <v>31.32387976572721</v>
       </c>
       <c r="C8" t="n">
-        <v>30.57994113334524</v>
+        <v>31.32684449475386</v>
       </c>
       <c r="D8" t="n">
-        <v>29.95846983060295</v>
+        <v>31.18281354319768</v>
       </c>
       <c r="E8" t="n">
-        <v>28.87623692080384</v>
+        <v>28.89752945778979</v>
       </c>
       <c r="F8" t="n">
-        <v>29.25253401005119</v>
+        <v>29.70933372795886</v>
       </c>
       <c r="G8" t="n">
-        <v>31.67723944792442</v>
+        <v>33.05765507684085</v>
       </c>
       <c r="H8" t="n">
-        <v>30.82296212947565</v>
+        <v>31.79136884339988</v>
       </c>
       <c r="I8" t="n">
-        <v>31.14115923086194</v>
+        <v>32.6027892365847</v>
       </c>
       <c r="J8" t="n">
-        <v>30.66223282862353</v>
+        <v>32.15373561449506</v>
       </c>
       <c r="K8" t="n">
-        <v>31.35470150443151</v>
+        <v>32.55045831131863</v>
       </c>
       <c r="L8" t="n">
-        <v>30.80276668796933</v>
+        <v>32.007646736898</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29.59133891109489</v>
+        <v>30.77502828278142</v>
       </c>
       <c r="C9" t="n">
-        <v>29.5671830259148</v>
+        <v>30.75685028840833</v>
       </c>
       <c r="D9" t="n">
-        <v>29.4429591225386</v>
+        <v>30.5886105707252</v>
       </c>
       <c r="E9" t="n">
-        <v>28.70080234788449</v>
+        <v>28.84859087407143</v>
       </c>
       <c r="F9" t="n">
-        <v>28.88486789907799</v>
+        <v>29.23578126154763</v>
       </c>
       <c r="G9" t="n">
-        <v>31.05166506404721</v>
+        <v>32.80190668382255</v>
       </c>
       <c r="H9" t="n">
-        <v>30.32694895762929</v>
+        <v>31.46621425757317</v>
       </c>
       <c r="I9" t="n">
-        <v>30.17928948971747</v>
+        <v>32.05008255941007</v>
       </c>
       <c r="J9" t="n">
-        <v>29.7948299573239</v>
+        <v>31.05062521320304</v>
       </c>
       <c r="K9" t="n">
-        <v>30.74195914201766</v>
+        <v>32.1633397801623</v>
       </c>
       <c r="L9" t="n">
-        <v>29.93888290677283</v>
+        <v>31.44345269329259</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.22704051867619</v>
+        <v>30.52880047375284</v>
       </c>
       <c r="C10" t="n">
-        <v>29.2870952740707</v>
+        <v>30.71457516188383</v>
       </c>
       <c r="D10" t="n">
-        <v>29.29907591944021</v>
+        <v>30.45731623878408</v>
       </c>
       <c r="E10" t="n">
-        <v>28.61405769202415</v>
+        <v>28.84673689388033</v>
       </c>
       <c r="F10" t="n">
-        <v>28.74321056409836</v>
+        <v>29.04228200255979</v>
       </c>
       <c r="G10" t="n">
-        <v>30.54585372350462</v>
+        <v>32.77504219735286</v>
       </c>
       <c r="H10" t="n">
-        <v>30.14110860743404</v>
+        <v>31.40671718171612</v>
       </c>
       <c r="I10" t="n">
-        <v>29.77471834104167</v>
+        <v>31.93259901087628</v>
       </c>
       <c r="J10" t="n">
-        <v>29.30140330667827</v>
+        <v>30.79051266943524</v>
       </c>
       <c r="K10" t="n">
-        <v>30.41098657373102</v>
+        <v>32.06434561664266</v>
       </c>
       <c r="L10" t="n">
-        <v>29.61577542424573</v>
+        <v>31.29237213475173</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.04815063971401</v>
+        <v>30.48405804532776</v>
       </c>
       <c r="C11" t="n">
-        <v>29.08680656955257</v>
+        <v>30.70554295116131</v>
       </c>
       <c r="D11" t="n">
-        <v>29.11531269173366</v>
+        <v>30.37751451794804</v>
       </c>
       <c r="E11" t="n">
-        <v>28.55517056266504</v>
+        <v>28.84693675271209</v>
       </c>
       <c r="F11" t="n">
-        <v>28.65501849416134</v>
+        <v>29.01616888349368</v>
       </c>
       <c r="G11" t="n">
-        <v>30.25069529101954</v>
+        <v>32.77723416275372</v>
       </c>
       <c r="H11" t="n">
-        <v>29.94448669239613</v>
+        <v>31.40903129487171</v>
       </c>
       <c r="I11" t="n">
-        <v>29.58907060874047</v>
+        <v>31.94529397048383</v>
       </c>
       <c r="J11" t="n">
-        <v>28.99226830264187</v>
+        <v>30.76824564257958</v>
       </c>
       <c r="K11" t="n">
-        <v>30.24188759200406</v>
+        <v>32.03451141943737</v>
       </c>
       <c r="L11" t="n">
-        <v>29.40901050566309</v>
+        <v>31.25524212902255</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.62999352204768</v>
+        <v>41.4140597905824</v>
       </c>
       <c r="C12" t="n">
-        <v>41.41188687892635</v>
+        <v>40.40622243923966</v>
       </c>
       <c r="D12" t="n">
-        <v>42.13734225512724</v>
+        <v>41.97301516771167</v>
       </c>
       <c r="E12" t="n">
-        <v>30.01966874029556</v>
+        <v>29.50878399953032</v>
       </c>
       <c r="F12" t="n">
-        <v>35.8365824835735</v>
+        <v>34.3601816386218</v>
       </c>
       <c r="G12" t="n">
-        <v>39.60835272906975</v>
+        <v>39.82578544352113</v>
       </c>
       <c r="H12" t="n">
-        <v>42.33687223829861</v>
+        <v>40.63353855915289</v>
       </c>
       <c r="I12" t="n">
-        <v>41.81701750031199</v>
+        <v>40.99295261864729</v>
       </c>
       <c r="J12" t="n">
-        <v>40.98187406339061</v>
+        <v>40.52353519111481</v>
       </c>
       <c r="K12" t="n">
-        <v>38.46172028221521</v>
+        <v>39.04424060513734</v>
       </c>
       <c r="L12" t="n">
-        <v>39.69770501865513</v>
+        <v>39.67687054953793</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.02012102372486</v>
+        <v>30.34676812849122</v>
       </c>
       <c r="C13" t="n">
-        <v>30.61550403620598</v>
+        <v>30.4650918006847</v>
       </c>
       <c r="D13" t="n">
-        <v>29.80868001587865</v>
+        <v>30.29200412039863</v>
       </c>
       <c r="E13" t="n">
-        <v>28.88162373295053</v>
+        <v>28.74217486611993</v>
       </c>
       <c r="F13" t="n">
-        <v>29.1911470518578</v>
+        <v>29.32234812853709</v>
       </c>
       <c r="G13" t="n">
-        <v>31.77255467470302</v>
+        <v>32.06549491838015</v>
       </c>
       <c r="H13" t="n">
-        <v>30.89738374136079</v>
+        <v>30.98908598631026</v>
       </c>
       <c r="I13" t="n">
-        <v>31.38900339742634</v>
+        <v>31.22987617239096</v>
       </c>
       <c r="J13" t="n">
-        <v>30.8119446227102</v>
+        <v>31.09456326326534</v>
       </c>
       <c r="K13" t="n">
-        <v>31.53390894505212</v>
+        <v>31.76006670396955</v>
       </c>
       <c r="L13" t="n">
-        <v>30.97914458621313</v>
+        <v>31.16811076058375</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.68469475017899</v>
+        <v>29.65658468945865</v>
       </c>
       <c r="C14" t="n">
-        <v>29.60106355451888</v>
+        <v>29.7770431383368</v>
       </c>
       <c r="D14" t="n">
-        <v>29.3779605222957</v>
+        <v>29.85314075037211</v>
       </c>
       <c r="E14" t="n">
-        <v>28.68131520913693</v>
+        <v>28.59883420320963</v>
       </c>
       <c r="F14" t="n">
-        <v>28.82064837531505</v>
+        <v>28.86580450107036</v>
       </c>
       <c r="G14" t="n">
-        <v>31.00076038671917</v>
+        <v>31.55426522054105</v>
       </c>
       <c r="H14" t="n">
-        <v>30.25704194447242</v>
+        <v>30.62819311714747</v>
       </c>
       <c r="I14" t="n">
-        <v>30.29296451201208</v>
+        <v>30.49479990258371</v>
       </c>
       <c r="J14" t="n">
-        <v>29.72828079886295</v>
+        <v>30.10558944989625</v>
       </c>
       <c r="K14" t="n">
-        <v>30.72658516081275</v>
+        <v>31.1901233238186</v>
       </c>
       <c r="L14" t="n">
-        <v>29.97330835885637</v>
+        <v>30.49129392999638</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>29.24051768702742</v>
+        <v>29.30863544333102</v>
       </c>
       <c r="C15" t="n">
-        <v>29.38891176818169</v>
+        <v>29.66728730418762</v>
       </c>
       <c r="D15" t="n">
-        <v>29.23266003373487</v>
+        <v>29.57138681459293</v>
       </c>
       <c r="E15" t="n">
-        <v>28.57387312075877</v>
+        <v>28.54798036910877</v>
       </c>
       <c r="F15" t="n">
-        <v>28.70781109951545</v>
+        <v>28.69423492101904</v>
       </c>
       <c r="G15" t="n">
-        <v>30.55740084253946</v>
+        <v>31.43651562687982</v>
       </c>
       <c r="H15" t="n">
-        <v>29.98469377844037</v>
+        <v>30.34599662226987</v>
       </c>
       <c r="I15" t="n">
-        <v>29.73755744962398</v>
+        <v>30.28528078930386</v>
       </c>
       <c r="J15" t="n">
-        <v>29.23635200978607</v>
+        <v>29.70755957914728</v>
       </c>
       <c r="K15" t="n">
-        <v>30.45000670198878</v>
+        <v>31.17122323255354</v>
       </c>
       <c r="L15" t="n">
-        <v>29.57065097317334</v>
+        <v>30.17839319548889</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.99649334911846</v>
+        <v>29.21931021302446</v>
       </c>
       <c r="C16" t="n">
-        <v>29.22161141872402</v>
+        <v>29.53133466319095</v>
       </c>
       <c r="D16" t="n">
-        <v>29.1662914715512</v>
+        <v>29.53109954899417</v>
       </c>
       <c r="E16" t="n">
-        <v>28.49411814435769</v>
+        <v>28.51121434362536</v>
       </c>
       <c r="F16" t="n">
-        <v>28.5955502207792</v>
+        <v>28.63755975747318</v>
       </c>
       <c r="G16" t="n">
-        <v>30.24890555662077</v>
+        <v>31.36406422844609</v>
       </c>
       <c r="H16" t="n">
-        <v>29.90386088534395</v>
+        <v>30.1343666189076</v>
       </c>
       <c r="I16" t="n">
-        <v>29.3713165910388</v>
+        <v>30.14924468674501</v>
       </c>
       <c r="J16" t="n">
-        <v>28.98236696081148</v>
+        <v>29.60808826638068</v>
       </c>
       <c r="K16" t="n">
-        <v>30.25504424436803</v>
+        <v>30.9832771481867</v>
       </c>
       <c r="L16" t="n">
-        <v>29.37931897439211</v>
+        <v>30.02653349611368</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>43.55356243144656</v>
+        <v>41.35646574983423</v>
       </c>
       <c r="C17" t="n">
-        <v>41.91968259237648</v>
+        <v>40.95073468208753</v>
       </c>
       <c r="D17" t="n">
-        <v>42.12377670532777</v>
+        <v>42.1250731712767</v>
       </c>
       <c r="E17" t="n">
-        <v>30.64471469295862</v>
+        <v>29.69012637977267</v>
       </c>
       <c r="F17" t="n">
-        <v>35.24289971627893</v>
+        <v>34.48392957709851</v>
       </c>
       <c r="G17" t="n">
-        <v>40.15071208833898</v>
+        <v>39.32623192924321</v>
       </c>
       <c r="H17" t="n">
-        <v>40.83605310039765</v>
+        <v>39.51205828091072</v>
       </c>
       <c r="I17" t="n">
-        <v>42.39287723772107</v>
+        <v>41.35801196839495</v>
       </c>
       <c r="J17" t="n">
-        <v>41.69935638888237</v>
+        <v>40.6332084029971</v>
       </c>
       <c r="K17" t="n">
-        <v>38.62627197654326</v>
+        <v>38.17117564089789</v>
       </c>
       <c r="L17" t="n">
-        <v>39.84675818973719</v>
+        <v>39.4508297984407</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>30.96328196686442</v>
+        <v>30.61056896246352</v>
       </c>
       <c r="C18" t="n">
-        <v>30.66798285523879</v>
+        <v>30.67053426132411</v>
       </c>
       <c r="D18" t="n">
-        <v>29.7545424392903</v>
+        <v>30.44152582987442</v>
       </c>
       <c r="E18" t="n">
-        <v>28.86517409021451</v>
+        <v>28.78251677276821</v>
       </c>
       <c r="F18" t="n">
-        <v>29.1439450262894</v>
+        <v>29.40121207955835</v>
       </c>
       <c r="G18" t="n">
-        <v>31.72879584816677</v>
+        <v>32.07044974169183</v>
       </c>
       <c r="H18" t="n">
-        <v>30.90105291751401</v>
+        <v>31.00342259428974</v>
       </c>
       <c r="I18" t="n">
-        <v>31.40757954503958</v>
+        <v>31.52854565785281</v>
       </c>
       <c r="J18" t="n">
-        <v>30.82023344357177</v>
+        <v>31.39788922256479</v>
       </c>
       <c r="K18" t="n">
-        <v>31.5792025752174</v>
+        <v>31.88984453702611</v>
       </c>
       <c r="L18" t="n">
-        <v>30.94835685722669</v>
+        <v>31.31297719552389</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.68785095435877</v>
+        <v>29.6815124263355</v>
       </c>
       <c r="C19" t="n">
-        <v>29.60730894007192</v>
+        <v>29.82572474316786</v>
       </c>
       <c r="D19" t="n">
-        <v>29.41376814904155</v>
+        <v>29.78793164708074</v>
       </c>
       <c r="E19" t="n">
-        <v>28.677913227026</v>
+        <v>28.5936245910289</v>
       </c>
       <c r="F19" t="n">
-        <v>28.80615719759836</v>
+        <v>28.93539516815512</v>
       </c>
       <c r="G19" t="n">
-        <v>30.80170997967102</v>
+        <v>31.51799647136732</v>
       </c>
       <c r="H19" t="n">
-        <v>30.20625080046598</v>
+        <v>30.56936447149091</v>
       </c>
       <c r="I19" t="n">
-        <v>30.28466485026271</v>
+        <v>30.52265117602725</v>
       </c>
       <c r="J19" t="n">
-        <v>29.77635582888481</v>
+        <v>30.17702999353089</v>
       </c>
       <c r="K19" t="n">
-        <v>30.62837802366922</v>
+        <v>31.34420049628643</v>
       </c>
       <c r="L19" t="n">
-        <v>29.99166896952273</v>
+        <v>30.55207880424722</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.17095288453935</v>
+        <v>29.38889760259811</v>
       </c>
       <c r="C20" t="n">
-        <v>29.25575799569661</v>
+        <v>29.55689883738145</v>
       </c>
       <c r="D20" t="n">
-        <v>29.17987391689896</v>
+        <v>29.63659841042248</v>
       </c>
       <c r="E20" t="n">
-        <v>28.56042786563365</v>
+        <v>28.48602021942743</v>
       </c>
       <c r="F20" t="n">
-        <v>28.65984756467504</v>
+        <v>28.71346990678308</v>
       </c>
       <c r="G20" t="n">
-        <v>30.44671741005169</v>
+        <v>31.2998372064253</v>
       </c>
       <c r="H20" t="n">
-        <v>29.96433750126331</v>
+        <v>30.3141777143679</v>
       </c>
       <c r="I20" t="n">
-        <v>29.64054440856938</v>
+        <v>30.23286330796385</v>
       </c>
       <c r="J20" t="n">
-        <v>29.17035425385064</v>
+        <v>29.76629098616059</v>
       </c>
       <c r="K20" t="n">
-        <v>30.34691052444955</v>
+        <v>31.18572098184393</v>
       </c>
       <c r="L20" t="n">
-        <v>29.61786359519138</v>
+        <v>30.18299450628059</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>28.92628701624822</v>
+        <v>29.26420641946903</v>
       </c>
       <c r="C21" t="n">
-        <v>29.08398553376173</v>
+        <v>29.47276912994603</v>
       </c>
       <c r="D21" t="n">
-        <v>29.10297137726892</v>
+        <v>29.5097554421529</v>
       </c>
       <c r="E21" t="n">
-        <v>28.48705197822633</v>
+        <v>28.41671277798947</v>
       </c>
       <c r="F21" t="n">
-        <v>28.56627206621199</v>
+        <v>28.63310930501427</v>
       </c>
       <c r="G21" t="n">
-        <v>29.98309562595104</v>
+        <v>31.3159013734943</v>
       </c>
       <c r="H21" t="n">
-        <v>29.79882319911327</v>
+        <v>29.99986079085738</v>
       </c>
       <c r="I21" t="n">
-        <v>29.24123817030233</v>
+        <v>30.19947209072178</v>
       </c>
       <c r="J21" t="n">
-        <v>28.9123431577249</v>
+        <v>29.58364114177527</v>
       </c>
       <c r="K21" t="n">
-        <v>30.21716507493394</v>
+        <v>31.0617154975931</v>
       </c>
       <c r="L21" t="n">
-        <v>29.30965679780932</v>
+        <v>30.04108003755785</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>43.83473057245337</v>
+        <v>44.17553902955979</v>
       </c>
       <c r="C22" t="n">
-        <v>41.18910741492713</v>
+        <v>43.84731682418905</v>
       </c>
       <c r="D22" t="n">
-        <v>43.35872966188936</v>
+        <v>45.45330872731385</v>
       </c>
       <c r="E22" t="n">
-        <v>29.21594576655898</v>
+        <v>29.54729658028574</v>
       </c>
       <c r="F22" t="n">
-        <v>35.71074574627199</v>
+        <v>35.68139857884374</v>
       </c>
       <c r="G22" t="n">
-        <v>40.24966000490132</v>
+        <v>40.47459412614199</v>
       </c>
       <c r="H22" t="n">
-        <v>42.30225832841405</v>
+        <v>42.30237954274071</v>
       </c>
       <c r="I22" t="n">
-        <v>44.23787709393189</v>
+        <v>44.76071651461112</v>
       </c>
       <c r="J22" t="n">
-        <v>42.28644293727398</v>
+        <v>42.50946205683996</v>
       </c>
       <c r="K22" t="n">
-        <v>38.11309317765504</v>
+        <v>39.44691600604941</v>
       </c>
       <c r="L22" t="n">
-        <v>43.85805628045802</v>
+        <v>45.90102546750501</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.06640941575451</v>
+        <v>30.35463338750656</v>
       </c>
       <c r="C23" t="n">
-        <v>30.6290435167497</v>
+        <v>30.35401306262228</v>
       </c>
       <c r="D23" t="n">
-        <v>29.81456248092254</v>
+        <v>30.08594662450695</v>
       </c>
       <c r="E23" t="n">
-        <v>28.88796873903487</v>
+        <v>28.70368240911789</v>
       </c>
       <c r="F23" t="n">
-        <v>29.16506993004144</v>
+        <v>29.20413638454789</v>
       </c>
       <c r="G23" t="n">
-        <v>31.67648976005439</v>
+        <v>31.92455151183707</v>
       </c>
       <c r="H23" t="n">
-        <v>30.74936926762446</v>
+        <v>31.0132524868565</v>
       </c>
       <c r="I23" t="n">
-        <v>31.53836816678181</v>
+        <v>31.18043629824348</v>
       </c>
       <c r="J23" t="n">
-        <v>30.84316529724912</v>
+        <v>31.0125395954359</v>
       </c>
       <c r="K23" t="n">
-        <v>31.58055446968681</v>
+        <v>31.82670519825667</v>
       </c>
       <c r="L23" t="n">
-        <v>31.01642588711266</v>
+        <v>31.30750241722968</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>29.76706846373682</v>
+        <v>29.65033485044689</v>
       </c>
       <c r="C24" t="n">
-        <v>29.55036801324124</v>
+        <v>29.72819655649619</v>
       </c>
       <c r="D24" t="n">
-        <v>29.2740161884963</v>
+        <v>29.62482394708389</v>
       </c>
       <c r="E24" t="n">
-        <v>28.66309327725725</v>
+        <v>28.5078461284737</v>
       </c>
       <c r="F24" t="n">
-        <v>28.82231446436357</v>
+        <v>28.80573935616913</v>
       </c>
       <c r="G24" t="n">
-        <v>30.75817037964156</v>
+        <v>31.39721294620831</v>
       </c>
       <c r="H24" t="n">
-        <v>30.15600137849859</v>
+        <v>30.50757134793432</v>
       </c>
       <c r="I24" t="n">
-        <v>30.24780056424542</v>
+        <v>30.48736434990148</v>
       </c>
       <c r="J24" t="n">
-        <v>29.75213916867893</v>
+        <v>30.07137567107401</v>
       </c>
       <c r="K24" t="n">
-        <v>30.64867010726994</v>
+        <v>31.31732003309957</v>
       </c>
       <c r="L24" t="n">
-        <v>30.10951532084459</v>
+        <v>30.47094994320373</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.26321805921692</v>
+        <v>29.32134601321707</v>
       </c>
       <c r="C25" t="n">
-        <v>29.20220187442897</v>
+        <v>29.49339758933859</v>
       </c>
       <c r="D25" t="n">
-        <v>29.15224579102188</v>
+        <v>29.54428833787886</v>
       </c>
       <c r="E25" t="n">
-        <v>28.57172620300053</v>
+        <v>28.41851355426291</v>
       </c>
       <c r="F25" t="n">
-        <v>28.6410260324787</v>
+        <v>28.63945486794247</v>
       </c>
       <c r="G25" t="n">
-        <v>30.33674812081325</v>
+        <v>31.29669028523207</v>
       </c>
       <c r="H25" t="n">
-        <v>29.94401784105465</v>
+        <v>30.32813142811355</v>
       </c>
       <c r="I25" t="n">
-        <v>29.7066907560175</v>
+        <v>30.29343006768564</v>
       </c>
       <c r="J25" t="n">
-        <v>29.28785639607007</v>
+        <v>29.67077379685017</v>
       </c>
       <c r="K25" t="n">
-        <v>30.35804731242337</v>
+        <v>31.18991556586331</v>
       </c>
       <c r="L25" t="n">
-        <v>29.60806312463937</v>
+        <v>30.14867305124344</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>28.98474116040408</v>
+        <v>29.28552847466469</v>
       </c>
       <c r="C26" t="n">
-        <v>28.9457734501336</v>
+        <v>29.38009024845026</v>
       </c>
       <c r="D26" t="n">
-        <v>29.01888033920972</v>
+        <v>29.42765167419541</v>
       </c>
       <c r="E26" t="n">
-        <v>28.48144624879775</v>
+        <v>28.37002288548666</v>
       </c>
       <c r="F26" t="n">
-        <v>28.58584523556557</v>
+        <v>28.59120300495419</v>
       </c>
       <c r="G26" t="n">
-        <v>29.84184401767234</v>
+        <v>31.24089054106295</v>
       </c>
       <c r="H26" t="n">
-        <v>29.77882290400906</v>
+        <v>30.13374964338601</v>
       </c>
       <c r="I26" t="n">
-        <v>29.3798190058757</v>
+        <v>30.17585823667456</v>
       </c>
       <c r="J26" t="n">
-        <v>28.95984448117159</v>
+        <v>29.54612667736926</v>
       </c>
       <c r="K26" t="n">
-        <v>30.0694128863997</v>
+        <v>31.04799229761502</v>
       </c>
       <c r="L26" t="n">
-        <v>29.32447561117669</v>
+        <v>30.01705309725802</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>43.17531111466074</v>
+        <v>41.77703269667931</v>
       </c>
       <c r="C27" t="n">
-        <v>43.04712181114135</v>
+        <v>41.93752542787918</v>
       </c>
       <c r="D27" t="n">
-        <v>42.47035367395746</v>
+        <v>41.2881624689294</v>
       </c>
       <c r="E27" t="n">
-        <v>29.43005348357521</v>
+        <v>29.62156514728662</v>
       </c>
       <c r="F27" t="n">
-        <v>34.31517492032241</v>
+        <v>34.4734742455995</v>
       </c>
       <c r="G27" t="n">
-        <v>39.33835268138682</v>
+        <v>39.8688016146012</v>
       </c>
       <c r="H27" t="n">
-        <v>41.91355067051704</v>
+        <v>41.66654914815385</v>
       </c>
       <c r="I27" t="n">
-        <v>42.88250434246357</v>
+        <v>42.79223096839668</v>
       </c>
       <c r="J27" t="n">
-        <v>40.67824633149225</v>
+        <v>41.57752428969945</v>
       </c>
       <c r="K27" t="n">
-        <v>38.71649033559589</v>
+        <v>39.93720810208668</v>
       </c>
       <c r="L27" t="n">
-        <v>41.45605176675338</v>
+        <v>40.7242498559992</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.0332934272302</v>
+        <v>30.67982757456372</v>
       </c>
       <c r="C28" t="n">
-        <v>30.73391839512469</v>
+        <v>30.71647135838656</v>
       </c>
       <c r="D28" t="n">
-        <v>29.72812380303991</v>
+        <v>30.46518027805913</v>
       </c>
       <c r="E28" t="n">
-        <v>28.87513105988628</v>
+        <v>28.80077381845978</v>
       </c>
       <c r="F28" t="n">
-        <v>29.10847485520353</v>
+        <v>29.39352933247739</v>
       </c>
       <c r="G28" t="n">
-        <v>31.55271019614183</v>
+        <v>32.06593274953789</v>
       </c>
       <c r="H28" t="n">
-        <v>30.9448463979462</v>
+        <v>31.12264477703913</v>
       </c>
       <c r="I28" t="n">
-        <v>31.31308336942462</v>
+        <v>31.47153253516978</v>
       </c>
       <c r="J28" t="n">
-        <v>30.74210905840737</v>
+        <v>31.4062367561667</v>
       </c>
       <c r="K28" t="n">
-        <v>31.3992322456044</v>
+        <v>31.87117211669568</v>
       </c>
       <c r="L28" t="n">
-        <v>30.86185934844604</v>
+        <v>31.42450775629414</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.71436279219485</v>
+        <v>29.70162322797629</v>
       </c>
       <c r="C29" t="n">
-        <v>29.62455006707026</v>
+        <v>29.82605077276625</v>
       </c>
       <c r="D29" t="n">
-        <v>29.25511923113111</v>
+        <v>29.79819566884635</v>
       </c>
       <c r="E29" t="n">
-        <v>28.66313578825899</v>
+        <v>28.58996887117695</v>
       </c>
       <c r="F29" t="n">
-        <v>28.76842949831053</v>
+        <v>28.90385124386981</v>
       </c>
       <c r="G29" t="n">
-        <v>30.62104550974862</v>
+        <v>31.50385488424643</v>
       </c>
       <c r="H29" t="n">
-        <v>30.06363016142862</v>
+        <v>30.6139366453196</v>
       </c>
       <c r="I29" t="n">
-        <v>30.17132808349134</v>
+        <v>30.59033346082736</v>
       </c>
       <c r="J29" t="n">
-        <v>29.69372196068246</v>
+        <v>30.10780162512354</v>
       </c>
       <c r="K29" t="n">
-        <v>30.60465192421275</v>
+        <v>31.37882798290866</v>
       </c>
       <c r="L29" t="n">
-        <v>29.90883878971954</v>
+        <v>30.59270179907161</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29.1997973444189</v>
+        <v>29.38778928892249</v>
       </c>
       <c r="C30" t="n">
-        <v>29.16235601592019</v>
+        <v>29.58290599868642</v>
       </c>
       <c r="D30" t="n">
-        <v>29.04429948726857</v>
+        <v>29.59076476838804</v>
       </c>
       <c r="E30" t="n">
-        <v>28.54898755312713</v>
+        <v>28.4875783811208</v>
       </c>
       <c r="F30" t="n">
-        <v>28.64554709199948</v>
+        <v>28.68659537053066</v>
       </c>
       <c r="G30" t="n">
-        <v>30.3247958421327</v>
+        <v>31.35087053383202</v>
       </c>
       <c r="H30" t="n">
-        <v>29.84505854328592</v>
+        <v>30.36730805967406</v>
       </c>
       <c r="I30" t="n">
-        <v>29.73658860820832</v>
+        <v>30.31521315539933</v>
       </c>
       <c r="J30" t="n">
-        <v>29.23528023590913</v>
+        <v>29.71682830904627</v>
       </c>
       <c r="K30" t="n">
-        <v>30.13848483621472</v>
+        <v>31.18809174362318</v>
       </c>
       <c r="L30" t="n">
-        <v>29.46147500693698</v>
+        <v>30.22597855169133</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>28.95451643821865</v>
+        <v>29.33153922446496</v>
       </c>
       <c r="C31" t="n">
-        <v>28.94532257329661</v>
+        <v>29.4252181592802</v>
       </c>
       <c r="D31" t="n">
-        <v>28.9325647515648</v>
+        <v>29.56199366260338</v>
       </c>
       <c r="E31" t="n">
-        <v>28.4575104579607</v>
+        <v>28.42449713722933</v>
       </c>
       <c r="F31" t="n">
-        <v>28.56251723590432</v>
+        <v>28.61272523050523</v>
       </c>
       <c r="G31" t="n">
-        <v>29.84049894851451</v>
+        <v>31.30930682951231</v>
       </c>
       <c r="H31" t="n">
-        <v>29.72699245218885</v>
+        <v>30.15753447051636</v>
       </c>
       <c r="I31" t="n">
-        <v>29.43713797577092</v>
+        <v>30.17811075246417</v>
       </c>
       <c r="J31" t="n">
-        <v>28.89989608280418</v>
+        <v>29.5359489531054</v>
       </c>
       <c r="K31" t="n">
-        <v>29.95063070441715</v>
+        <v>31.03216619477457</v>
       </c>
       <c r="L31" t="n">
-        <v>29.24378734725228</v>
+        <v>30.10080339483711</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>33.36562785930246</v>
+        <v>33.38089762313446</v>
       </c>
       <c r="C32" t="n">
-        <v>33.77574531250357</v>
+        <v>33.94578844470686</v>
       </c>
       <c r="D32" t="n">
-        <v>33.48605604611868</v>
+        <v>33.32520409744352</v>
       </c>
       <c r="E32" t="n">
-        <v>29.60285749726442</v>
+        <v>29.50498655892655</v>
       </c>
       <c r="F32" t="n">
-        <v>34.19568752835097</v>
+        <v>33.83832873743204</v>
       </c>
       <c r="G32" t="n">
-        <v>32.70418337295838</v>
+        <v>32.71412920779206</v>
       </c>
       <c r="H32" t="n">
-        <v>33.60461759129969</v>
+        <v>33.57301080571153</v>
       </c>
       <c r="I32" t="n">
-        <v>33.3343567353403</v>
+        <v>33.1862346026037</v>
       </c>
       <c r="J32" t="n">
-        <v>33.03145977844309</v>
+        <v>33.06516826566842</v>
       </c>
       <c r="K32" t="n">
-        <v>33.6432041665386</v>
+        <v>33.38253170307175</v>
       </c>
       <c r="L32" t="n">
-        <v>33.63495192565837</v>
+        <v>33.54653699043455</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>30.14521741929048</v>
+        <v>29.82008527094166</v>
       </c>
       <c r="C33" t="n">
-        <v>29.98799246165074</v>
+        <v>29.79787853300285</v>
       </c>
       <c r="D33" t="n">
-        <v>29.41982642084882</v>
+        <v>29.90565351024113</v>
       </c>
       <c r="E33" t="n">
-        <v>28.89215704558274</v>
+        <v>28.72597121440724</v>
       </c>
       <c r="F33" t="n">
-        <v>29.09750446173172</v>
+        <v>29.28787715581146</v>
       </c>
       <c r="G33" t="n">
-        <v>30.7849803778627</v>
+        <v>30.97968855662245</v>
       </c>
       <c r="H33" t="n">
-        <v>30.18518053507213</v>
+        <v>30.29015915112299</v>
       </c>
       <c r="I33" t="n">
-        <v>30.22159638915353</v>
+        <v>30.20466302707962</v>
       </c>
       <c r="J33" t="n">
-        <v>29.88747347052934</v>
+        <v>30.14962124791314</v>
       </c>
       <c r="K33" t="n">
-        <v>30.45991447697863</v>
+        <v>30.43752603438649</v>
       </c>
       <c r="L33" t="n">
-        <v>30.11730652746681</v>
+        <v>30.38714222972226</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.32893890471573</v>
+        <v>29.37827315828148</v>
       </c>
       <c r="C34" t="n">
-        <v>29.12609049615968</v>
+        <v>29.31914382847562</v>
       </c>
       <c r="D34" t="n">
-        <v>29.19814309552659</v>
+        <v>29.56487843766095</v>
       </c>
       <c r="E34" t="n">
-        <v>28.65518168218432</v>
+        <v>28.58832237085968</v>
       </c>
       <c r="F34" t="n">
-        <v>28.76361316411903</v>
+        <v>28.82596721840446</v>
       </c>
       <c r="G34" t="n">
-        <v>30.15925204946391</v>
+        <v>30.69949518156182</v>
       </c>
       <c r="H34" t="n">
-        <v>29.61607953681326</v>
+        <v>30.10131451850919</v>
       </c>
       <c r="I34" t="n">
-        <v>29.56339249311694</v>
+        <v>29.75667144577083</v>
       </c>
       <c r="J34" t="n">
-        <v>29.24532373915834</v>
+        <v>29.52114404298359</v>
       </c>
       <c r="K34" t="n">
-        <v>29.78922363912082</v>
+        <v>30.10094212245743</v>
       </c>
       <c r="L34" t="n">
-        <v>29.42734439563056</v>
+        <v>29.8922278189395</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>28.9613526213912</v>
+        <v>29.14355112340969</v>
       </c>
       <c r="C35" t="n">
-        <v>28.91766257301312</v>
+        <v>29.21093329688267</v>
       </c>
       <c r="D35" t="n">
-        <v>28.99458405043379</v>
+        <v>29.35222858413207</v>
       </c>
       <c r="E35" t="n">
-        <v>28.53353816724385</v>
+        <v>28.51104544586367</v>
       </c>
       <c r="F35" t="n">
-        <v>28.61247311413072</v>
+        <v>28.65575709506914</v>
       </c>
       <c r="G35" t="n">
-        <v>29.82517456253268</v>
+        <v>30.58701085599624</v>
       </c>
       <c r="H35" t="n">
-        <v>29.40300992725557</v>
+        <v>29.97290120312662</v>
       </c>
       <c r="I35" t="n">
-        <v>29.29857035689902</v>
+        <v>29.54742674199813</v>
       </c>
       <c r="J35" t="n">
-        <v>28.94283000528307</v>
+        <v>29.28471157666946</v>
       </c>
       <c r="K35" t="n">
-        <v>29.50631484203391</v>
+        <v>30.03246516484075</v>
       </c>
       <c r="L35" t="n">
-        <v>29.1600095555226</v>
+        <v>29.7087945216131</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28.76745011261971</v>
+        <v>29.10089207393678</v>
       </c>
       <c r="C36" t="n">
-        <v>28.72934070973494</v>
+        <v>29.06556553620118</v>
       </c>
       <c r="D36" t="n">
-        <v>28.89379175042212</v>
+        <v>29.26964082624498</v>
       </c>
       <c r="E36" t="n">
-        <v>28.46491029931804</v>
+        <v>28.453944111489</v>
       </c>
       <c r="F36" t="n">
-        <v>28.54692473641486</v>
+        <v>28.61874204676232</v>
       </c>
       <c r="G36" t="n">
-        <v>29.55063265997671</v>
+        <v>30.55103623583684</v>
       </c>
       <c r="H36" t="n">
-        <v>29.2207153195113</v>
+        <v>29.78157920339676</v>
       </c>
       <c r="I36" t="n">
-        <v>29.0699563128999</v>
+        <v>29.46981137638459</v>
       </c>
       <c r="J36" t="n">
-        <v>28.66803726779392</v>
+        <v>29.17751291544491</v>
       </c>
       <c r="K36" t="n">
-        <v>29.36480342817058</v>
+        <v>29.99081463592584</v>
       </c>
       <c r="L36" t="n">
-        <v>28.94415083220856</v>
+        <v>29.63944783407072</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.24369194846871</v>
+        <v>34.26840721070916</v>
       </c>
       <c r="C37" t="n">
-        <v>34.48239886250897</v>
+        <v>34.30031368206213</v>
       </c>
       <c r="D37" t="n">
-        <v>34.01660995090293</v>
+        <v>33.99028095744035</v>
       </c>
       <c r="E37" t="n">
-        <v>29.40460103705843</v>
+        <v>29.56510409312122</v>
       </c>
       <c r="F37" t="n">
-        <v>34.89464977128402</v>
+        <v>34.84890907546301</v>
       </c>
       <c r="G37" t="n">
-        <v>33.29728863806123</v>
+        <v>33.28109668235835</v>
       </c>
       <c r="H37" t="n">
-        <v>33.97934240508474</v>
+        <v>34.14301678482618</v>
       </c>
       <c r="I37" t="n">
-        <v>33.87853221357278</v>
+        <v>33.8620966329347</v>
       </c>
       <c r="J37" t="n">
-        <v>33.69770570369204</v>
+        <v>33.77328333040098</v>
       </c>
       <c r="K37" t="n">
-        <v>33.75667170693563</v>
+        <v>33.88134105211103</v>
       </c>
       <c r="L37" t="n">
-        <v>34.10481339328243</v>
+        <v>34.13947311458833</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>30.36100209177483</v>
+        <v>29.96526448785869</v>
       </c>
       <c r="C38" t="n">
-        <v>30.20430730012895</v>
+        <v>30.13973916524514</v>
       </c>
       <c r="D38" t="n">
-        <v>29.52842636332683</v>
+        <v>30.10014006687031</v>
       </c>
       <c r="E38" t="n">
-        <v>28.89001897731289</v>
+        <v>28.7792683154216</v>
       </c>
       <c r="F38" t="n">
-        <v>29.11314833053651</v>
+        <v>29.42173190275696</v>
       </c>
       <c r="G38" t="n">
-        <v>30.97058921327036</v>
+        <v>31.12215386137319</v>
       </c>
       <c r="H38" t="n">
-        <v>30.3847118649299</v>
+        <v>30.46929419707549</v>
       </c>
       <c r="I38" t="n">
-        <v>30.38786870721177</v>
+        <v>30.5494711174925</v>
       </c>
       <c r="J38" t="n">
-        <v>30.04116028489657</v>
+        <v>30.38329793388943</v>
       </c>
       <c r="K38" t="n">
-        <v>30.50298390046213</v>
+        <v>30.91274549174555</v>
       </c>
       <c r="L38" t="n">
-        <v>30.12967056167898</v>
+        <v>30.55064982011383</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.40800375677455</v>
+        <v>29.42833687649345</v>
       </c>
       <c r="C39" t="n">
-        <v>29.32870925697546</v>
+        <v>29.50492790738142</v>
       </c>
       <c r="D39" t="n">
-        <v>29.22767260716848</v>
+        <v>29.59468974522466</v>
       </c>
       <c r="E39" t="n">
-        <v>28.64730294617993</v>
+        <v>28.59399062722497</v>
       </c>
       <c r="F39" t="n">
-        <v>28.77587083060755</v>
+        <v>28.92074082236618</v>
       </c>
       <c r="G39" t="n">
-        <v>30.15438751493632</v>
+        <v>30.84083078735457</v>
       </c>
       <c r="H39" t="n">
-        <v>29.86854453674166</v>
+        <v>30.19061102656801</v>
       </c>
       <c r="I39" t="n">
-        <v>29.64233854742771</v>
+        <v>29.95830731736132</v>
       </c>
       <c r="J39" t="n">
-        <v>29.3525736139905</v>
+        <v>29.68196040651765</v>
       </c>
       <c r="K39" t="n">
-        <v>29.8196472562678</v>
+        <v>30.40211637888216</v>
       </c>
       <c r="L39" t="n">
-        <v>29.48290464003711</v>
+        <v>30.00786695841192</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.08935839033372</v>
+        <v>29.16315358022987</v>
       </c>
       <c r="C40" t="n">
-        <v>29.0188405004195</v>
+        <v>29.20903355692144</v>
       </c>
       <c r="D40" t="n">
-        <v>29.04480819669878</v>
+        <v>29.39796061637854</v>
       </c>
       <c r="E40" t="n">
-        <v>28.53130699082809</v>
+        <v>28.48975624847511</v>
       </c>
       <c r="F40" t="n">
-        <v>28.61037567352303</v>
+        <v>28.70962013901204</v>
       </c>
       <c r="G40" t="n">
-        <v>29.81958859694258</v>
+        <v>30.68572030037909</v>
       </c>
       <c r="H40" t="n">
-        <v>29.52391321086317</v>
+        <v>29.99072921180885</v>
       </c>
       <c r="I40" t="n">
-        <v>29.36280174777781</v>
+        <v>29.7174327317671</v>
       </c>
       <c r="J40" t="n">
-        <v>28.92577051474134</v>
+        <v>29.33756515988412</v>
       </c>
       <c r="K40" t="n">
-        <v>29.56834269901253</v>
+        <v>30.29120631747746</v>
       </c>
       <c r="L40" t="n">
-        <v>29.13992630057204</v>
+        <v>29.79524019918945</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>28.81954997632818</v>
+        <v>29.11728330844819</v>
       </c>
       <c r="C41" t="n">
-        <v>28.73419378625461</v>
+        <v>29.13122369769371</v>
       </c>
       <c r="D41" t="n">
-        <v>28.96636613705702</v>
+        <v>29.29518209242917</v>
       </c>
       <c r="E41" t="n">
-        <v>28.45318390770331</v>
+        <v>28.4097646253308</v>
       </c>
       <c r="F41" t="n">
-        <v>28.54212829611573</v>
+        <v>28.61202685590215</v>
       </c>
       <c r="G41" t="n">
-        <v>29.67119705036761</v>
+        <v>30.58766770620512</v>
       </c>
       <c r="H41" t="n">
-        <v>29.36925461887531</v>
+        <v>29.74988730966566</v>
       </c>
       <c r="I41" t="n">
-        <v>29.12175252032745</v>
+        <v>29.61900420897293</v>
       </c>
       <c r="J41" t="n">
-        <v>28.73621591604071</v>
+        <v>29.24300993795174</v>
       </c>
       <c r="K41" t="n">
-        <v>29.34100242704653</v>
+        <v>30.19520825160754</v>
       </c>
       <c r="L41" t="n">
-        <v>29.03508923755604</v>
+        <v>29.66535167739166</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34.02797781821597</v>
+        <v>33.76827375315251</v>
       </c>
       <c r="C42" t="n">
-        <v>34.26625921039945</v>
+        <v>33.97972713365971</v>
       </c>
       <c r="D42" t="n">
-        <v>33.79602399811659</v>
+        <v>33.58634222386294</v>
       </c>
       <c r="E42" t="n">
-        <v>32.03509064674914</v>
+        <v>29.70379855138175</v>
       </c>
       <c r="F42" t="n">
-        <v>37.00026292986084</v>
+        <v>34.25197985844943</v>
       </c>
       <c r="G42" t="n">
-        <v>33.12124840442799</v>
+        <v>33.06493502320068</v>
       </c>
       <c r="H42" t="n">
-        <v>33.98536948641229</v>
+        <v>33.79486398733055</v>
       </c>
       <c r="I42" t="n">
-        <v>33.40304098516435</v>
+        <v>33.39386728126017</v>
       </c>
       <c r="J42" t="n">
-        <v>33.50547334187791</v>
+        <v>33.38581948712252</v>
       </c>
       <c r="K42" t="n">
-        <v>33.7684339313269</v>
+        <v>33.69211711662226</v>
       </c>
       <c r="L42" t="n">
-        <v>33.79130529865811</v>
+        <v>33.81453567559432</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.1685599209641</v>
+        <v>29.61099544667375</v>
       </c>
       <c r="C43" t="n">
-        <v>30.06349055229757</v>
+        <v>29.64969644680103</v>
       </c>
       <c r="D43" t="n">
-        <v>29.47022541280447</v>
+        <v>29.50440417056153</v>
       </c>
       <c r="E43" t="n">
-        <v>28.86990548390591</v>
+        <v>28.68346883759691</v>
       </c>
       <c r="F43" t="n">
-        <v>29.07917987700146</v>
+        <v>29.09048236096764</v>
       </c>
       <c r="G43" t="n">
-        <v>30.83967574948986</v>
+        <v>30.62715919901831</v>
       </c>
       <c r="H43" t="n">
-        <v>30.17905690270826</v>
+        <v>30.19666461032657</v>
       </c>
       <c r="I43" t="n">
-        <v>30.28819408028413</v>
+        <v>29.97487656886102</v>
       </c>
       <c r="J43" t="n">
-        <v>29.95001409850895</v>
+        <v>29.8421869836158</v>
       </c>
       <c r="K43" t="n">
-        <v>30.33970607205631</v>
+        <v>30.3016339931979</v>
       </c>
       <c r="L43" t="n">
-        <v>30.05820422109045</v>
+        <v>30.11395944997463</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>29.37814598160572</v>
+        <v>29.0527335981377</v>
       </c>
       <c r="C44" t="n">
-        <v>29.18504662416526</v>
+        <v>29.03872313126313</v>
       </c>
       <c r="D44" t="n">
-        <v>29.20054755733174</v>
+        <v>29.21687492053938</v>
       </c>
       <c r="E44" t="n">
-        <v>28.64625815352825</v>
+        <v>28.48305361560097</v>
       </c>
       <c r="F44" t="n">
-        <v>28.73815629388547</v>
+        <v>28.67732322228875</v>
       </c>
       <c r="G44" t="n">
-        <v>30.0521279851315</v>
+        <v>30.21545228796995</v>
       </c>
       <c r="H44" t="n">
-        <v>29.70988587028667</v>
+        <v>29.86711506593326</v>
       </c>
       <c r="I44" t="n">
-        <v>29.61808572070376</v>
+        <v>29.41758532786593</v>
       </c>
       <c r="J44" t="n">
-        <v>29.20461113073588</v>
+        <v>29.20944979735704</v>
       </c>
       <c r="K44" t="n">
-        <v>29.74175282015092</v>
+        <v>29.84101766944592</v>
       </c>
       <c r="L44" t="n">
-        <v>29.46384876038558</v>
+        <v>29.48695153080747</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29.05469651108367</v>
+        <v>28.80913783031813</v>
       </c>
       <c r="C45" t="n">
-        <v>28.90445898400062</v>
+        <v>28.8457830512048</v>
       </c>
       <c r="D45" t="n">
-        <v>29.00401902828114</v>
+        <v>29.06045841799124</v>
       </c>
       <c r="E45" t="n">
-        <v>28.52447304041674</v>
+        <v>28.36631669740887</v>
       </c>
       <c r="F45" t="n">
-        <v>28.6120126045285</v>
+        <v>28.5574067250454</v>
       </c>
       <c r="G45" t="n">
-        <v>29.76847793631133</v>
+        <v>29.95333291386256</v>
       </c>
       <c r="H45" t="n">
-        <v>29.568199683602</v>
+        <v>29.69559616531925</v>
       </c>
       <c r="I45" t="n">
-        <v>29.24014209053421</v>
+        <v>29.18130008074396</v>
       </c>
       <c r="J45" t="n">
-        <v>28.89543517091528</v>
+        <v>28.90248681088912</v>
       </c>
       <c r="K45" t="n">
-        <v>29.49919751677905</v>
+        <v>29.62314074614559</v>
       </c>
       <c r="L45" t="n">
-        <v>29.12201893771844</v>
+        <v>29.19549269587499</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.82074916155963</v>
+        <v>28.71715698156935</v>
       </c>
       <c r="C46" t="n">
-        <v>28.69080810658021</v>
+        <v>28.7532497880381</v>
       </c>
       <c r="D46" t="n">
-        <v>28.86770060161195</v>
+        <v>28.89436766691872</v>
       </c>
       <c r="E46" t="n">
-        <v>28.44556157050216</v>
+        <v>28.29315318305502</v>
       </c>
       <c r="F46" t="n">
-        <v>28.54225159856171</v>
+        <v>28.4900918587665</v>
       </c>
       <c r="G46" t="n">
-        <v>29.48515888401771</v>
+        <v>29.78595217958461</v>
       </c>
       <c r="H46" t="n">
-        <v>29.39849651644981</v>
+        <v>29.54158684970118</v>
       </c>
       <c r="I46" t="n">
-        <v>29.045370954359</v>
+        <v>29.01960319215824</v>
       </c>
       <c r="J46" t="n">
-        <v>28.72180511082801</v>
+        <v>28.81970373934663</v>
       </c>
       <c r="K46" t="n">
-        <v>29.34819122643745</v>
+        <v>29.57567046442442</v>
       </c>
       <c r="L46" t="n">
-        <v>28.91192270886172</v>
+        <v>29.05785296457875</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>32.48546347259588</v>
+        <v>32.50212525017692</v>
       </c>
       <c r="C47" t="n">
-        <v>32.98159519126801</v>
+        <v>32.87331112221706</v>
       </c>
       <c r="D47" t="n">
-        <v>32.57577678726655</v>
+        <v>32.6470436527466</v>
       </c>
       <c r="E47" t="n">
-        <v>29.17993762014289</v>
+        <v>29.75390538527238</v>
       </c>
       <c r="F47" t="n">
-        <v>33.43134980235325</v>
+        <v>33.43311362588879</v>
       </c>
       <c r="G47" t="n">
-        <v>32.4000936233729</v>
+        <v>32.43414434042599</v>
       </c>
       <c r="H47" t="n">
-        <v>33.12522516825837</v>
+        <v>32.94588109266474</v>
       </c>
       <c r="I47" t="n">
-        <v>32.41519866969345</v>
+        <v>32.36616194784094</v>
       </c>
       <c r="J47" t="n">
-        <v>32.35033491221812</v>
+        <v>32.20818463268675</v>
       </c>
       <c r="K47" t="n">
-        <v>32.48178576245245</v>
+        <v>32.66287042954073</v>
       </c>
       <c r="L47" t="n">
-        <v>32.84240287365349</v>
+        <v>32.90191542956388</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>29.82018402588825</v>
+        <v>29.55845528794608</v>
       </c>
       <c r="C48" t="n">
-        <v>29.8477568455009</v>
+        <v>29.6708389827627</v>
       </c>
       <c r="D48" t="n">
-        <v>29.35156493964494</v>
+        <v>29.5205197861393</v>
       </c>
       <c r="E48" t="n">
-        <v>28.87832885551889</v>
+        <v>28.79429870271379</v>
       </c>
       <c r="F48" t="n">
-        <v>29.0209337512431</v>
+        <v>29.24550297746087</v>
       </c>
       <c r="G48" t="n">
-        <v>30.49300945940363</v>
+        <v>30.57646237087178</v>
       </c>
       <c r="H48" t="n">
-        <v>29.92615072169231</v>
+        <v>29.98602737603014</v>
       </c>
       <c r="I48" t="n">
-        <v>29.86100311023282</v>
+        <v>29.85149572609283</v>
       </c>
       <c r="J48" t="n">
-        <v>29.5442681507514</v>
+        <v>29.78391058617897</v>
       </c>
       <c r="K48" t="n">
-        <v>30.07267086964995</v>
+        <v>30.14881648038685</v>
       </c>
       <c r="L48" t="n">
-        <v>29.79941189519991</v>
+        <v>29.92862219390518</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>29.16858831106478</v>
+        <v>29.01334624943376</v>
       </c>
       <c r="C49" t="n">
-        <v>29.07983780413094</v>
+        <v>29.03144370476642</v>
       </c>
       <c r="D49" t="n">
-        <v>29.05760439984197</v>
+        <v>29.0607884168322</v>
       </c>
       <c r="E49" t="n">
-        <v>28.63184424195197</v>
+        <v>28.57883462426232</v>
       </c>
       <c r="F49" t="n">
-        <v>28.72074414035435</v>
+        <v>28.7622072021801</v>
       </c>
       <c r="G49" t="n">
-        <v>29.9165527886884</v>
+        <v>30.09523500292971</v>
       </c>
       <c r="H49" t="n">
-        <v>29.48268389381852</v>
+        <v>29.6870277878709</v>
       </c>
       <c r="I49" t="n">
-        <v>29.32170690501072</v>
+        <v>29.29888339983599</v>
       </c>
       <c r="J49" t="n">
-        <v>29.02532358233457</v>
+        <v>29.15959046815867</v>
       </c>
       <c r="K49" t="n">
-        <v>29.58677291195029</v>
+        <v>29.65900913396504</v>
       </c>
       <c r="L49" t="n">
-        <v>29.24164723894215</v>
+        <v>29.3712434046848</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>28.88903881386172</v>
+        <v>28.75848954674591</v>
       </c>
       <c r="C50" t="n">
-        <v>28.77944047155627</v>
+        <v>28.79957375816813</v>
       </c>
       <c r="D50" t="n">
-        <v>28.94719273863641</v>
+        <v>28.95679530634489</v>
       </c>
       <c r="E50" t="n">
-        <v>28.50826030355218</v>
+        <v>28.44494459599494</v>
       </c>
       <c r="F50" t="n">
-        <v>28.6110526878442</v>
+        <v>28.60914329363059</v>
       </c>
       <c r="G50" t="n">
-        <v>29.51671777316812</v>
+        <v>29.84020523061279</v>
       </c>
       <c r="H50" t="n">
-        <v>29.32611761172369</v>
+        <v>29.48307654035498</v>
       </c>
       <c r="I50" t="n">
-        <v>29.05284421890821</v>
+        <v>29.035056594463</v>
       </c>
       <c r="J50" t="n">
-        <v>28.78302902775248</v>
+        <v>28.8122835073294</v>
       </c>
       <c r="K50" t="n">
-        <v>29.43171265131852</v>
+        <v>29.50623479704037</v>
       </c>
       <c r="L50" t="n">
-        <v>28.94137859774189</v>
+        <v>29.17625069851988</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>28.66734137726175</v>
+        <v>28.64430059036494</v>
       </c>
       <c r="C51" t="n">
-        <v>28.61682389629524</v>
+        <v>28.6921328837315</v>
       </c>
       <c r="D51" t="n">
-        <v>28.86884246876074</v>
+        <v>28.83038650117376</v>
       </c>
       <c r="E51" t="n">
-        <v>28.44492429289631</v>
+        <v>28.33915082465907</v>
       </c>
       <c r="F51" t="n">
-        <v>28.49847360717113</v>
+        <v>28.50275727728704</v>
       </c>
       <c r="G51" t="n">
-        <v>29.29628608679143</v>
+        <v>29.57251159107516</v>
       </c>
       <c r="H51" t="n">
-        <v>29.23612122273094</v>
+        <v>29.22133030305991</v>
       </c>
       <c r="I51" t="n">
-        <v>28.90757226358163</v>
+        <v>28.85973395387245</v>
       </c>
       <c r="J51" t="n">
-        <v>28.63118294084088</v>
+        <v>28.69235384490948</v>
       </c>
       <c r="K51" t="n">
-        <v>29.35595337056431</v>
+        <v>29.39277981548519</v>
       </c>
       <c r="L51" t="n">
-        <v>28.80786594674026</v>
+        <v>29.0144937639313</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>43.74830994066255</v>
+        <v>42.23458032485929</v>
       </c>
       <c r="C52" t="n">
-        <v>45.66099328017699</v>
+        <v>41.1468329048308</v>
       </c>
       <c r="D52" t="n">
-        <v>44.01940927287672</v>
+        <v>43.66615857749308</v>
       </c>
       <c r="E52" t="n">
-        <v>29.9792947620972</v>
+        <v>29.71235051530712</v>
       </c>
       <c r="F52" t="n">
-        <v>35.30078546175632</v>
+        <v>34.51213672206053</v>
       </c>
       <c r="G52" t="n">
-        <v>40.43265615346475</v>
+        <v>39.91707467498763</v>
       </c>
       <c r="H52" t="n">
-        <v>41.87025651139655</v>
+        <v>43.32252908174011</v>
       </c>
       <c r="I52" t="n">
-        <v>44.5601274710785</v>
+        <v>44.26410411071657</v>
       </c>
       <c r="J52" t="n">
-        <v>44.12192174583871</v>
+        <v>43.62957039116846</v>
       </c>
       <c r="K52" t="n">
-        <v>38.66372723998734</v>
+        <v>38.35453727067218</v>
       </c>
       <c r="L52" t="n">
-        <v>42.34445417256217</v>
+        <v>41.99480396132144</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>31.00058972222959</v>
+        <v>30.17382327284557</v>
       </c>
       <c r="C53" t="n">
-        <v>30.60639876850417</v>
+        <v>30.17158570135983</v>
       </c>
       <c r="D53" t="n">
-        <v>29.84679163852846</v>
+        <v>29.93756772374356</v>
       </c>
       <c r="E53" t="n">
-        <v>28.8616362267728</v>
+        <v>28.71278734628165</v>
       </c>
       <c r="F53" t="n">
-        <v>29.06484259379321</v>
+        <v>29.19509112653174</v>
       </c>
       <c r="G53" t="n">
-        <v>31.37523164813523</v>
+        <v>31.4480887834371</v>
       </c>
       <c r="H53" t="n">
-        <v>30.84691278594463</v>
+        <v>30.56683463854201</v>
       </c>
       <c r="I53" t="n">
-        <v>31.23827799380749</v>
+        <v>30.93827666842888</v>
       </c>
       <c r="J53" t="n">
-        <v>30.61917993688662</v>
+        <v>30.81947646317938</v>
       </c>
       <c r="K53" t="n">
-        <v>31.48745335045435</v>
+        <v>31.48297437909093</v>
       </c>
       <c r="L53" t="n">
-        <v>30.75940711585321</v>
+        <v>30.87878102003588</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>29.72465315629535</v>
+        <v>29.37076287432023</v>
       </c>
       <c r="C54" t="n">
-        <v>29.52823894539278</v>
+        <v>29.38361706011875</v>
       </c>
       <c r="D54" t="n">
-        <v>29.21802472595508</v>
+        <v>29.50058625597101</v>
       </c>
       <c r="E54" t="n">
-        <v>28.64746976313231</v>
+        <v>28.53679303695938</v>
       </c>
       <c r="F54" t="n">
-        <v>28.73206109795433</v>
+        <v>28.74139282033158</v>
       </c>
       <c r="G54" t="n">
-        <v>30.3778135671887</v>
+        <v>30.47670226185131</v>
       </c>
       <c r="H54" t="n">
-        <v>29.91067041042856</v>
+        <v>30.1431777999111</v>
       </c>
       <c r="I54" t="n">
-        <v>30.03507084604984</v>
+        <v>30.02117211095376</v>
       </c>
       <c r="J54" t="n">
-        <v>29.60393998650125</v>
+        <v>29.65639542499302</v>
       </c>
       <c r="K54" t="n">
-        <v>30.29690423043835</v>
+        <v>30.70431306708091</v>
       </c>
       <c r="L54" t="n">
-        <v>29.873377179045</v>
+        <v>29.9637007548876</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>29.23471966848784</v>
+        <v>28.9952066434995</v>
       </c>
       <c r="C55" t="n">
-        <v>29.07534148294742</v>
+        <v>29.11796866067707</v>
       </c>
       <c r="D55" t="n">
-        <v>29.00469484007014</v>
+        <v>29.17159286232448</v>
       </c>
       <c r="E55" t="n">
-        <v>28.52563463054507</v>
+        <v>28.44959436752422</v>
       </c>
       <c r="F55" t="n">
-        <v>28.60308101614075</v>
+        <v>28.57182705961392</v>
       </c>
       <c r="G55" t="n">
-        <v>29.92152825544886</v>
+        <v>30.16616199079125</v>
       </c>
       <c r="H55" t="n">
-        <v>29.61070100727309</v>
+        <v>30.00486737934502</v>
       </c>
       <c r="I55" t="n">
-        <v>29.53932054734057</v>
+        <v>29.55778054277437</v>
       </c>
       <c r="J55" t="n">
-        <v>29.16395633498452</v>
+        <v>29.22352689703569</v>
       </c>
       <c r="K55" t="n">
-        <v>29.98518633914749</v>
+        <v>30.3957686340412</v>
       </c>
       <c r="L55" t="n">
-        <v>29.42270927153071</v>
+        <v>29.59236309557977</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>28.96941561066111</v>
+        <v>28.8550353489948</v>
       </c>
       <c r="C56" t="n">
-        <v>28.84978031579623</v>
+        <v>28.92305372559991</v>
       </c>
       <c r="D56" t="n">
-        <v>28.9165665628991</v>
+        <v>29.02255846438329</v>
       </c>
       <c r="E56" t="n">
-        <v>28.445599510883</v>
+        <v>28.36948673524503</v>
       </c>
       <c r="F56" t="n">
-        <v>28.5332820634376</v>
+        <v>28.49551001905073</v>
       </c>
       <c r="G56" t="n">
-        <v>29.64936740940704</v>
+        <v>29.9257078894648</v>
       </c>
       <c r="H56" t="n">
-        <v>29.47930805582793</v>
+        <v>29.75884198716738</v>
       </c>
       <c r="I56" t="n">
-        <v>29.25410375454869</v>
+        <v>29.31461573564274</v>
       </c>
       <c r="J56" t="n">
-        <v>28.88466392218639</v>
+        <v>29.01355087948688</v>
       </c>
       <c r="K56" t="n">
-        <v>29.73458254665846</v>
+        <v>30.2145774098395</v>
       </c>
       <c r="L56" t="n">
-        <v>29.14484404521632</v>
+        <v>29.35450997705298</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>34.92797881919103</v>
+        <v>34.89251843512977</v>
       </c>
       <c r="C57" t="n">
-        <v>34.92048254795448</v>
+        <v>34.967507157752</v>
       </c>
       <c r="D57" t="n">
-        <v>34.05995824110821</v>
+        <v>33.96136446657997</v>
       </c>
       <c r="E57" t="n">
-        <v>29.81143581943619</v>
+        <v>29.86067469297239</v>
       </c>
       <c r="F57" t="n">
-        <v>36.02742152968142</v>
+        <v>35.74764021698013</v>
       </c>
       <c r="G57" t="n">
-        <v>33.47967703957454</v>
+        <v>33.70421967887614</v>
       </c>
       <c r="H57" t="n">
-        <v>34.49033868341124</v>
+        <v>34.2946225567308</v>
       </c>
       <c r="I57" t="n">
-        <v>33.69657404269633</v>
+        <v>33.66430050337786</v>
       </c>
       <c r="J57" t="n">
-        <v>34.27735092836265</v>
+        <v>34.00096290837738</v>
       </c>
       <c r="K57" t="n">
-        <v>33.85756574510663</v>
+        <v>33.92974665793143</v>
       </c>
       <c r="L57" t="n">
-        <v>34.00914620568453</v>
+        <v>34.00665344686551</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>30.37573065570994</v>
+        <v>29.93919141454618</v>
       </c>
       <c r="C58" t="n">
-        <v>30.03457156807324</v>
+        <v>29.98041643577007</v>
       </c>
       <c r="D58" t="n">
-        <v>29.53690519380657</v>
+        <v>29.63661621937403</v>
       </c>
       <c r="E58" t="n">
-        <v>28.8775683394653</v>
+        <v>28.80109645524283</v>
       </c>
       <c r="F58" t="n">
-        <v>29.07914422151742</v>
+        <v>29.26959818880025</v>
       </c>
       <c r="G58" t="n">
-        <v>30.79793636944518</v>
+        <v>30.85555534662614</v>
       </c>
       <c r="H58" t="n">
-        <v>30.32179424759837</v>
+        <v>30.3009753172622</v>
       </c>
       <c r="I58" t="n">
-        <v>30.21080043095808</v>
+        <v>30.25578030291256</v>
       </c>
       <c r="J58" t="n">
-        <v>30.11832016039553</v>
+        <v>30.25564410646329</v>
       </c>
       <c r="K58" t="n">
-        <v>30.33206798926675</v>
+        <v>30.42243849493707</v>
       </c>
       <c r="L58" t="n">
-        <v>30.09606324266096</v>
+        <v>30.26387002969572</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>29.4301607381874</v>
+        <v>29.20870738821494</v>
       </c>
       <c r="C59" t="n">
-        <v>29.17172676434348</v>
+        <v>29.18431513146072</v>
       </c>
       <c r="D59" t="n">
-        <v>29.1136047159311</v>
+        <v>29.12725485727195</v>
       </c>
       <c r="E59" t="n">
-        <v>28.64946571920273</v>
+        <v>28.56788054609553</v>
       </c>
       <c r="F59" t="n">
-        <v>28.74725768503556</v>
+        <v>28.77950260332321</v>
       </c>
       <c r="G59" t="n">
-        <v>29.9881611712483</v>
+        <v>30.27468597823589</v>
       </c>
       <c r="H59" t="n">
-        <v>29.7971509591357</v>
+        <v>30.04157800653021</v>
       </c>
       <c r="I59" t="n">
-        <v>29.57339000581743</v>
+        <v>29.60584749838209</v>
       </c>
       <c r="J59" t="n">
-        <v>29.26227721849855</v>
+        <v>29.37170987859183</v>
       </c>
       <c r="K59" t="n">
-        <v>29.73830485220287</v>
+        <v>29.92501167217867</v>
       </c>
       <c r="L59" t="n">
-        <v>29.45096989859158</v>
+        <v>29.56834823518762</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>29.00724182882621</v>
+        <v>28.83392781714349</v>
       </c>
       <c r="C60" t="n">
-        <v>28.91859916602052</v>
+        <v>28.90233325490241</v>
       </c>
       <c r="D60" t="n">
-        <v>28.9564474692558</v>
+        <v>28.99959805439623</v>
       </c>
       <c r="E60" t="n">
-        <v>28.53417058476627</v>
+        <v>28.44184413027214</v>
       </c>
       <c r="F60" t="n">
-        <v>28.62637169384024</v>
+        <v>28.61749728373266</v>
       </c>
       <c r="G60" t="n">
-        <v>29.64771319912693</v>
+        <v>29.98780851467862</v>
       </c>
       <c r="H60" t="n">
-        <v>29.48717792772077</v>
+        <v>29.73382619901214</v>
       </c>
       <c r="I60" t="n">
-        <v>29.17794132627784</v>
+        <v>29.1893206320471</v>
       </c>
       <c r="J60" t="n">
-        <v>28.8995092679472</v>
+        <v>29.05225673195991</v>
       </c>
       <c r="K60" t="n">
-        <v>29.5024797983687</v>
+        <v>29.68409297103694</v>
       </c>
       <c r="L60" t="n">
-        <v>29.16876924930317</v>
+        <v>29.2485687334597</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>DCT_CosineWindow</t>
+          <t>DWT_CosineWindow</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>28.79137066822057</v>
+        <v>28.72490485679587</v>
       </c>
       <c r="C61" t="n">
-        <v>28.7548661153427</v>
+        <v>28.73327252521549</v>
       </c>
       <c r="D61" t="n">
-        <v>28.90390548171505</v>
+        <v>28.86468403008743</v>
       </c>
       <c r="E61" t="n">
-        <v>28.44742032626234</v>
+        <v>28.33599659202362</v>
       </c>
       <c r="F61" t="n">
-        <v>28.51596733067559</v>
+        <v>28.50489383605036</v>
       </c>
       <c r="G61" t="n">
-        <v>29.26702047789273</v>
+        <v>29.78639165988594</v>
       </c>
       <c r="H61" t="n">
-        <v>29.3233216964179</v>
+        <v>29.42209989576114</v>
       </c>
       <c r="I61" t="n">
-        <v>29.06730404890231</v>
+        <v>29.02127865704238</v>
       </c>
       <c r="J61" t="n">
-        <v>28.67033044617698</v>
+        <v>28.83392080486815</v>
       </c>
       <c r="K61" t="n">
-        <v>29.34116529864184</v>
+        <v>29.5747269041903</v>
       </c>
       <c r="L61" t="n">
-        <v>28.93432896090237</v>
+        <v>29.09598326692024</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/results/report.xlsx
+++ b/dataset/results/report.xlsx
@@ -493,2401 +493,2401 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43.71780952797666</v>
+        <v>150</v>
       </c>
       <c r="C2" t="n">
-        <v>42.39155135011529</v>
+        <v>150</v>
       </c>
       <c r="D2" t="n">
-        <v>43.07920442449924</v>
+        <v>150</v>
       </c>
       <c r="E2" t="n">
-        <v>29.45449836485516</v>
+        <v>150</v>
       </c>
       <c r="F2" t="n">
-        <v>35.59733894610576</v>
+        <v>150</v>
       </c>
       <c r="G2" t="n">
-        <v>40.8676846454566</v>
+        <v>150</v>
       </c>
       <c r="H2" t="n">
-        <v>42.99264240077189</v>
+        <v>150</v>
       </c>
       <c r="I2" t="n">
-        <v>44.26135736497336</v>
+        <v>150</v>
       </c>
       <c r="J2" t="n">
-        <v>43.11117115013622</v>
+        <v>150</v>
       </c>
       <c r="K2" t="n">
-        <v>40.17777524251588</v>
+        <v>150</v>
       </c>
       <c r="L2" t="n">
-        <v>44.71650425265264</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.32781012791738</v>
+        <v>150</v>
       </c>
       <c r="C3" t="n">
-        <v>31.29915815801551</v>
+        <v>150</v>
       </c>
       <c r="D3" t="n">
-        <v>31.08722655101952</v>
+        <v>150</v>
       </c>
       <c r="E3" t="n">
-        <v>28.81368968513009</v>
+        <v>150</v>
       </c>
       <c r="F3" t="n">
-        <v>29.54258652551648</v>
+        <v>150</v>
       </c>
       <c r="G3" t="n">
-        <v>33.62426360090914</v>
+        <v>150</v>
       </c>
       <c r="H3" t="n">
-        <v>31.88783248724801</v>
+        <v>150</v>
       </c>
       <c r="I3" t="n">
-        <v>32.84181267081711</v>
+        <v>150</v>
       </c>
       <c r="J3" t="n">
-        <v>32.46316524368629</v>
+        <v>150</v>
       </c>
       <c r="K3" t="n">
-        <v>32.96007630240096</v>
+        <v>150</v>
       </c>
       <c r="L3" t="n">
-        <v>32.52181360474151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.7480470057673</v>
+        <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>30.75963411158315</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>30.42584545782853</v>
+        <v>150</v>
       </c>
       <c r="E4" t="n">
-        <v>28.75166712757066</v>
+        <v>150</v>
       </c>
       <c r="F4" t="n">
-        <v>29.07344455194402</v>
+        <v>150</v>
       </c>
       <c r="G4" t="n">
-        <v>33.34897024113744</v>
+        <v>150</v>
       </c>
       <c r="H4" t="n">
-        <v>31.57158002346062</v>
+        <v>150</v>
       </c>
       <c r="I4" t="n">
-        <v>32.3066865780521</v>
+        <v>150</v>
       </c>
       <c r="J4" t="n">
-        <v>31.32490557634785</v>
+        <v>150</v>
       </c>
       <c r="K4" t="n">
-        <v>32.54935654565507</v>
+        <v>150</v>
       </c>
       <c r="L4" t="n">
-        <v>31.88549099286785</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30.56140941285509</v>
+        <v>150</v>
       </c>
       <c r="C5" t="n">
-        <v>30.70088178229514</v>
+        <v>150</v>
       </c>
       <c r="D5" t="n">
-        <v>30.30109874312344</v>
+        <v>150</v>
       </c>
       <c r="E5" t="n">
-        <v>28.74451822327633</v>
+        <v>150</v>
       </c>
       <c r="F5" t="n">
-        <v>28.90912002949761</v>
+        <v>150</v>
       </c>
       <c r="G5" t="n">
-        <v>33.31027707327971</v>
+        <v>150</v>
       </c>
       <c r="H5" t="n">
-        <v>31.53333300587202</v>
+        <v>150</v>
       </c>
       <c r="I5" t="n">
-        <v>32.17852388938537</v>
+        <v>150</v>
       </c>
       <c r="J5" t="n">
-        <v>31.01360254136473</v>
+        <v>150</v>
       </c>
       <c r="K5" t="n">
-        <v>32.42235258179124</v>
+        <v>150</v>
       </c>
       <c r="L5" t="n">
-        <v>31.66436879201859</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.51202146086057</v>
+        <v>150</v>
       </c>
       <c r="C6" t="n">
-        <v>30.68259106761067</v>
+        <v>150</v>
       </c>
       <c r="D6" t="n">
-        <v>30.21678796815858</v>
+        <v>150</v>
       </c>
       <c r="E6" t="n">
-        <v>28.74441842741064</v>
+        <v>150</v>
       </c>
       <c r="F6" t="n">
-        <v>28.88721875895509</v>
+        <v>150</v>
       </c>
       <c r="G6" t="n">
-        <v>33.31386467519889</v>
+        <v>150</v>
       </c>
       <c r="H6" t="n">
-        <v>31.53081253859707</v>
+        <v>150</v>
       </c>
       <c r="I6" t="n">
-        <v>32.17182410685142</v>
+        <v>150</v>
       </c>
       <c r="J6" t="n">
-        <v>31.00131990531284</v>
+        <v>150</v>
       </c>
       <c r="K6" t="n">
-        <v>32.39762723665241</v>
+        <v>150</v>
       </c>
       <c r="L6" t="n">
-        <v>31.56567311152346</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.34836688284405</v>
+        <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>36.9641429678003</v>
+        <v>150</v>
       </c>
       <c r="D7" t="n">
-        <v>37.91732678417189</v>
+        <v>150</v>
       </c>
       <c r="E7" t="n">
-        <v>29.59522378834351</v>
+        <v>150</v>
       </c>
       <c r="F7" t="n">
-        <v>35.33580838633738</v>
+        <v>150</v>
       </c>
       <c r="G7" t="n">
-        <v>36.17999574169829</v>
+        <v>150</v>
       </c>
       <c r="H7" t="n">
-        <v>36.62226707484566</v>
+        <v>150</v>
       </c>
       <c r="I7" t="n">
-        <v>36.80293271033697</v>
+        <v>150</v>
       </c>
       <c r="J7" t="n">
-        <v>36.80023918115467</v>
+        <v>150</v>
       </c>
       <c r="K7" t="n">
-        <v>36.48651984195829</v>
+        <v>150</v>
       </c>
       <c r="L7" t="n">
-        <v>36.42420682082286</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.32387976572721</v>
+        <v>150</v>
       </c>
       <c r="C8" t="n">
-        <v>31.32684449475386</v>
+        <v>150</v>
       </c>
       <c r="D8" t="n">
-        <v>31.18281354319768</v>
+        <v>150</v>
       </c>
       <c r="E8" t="n">
-        <v>28.89752945778979</v>
+        <v>150</v>
       </c>
       <c r="F8" t="n">
-        <v>29.70933372795886</v>
+        <v>150</v>
       </c>
       <c r="G8" t="n">
-        <v>33.05765507684085</v>
+        <v>150</v>
       </c>
       <c r="H8" t="n">
-        <v>31.79136884339988</v>
+        <v>150</v>
       </c>
       <c r="I8" t="n">
-        <v>32.6027892365847</v>
+        <v>150</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15373561449506</v>
+        <v>150</v>
       </c>
       <c r="K8" t="n">
-        <v>32.55045831131863</v>
+        <v>150</v>
       </c>
       <c r="L8" t="n">
-        <v>32.007646736898</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.77502828278142</v>
+        <v>150</v>
       </c>
       <c r="C9" t="n">
-        <v>30.75685028840833</v>
+        <v>150</v>
       </c>
       <c r="D9" t="n">
-        <v>30.5886105707252</v>
+        <v>150</v>
       </c>
       <c r="E9" t="n">
-        <v>28.84859087407143</v>
+        <v>150</v>
       </c>
       <c r="F9" t="n">
-        <v>29.23578126154763</v>
+        <v>150</v>
       </c>
       <c r="G9" t="n">
-        <v>32.80190668382255</v>
+        <v>150</v>
       </c>
       <c r="H9" t="n">
-        <v>31.46621425757317</v>
+        <v>150</v>
       </c>
       <c r="I9" t="n">
-        <v>32.05008255941007</v>
+        <v>150</v>
       </c>
       <c r="J9" t="n">
-        <v>31.05062521320304</v>
+        <v>150</v>
       </c>
       <c r="K9" t="n">
-        <v>32.1633397801623</v>
+        <v>150</v>
       </c>
       <c r="L9" t="n">
-        <v>31.44345269329259</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.52880047375284</v>
+        <v>150</v>
       </c>
       <c r="C10" t="n">
-        <v>30.71457516188383</v>
+        <v>150</v>
       </c>
       <c r="D10" t="n">
-        <v>30.45731623878408</v>
+        <v>150</v>
       </c>
       <c r="E10" t="n">
-        <v>28.84673689388033</v>
+        <v>150</v>
       </c>
       <c r="F10" t="n">
-        <v>29.04228200255979</v>
+        <v>150</v>
       </c>
       <c r="G10" t="n">
-        <v>32.77504219735286</v>
+        <v>150</v>
       </c>
       <c r="H10" t="n">
-        <v>31.40671718171612</v>
+        <v>150</v>
       </c>
       <c r="I10" t="n">
-        <v>31.93259901087628</v>
+        <v>150</v>
       </c>
       <c r="J10" t="n">
-        <v>30.79051266943524</v>
+        <v>150</v>
       </c>
       <c r="K10" t="n">
-        <v>32.06434561664266</v>
+        <v>150</v>
       </c>
       <c r="L10" t="n">
-        <v>31.29237213475173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30.48405804532776</v>
+        <v>150</v>
       </c>
       <c r="C11" t="n">
-        <v>30.70554295116131</v>
+        <v>150</v>
       </c>
       <c r="D11" t="n">
-        <v>30.37751451794804</v>
+        <v>150</v>
       </c>
       <c r="E11" t="n">
-        <v>28.84693675271209</v>
+        <v>150</v>
       </c>
       <c r="F11" t="n">
-        <v>29.01616888349368</v>
+        <v>150</v>
       </c>
       <c r="G11" t="n">
-        <v>32.77723416275372</v>
+        <v>150</v>
       </c>
       <c r="H11" t="n">
-        <v>31.40903129487171</v>
+        <v>150</v>
       </c>
       <c r="I11" t="n">
-        <v>31.94529397048383</v>
+        <v>150</v>
       </c>
       <c r="J11" t="n">
-        <v>30.76824564257958</v>
+        <v>150</v>
       </c>
       <c r="K11" t="n">
-        <v>32.03451141943737</v>
+        <v>150</v>
       </c>
       <c r="L11" t="n">
-        <v>31.25524212902255</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41.4140597905824</v>
+        <v>150</v>
       </c>
       <c r="C12" t="n">
-        <v>40.40622243923966</v>
+        <v>150</v>
       </c>
       <c r="D12" t="n">
-        <v>41.97301516771167</v>
+        <v>150</v>
       </c>
       <c r="E12" t="n">
-        <v>29.50878399953032</v>
+        <v>150</v>
       </c>
       <c r="F12" t="n">
-        <v>34.3601816386218</v>
+        <v>150</v>
       </c>
       <c r="G12" t="n">
-        <v>39.82578544352113</v>
+        <v>150</v>
       </c>
       <c r="H12" t="n">
-        <v>40.63353855915289</v>
+        <v>150</v>
       </c>
       <c r="I12" t="n">
-        <v>40.99295261864729</v>
+        <v>150</v>
       </c>
       <c r="J12" t="n">
-        <v>40.52353519111481</v>
+        <v>150</v>
       </c>
       <c r="K12" t="n">
-        <v>39.04424060513734</v>
+        <v>150</v>
       </c>
       <c r="L12" t="n">
-        <v>39.67687054953793</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30.34676812849122</v>
+        <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>30.4650918006847</v>
+        <v>150</v>
       </c>
       <c r="D13" t="n">
-        <v>30.29200412039863</v>
+        <v>150</v>
       </c>
       <c r="E13" t="n">
-        <v>28.74217486611993</v>
+        <v>150</v>
       </c>
       <c r="F13" t="n">
-        <v>29.32234812853709</v>
+        <v>150</v>
       </c>
       <c r="G13" t="n">
-        <v>32.06549491838015</v>
+        <v>150</v>
       </c>
       <c r="H13" t="n">
-        <v>30.98908598631026</v>
+        <v>150</v>
       </c>
       <c r="I13" t="n">
-        <v>31.22987617239096</v>
+        <v>150</v>
       </c>
       <c r="J13" t="n">
-        <v>31.09456326326534</v>
+        <v>150</v>
       </c>
       <c r="K13" t="n">
-        <v>31.76006670396955</v>
+        <v>150</v>
       </c>
       <c r="L13" t="n">
-        <v>31.16811076058375</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.65658468945865</v>
+        <v>150</v>
       </c>
       <c r="C14" t="n">
-        <v>29.7770431383368</v>
+        <v>150</v>
       </c>
       <c r="D14" t="n">
-        <v>29.85314075037211</v>
+        <v>150</v>
       </c>
       <c r="E14" t="n">
-        <v>28.59883420320963</v>
+        <v>150</v>
       </c>
       <c r="F14" t="n">
-        <v>28.86580450107036</v>
+        <v>150</v>
       </c>
       <c r="G14" t="n">
-        <v>31.55426522054105</v>
+        <v>150</v>
       </c>
       <c r="H14" t="n">
-        <v>30.62819311714747</v>
+        <v>150</v>
       </c>
       <c r="I14" t="n">
-        <v>30.49479990258371</v>
+        <v>150</v>
       </c>
       <c r="J14" t="n">
-        <v>30.10558944989625</v>
+        <v>150</v>
       </c>
       <c r="K14" t="n">
-        <v>31.1901233238186</v>
+        <v>150</v>
       </c>
       <c r="L14" t="n">
-        <v>30.49129392999638</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>29.30863544333102</v>
+        <v>150</v>
       </c>
       <c r="C15" t="n">
-        <v>29.66728730418762</v>
+        <v>150</v>
       </c>
       <c r="D15" t="n">
-        <v>29.57138681459293</v>
+        <v>150</v>
       </c>
       <c r="E15" t="n">
-        <v>28.54798036910877</v>
+        <v>150</v>
       </c>
       <c r="F15" t="n">
-        <v>28.69423492101904</v>
+        <v>150</v>
       </c>
       <c r="G15" t="n">
-        <v>31.43651562687982</v>
+        <v>150</v>
       </c>
       <c r="H15" t="n">
-        <v>30.34599662226987</v>
+        <v>150</v>
       </c>
       <c r="I15" t="n">
-        <v>30.28528078930386</v>
+        <v>150</v>
       </c>
       <c r="J15" t="n">
-        <v>29.70755957914728</v>
+        <v>150</v>
       </c>
       <c r="K15" t="n">
-        <v>31.17122323255354</v>
+        <v>150</v>
       </c>
       <c r="L15" t="n">
-        <v>30.17839319548889</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.21931021302446</v>
+        <v>150</v>
       </c>
       <c r="C16" t="n">
-        <v>29.53133466319095</v>
+        <v>150</v>
       </c>
       <c r="D16" t="n">
-        <v>29.53109954899417</v>
+        <v>150</v>
       </c>
       <c r="E16" t="n">
-        <v>28.51121434362536</v>
+        <v>150</v>
       </c>
       <c r="F16" t="n">
-        <v>28.63755975747318</v>
+        <v>150</v>
       </c>
       <c r="G16" t="n">
-        <v>31.36406422844609</v>
+        <v>150</v>
       </c>
       <c r="H16" t="n">
-        <v>30.1343666189076</v>
+        <v>150</v>
       </c>
       <c r="I16" t="n">
-        <v>30.14924468674501</v>
+        <v>150</v>
       </c>
       <c r="J16" t="n">
-        <v>29.60808826638068</v>
+        <v>150</v>
       </c>
       <c r="K16" t="n">
-        <v>30.9832771481867</v>
+        <v>150</v>
       </c>
       <c r="L16" t="n">
-        <v>30.02653349611368</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>41.35646574983423</v>
+        <v>150</v>
       </c>
       <c r="C17" t="n">
-        <v>40.95073468208753</v>
+        <v>150</v>
       </c>
       <c r="D17" t="n">
-        <v>42.1250731712767</v>
+        <v>150</v>
       </c>
       <c r="E17" t="n">
-        <v>29.69012637977267</v>
+        <v>150</v>
       </c>
       <c r="F17" t="n">
-        <v>34.48392957709851</v>
+        <v>150</v>
       </c>
       <c r="G17" t="n">
-        <v>39.32623192924321</v>
+        <v>150</v>
       </c>
       <c r="H17" t="n">
-        <v>39.51205828091072</v>
+        <v>150</v>
       </c>
       <c r="I17" t="n">
-        <v>41.35801196839495</v>
+        <v>150</v>
       </c>
       <c r="J17" t="n">
-        <v>40.6332084029971</v>
+        <v>150</v>
       </c>
       <c r="K17" t="n">
-        <v>38.17117564089789</v>
+        <v>150</v>
       </c>
       <c r="L17" t="n">
-        <v>39.4508297984407</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>30.61056896246352</v>
+        <v>150</v>
       </c>
       <c r="C18" t="n">
-        <v>30.67053426132411</v>
+        <v>150</v>
       </c>
       <c r="D18" t="n">
-        <v>30.44152582987442</v>
+        <v>150</v>
       </c>
       <c r="E18" t="n">
-        <v>28.78251677276821</v>
+        <v>150</v>
       </c>
       <c r="F18" t="n">
-        <v>29.40121207955835</v>
+        <v>150</v>
       </c>
       <c r="G18" t="n">
-        <v>32.07044974169183</v>
+        <v>150</v>
       </c>
       <c r="H18" t="n">
-        <v>31.00342259428974</v>
+        <v>150</v>
       </c>
       <c r="I18" t="n">
-        <v>31.52854565785281</v>
+        <v>150</v>
       </c>
       <c r="J18" t="n">
-        <v>31.39788922256479</v>
+        <v>150</v>
       </c>
       <c r="K18" t="n">
-        <v>31.88984453702611</v>
+        <v>150</v>
       </c>
       <c r="L18" t="n">
-        <v>31.31297719552389</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.6815124263355</v>
+        <v>150</v>
       </c>
       <c r="C19" t="n">
-        <v>29.82572474316786</v>
+        <v>150</v>
       </c>
       <c r="D19" t="n">
-        <v>29.78793164708074</v>
+        <v>150</v>
       </c>
       <c r="E19" t="n">
-        <v>28.5936245910289</v>
+        <v>150</v>
       </c>
       <c r="F19" t="n">
-        <v>28.93539516815512</v>
+        <v>150</v>
       </c>
       <c r="G19" t="n">
-        <v>31.51799647136732</v>
+        <v>150</v>
       </c>
       <c r="H19" t="n">
-        <v>30.56936447149091</v>
+        <v>150</v>
       </c>
       <c r="I19" t="n">
-        <v>30.52265117602725</v>
+        <v>150</v>
       </c>
       <c r="J19" t="n">
-        <v>30.17702999353089</v>
+        <v>150</v>
       </c>
       <c r="K19" t="n">
-        <v>31.34420049628643</v>
+        <v>150</v>
       </c>
       <c r="L19" t="n">
-        <v>30.55207880424722</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.38889760259811</v>
+        <v>150</v>
       </c>
       <c r="C20" t="n">
-        <v>29.55689883738145</v>
+        <v>150</v>
       </c>
       <c r="D20" t="n">
-        <v>29.63659841042248</v>
+        <v>150</v>
       </c>
       <c r="E20" t="n">
-        <v>28.48602021942743</v>
+        <v>150</v>
       </c>
       <c r="F20" t="n">
-        <v>28.71346990678308</v>
+        <v>150</v>
       </c>
       <c r="G20" t="n">
-        <v>31.2998372064253</v>
+        <v>150</v>
       </c>
       <c r="H20" t="n">
-        <v>30.3141777143679</v>
+        <v>150</v>
       </c>
       <c r="I20" t="n">
-        <v>30.23286330796385</v>
+        <v>150</v>
       </c>
       <c r="J20" t="n">
-        <v>29.76629098616059</v>
+        <v>150</v>
       </c>
       <c r="K20" t="n">
-        <v>31.18572098184393</v>
+        <v>150</v>
       </c>
       <c r="L20" t="n">
-        <v>30.18299450628059</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29.26420641946903</v>
+        <v>150</v>
       </c>
       <c r="C21" t="n">
-        <v>29.47276912994603</v>
+        <v>150</v>
       </c>
       <c r="D21" t="n">
-        <v>29.5097554421529</v>
+        <v>150</v>
       </c>
       <c r="E21" t="n">
-        <v>28.41671277798947</v>
+        <v>150</v>
       </c>
       <c r="F21" t="n">
-        <v>28.63310930501427</v>
+        <v>150</v>
       </c>
       <c r="G21" t="n">
-        <v>31.3159013734943</v>
+        <v>150</v>
       </c>
       <c r="H21" t="n">
-        <v>29.99986079085738</v>
+        <v>150</v>
       </c>
       <c r="I21" t="n">
-        <v>30.19947209072178</v>
+        <v>150</v>
       </c>
       <c r="J21" t="n">
-        <v>29.58364114177527</v>
+        <v>150</v>
       </c>
       <c r="K21" t="n">
-        <v>31.0617154975931</v>
+        <v>150</v>
       </c>
       <c r="L21" t="n">
-        <v>30.04108003755785</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>44.17553902955979</v>
+        <v>150</v>
       </c>
       <c r="C22" t="n">
-        <v>43.84731682418905</v>
+        <v>150</v>
       </c>
       <c r="D22" t="n">
-        <v>45.45330872731385</v>
+        <v>150</v>
       </c>
       <c r="E22" t="n">
-        <v>29.54729658028574</v>
+        <v>150</v>
       </c>
       <c r="F22" t="n">
-        <v>35.68139857884374</v>
+        <v>150</v>
       </c>
       <c r="G22" t="n">
-        <v>40.47459412614199</v>
+        <v>150</v>
       </c>
       <c r="H22" t="n">
-        <v>42.30237954274071</v>
+        <v>150</v>
       </c>
       <c r="I22" t="n">
-        <v>44.76071651461112</v>
+        <v>150</v>
       </c>
       <c r="J22" t="n">
-        <v>42.50946205683996</v>
+        <v>150</v>
       </c>
       <c r="K22" t="n">
-        <v>39.44691600604941</v>
+        <v>150</v>
       </c>
       <c r="L22" t="n">
-        <v>45.90102546750501</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.35463338750656</v>
+        <v>150</v>
       </c>
       <c r="C23" t="n">
-        <v>30.35401306262228</v>
+        <v>150</v>
       </c>
       <c r="D23" t="n">
-        <v>30.08594662450695</v>
+        <v>150</v>
       </c>
       <c r="E23" t="n">
-        <v>28.70368240911789</v>
+        <v>150</v>
       </c>
       <c r="F23" t="n">
-        <v>29.20413638454789</v>
+        <v>150</v>
       </c>
       <c r="G23" t="n">
-        <v>31.92455151183707</v>
+        <v>150</v>
       </c>
       <c r="H23" t="n">
-        <v>31.0132524868565</v>
+        <v>150</v>
       </c>
       <c r="I23" t="n">
-        <v>31.18043629824348</v>
+        <v>150</v>
       </c>
       <c r="J23" t="n">
-        <v>31.0125395954359</v>
+        <v>150</v>
       </c>
       <c r="K23" t="n">
-        <v>31.82670519825667</v>
+        <v>150</v>
       </c>
       <c r="L23" t="n">
-        <v>31.30750241722968</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>29.65033485044689</v>
+        <v>150</v>
       </c>
       <c r="C24" t="n">
-        <v>29.72819655649619</v>
+        <v>150</v>
       </c>
       <c r="D24" t="n">
-        <v>29.62482394708389</v>
+        <v>150</v>
       </c>
       <c r="E24" t="n">
-        <v>28.5078461284737</v>
+        <v>150</v>
       </c>
       <c r="F24" t="n">
-        <v>28.80573935616913</v>
+        <v>150</v>
       </c>
       <c r="G24" t="n">
-        <v>31.39721294620831</v>
+        <v>150</v>
       </c>
       <c r="H24" t="n">
-        <v>30.50757134793432</v>
+        <v>150</v>
       </c>
       <c r="I24" t="n">
-        <v>30.48736434990148</v>
+        <v>150</v>
       </c>
       <c r="J24" t="n">
-        <v>30.07137567107401</v>
+        <v>150</v>
       </c>
       <c r="K24" t="n">
-        <v>31.31732003309957</v>
+        <v>150</v>
       </c>
       <c r="L24" t="n">
-        <v>30.47094994320373</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.32134601321707</v>
+        <v>150</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49339758933859</v>
+        <v>150</v>
       </c>
       <c r="D25" t="n">
-        <v>29.54428833787886</v>
+        <v>150</v>
       </c>
       <c r="E25" t="n">
-        <v>28.41851355426291</v>
+        <v>150</v>
       </c>
       <c r="F25" t="n">
-        <v>28.63945486794247</v>
+        <v>150</v>
       </c>
       <c r="G25" t="n">
-        <v>31.29669028523207</v>
+        <v>150</v>
       </c>
       <c r="H25" t="n">
-        <v>30.32813142811355</v>
+        <v>150</v>
       </c>
       <c r="I25" t="n">
-        <v>30.29343006768564</v>
+        <v>150</v>
       </c>
       <c r="J25" t="n">
-        <v>29.67077379685017</v>
+        <v>150</v>
       </c>
       <c r="K25" t="n">
-        <v>31.18991556586331</v>
+        <v>150</v>
       </c>
       <c r="L25" t="n">
-        <v>30.14867305124344</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.28552847466469</v>
+        <v>150</v>
       </c>
       <c r="C26" t="n">
-        <v>29.38009024845026</v>
+        <v>150</v>
       </c>
       <c r="D26" t="n">
-        <v>29.42765167419541</v>
+        <v>150</v>
       </c>
       <c r="E26" t="n">
-        <v>28.37002288548666</v>
+        <v>150</v>
       </c>
       <c r="F26" t="n">
-        <v>28.59120300495419</v>
+        <v>150</v>
       </c>
       <c r="G26" t="n">
-        <v>31.24089054106295</v>
+        <v>150</v>
       </c>
       <c r="H26" t="n">
-        <v>30.13374964338601</v>
+        <v>150</v>
       </c>
       <c r="I26" t="n">
-        <v>30.17585823667456</v>
+        <v>150</v>
       </c>
       <c r="J26" t="n">
-        <v>29.54612667736926</v>
+        <v>150</v>
       </c>
       <c r="K26" t="n">
-        <v>31.04799229761502</v>
+        <v>150</v>
       </c>
       <c r="L26" t="n">
-        <v>30.01705309725802</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>41.77703269667931</v>
+        <v>150</v>
       </c>
       <c r="C27" t="n">
-        <v>41.93752542787918</v>
+        <v>150</v>
       </c>
       <c r="D27" t="n">
-        <v>41.2881624689294</v>
+        <v>150</v>
       </c>
       <c r="E27" t="n">
-        <v>29.62156514728662</v>
+        <v>150</v>
       </c>
       <c r="F27" t="n">
-        <v>34.4734742455995</v>
+        <v>150</v>
       </c>
       <c r="G27" t="n">
-        <v>39.8688016146012</v>
+        <v>150</v>
       </c>
       <c r="H27" t="n">
-        <v>41.66654914815385</v>
+        <v>150</v>
       </c>
       <c r="I27" t="n">
-        <v>42.79223096839668</v>
+        <v>150</v>
       </c>
       <c r="J27" t="n">
-        <v>41.57752428969945</v>
+        <v>150</v>
       </c>
       <c r="K27" t="n">
-        <v>39.93720810208668</v>
+        <v>150</v>
       </c>
       <c r="L27" t="n">
-        <v>40.7242498559992</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.67982757456372</v>
+        <v>150</v>
       </c>
       <c r="C28" t="n">
-        <v>30.71647135838656</v>
+        <v>150</v>
       </c>
       <c r="D28" t="n">
-        <v>30.46518027805913</v>
+        <v>150</v>
       </c>
       <c r="E28" t="n">
-        <v>28.80077381845978</v>
+        <v>150</v>
       </c>
       <c r="F28" t="n">
-        <v>29.39352933247739</v>
+        <v>150</v>
       </c>
       <c r="G28" t="n">
-        <v>32.06593274953789</v>
+        <v>150</v>
       </c>
       <c r="H28" t="n">
-        <v>31.12264477703913</v>
+        <v>150</v>
       </c>
       <c r="I28" t="n">
-        <v>31.47153253516978</v>
+        <v>150</v>
       </c>
       <c r="J28" t="n">
-        <v>31.4062367561667</v>
+        <v>150</v>
       </c>
       <c r="K28" t="n">
-        <v>31.87117211669568</v>
+        <v>150</v>
       </c>
       <c r="L28" t="n">
-        <v>31.42450775629414</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.70162322797629</v>
+        <v>150</v>
       </c>
       <c r="C29" t="n">
-        <v>29.82605077276625</v>
+        <v>150</v>
       </c>
       <c r="D29" t="n">
-        <v>29.79819566884635</v>
+        <v>150</v>
       </c>
       <c r="E29" t="n">
-        <v>28.58996887117695</v>
+        <v>150</v>
       </c>
       <c r="F29" t="n">
-        <v>28.90385124386981</v>
+        <v>150</v>
       </c>
       <c r="G29" t="n">
-        <v>31.50385488424643</v>
+        <v>150</v>
       </c>
       <c r="H29" t="n">
-        <v>30.6139366453196</v>
+        <v>150</v>
       </c>
       <c r="I29" t="n">
-        <v>30.59033346082736</v>
+        <v>150</v>
       </c>
       <c r="J29" t="n">
-        <v>30.10780162512354</v>
+        <v>150</v>
       </c>
       <c r="K29" t="n">
-        <v>31.37882798290866</v>
+        <v>150</v>
       </c>
       <c r="L29" t="n">
-        <v>30.59270179907161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29.38778928892249</v>
+        <v>150</v>
       </c>
       <c r="C30" t="n">
-        <v>29.58290599868642</v>
+        <v>150</v>
       </c>
       <c r="D30" t="n">
-        <v>29.59076476838804</v>
+        <v>150</v>
       </c>
       <c r="E30" t="n">
-        <v>28.4875783811208</v>
+        <v>150</v>
       </c>
       <c r="F30" t="n">
-        <v>28.68659537053066</v>
+        <v>150</v>
       </c>
       <c r="G30" t="n">
-        <v>31.35087053383202</v>
+        <v>150</v>
       </c>
       <c r="H30" t="n">
-        <v>30.36730805967406</v>
+        <v>150</v>
       </c>
       <c r="I30" t="n">
-        <v>30.31521315539933</v>
+        <v>150</v>
       </c>
       <c r="J30" t="n">
-        <v>29.71682830904627</v>
+        <v>150</v>
       </c>
       <c r="K30" t="n">
-        <v>31.18809174362318</v>
+        <v>150</v>
       </c>
       <c r="L30" t="n">
-        <v>30.22597855169133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.33153922446496</v>
+        <v>150</v>
       </c>
       <c r="C31" t="n">
-        <v>29.4252181592802</v>
+        <v>150</v>
       </c>
       <c r="D31" t="n">
-        <v>29.56199366260338</v>
+        <v>150</v>
       </c>
       <c r="E31" t="n">
-        <v>28.42449713722933</v>
+        <v>150</v>
       </c>
       <c r="F31" t="n">
-        <v>28.61272523050523</v>
+        <v>150</v>
       </c>
       <c r="G31" t="n">
-        <v>31.30930682951231</v>
+        <v>150</v>
       </c>
       <c r="H31" t="n">
-        <v>30.15753447051636</v>
+        <v>150</v>
       </c>
       <c r="I31" t="n">
-        <v>30.17811075246417</v>
+        <v>150</v>
       </c>
       <c r="J31" t="n">
-        <v>29.5359489531054</v>
+        <v>150</v>
       </c>
       <c r="K31" t="n">
-        <v>31.03216619477457</v>
+        <v>150</v>
       </c>
       <c r="L31" t="n">
-        <v>30.10080339483711</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>33.38089762313446</v>
+        <v>150</v>
       </c>
       <c r="C32" t="n">
-        <v>33.94578844470686</v>
+        <v>150</v>
       </c>
       <c r="D32" t="n">
-        <v>33.32520409744352</v>
+        <v>150</v>
       </c>
       <c r="E32" t="n">
-        <v>29.50498655892655</v>
+        <v>150</v>
       </c>
       <c r="F32" t="n">
-        <v>33.83832873743204</v>
+        <v>150</v>
       </c>
       <c r="G32" t="n">
-        <v>32.71412920779206</v>
+        <v>150</v>
       </c>
       <c r="H32" t="n">
-        <v>33.57301080571153</v>
+        <v>150</v>
       </c>
       <c r="I32" t="n">
-        <v>33.1862346026037</v>
+        <v>150</v>
       </c>
       <c r="J32" t="n">
-        <v>33.06516826566842</v>
+        <v>150</v>
       </c>
       <c r="K32" t="n">
-        <v>33.38253170307175</v>
+        <v>150</v>
       </c>
       <c r="L32" t="n">
-        <v>33.54653699043455</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.82008527094166</v>
+        <v>150</v>
       </c>
       <c r="C33" t="n">
-        <v>29.79787853300285</v>
+        <v>150</v>
       </c>
       <c r="D33" t="n">
-        <v>29.90565351024113</v>
+        <v>150</v>
       </c>
       <c r="E33" t="n">
-        <v>28.72597121440724</v>
+        <v>150</v>
       </c>
       <c r="F33" t="n">
-        <v>29.28787715581146</v>
+        <v>150</v>
       </c>
       <c r="G33" t="n">
-        <v>30.97968855662245</v>
+        <v>150</v>
       </c>
       <c r="H33" t="n">
-        <v>30.29015915112299</v>
+        <v>150</v>
       </c>
       <c r="I33" t="n">
-        <v>30.20466302707962</v>
+        <v>150</v>
       </c>
       <c r="J33" t="n">
-        <v>30.14962124791314</v>
+        <v>150</v>
       </c>
       <c r="K33" t="n">
-        <v>30.43752603438649</v>
+        <v>150</v>
       </c>
       <c r="L33" t="n">
-        <v>30.38714222972226</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.37827315828148</v>
+        <v>150</v>
       </c>
       <c r="C34" t="n">
-        <v>29.31914382847562</v>
+        <v>150</v>
       </c>
       <c r="D34" t="n">
-        <v>29.56487843766095</v>
+        <v>150</v>
       </c>
       <c r="E34" t="n">
-        <v>28.58832237085968</v>
+        <v>150</v>
       </c>
       <c r="F34" t="n">
-        <v>28.82596721840446</v>
+        <v>150</v>
       </c>
       <c r="G34" t="n">
-        <v>30.69949518156182</v>
+        <v>150</v>
       </c>
       <c r="H34" t="n">
-        <v>30.10131451850919</v>
+        <v>150</v>
       </c>
       <c r="I34" t="n">
-        <v>29.75667144577083</v>
+        <v>150</v>
       </c>
       <c r="J34" t="n">
-        <v>29.52114404298359</v>
+        <v>150</v>
       </c>
       <c r="K34" t="n">
-        <v>30.10094212245743</v>
+        <v>150</v>
       </c>
       <c r="L34" t="n">
-        <v>29.8922278189395</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.14355112340969</v>
+        <v>150</v>
       </c>
       <c r="C35" t="n">
-        <v>29.21093329688267</v>
+        <v>150</v>
       </c>
       <c r="D35" t="n">
-        <v>29.35222858413207</v>
+        <v>150</v>
       </c>
       <c r="E35" t="n">
-        <v>28.51104544586367</v>
+        <v>150</v>
       </c>
       <c r="F35" t="n">
-        <v>28.65575709506914</v>
+        <v>150</v>
       </c>
       <c r="G35" t="n">
-        <v>30.58701085599624</v>
+        <v>150</v>
       </c>
       <c r="H35" t="n">
-        <v>29.97290120312662</v>
+        <v>150</v>
       </c>
       <c r="I35" t="n">
-        <v>29.54742674199813</v>
+        <v>150</v>
       </c>
       <c r="J35" t="n">
-        <v>29.28471157666946</v>
+        <v>150</v>
       </c>
       <c r="K35" t="n">
-        <v>30.03246516484075</v>
+        <v>150</v>
       </c>
       <c r="L35" t="n">
-        <v>29.7087945216131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.10089207393678</v>
+        <v>150</v>
       </c>
       <c r="C36" t="n">
-        <v>29.06556553620118</v>
+        <v>150</v>
       </c>
       <c r="D36" t="n">
-        <v>29.26964082624498</v>
+        <v>150</v>
       </c>
       <c r="E36" t="n">
-        <v>28.453944111489</v>
+        <v>150</v>
       </c>
       <c r="F36" t="n">
-        <v>28.61874204676232</v>
+        <v>150</v>
       </c>
       <c r="G36" t="n">
-        <v>30.55103623583684</v>
+        <v>150</v>
       </c>
       <c r="H36" t="n">
-        <v>29.78157920339676</v>
+        <v>150</v>
       </c>
       <c r="I36" t="n">
-        <v>29.46981137638459</v>
+        <v>150</v>
       </c>
       <c r="J36" t="n">
-        <v>29.17751291544491</v>
+        <v>150</v>
       </c>
       <c r="K36" t="n">
-        <v>29.99081463592584</v>
+        <v>150</v>
       </c>
       <c r="L36" t="n">
-        <v>29.63944783407072</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.26840721070916</v>
+        <v>150</v>
       </c>
       <c r="C37" t="n">
-        <v>34.30031368206213</v>
+        <v>150</v>
       </c>
       <c r="D37" t="n">
-        <v>33.99028095744035</v>
+        <v>150</v>
       </c>
       <c r="E37" t="n">
-        <v>29.56510409312122</v>
+        <v>150</v>
       </c>
       <c r="F37" t="n">
-        <v>34.84890907546301</v>
+        <v>150</v>
       </c>
       <c r="G37" t="n">
-        <v>33.28109668235835</v>
+        <v>150</v>
       </c>
       <c r="H37" t="n">
-        <v>34.14301678482618</v>
+        <v>150</v>
       </c>
       <c r="I37" t="n">
-        <v>33.8620966329347</v>
+        <v>150</v>
       </c>
       <c r="J37" t="n">
-        <v>33.77328333040098</v>
+        <v>150</v>
       </c>
       <c r="K37" t="n">
-        <v>33.88134105211103</v>
+        <v>150</v>
       </c>
       <c r="L37" t="n">
-        <v>34.13947311458833</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.96526448785869</v>
+        <v>150</v>
       </c>
       <c r="C38" t="n">
-        <v>30.13973916524514</v>
+        <v>150</v>
       </c>
       <c r="D38" t="n">
-        <v>30.10014006687031</v>
+        <v>150</v>
       </c>
       <c r="E38" t="n">
-        <v>28.7792683154216</v>
+        <v>150</v>
       </c>
       <c r="F38" t="n">
-        <v>29.42173190275696</v>
+        <v>150</v>
       </c>
       <c r="G38" t="n">
-        <v>31.12215386137319</v>
+        <v>150</v>
       </c>
       <c r="H38" t="n">
-        <v>30.46929419707549</v>
+        <v>150</v>
       </c>
       <c r="I38" t="n">
-        <v>30.5494711174925</v>
+        <v>150</v>
       </c>
       <c r="J38" t="n">
-        <v>30.38329793388943</v>
+        <v>150</v>
       </c>
       <c r="K38" t="n">
-        <v>30.91274549174555</v>
+        <v>150</v>
       </c>
       <c r="L38" t="n">
-        <v>30.55064982011383</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.42833687649345</v>
+        <v>150</v>
       </c>
       <c r="C39" t="n">
-        <v>29.50492790738142</v>
+        <v>150</v>
       </c>
       <c r="D39" t="n">
-        <v>29.59468974522466</v>
+        <v>150</v>
       </c>
       <c r="E39" t="n">
-        <v>28.59399062722497</v>
+        <v>150</v>
       </c>
       <c r="F39" t="n">
-        <v>28.92074082236618</v>
+        <v>150</v>
       </c>
       <c r="G39" t="n">
-        <v>30.84083078735457</v>
+        <v>150</v>
       </c>
       <c r="H39" t="n">
-        <v>30.19061102656801</v>
+        <v>150</v>
       </c>
       <c r="I39" t="n">
-        <v>29.95830731736132</v>
+        <v>150</v>
       </c>
       <c r="J39" t="n">
-        <v>29.68196040651765</v>
+        <v>150</v>
       </c>
       <c r="K39" t="n">
-        <v>30.40211637888216</v>
+        <v>150</v>
       </c>
       <c r="L39" t="n">
-        <v>30.00786695841192</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.16315358022987</v>
+        <v>150</v>
       </c>
       <c r="C40" t="n">
-        <v>29.20903355692144</v>
+        <v>150</v>
       </c>
       <c r="D40" t="n">
-        <v>29.39796061637854</v>
+        <v>150</v>
       </c>
       <c r="E40" t="n">
-        <v>28.48975624847511</v>
+        <v>150</v>
       </c>
       <c r="F40" t="n">
-        <v>28.70962013901204</v>
+        <v>150</v>
       </c>
       <c r="G40" t="n">
-        <v>30.68572030037909</v>
+        <v>150</v>
       </c>
       <c r="H40" t="n">
-        <v>29.99072921180885</v>
+        <v>150</v>
       </c>
       <c r="I40" t="n">
-        <v>29.7174327317671</v>
+        <v>150</v>
       </c>
       <c r="J40" t="n">
-        <v>29.33756515988412</v>
+        <v>150</v>
       </c>
       <c r="K40" t="n">
-        <v>30.29120631747746</v>
+        <v>150</v>
       </c>
       <c r="L40" t="n">
-        <v>29.79524019918945</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>29.11728330844819</v>
+        <v>150</v>
       </c>
       <c r="C41" t="n">
-        <v>29.13122369769371</v>
+        <v>150</v>
       </c>
       <c r="D41" t="n">
-        <v>29.29518209242917</v>
+        <v>150</v>
       </c>
       <c r="E41" t="n">
-        <v>28.4097646253308</v>
+        <v>150</v>
       </c>
       <c r="F41" t="n">
-        <v>28.61202685590215</v>
+        <v>150</v>
       </c>
       <c r="G41" t="n">
-        <v>30.58766770620512</v>
+        <v>150</v>
       </c>
       <c r="H41" t="n">
-        <v>29.74988730966566</v>
+        <v>150</v>
       </c>
       <c r="I41" t="n">
-        <v>29.61900420897293</v>
+        <v>150</v>
       </c>
       <c r="J41" t="n">
-        <v>29.24300993795174</v>
+        <v>150</v>
       </c>
       <c r="K41" t="n">
-        <v>30.19520825160754</v>
+        <v>150</v>
       </c>
       <c r="L41" t="n">
-        <v>29.66535167739166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>33.76827375315251</v>
+        <v>150</v>
       </c>
       <c r="C42" t="n">
-        <v>33.97972713365971</v>
+        <v>150</v>
       </c>
       <c r="D42" t="n">
-        <v>33.58634222386294</v>
+        <v>150</v>
       </c>
       <c r="E42" t="n">
-        <v>29.70379855138175</v>
+        <v>150</v>
       </c>
       <c r="F42" t="n">
-        <v>34.25197985844943</v>
+        <v>150</v>
       </c>
       <c r="G42" t="n">
-        <v>33.06493502320068</v>
+        <v>150</v>
       </c>
       <c r="H42" t="n">
-        <v>33.79486398733055</v>
+        <v>150</v>
       </c>
       <c r="I42" t="n">
-        <v>33.39386728126017</v>
+        <v>150</v>
       </c>
       <c r="J42" t="n">
-        <v>33.38581948712252</v>
+        <v>150</v>
       </c>
       <c r="K42" t="n">
-        <v>33.69211711662226</v>
+        <v>150</v>
       </c>
       <c r="L42" t="n">
-        <v>33.81453567559432</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.61099544667375</v>
+        <v>150</v>
       </c>
       <c r="C43" t="n">
-        <v>29.64969644680103</v>
+        <v>150</v>
       </c>
       <c r="D43" t="n">
-        <v>29.50440417056153</v>
+        <v>150</v>
       </c>
       <c r="E43" t="n">
-        <v>28.68346883759691</v>
+        <v>150</v>
       </c>
       <c r="F43" t="n">
-        <v>29.09048236096764</v>
+        <v>150</v>
       </c>
       <c r="G43" t="n">
-        <v>30.62715919901831</v>
+        <v>150</v>
       </c>
       <c r="H43" t="n">
-        <v>30.19666461032657</v>
+        <v>150</v>
       </c>
       <c r="I43" t="n">
-        <v>29.97487656886102</v>
+        <v>150</v>
       </c>
       <c r="J43" t="n">
-        <v>29.8421869836158</v>
+        <v>150</v>
       </c>
       <c r="K43" t="n">
-        <v>30.3016339931979</v>
+        <v>150</v>
       </c>
       <c r="L43" t="n">
-        <v>30.11395944997463</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>29.0527335981377</v>
+        <v>150</v>
       </c>
       <c r="C44" t="n">
-        <v>29.03872313126313</v>
+        <v>150</v>
       </c>
       <c r="D44" t="n">
-        <v>29.21687492053938</v>
+        <v>150</v>
       </c>
       <c r="E44" t="n">
-        <v>28.48305361560097</v>
+        <v>150</v>
       </c>
       <c r="F44" t="n">
-        <v>28.67732322228875</v>
+        <v>150</v>
       </c>
       <c r="G44" t="n">
-        <v>30.21545228796995</v>
+        <v>150</v>
       </c>
       <c r="H44" t="n">
-        <v>29.86711506593326</v>
+        <v>150</v>
       </c>
       <c r="I44" t="n">
-        <v>29.41758532786593</v>
+        <v>150</v>
       </c>
       <c r="J44" t="n">
-        <v>29.20944979735704</v>
+        <v>150</v>
       </c>
       <c r="K44" t="n">
-        <v>29.84101766944592</v>
+        <v>150</v>
       </c>
       <c r="L44" t="n">
-        <v>29.48695153080747</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.80913783031813</v>
+        <v>150</v>
       </c>
       <c r="C45" t="n">
-        <v>28.8457830512048</v>
+        <v>150</v>
       </c>
       <c r="D45" t="n">
-        <v>29.06045841799124</v>
+        <v>150</v>
       </c>
       <c r="E45" t="n">
-        <v>28.36631669740887</v>
+        <v>150</v>
       </c>
       <c r="F45" t="n">
-        <v>28.5574067250454</v>
+        <v>150</v>
       </c>
       <c r="G45" t="n">
-        <v>29.95333291386256</v>
+        <v>150</v>
       </c>
       <c r="H45" t="n">
-        <v>29.69559616531925</v>
+        <v>150</v>
       </c>
       <c r="I45" t="n">
-        <v>29.18130008074396</v>
+        <v>150</v>
       </c>
       <c r="J45" t="n">
-        <v>28.90248681088912</v>
+        <v>150</v>
       </c>
       <c r="K45" t="n">
-        <v>29.62314074614559</v>
+        <v>150</v>
       </c>
       <c r="L45" t="n">
-        <v>29.19549269587499</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.71715698156935</v>
+        <v>150</v>
       </c>
       <c r="C46" t="n">
-        <v>28.7532497880381</v>
+        <v>150</v>
       </c>
       <c r="D46" t="n">
-        <v>28.89436766691872</v>
+        <v>150</v>
       </c>
       <c r="E46" t="n">
-        <v>28.29315318305502</v>
+        <v>150</v>
       </c>
       <c r="F46" t="n">
-        <v>28.4900918587665</v>
+        <v>150</v>
       </c>
       <c r="G46" t="n">
-        <v>29.78595217958461</v>
+        <v>150</v>
       </c>
       <c r="H46" t="n">
-        <v>29.54158684970118</v>
+        <v>150</v>
       </c>
       <c r="I46" t="n">
-        <v>29.01960319215824</v>
+        <v>150</v>
       </c>
       <c r="J46" t="n">
-        <v>28.81970373934663</v>
+        <v>150</v>
       </c>
       <c r="K46" t="n">
-        <v>29.57567046442442</v>
+        <v>150</v>
       </c>
       <c r="L46" t="n">
-        <v>29.05785296457875</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>32.50212525017692</v>
+        <v>150</v>
       </c>
       <c r="C47" t="n">
-        <v>32.87331112221706</v>
+        <v>150</v>
       </c>
       <c r="D47" t="n">
-        <v>32.6470436527466</v>
+        <v>150</v>
       </c>
       <c r="E47" t="n">
-        <v>29.75390538527238</v>
+        <v>150</v>
       </c>
       <c r="F47" t="n">
-        <v>33.43311362588879</v>
+        <v>150</v>
       </c>
       <c r="G47" t="n">
-        <v>32.43414434042599</v>
+        <v>150</v>
       </c>
       <c r="H47" t="n">
-        <v>32.94588109266474</v>
+        <v>150</v>
       </c>
       <c r="I47" t="n">
-        <v>32.36616194784094</v>
+        <v>150</v>
       </c>
       <c r="J47" t="n">
-        <v>32.20818463268675</v>
+        <v>150</v>
       </c>
       <c r="K47" t="n">
-        <v>32.66287042954073</v>
+        <v>150</v>
       </c>
       <c r="L47" t="n">
-        <v>32.90191542956388</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>29.55845528794608</v>
+        <v>150</v>
       </c>
       <c r="C48" t="n">
-        <v>29.6708389827627</v>
+        <v>150</v>
       </c>
       <c r="D48" t="n">
-        <v>29.5205197861393</v>
+        <v>150</v>
       </c>
       <c r="E48" t="n">
-        <v>28.79429870271379</v>
+        <v>150</v>
       </c>
       <c r="F48" t="n">
-        <v>29.24550297746087</v>
+        <v>150</v>
       </c>
       <c r="G48" t="n">
-        <v>30.57646237087178</v>
+        <v>150</v>
       </c>
       <c r="H48" t="n">
-        <v>29.98602737603014</v>
+        <v>150</v>
       </c>
       <c r="I48" t="n">
-        <v>29.85149572609283</v>
+        <v>150</v>
       </c>
       <c r="J48" t="n">
-        <v>29.78391058617897</v>
+        <v>150</v>
       </c>
       <c r="K48" t="n">
-        <v>30.14881648038685</v>
+        <v>150</v>
       </c>
       <c r="L48" t="n">
-        <v>29.92862219390518</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>29.01334624943376</v>
+        <v>150</v>
       </c>
       <c r="C49" t="n">
-        <v>29.03144370476642</v>
+        <v>150</v>
       </c>
       <c r="D49" t="n">
-        <v>29.0607884168322</v>
+        <v>150</v>
       </c>
       <c r="E49" t="n">
-        <v>28.57883462426232</v>
+        <v>150</v>
       </c>
       <c r="F49" t="n">
-        <v>28.7622072021801</v>
+        <v>150</v>
       </c>
       <c r="G49" t="n">
-        <v>30.09523500292971</v>
+        <v>150</v>
       </c>
       <c r="H49" t="n">
-        <v>29.6870277878709</v>
+        <v>150</v>
       </c>
       <c r="I49" t="n">
-        <v>29.29888339983599</v>
+        <v>150</v>
       </c>
       <c r="J49" t="n">
-        <v>29.15959046815867</v>
+        <v>150</v>
       </c>
       <c r="K49" t="n">
-        <v>29.65900913396504</v>
+        <v>150</v>
       </c>
       <c r="L49" t="n">
-        <v>29.3712434046848</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>28.75848954674591</v>
+        <v>150</v>
       </c>
       <c r="C50" t="n">
-        <v>28.79957375816813</v>
+        <v>150</v>
       </c>
       <c r="D50" t="n">
-        <v>28.95679530634489</v>
+        <v>150</v>
       </c>
       <c r="E50" t="n">
-        <v>28.44494459599494</v>
+        <v>150</v>
       </c>
       <c r="F50" t="n">
-        <v>28.60914329363059</v>
+        <v>150</v>
       </c>
       <c r="G50" t="n">
-        <v>29.84020523061279</v>
+        <v>150</v>
       </c>
       <c r="H50" t="n">
-        <v>29.48307654035498</v>
+        <v>150</v>
       </c>
       <c r="I50" t="n">
-        <v>29.035056594463</v>
+        <v>150</v>
       </c>
       <c r="J50" t="n">
-        <v>28.8122835073294</v>
+        <v>150</v>
       </c>
       <c r="K50" t="n">
-        <v>29.50623479704037</v>
+        <v>150</v>
       </c>
       <c r="L50" t="n">
-        <v>29.17625069851988</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>28.64430059036494</v>
+        <v>150</v>
       </c>
       <c r="C51" t="n">
-        <v>28.6921328837315</v>
+        <v>150</v>
       </c>
       <c r="D51" t="n">
-        <v>28.83038650117376</v>
+        <v>150</v>
       </c>
       <c r="E51" t="n">
-        <v>28.33915082465907</v>
+        <v>150</v>
       </c>
       <c r="F51" t="n">
-        <v>28.50275727728704</v>
+        <v>150</v>
       </c>
       <c r="G51" t="n">
-        <v>29.57251159107516</v>
+        <v>150</v>
       </c>
       <c r="H51" t="n">
-        <v>29.22133030305991</v>
+        <v>150</v>
       </c>
       <c r="I51" t="n">
-        <v>28.85973395387245</v>
+        <v>150</v>
       </c>
       <c r="J51" t="n">
-        <v>28.69235384490948</v>
+        <v>150</v>
       </c>
       <c r="K51" t="n">
-        <v>29.39277981548519</v>
+        <v>150</v>
       </c>
       <c r="L51" t="n">
-        <v>29.0144937639313</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>42.23458032485929</v>
+        <v>150</v>
       </c>
       <c r="C52" t="n">
-        <v>41.1468329048308</v>
+        <v>150</v>
       </c>
       <c r="D52" t="n">
-        <v>43.66615857749308</v>
+        <v>150</v>
       </c>
       <c r="E52" t="n">
-        <v>29.71235051530712</v>
+        <v>150</v>
       </c>
       <c r="F52" t="n">
-        <v>34.51213672206053</v>
+        <v>150</v>
       </c>
       <c r="G52" t="n">
-        <v>39.91707467498763</v>
+        <v>150</v>
       </c>
       <c r="H52" t="n">
-        <v>43.32252908174011</v>
+        <v>150</v>
       </c>
       <c r="I52" t="n">
-        <v>44.26410411071657</v>
+        <v>150</v>
       </c>
       <c r="J52" t="n">
-        <v>43.62957039116846</v>
+        <v>150</v>
       </c>
       <c r="K52" t="n">
-        <v>38.35453727067218</v>
+        <v>150</v>
       </c>
       <c r="L52" t="n">
-        <v>41.99480396132144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>30.17382327284557</v>
+        <v>150</v>
       </c>
       <c r="C53" t="n">
-        <v>30.17158570135983</v>
+        <v>150</v>
       </c>
       <c r="D53" t="n">
-        <v>29.93756772374356</v>
+        <v>150</v>
       </c>
       <c r="E53" t="n">
-        <v>28.71278734628165</v>
+        <v>150</v>
       </c>
       <c r="F53" t="n">
-        <v>29.19509112653174</v>
+        <v>150</v>
       </c>
       <c r="G53" t="n">
-        <v>31.4480887834371</v>
+        <v>150</v>
       </c>
       <c r="H53" t="n">
-        <v>30.56683463854201</v>
+        <v>150</v>
       </c>
       <c r="I53" t="n">
-        <v>30.93827666842888</v>
+        <v>150</v>
       </c>
       <c r="J53" t="n">
-        <v>30.81947646317938</v>
+        <v>150</v>
       </c>
       <c r="K53" t="n">
-        <v>31.48297437909093</v>
+        <v>150</v>
       </c>
       <c r="L53" t="n">
-        <v>30.87878102003588</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>29.37076287432023</v>
+        <v>150</v>
       </c>
       <c r="C54" t="n">
-        <v>29.38361706011875</v>
+        <v>150</v>
       </c>
       <c r="D54" t="n">
-        <v>29.50058625597101</v>
+        <v>150</v>
       </c>
       <c r="E54" t="n">
-        <v>28.53679303695938</v>
+        <v>150</v>
       </c>
       <c r="F54" t="n">
-        <v>28.74139282033158</v>
+        <v>150</v>
       </c>
       <c r="G54" t="n">
-        <v>30.47670226185131</v>
+        <v>150</v>
       </c>
       <c r="H54" t="n">
-        <v>30.1431777999111</v>
+        <v>150</v>
       </c>
       <c r="I54" t="n">
-        <v>30.02117211095376</v>
+        <v>150</v>
       </c>
       <c r="J54" t="n">
-        <v>29.65639542499302</v>
+        <v>150</v>
       </c>
       <c r="K54" t="n">
-        <v>30.70431306708091</v>
+        <v>150</v>
       </c>
       <c r="L54" t="n">
-        <v>29.9637007548876</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>28.9952066434995</v>
+        <v>150</v>
       </c>
       <c r="C55" t="n">
-        <v>29.11796866067707</v>
+        <v>150</v>
       </c>
       <c r="D55" t="n">
-        <v>29.17159286232448</v>
+        <v>150</v>
       </c>
       <c r="E55" t="n">
-        <v>28.44959436752422</v>
+        <v>150</v>
       </c>
       <c r="F55" t="n">
-        <v>28.57182705961392</v>
+        <v>150</v>
       </c>
       <c r="G55" t="n">
-        <v>30.16616199079125</v>
+        <v>150</v>
       </c>
       <c r="H55" t="n">
-        <v>30.00486737934502</v>
+        <v>150</v>
       </c>
       <c r="I55" t="n">
-        <v>29.55778054277437</v>
+        <v>150</v>
       </c>
       <c r="J55" t="n">
-        <v>29.22352689703569</v>
+        <v>150</v>
       </c>
       <c r="K55" t="n">
-        <v>30.3957686340412</v>
+        <v>150</v>
       </c>
       <c r="L55" t="n">
-        <v>29.59236309557977</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>28.8550353489948</v>
+        <v>150</v>
       </c>
       <c r="C56" t="n">
-        <v>28.92305372559991</v>
+        <v>150</v>
       </c>
       <c r="D56" t="n">
-        <v>29.02255846438329</v>
+        <v>150</v>
       </c>
       <c r="E56" t="n">
-        <v>28.36948673524503</v>
+        <v>150</v>
       </c>
       <c r="F56" t="n">
-        <v>28.49551001905073</v>
+        <v>150</v>
       </c>
       <c r="G56" t="n">
-        <v>29.9257078894648</v>
+        <v>150</v>
       </c>
       <c r="H56" t="n">
-        <v>29.75884198716738</v>
+        <v>150</v>
       </c>
       <c r="I56" t="n">
-        <v>29.31461573564274</v>
+        <v>150</v>
       </c>
       <c r="J56" t="n">
-        <v>29.01355087948688</v>
+        <v>150</v>
       </c>
       <c r="K56" t="n">
-        <v>30.2145774098395</v>
+        <v>150</v>
       </c>
       <c r="L56" t="n">
-        <v>29.35450997705298</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>34.89251843512977</v>
+        <v>150</v>
       </c>
       <c r="C57" t="n">
-        <v>34.967507157752</v>
+        <v>150</v>
       </c>
       <c r="D57" t="n">
-        <v>33.96136446657997</v>
+        <v>150</v>
       </c>
       <c r="E57" t="n">
-        <v>29.86067469297239</v>
+        <v>150</v>
       </c>
       <c r="F57" t="n">
-        <v>35.74764021698013</v>
+        <v>150</v>
       </c>
       <c r="G57" t="n">
-        <v>33.70421967887614</v>
+        <v>150</v>
       </c>
       <c r="H57" t="n">
-        <v>34.2946225567308</v>
+        <v>150</v>
       </c>
       <c r="I57" t="n">
-        <v>33.66430050337786</v>
+        <v>150</v>
       </c>
       <c r="J57" t="n">
-        <v>34.00096290837738</v>
+        <v>150</v>
       </c>
       <c r="K57" t="n">
-        <v>33.92974665793143</v>
+        <v>150</v>
       </c>
       <c r="L57" t="n">
-        <v>34.00665344686551</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>29.93919141454618</v>
+        <v>150</v>
       </c>
       <c r="C58" t="n">
-        <v>29.98041643577007</v>
+        <v>150</v>
       </c>
       <c r="D58" t="n">
-        <v>29.63661621937403</v>
+        <v>150</v>
       </c>
       <c r="E58" t="n">
-        <v>28.80109645524283</v>
+        <v>150</v>
       </c>
       <c r="F58" t="n">
-        <v>29.26959818880025</v>
+        <v>150</v>
       </c>
       <c r="G58" t="n">
-        <v>30.85555534662614</v>
+        <v>150</v>
       </c>
       <c r="H58" t="n">
-        <v>30.3009753172622</v>
+        <v>150</v>
       </c>
       <c r="I58" t="n">
-        <v>30.25578030291256</v>
+        <v>150</v>
       </c>
       <c r="J58" t="n">
-        <v>30.25564410646329</v>
+        <v>150</v>
       </c>
       <c r="K58" t="n">
-        <v>30.42243849493707</v>
+        <v>150</v>
       </c>
       <c r="L58" t="n">
-        <v>30.26387002969572</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>29.20870738821494</v>
+        <v>150</v>
       </c>
       <c r="C59" t="n">
-        <v>29.18431513146072</v>
+        <v>150</v>
       </c>
       <c r="D59" t="n">
-        <v>29.12725485727195</v>
+        <v>150</v>
       </c>
       <c r="E59" t="n">
-        <v>28.56788054609553</v>
+        <v>150</v>
       </c>
       <c r="F59" t="n">
-        <v>28.77950260332321</v>
+        <v>150</v>
       </c>
       <c r="G59" t="n">
-        <v>30.27468597823589</v>
+        <v>150</v>
       </c>
       <c r="H59" t="n">
-        <v>30.04157800653021</v>
+        <v>150</v>
       </c>
       <c r="I59" t="n">
-        <v>29.60584749838209</v>
+        <v>150</v>
       </c>
       <c r="J59" t="n">
-        <v>29.37170987859183</v>
+        <v>150</v>
       </c>
       <c r="K59" t="n">
-        <v>29.92501167217867</v>
+        <v>150</v>
       </c>
       <c r="L59" t="n">
-        <v>29.56834823518762</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>28.83392781714349</v>
+        <v>150</v>
       </c>
       <c r="C60" t="n">
-        <v>28.90233325490241</v>
+        <v>150</v>
       </c>
       <c r="D60" t="n">
-        <v>28.99959805439623</v>
+        <v>150</v>
       </c>
       <c r="E60" t="n">
-        <v>28.44184413027214</v>
+        <v>150</v>
       </c>
       <c r="F60" t="n">
-        <v>28.61749728373266</v>
+        <v>150</v>
       </c>
       <c r="G60" t="n">
-        <v>29.98780851467862</v>
+        <v>150</v>
       </c>
       <c r="H60" t="n">
-        <v>29.73382619901214</v>
+        <v>150</v>
       </c>
       <c r="I60" t="n">
-        <v>29.1893206320471</v>
+        <v>150</v>
       </c>
       <c r="J60" t="n">
-        <v>29.05225673195991</v>
+        <v>150</v>
       </c>
       <c r="K60" t="n">
-        <v>29.68409297103694</v>
+        <v>150</v>
       </c>
       <c r="L60" t="n">
-        <v>29.2485687334597</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>DWT_CosineWindow</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>28.72490485679587</v>
+        <v>150</v>
       </c>
       <c r="C61" t="n">
-        <v>28.73327252521549</v>
+        <v>150</v>
       </c>
       <c r="D61" t="n">
-        <v>28.86468403008743</v>
+        <v>150</v>
       </c>
       <c r="E61" t="n">
-        <v>28.33599659202362</v>
+        <v>150</v>
       </c>
       <c r="F61" t="n">
-        <v>28.50489383605036</v>
+        <v>150</v>
       </c>
       <c r="G61" t="n">
-        <v>29.78639165988594</v>
+        <v>150</v>
       </c>
       <c r="H61" t="n">
-        <v>29.42209989576114</v>
+        <v>150</v>
       </c>
       <c r="I61" t="n">
-        <v>29.02127865704238</v>
+        <v>150</v>
       </c>
       <c r="J61" t="n">
-        <v>28.83392080486815</v>
+        <v>150</v>
       </c>
       <c r="K61" t="n">
-        <v>29.5747269041903</v>
+        <v>150</v>
       </c>
       <c r="L61" t="n">
-        <v>29.09598326692024</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/results/report.xlsx
+++ b/dataset/results/report.xlsx
@@ -497,37 +497,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150</v>
+        <v>38.63215122251258</v>
       </c>
       <c r="C2" t="n">
-        <v>150</v>
+        <v>39.70496410501909</v>
       </c>
       <c r="D2" t="n">
-        <v>150</v>
+        <v>42.3561499894199</v>
       </c>
       <c r="E2" t="n">
-        <v>150</v>
+        <v>44.36215121994205</v>
       </c>
       <c r="F2" t="n">
-        <v>150</v>
+        <v>45.61714203179257</v>
       </c>
       <c r="G2" t="n">
-        <v>150</v>
+        <v>41.61700708264409</v>
       </c>
       <c r="H2" t="n">
-        <v>150</v>
+        <v>41.75156044762589</v>
       </c>
       <c r="I2" t="n">
-        <v>150</v>
+        <v>39.96648695696172</v>
       </c>
       <c r="J2" t="n">
-        <v>150</v>
+        <v>40.07890773454695</v>
       </c>
       <c r="K2" t="n">
-        <v>150</v>
+        <v>39.21130892526515</v>
       </c>
       <c r="L2" t="n">
-        <v>150</v>
+        <v>39.16987187312343</v>
       </c>
     </row>
     <row r="3">
@@ -537,37 +537,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150</v>
+        <v>29.38870017458644</v>
       </c>
       <c r="C3" t="n">
-        <v>150</v>
+        <v>29.60067403885919</v>
       </c>
       <c r="D3" t="n">
-        <v>150</v>
+        <v>29.56280360243512</v>
       </c>
       <c r="E3" t="n">
-        <v>150</v>
+        <v>28.62659787675441</v>
       </c>
       <c r="F3" t="n">
-        <v>150</v>
+        <v>29.06260180564178</v>
       </c>
       <c r="G3" t="n">
-        <v>150</v>
+        <v>30.29334938233103</v>
       </c>
       <c r="H3" t="n">
-        <v>150</v>
+        <v>30.02434182450315</v>
       </c>
       <c r="I3" t="n">
-        <v>150</v>
+        <v>29.58712226145234</v>
       </c>
       <c r="J3" t="n">
-        <v>150</v>
+        <v>29.46548304574551</v>
       </c>
       <c r="K3" t="n">
-        <v>150</v>
+        <v>30.24399674973071</v>
       </c>
       <c r="L3" t="n">
-        <v>150</v>
+        <v>29.7308835442346</v>
       </c>
     </row>
     <row r="4">
@@ -577,37 +577,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150</v>
+        <v>28.66151616974967</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>28.96434156962244</v>
       </c>
       <c r="D4" t="n">
-        <v>150</v>
+        <v>29.2323850340825</v>
       </c>
       <c r="E4" t="n">
-        <v>150</v>
+        <v>28.38180021331071</v>
       </c>
       <c r="F4" t="n">
-        <v>150</v>
+        <v>28.95337244698749</v>
       </c>
       <c r="G4" t="n">
-        <v>150</v>
+        <v>29.5380458136437</v>
       </c>
       <c r="H4" t="n">
-        <v>150</v>
+        <v>29.75000179910711</v>
       </c>
       <c r="I4" t="n">
-        <v>150</v>
+        <v>29.04594442053319</v>
       </c>
       <c r="J4" t="n">
-        <v>150</v>
+        <v>28.72693938914398</v>
       </c>
       <c r="K4" t="n">
-        <v>150</v>
+        <v>29.48398139103183</v>
       </c>
       <c r="L4" t="n">
-        <v>150</v>
+        <v>29.06211030535014</v>
       </c>
     </row>
     <row r="5">
@@ -617,37 +617,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>150</v>
+        <v>28.45287718709291</v>
       </c>
       <c r="C5" t="n">
-        <v>150</v>
+        <v>28.69262761104</v>
       </c>
       <c r="D5" t="n">
-        <v>150</v>
+        <v>29.13187036428563</v>
       </c>
       <c r="E5" t="n">
-        <v>150</v>
+        <v>28.26054986169298</v>
       </c>
       <c r="F5" t="n">
-        <v>150</v>
+        <v>28.94060037339934</v>
       </c>
       <c r="G5" t="n">
-        <v>150</v>
+        <v>29.30364946790251</v>
       </c>
       <c r="H5" t="n">
-        <v>150</v>
+        <v>29.59732787483131</v>
       </c>
       <c r="I5" t="n">
-        <v>150</v>
+        <v>28.83757261570667</v>
       </c>
       <c r="J5" t="n">
-        <v>150</v>
+        <v>28.48214495273318</v>
       </c>
       <c r="K5" t="n">
-        <v>150</v>
+        <v>29.3283154786586</v>
       </c>
       <c r="L5" t="n">
-        <v>150</v>
+        <v>28.77758962189331</v>
       </c>
     </row>
     <row r="6">
@@ -657,37 +657,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150</v>
+        <v>28.33050135929527</v>
       </c>
       <c r="C6" t="n">
-        <v>150</v>
+        <v>28.63100447930245</v>
       </c>
       <c r="D6" t="n">
-        <v>150</v>
+        <v>28.84079436996184</v>
       </c>
       <c r="E6" t="n">
-        <v>150</v>
+        <v>28.20386866695134</v>
       </c>
       <c r="F6" t="n">
-        <v>150</v>
+        <v>28.98083196240849</v>
       </c>
       <c r="G6" t="n">
-        <v>150</v>
+        <v>29.22240204759417</v>
       </c>
       <c r="H6" t="n">
-        <v>150</v>
+        <v>29.5547726206377</v>
       </c>
       <c r="I6" t="n">
-        <v>150</v>
+        <v>28.67786437008673</v>
       </c>
       <c r="J6" t="n">
-        <v>150</v>
+        <v>28.3575803717812</v>
       </c>
       <c r="K6" t="n">
-        <v>150</v>
+        <v>29.20175834369477</v>
       </c>
       <c r="L6" t="n">
-        <v>150</v>
+        <v>28.64514721767002</v>
       </c>
     </row>
     <row r="7">
@@ -697,37 +697,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150</v>
+        <v>36.89145917609023</v>
       </c>
       <c r="C7" t="n">
-        <v>150</v>
+        <v>36.6248336832373</v>
       </c>
       <c r="D7" t="n">
-        <v>150</v>
+        <v>39.29945404584652</v>
       </c>
       <c r="E7" t="n">
-        <v>150</v>
+        <v>42.43569489052062</v>
       </c>
       <c r="F7" t="n">
-        <v>150</v>
+        <v>44.1908058012539</v>
       </c>
       <c r="G7" t="n">
-        <v>150</v>
+        <v>37.41146016165079</v>
       </c>
       <c r="H7" t="n">
-        <v>150</v>
+        <v>38.52471465750046</v>
       </c>
       <c r="I7" t="n">
-        <v>150</v>
+        <v>37.21733110132733</v>
       </c>
       <c r="J7" t="n">
-        <v>150</v>
+        <v>37.45885799314556</v>
       </c>
       <c r="K7" t="n">
-        <v>150</v>
+        <v>37.22015652863183</v>
       </c>
       <c r="L7" t="n">
-        <v>150</v>
+        <v>36.19832419452657</v>
       </c>
     </row>
     <row r="8">
@@ -737,37 +737,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>150</v>
+        <v>29.48868240858037</v>
       </c>
       <c r="C8" t="n">
-        <v>150</v>
+        <v>29.51324158989819</v>
       </c>
       <c r="D8" t="n">
-        <v>150</v>
+        <v>29.55511204625711</v>
       </c>
       <c r="E8" t="n">
-        <v>150</v>
+        <v>28.61503364571242</v>
       </c>
       <c r="F8" t="n">
-        <v>150</v>
+        <v>28.92483038500443</v>
       </c>
       <c r="G8" t="n">
-        <v>150</v>
+        <v>30.08123095825783</v>
       </c>
       <c r="H8" t="n">
-        <v>150</v>
+        <v>30.09022621765879</v>
       </c>
       <c r="I8" t="n">
-        <v>150</v>
+        <v>29.53387324325824</v>
       </c>
       <c r="J8" t="n">
-        <v>150</v>
+        <v>29.43866910018603</v>
       </c>
       <c r="K8" t="n">
-        <v>150</v>
+        <v>30.06846443876266</v>
       </c>
       <c r="L8" t="n">
-        <v>150</v>
+        <v>29.60936696241098</v>
       </c>
     </row>
     <row r="9">
@@ -777,37 +777,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150</v>
+        <v>28.68464043555787</v>
       </c>
       <c r="C9" t="n">
-        <v>150</v>
+        <v>28.85807969705529</v>
       </c>
       <c r="D9" t="n">
-        <v>150</v>
+        <v>29.27290146173852</v>
       </c>
       <c r="E9" t="n">
-        <v>150</v>
+        <v>28.37281375592521</v>
       </c>
       <c r="F9" t="n">
-        <v>150</v>
+        <v>28.73912642684721</v>
       </c>
       <c r="G9" t="n">
-        <v>150</v>
+        <v>29.4761778262714</v>
       </c>
       <c r="H9" t="n">
-        <v>150</v>
+        <v>29.64436441290748</v>
       </c>
       <c r="I9" t="n">
-        <v>150</v>
+        <v>28.89618993051576</v>
       </c>
       <c r="J9" t="n">
-        <v>150</v>
+        <v>28.68895319293852</v>
       </c>
       <c r="K9" t="n">
-        <v>150</v>
+        <v>29.46027241621834</v>
       </c>
       <c r="L9" t="n">
-        <v>150</v>
+        <v>28.97287668466788</v>
       </c>
     </row>
     <row r="10">
@@ -817,37 +817,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150</v>
+        <v>28.39925648377429</v>
       </c>
       <c r="C10" t="n">
-        <v>150</v>
+        <v>28.62948636560916</v>
       </c>
       <c r="D10" t="n">
-        <v>150</v>
+        <v>29.15396903426558</v>
       </c>
       <c r="E10" t="n">
-        <v>150</v>
+        <v>28.27164994680646</v>
       </c>
       <c r="F10" t="n">
-        <v>150</v>
+        <v>28.72216825381928</v>
       </c>
       <c r="G10" t="n">
-        <v>150</v>
+        <v>29.17989838558412</v>
       </c>
       <c r="H10" t="n">
-        <v>150</v>
+        <v>29.53750982243384</v>
       </c>
       <c r="I10" t="n">
-        <v>150</v>
+        <v>28.70247429313892</v>
       </c>
       <c r="J10" t="n">
-        <v>150</v>
+        <v>28.43025573901647</v>
       </c>
       <c r="K10" t="n">
-        <v>150</v>
+        <v>29.16528898328743</v>
       </c>
       <c r="L10" t="n">
-        <v>150</v>
+        <v>28.66720566160689</v>
       </c>
     </row>
     <row r="11">
@@ -857,37 +857,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>150</v>
+        <v>28.30701731597165</v>
       </c>
       <c r="C11" t="n">
-        <v>150</v>
+        <v>28.49347856485667</v>
       </c>
       <c r="D11" t="n">
-        <v>150</v>
+        <v>28.95178561558113</v>
       </c>
       <c r="E11" t="n">
-        <v>150</v>
+        <v>28.22383213401246</v>
       </c>
       <c r="F11" t="n">
-        <v>150</v>
+        <v>28.78586166984</v>
       </c>
       <c r="G11" t="n">
-        <v>150</v>
+        <v>29.04762189606448</v>
       </c>
       <c r="H11" t="n">
-        <v>150</v>
+        <v>29.45089805179579</v>
       </c>
       <c r="I11" t="n">
-        <v>150</v>
+        <v>28.64121757681877</v>
       </c>
       <c r="J11" t="n">
-        <v>150</v>
+        <v>28.2945371590966</v>
       </c>
       <c r="K11" t="n">
-        <v>150</v>
+        <v>29.01439711088983</v>
       </c>
       <c r="L11" t="n">
-        <v>150</v>
+        <v>28.57930852882701</v>
       </c>
     </row>
     <row r="12">
@@ -897,37 +897,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150</v>
+        <v>36.89145917609023</v>
       </c>
       <c r="C12" t="n">
-        <v>150</v>
+        <v>36.6248336832373</v>
       </c>
       <c r="D12" t="n">
-        <v>150</v>
+        <v>39.29945404584652</v>
       </c>
       <c r="E12" t="n">
-        <v>150</v>
+        <v>39.91855969460168</v>
       </c>
       <c r="F12" t="n">
-        <v>150</v>
+        <v>42.14254668348734</v>
       </c>
       <c r="G12" t="n">
-        <v>150</v>
+        <v>37.41146016165079</v>
       </c>
       <c r="H12" t="n">
-        <v>150</v>
+        <v>38.52471465750046</v>
       </c>
       <c r="I12" t="n">
-        <v>150</v>
+        <v>37.21733110132733</v>
       </c>
       <c r="J12" t="n">
-        <v>150</v>
+        <v>37.45885799314556</v>
       </c>
       <c r="K12" t="n">
-        <v>150</v>
+        <v>37.22158068197049</v>
       </c>
       <c r="L12" t="n">
-        <v>150</v>
+        <v>36.19832419452657</v>
       </c>
     </row>
     <row r="13">
@@ -937,37 +937,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150</v>
+        <v>29.48050055818105</v>
       </c>
       <c r="C13" t="n">
-        <v>150</v>
+        <v>29.39915761011931</v>
       </c>
       <c r="D13" t="n">
-        <v>150</v>
+        <v>29.56426353417947</v>
       </c>
       <c r="E13" t="n">
-        <v>150</v>
+        <v>28.65659025155078</v>
       </c>
       <c r="F13" t="n">
-        <v>150</v>
+        <v>28.88618540669079</v>
       </c>
       <c r="G13" t="n">
-        <v>150</v>
+        <v>30.18928443621865</v>
       </c>
       <c r="H13" t="n">
-        <v>150</v>
+        <v>29.88050288725857</v>
       </c>
       <c r="I13" t="n">
-        <v>150</v>
+        <v>29.64587269096778</v>
       </c>
       <c r="J13" t="n">
-        <v>150</v>
+        <v>29.43493714677105</v>
       </c>
       <c r="K13" t="n">
-        <v>150</v>
+        <v>30.10074915667172</v>
       </c>
       <c r="L13" t="n">
-        <v>150</v>
+        <v>29.54498576899065</v>
       </c>
     </row>
     <row r="14">
@@ -977,37 +977,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>150</v>
+        <v>28.73064001416958</v>
       </c>
       <c r="C14" t="n">
-        <v>150</v>
+        <v>28.87703123760808</v>
       </c>
       <c r="D14" t="n">
-        <v>150</v>
+        <v>29.34208747721886</v>
       </c>
       <c r="E14" t="n">
-        <v>150</v>
+        <v>28.38903145006085</v>
       </c>
       <c r="F14" t="n">
-        <v>150</v>
+        <v>28.67714811528871</v>
       </c>
       <c r="G14" t="n">
-        <v>150</v>
+        <v>29.50371958902233</v>
       </c>
       <c r="H14" t="n">
-        <v>150</v>
+        <v>29.42624408793443</v>
       </c>
       <c r="I14" t="n">
-        <v>150</v>
+        <v>28.94357307082387</v>
       </c>
       <c r="J14" t="n">
-        <v>150</v>
+        <v>28.73194275167585</v>
       </c>
       <c r="K14" t="n">
-        <v>150</v>
+        <v>29.37365391232191</v>
       </c>
       <c r="L14" t="n">
-        <v>150</v>
+        <v>28.9898084157011</v>
       </c>
     </row>
     <row r="15">
@@ -1017,37 +1017,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150</v>
+        <v>28.47241991113926</v>
       </c>
       <c r="C15" t="n">
-        <v>150</v>
+        <v>28.63380568393644</v>
       </c>
       <c r="D15" t="n">
-        <v>150</v>
+        <v>29.20831839611</v>
       </c>
       <c r="E15" t="n">
-        <v>150</v>
+        <v>28.30263397721104</v>
       </c>
       <c r="F15" t="n">
-        <v>150</v>
+        <v>28.65643542492501</v>
       </c>
       <c r="G15" t="n">
-        <v>150</v>
+        <v>29.18211885975355</v>
       </c>
       <c r="H15" t="n">
-        <v>150</v>
+        <v>29.30074217759102</v>
       </c>
       <c r="I15" t="n">
-        <v>150</v>
+        <v>28.61339224329868</v>
       </c>
       <c r="J15" t="n">
-        <v>150</v>
+        <v>28.38991204365652</v>
       </c>
       <c r="K15" t="n">
-        <v>150</v>
+        <v>29.04536032018074</v>
       </c>
       <c r="L15" t="n">
-        <v>150</v>
+        <v>28.62924776818059</v>
       </c>
     </row>
     <row r="16">
@@ -1057,37 +1057,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150</v>
+        <v>28.31039263279148</v>
       </c>
       <c r="C16" t="n">
-        <v>150</v>
+        <v>28.46874227495455</v>
       </c>
       <c r="D16" t="n">
-        <v>150</v>
+        <v>29.02386062619696</v>
       </c>
       <c r="E16" t="n">
-        <v>150</v>
+        <v>28.24509609928211</v>
       </c>
       <c r="F16" t="n">
-        <v>150</v>
+        <v>28.62184308745877</v>
       </c>
       <c r="G16" t="n">
-        <v>150</v>
+        <v>29.00014850741818</v>
       </c>
       <c r="H16" t="n">
-        <v>150</v>
+        <v>29.29180772439775</v>
       </c>
       <c r="I16" t="n">
-        <v>150</v>
+        <v>28.50950523501351</v>
       </c>
       <c r="J16" t="n">
-        <v>150</v>
+        <v>28.28769691727776</v>
       </c>
       <c r="K16" t="n">
-        <v>150</v>
+        <v>28.89071911675453</v>
       </c>
       <c r="L16" t="n">
-        <v>150</v>
+        <v>28.53406387262055</v>
       </c>
     </row>
     <row r="17">
@@ -1097,37 +1097,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>150</v>
+        <v>36.35901900142101</v>
       </c>
       <c r="C17" t="n">
-        <v>150</v>
+        <v>36.1872500678498</v>
       </c>
       <c r="D17" t="n">
-        <v>150</v>
+        <v>38.3995701916085</v>
       </c>
       <c r="E17" t="n">
-        <v>150</v>
+        <v>39.31825873761699</v>
       </c>
       <c r="F17" t="n">
-        <v>150</v>
+        <v>41.7293922321535</v>
       </c>
       <c r="G17" t="n">
-        <v>150</v>
+        <v>37.10524584139217</v>
       </c>
       <c r="H17" t="n">
-        <v>150</v>
+        <v>38.23861021716894</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>36.70802476262617</v>
       </c>
       <c r="J17" t="n">
-        <v>150</v>
+        <v>36.8205451995068</v>
       </c>
       <c r="K17" t="n">
-        <v>150</v>
+        <v>36.98291130710109</v>
       </c>
       <c r="L17" t="n">
-        <v>150</v>
+        <v>35.67516714807861</v>
       </c>
     </row>
     <row r="18">
@@ -1137,37 +1137,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150</v>
+        <v>29.57415864899767</v>
       </c>
       <c r="C18" t="n">
-        <v>150</v>
+        <v>29.4691304219368</v>
       </c>
       <c r="D18" t="n">
-        <v>150</v>
+        <v>29.38134596005158</v>
       </c>
       <c r="E18" t="n">
-        <v>150</v>
+        <v>28.6718891783345</v>
       </c>
       <c r="F18" t="n">
-        <v>150</v>
+        <v>28.85985838165757</v>
       </c>
       <c r="G18" t="n">
-        <v>150</v>
+        <v>30.01142034780597</v>
       </c>
       <c r="H18" t="n">
-        <v>150</v>
+        <v>30.14219625848416</v>
       </c>
       <c r="I18" t="n">
-        <v>150</v>
+        <v>29.61042149466694</v>
       </c>
       <c r="J18" t="n">
-        <v>150</v>
+        <v>29.38508077641374</v>
       </c>
       <c r="K18" t="n">
-        <v>150</v>
+        <v>30.09080894286539</v>
       </c>
       <c r="L18" t="n">
-        <v>150</v>
+        <v>29.57693780075909</v>
       </c>
     </row>
     <row r="19">
@@ -1177,37 +1177,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>150</v>
+        <v>28.8338312045688</v>
       </c>
       <c r="C19" t="n">
-        <v>150</v>
+        <v>28.88023673315442</v>
       </c>
       <c r="D19" t="n">
-        <v>150</v>
+        <v>29.18609846644749</v>
       </c>
       <c r="E19" t="n">
-        <v>150</v>
+        <v>28.41322555480859</v>
       </c>
       <c r="F19" t="n">
-        <v>150</v>
+        <v>28.60367284239679</v>
       </c>
       <c r="G19" t="n">
-        <v>150</v>
+        <v>29.4126089610906</v>
       </c>
       <c r="H19" t="n">
-        <v>150</v>
+        <v>29.59991370083501</v>
       </c>
       <c r="I19" t="n">
-        <v>150</v>
+        <v>28.96760897094758</v>
       </c>
       <c r="J19" t="n">
-        <v>150</v>
+        <v>28.75950271943923</v>
       </c>
       <c r="K19" t="n">
-        <v>150</v>
+        <v>29.38874886676001</v>
       </c>
       <c r="L19" t="n">
-        <v>150</v>
+        <v>29.03223797275582</v>
       </c>
     </row>
     <row r="20">
@@ -1217,37 +1217,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>150</v>
+        <v>28.46811125570999</v>
       </c>
       <c r="C20" t="n">
-        <v>150</v>
+        <v>28.5867655542825</v>
       </c>
       <c r="D20" t="n">
-        <v>150</v>
+        <v>29.10382360739636</v>
       </c>
       <c r="E20" t="n">
-        <v>150</v>
+        <v>28.30877161481661</v>
       </c>
       <c r="F20" t="n">
-        <v>150</v>
+        <v>28.54726570561987</v>
       </c>
       <c r="G20" t="n">
-        <v>150</v>
+        <v>29.20932831898504</v>
       </c>
       <c r="H20" t="n">
-        <v>150</v>
+        <v>29.45151687129144</v>
       </c>
       <c r="I20" t="n">
-        <v>150</v>
+        <v>28.63713288051333</v>
       </c>
       <c r="J20" t="n">
-        <v>150</v>
+        <v>28.44456775745766</v>
       </c>
       <c r="K20" t="n">
-        <v>150</v>
+        <v>29.09300491562561</v>
       </c>
       <c r="L20" t="n">
-        <v>150</v>
+        <v>28.72723511026647</v>
       </c>
     </row>
     <row r="21">
@@ -1257,37 +1257,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150</v>
+        <v>28.29249729874654</v>
       </c>
       <c r="C21" t="n">
-        <v>150</v>
+        <v>28.46882035294897</v>
       </c>
       <c r="D21" t="n">
-        <v>150</v>
+        <v>28.98003515406769</v>
       </c>
       <c r="E21" t="n">
-        <v>150</v>
+        <v>28.268787866257</v>
       </c>
       <c r="F21" t="n">
-        <v>150</v>
+        <v>28.53658967254171</v>
       </c>
       <c r="G21" t="n">
-        <v>150</v>
+        <v>29.04158928325543</v>
       </c>
       <c r="H21" t="n">
-        <v>150</v>
+        <v>29.39794198528078</v>
       </c>
       <c r="I21" t="n">
-        <v>150</v>
+        <v>28.49651754188532</v>
       </c>
       <c r="J21" t="n">
-        <v>150</v>
+        <v>28.31525136871214</v>
       </c>
       <c r="K21" t="n">
-        <v>150</v>
+        <v>28.93657731341783</v>
       </c>
       <c r="L21" t="n">
-        <v>150</v>
+        <v>28.578584834917</v>
       </c>
     </row>
     <row r="22">
@@ -1297,37 +1297,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>150</v>
+        <v>36.89145917609023</v>
       </c>
       <c r="C22" t="n">
-        <v>150</v>
+        <v>36.6248336832373</v>
       </c>
       <c r="D22" t="n">
-        <v>150</v>
+        <v>39.29945404584652</v>
       </c>
       <c r="E22" t="n">
-        <v>150</v>
+        <v>41.01137592938055</v>
       </c>
       <c r="F22" t="n">
-        <v>150</v>
+        <v>42.92705469389042</v>
       </c>
       <c r="G22" t="n">
-        <v>150</v>
+        <v>37.41146016165079</v>
       </c>
       <c r="H22" t="n">
-        <v>150</v>
+        <v>38.52471465750046</v>
       </c>
       <c r="I22" t="n">
-        <v>150</v>
+        <v>37.21733110132733</v>
       </c>
       <c r="J22" t="n">
-        <v>150</v>
+        <v>37.45885799314556</v>
       </c>
       <c r="K22" t="n">
-        <v>150</v>
+        <v>37.22154843182147</v>
       </c>
       <c r="L22" t="n">
-        <v>150</v>
+        <v>36.19832419452657</v>
       </c>
     </row>
     <row r="23">
@@ -1337,37 +1337,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>150</v>
+        <v>29.66296235416061</v>
       </c>
       <c r="C23" t="n">
-        <v>150</v>
+        <v>29.45529007478688</v>
       </c>
       <c r="D23" t="n">
-        <v>150</v>
+        <v>29.41065542355631</v>
       </c>
       <c r="E23" t="n">
-        <v>150</v>
+        <v>28.67612034948041</v>
       </c>
       <c r="F23" t="n">
-        <v>150</v>
+        <v>28.83919197005591</v>
       </c>
       <c r="G23" t="n">
-        <v>150</v>
+        <v>29.96587719610833</v>
       </c>
       <c r="H23" t="n">
-        <v>150</v>
+        <v>30.0842889605911</v>
       </c>
       <c r="I23" t="n">
-        <v>150</v>
+        <v>29.71628029543911</v>
       </c>
       <c r="J23" t="n">
-        <v>150</v>
+        <v>29.47644250720434</v>
       </c>
       <c r="K23" t="n">
-        <v>150</v>
+        <v>30.04896267025817</v>
       </c>
       <c r="L23" t="n">
-        <v>150</v>
+        <v>29.62676964662322</v>
       </c>
     </row>
     <row r="24">
@@ -1377,37 +1377,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>150</v>
+        <v>28.80416395816887</v>
       </c>
       <c r="C24" t="n">
-        <v>150</v>
+        <v>28.83291972397375</v>
       </c>
       <c r="D24" t="n">
-        <v>150</v>
+        <v>29.17437702091848</v>
       </c>
       <c r="E24" t="n">
-        <v>150</v>
+        <v>28.43842754776728</v>
       </c>
       <c r="F24" t="n">
-        <v>150</v>
+        <v>28.58955843043702</v>
       </c>
       <c r="G24" t="n">
-        <v>150</v>
+        <v>29.35532869038942</v>
       </c>
       <c r="H24" t="n">
-        <v>150</v>
+        <v>29.47817733446412</v>
       </c>
       <c r="I24" t="n">
-        <v>150</v>
+        <v>28.97517567356059</v>
       </c>
       <c r="J24" t="n">
-        <v>150</v>
+        <v>28.74620785009253</v>
       </c>
       <c r="K24" t="n">
-        <v>150</v>
+        <v>29.40144426154881</v>
       </c>
       <c r="L24" t="n">
-        <v>150</v>
+        <v>28.97609013551328</v>
       </c>
     </row>
     <row r="25">
@@ -1417,37 +1417,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>150</v>
+        <v>28.4947401631731</v>
       </c>
       <c r="C25" t="n">
-        <v>150</v>
+        <v>28.60431278524931</v>
       </c>
       <c r="D25" t="n">
-        <v>150</v>
+        <v>29.09012695645229</v>
       </c>
       <c r="E25" t="n">
-        <v>150</v>
+        <v>28.31933515397456</v>
       </c>
       <c r="F25" t="n">
-        <v>150</v>
+        <v>28.48664251794193</v>
       </c>
       <c r="G25" t="n">
-        <v>150</v>
+        <v>29.22396328070477</v>
       </c>
       <c r="H25" t="n">
-        <v>150</v>
+        <v>29.53857637265178</v>
       </c>
       <c r="I25" t="n">
-        <v>150</v>
+        <v>28.78301747680514</v>
       </c>
       <c r="J25" t="n">
-        <v>150</v>
+        <v>28.50160575877639</v>
       </c>
       <c r="K25" t="n">
-        <v>150</v>
+        <v>29.1221021965049</v>
       </c>
       <c r="L25" t="n">
-        <v>150</v>
+        <v>28.69100713665619</v>
       </c>
     </row>
     <row r="26">
@@ -1457,37 +1457,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>150</v>
+        <v>28.34428251836729</v>
       </c>
       <c r="C26" t="n">
-        <v>150</v>
+        <v>28.5172974119765</v>
       </c>
       <c r="D26" t="n">
-        <v>150</v>
+        <v>29.03625312413993</v>
       </c>
       <c r="E26" t="n">
-        <v>150</v>
+        <v>28.24720263952806</v>
       </c>
       <c r="F26" t="n">
-        <v>150</v>
+        <v>28.45549276910823</v>
       </c>
       <c r="G26" t="n">
-        <v>150</v>
+        <v>29.04104254214742</v>
       </c>
       <c r="H26" t="n">
-        <v>150</v>
+        <v>29.38092970577346</v>
       </c>
       <c r="I26" t="n">
-        <v>150</v>
+        <v>28.61225784572663</v>
       </c>
       <c r="J26" t="n">
-        <v>150</v>
+        <v>28.36882902199406</v>
       </c>
       <c r="K26" t="n">
-        <v>150</v>
+        <v>28.95848038630364</v>
       </c>
       <c r="L26" t="n">
-        <v>150</v>
+        <v>28.51942754926046</v>
       </c>
     </row>
     <row r="27">
@@ -1497,37 +1497,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150</v>
+        <v>35.51822575683825</v>
       </c>
       <c r="C27" t="n">
-        <v>150</v>
+        <v>35.41495113801405</v>
       </c>
       <c r="D27" t="n">
-        <v>150</v>
+        <v>37.2778331378892</v>
       </c>
       <c r="E27" t="n">
-        <v>150</v>
+        <v>38.81616041892635</v>
       </c>
       <c r="F27" t="n">
-        <v>150</v>
+        <v>41.06468034392713</v>
       </c>
       <c r="G27" t="n">
-        <v>150</v>
+        <v>36.16890070362808</v>
       </c>
       <c r="H27" t="n">
-        <v>150</v>
+        <v>37.43794370953896</v>
       </c>
       <c r="I27" t="n">
-        <v>150</v>
+        <v>35.67474174766492</v>
       </c>
       <c r="J27" t="n">
-        <v>150</v>
+        <v>35.86762766825055</v>
       </c>
       <c r="K27" t="n">
-        <v>150</v>
+        <v>36.36604034141</v>
       </c>
       <c r="L27" t="n">
-        <v>150</v>
+        <v>35.3853804498282</v>
       </c>
     </row>
     <row r="28">
@@ -1537,37 +1537,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>150</v>
+        <v>29.5922471205364</v>
       </c>
       <c r="C28" t="n">
-        <v>150</v>
+        <v>29.44972262740327</v>
       </c>
       <c r="D28" t="n">
-        <v>150</v>
+        <v>29.35683651060334</v>
       </c>
       <c r="E28" t="n">
-        <v>150</v>
+        <v>28.67939404095289</v>
       </c>
       <c r="F28" t="n">
-        <v>150</v>
+        <v>28.78708280429593</v>
       </c>
       <c r="G28" t="n">
-        <v>150</v>
+        <v>29.74505745109692</v>
       </c>
       <c r="H28" t="n">
-        <v>150</v>
+        <v>29.93231699094904</v>
       </c>
       <c r="I28" t="n">
-        <v>150</v>
+        <v>29.60614998575835</v>
       </c>
       <c r="J28" t="n">
-        <v>150</v>
+        <v>29.37548142703656</v>
       </c>
       <c r="K28" t="n">
-        <v>150</v>
+        <v>29.9919944741526</v>
       </c>
       <c r="L28" t="n">
-        <v>150</v>
+        <v>29.55346575778016</v>
       </c>
     </row>
     <row r="29">
@@ -1577,37 +1577,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>150</v>
+        <v>28.83518865244245</v>
       </c>
       <c r="C29" t="n">
-        <v>150</v>
+        <v>28.84046350348272</v>
       </c>
       <c r="D29" t="n">
-        <v>150</v>
+        <v>29.16643866842128</v>
       </c>
       <c r="E29" t="n">
-        <v>150</v>
+        <v>28.43699962403719</v>
       </c>
       <c r="F29" t="n">
-        <v>150</v>
+        <v>28.51893694545451</v>
       </c>
       <c r="G29" t="n">
-        <v>150</v>
+        <v>29.29443527894006</v>
       </c>
       <c r="H29" t="n">
-        <v>150</v>
+        <v>29.41392041560931</v>
       </c>
       <c r="I29" t="n">
-        <v>150</v>
+        <v>28.88866401111016</v>
       </c>
       <c r="J29" t="n">
-        <v>150</v>
+        <v>28.68418500657362</v>
       </c>
       <c r="K29" t="n">
-        <v>150</v>
+        <v>29.24064517477005</v>
       </c>
       <c r="L29" t="n">
-        <v>150</v>
+        <v>28.96574605819116</v>
       </c>
     </row>
     <row r="30">
@@ -1617,37 +1617,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150</v>
+        <v>28.56001362346272</v>
       </c>
       <c r="C30" t="n">
-        <v>150</v>
+        <v>28.61196170714724</v>
       </c>
       <c r="D30" t="n">
-        <v>150</v>
+        <v>29.01369948592599</v>
       </c>
       <c r="E30" t="n">
-        <v>150</v>
+        <v>28.31668373237272</v>
       </c>
       <c r="F30" t="n">
-        <v>150</v>
+        <v>28.43703286757684</v>
       </c>
       <c r="G30" t="n">
-        <v>150</v>
+        <v>28.984679853602</v>
       </c>
       <c r="H30" t="n">
-        <v>150</v>
+        <v>29.29115324818952</v>
       </c>
       <c r="I30" t="n">
-        <v>150</v>
+        <v>28.62022340152495</v>
       </c>
       <c r="J30" t="n">
-        <v>150</v>
+        <v>28.46074421461914</v>
       </c>
       <c r="K30" t="n">
-        <v>150</v>
+        <v>29.01140923779647</v>
       </c>
       <c r="L30" t="n">
-        <v>150</v>
+        <v>28.64384489721081</v>
       </c>
     </row>
     <row r="31">
@@ -1657,37 +1657,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>150</v>
+        <v>28.40211805645953</v>
       </c>
       <c r="C31" t="n">
-        <v>150</v>
+        <v>28.47902051739674</v>
       </c>
       <c r="D31" t="n">
-        <v>150</v>
+        <v>29.10863421571025</v>
       </c>
       <c r="E31" t="n">
-        <v>150</v>
+        <v>28.25080391915368</v>
       </c>
       <c r="F31" t="n">
-        <v>150</v>
+        <v>28.4109636118338</v>
       </c>
       <c r="G31" t="n">
-        <v>150</v>
+        <v>28.80508412860948</v>
       </c>
       <c r="H31" t="n">
-        <v>150</v>
+        <v>29.32831111324543</v>
       </c>
       <c r="I31" t="n">
-        <v>150</v>
+        <v>28.56522516167712</v>
       </c>
       <c r="J31" t="n">
-        <v>150</v>
+        <v>28.32686980782869</v>
       </c>
       <c r="K31" t="n">
-        <v>150</v>
+        <v>28.84916258641848</v>
       </c>
       <c r="L31" t="n">
-        <v>150</v>
+        <v>28.52329054408521</v>
       </c>
     </row>
     <row r="32">
@@ -1697,37 +1697,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>150</v>
+        <v>34.20066724119624</v>
       </c>
       <c r="C32" t="n">
-        <v>150</v>
+        <v>34.29936738570679</v>
       </c>
       <c r="D32" t="n">
-        <v>150</v>
+        <v>35.49986548264636</v>
       </c>
       <c r="E32" t="n">
-        <v>150</v>
+        <v>38.07773859067359</v>
       </c>
       <c r="F32" t="n">
-        <v>150</v>
+        <v>40.07348341534949</v>
       </c>
       <c r="G32" t="n">
-        <v>150</v>
+        <v>34.36344111201348</v>
       </c>
       <c r="H32" t="n">
-        <v>150</v>
+        <v>35.94172183529111</v>
       </c>
       <c r="I32" t="n">
-        <v>150</v>
+        <v>34.71750670249136</v>
       </c>
       <c r="J32" t="n">
-        <v>150</v>
+        <v>34.52436928472</v>
       </c>
       <c r="K32" t="n">
-        <v>150</v>
+        <v>35.04877755608629</v>
       </c>
       <c r="L32" t="n">
-        <v>150</v>
+        <v>34.28943686209208</v>
       </c>
     </row>
     <row r="33">
@@ -1737,37 +1737,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150</v>
+        <v>29.44225368365855</v>
       </c>
       <c r="C33" t="n">
-        <v>150</v>
+        <v>29.29019595139239</v>
       </c>
       <c r="D33" t="n">
-        <v>150</v>
+        <v>29.22225634977539</v>
       </c>
       <c r="E33" t="n">
-        <v>150</v>
+        <v>28.68718004536795</v>
       </c>
       <c r="F33" t="n">
-        <v>150</v>
+        <v>28.81272136252025</v>
       </c>
       <c r="G33" t="n">
-        <v>150</v>
+        <v>29.54488390035676</v>
       </c>
       <c r="H33" t="n">
-        <v>150</v>
+        <v>29.74412824986242</v>
       </c>
       <c r="I33" t="n">
-        <v>150</v>
+        <v>29.46487394579394</v>
       </c>
       <c r="J33" t="n">
-        <v>150</v>
+        <v>29.31343398383753</v>
       </c>
       <c r="K33" t="n">
-        <v>150</v>
+        <v>29.77563475490988</v>
       </c>
       <c r="L33" t="n">
-        <v>150</v>
+        <v>29.38273287843105</v>
       </c>
     </row>
     <row r="34">
@@ -1777,37 +1777,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>150</v>
+        <v>28.80137213633681</v>
       </c>
       <c r="C34" t="n">
-        <v>150</v>
+        <v>28.67252273733039</v>
       </c>
       <c r="D34" t="n">
-        <v>150</v>
+        <v>29.11450557906785</v>
       </c>
       <c r="E34" t="n">
-        <v>150</v>
+        <v>28.42533619564739</v>
       </c>
       <c r="F34" t="n">
-        <v>150</v>
+        <v>28.57899901553049</v>
       </c>
       <c r="G34" t="n">
-        <v>150</v>
+        <v>29.0689865066804</v>
       </c>
       <c r="H34" t="n">
-        <v>150</v>
+        <v>29.26016493950561</v>
       </c>
       <c r="I34" t="n">
-        <v>150</v>
+        <v>28.77024016875716</v>
       </c>
       <c r="J34" t="n">
-        <v>150</v>
+        <v>28.63939340400449</v>
       </c>
       <c r="K34" t="n">
-        <v>150</v>
+        <v>29.08041913847854</v>
       </c>
       <c r="L34" t="n">
-        <v>150</v>
+        <v>28.83921829808265</v>
       </c>
     </row>
     <row r="35">
@@ -1817,37 +1817,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>150</v>
+        <v>28.50579607371454</v>
       </c>
       <c r="C35" t="n">
-        <v>150</v>
+        <v>28.47236255853669</v>
       </c>
       <c r="D35" t="n">
-        <v>150</v>
+        <v>29.01826572426224</v>
       </c>
       <c r="E35" t="n">
-        <v>150</v>
+        <v>28.3016640636794</v>
       </c>
       <c r="F35" t="n">
-        <v>150</v>
+        <v>28.4592374611523</v>
       </c>
       <c r="G35" t="n">
-        <v>150</v>
+        <v>28.77228606944428</v>
       </c>
       <c r="H35" t="n">
-        <v>150</v>
+        <v>29.27699882102986</v>
       </c>
       <c r="I35" t="n">
-        <v>150</v>
+        <v>28.53201449018466</v>
       </c>
       <c r="J35" t="n">
-        <v>150</v>
+        <v>28.39613544411623</v>
       </c>
       <c r="K35" t="n">
-        <v>150</v>
+        <v>28.85539708156717</v>
       </c>
       <c r="L35" t="n">
-        <v>150</v>
+        <v>28.60069531876179</v>
       </c>
     </row>
     <row r="36">
@@ -1857,37 +1857,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150</v>
+        <v>28.37781319183108</v>
       </c>
       <c r="C36" t="n">
-        <v>150</v>
+        <v>28.35431470545064</v>
       </c>
       <c r="D36" t="n">
-        <v>150</v>
+        <v>29.00587168424242</v>
       </c>
       <c r="E36" t="n">
-        <v>150</v>
+        <v>28.24216953114991</v>
       </c>
       <c r="F36" t="n">
-        <v>150</v>
+        <v>28.4184420399166</v>
       </c>
       <c r="G36" t="n">
-        <v>150</v>
+        <v>28.62892817222682</v>
       </c>
       <c r="H36" t="n">
-        <v>150</v>
+        <v>29.1700814874851</v>
       </c>
       <c r="I36" t="n">
-        <v>150</v>
+        <v>28.43691838287475</v>
       </c>
       <c r="J36" t="n">
-        <v>150</v>
+        <v>28.25260465714399</v>
       </c>
       <c r="K36" t="n">
-        <v>150</v>
+        <v>28.65782756693985</v>
       </c>
       <c r="L36" t="n">
-        <v>150</v>
+        <v>28.43819637398596</v>
       </c>
     </row>
     <row r="37">
@@ -1897,37 +1897,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>150</v>
+        <v>34.20066724119624</v>
       </c>
       <c r="C37" t="n">
-        <v>150</v>
+        <v>34.29936738570679</v>
       </c>
       <c r="D37" t="n">
-        <v>150</v>
+        <v>35.49986548264636</v>
       </c>
       <c r="E37" t="n">
-        <v>150</v>
+        <v>38.56735073154577</v>
       </c>
       <c r="F37" t="n">
-        <v>150</v>
+        <v>40.60899279857126</v>
       </c>
       <c r="G37" t="n">
-        <v>150</v>
+        <v>34.36344111201348</v>
       </c>
       <c r="H37" t="n">
-        <v>150</v>
+        <v>35.94172183529111</v>
       </c>
       <c r="I37" t="n">
-        <v>150</v>
+        <v>34.71750670249136</v>
       </c>
       <c r="J37" t="n">
-        <v>150</v>
+        <v>34.52436928472</v>
       </c>
       <c r="K37" t="n">
-        <v>150</v>
+        <v>35.04749364839572</v>
       </c>
       <c r="L37" t="n">
-        <v>150</v>
+        <v>34.28943686209208</v>
       </c>
     </row>
     <row r="38">
@@ -1937,37 +1937,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>150</v>
+        <v>29.41218524916964</v>
       </c>
       <c r="C38" t="n">
-        <v>150</v>
+        <v>29.2619839999365</v>
       </c>
       <c r="D38" t="n">
-        <v>150</v>
+        <v>29.21500745472762</v>
       </c>
       <c r="E38" t="n">
-        <v>150</v>
+        <v>28.68719115589344</v>
       </c>
       <c r="F38" t="n">
-        <v>150</v>
+        <v>28.8120373664244</v>
       </c>
       <c r="G38" t="n">
-        <v>150</v>
+        <v>29.58192846966348</v>
       </c>
       <c r="H38" t="n">
-        <v>150</v>
+        <v>29.76511972065113</v>
       </c>
       <c r="I38" t="n">
-        <v>150</v>
+        <v>29.59629416110081</v>
       </c>
       <c r="J38" t="n">
-        <v>150</v>
+        <v>29.29534672056534</v>
       </c>
       <c r="K38" t="n">
-        <v>150</v>
+        <v>29.86775263482541</v>
       </c>
       <c r="L38" t="n">
-        <v>150</v>
+        <v>29.40622828536288</v>
       </c>
     </row>
     <row r="39">
@@ -1977,37 +1977,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150</v>
+        <v>28.740749516374</v>
       </c>
       <c r="C39" t="n">
-        <v>150</v>
+        <v>28.65065544218841</v>
       </c>
       <c r="D39" t="n">
-        <v>150</v>
+        <v>28.92571162632888</v>
       </c>
       <c r="E39" t="n">
-        <v>150</v>
+        <v>28.4446468267274</v>
       </c>
       <c r="F39" t="n">
-        <v>150</v>
+        <v>28.56484341653729</v>
       </c>
       <c r="G39" t="n">
-        <v>150</v>
+        <v>29.00974812268981</v>
       </c>
       <c r="H39" t="n">
-        <v>150</v>
+        <v>29.27738883650314</v>
       </c>
       <c r="I39" t="n">
-        <v>150</v>
+        <v>28.7677010291824</v>
       </c>
       <c r="J39" t="n">
-        <v>150</v>
+        <v>28.64018840473746</v>
       </c>
       <c r="K39" t="n">
-        <v>150</v>
+        <v>29.24541025230195</v>
       </c>
       <c r="L39" t="n">
-        <v>150</v>
+        <v>28.87462866765037</v>
       </c>
     </row>
     <row r="40">
@@ -2017,37 +2017,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>150</v>
+        <v>28.54042973778846</v>
       </c>
       <c r="C40" t="n">
-        <v>150</v>
+        <v>28.46463405806058</v>
       </c>
       <c r="D40" t="n">
-        <v>150</v>
+        <v>28.8660935435521</v>
       </c>
       <c r="E40" t="n">
-        <v>150</v>
+        <v>28.31776648748297</v>
       </c>
       <c r="F40" t="n">
-        <v>150</v>
+        <v>28.45129343319133</v>
       </c>
       <c r="G40" t="n">
-        <v>150</v>
+        <v>28.78198263660051</v>
       </c>
       <c r="H40" t="n">
-        <v>150</v>
+        <v>29.21009207515324</v>
       </c>
       <c r="I40" t="n">
-        <v>150</v>
+        <v>28.54835643983585</v>
       </c>
       <c r="J40" t="n">
-        <v>150</v>
+        <v>28.404878460691</v>
       </c>
       <c r="K40" t="n">
-        <v>150</v>
+        <v>28.98433138927215</v>
       </c>
       <c r="L40" t="n">
-        <v>150</v>
+        <v>28.60298644963051</v>
       </c>
     </row>
     <row r="41">
@@ -2057,37 +2057,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>150</v>
+        <v>28.36866662170913</v>
       </c>
       <c r="C41" t="n">
-        <v>150</v>
+        <v>28.37781950501097</v>
       </c>
       <c r="D41" t="n">
-        <v>150</v>
+        <v>28.86885582111528</v>
       </c>
       <c r="E41" t="n">
-        <v>150</v>
+        <v>28.24081573401061</v>
       </c>
       <c r="F41" t="n">
-        <v>150</v>
+        <v>28.40801762358145</v>
       </c>
       <c r="G41" t="n">
-        <v>150</v>
+        <v>28.72261458353196</v>
       </c>
       <c r="H41" t="n">
-        <v>150</v>
+        <v>29.19426333769191</v>
       </c>
       <c r="I41" t="n">
-        <v>150</v>
+        <v>28.41818006672618</v>
       </c>
       <c r="J41" t="n">
-        <v>150</v>
+        <v>28.26065893671933</v>
       </c>
       <c r="K41" t="n">
-        <v>150</v>
+        <v>28.81494582137187</v>
       </c>
       <c r="L41" t="n">
-        <v>150</v>
+        <v>28.48342913679406</v>
       </c>
     </row>
     <row r="42">
@@ -2097,37 +2097,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150</v>
+        <v>33.82822225416891</v>
       </c>
       <c r="C42" t="n">
-        <v>150</v>
+        <v>34.04697683777277</v>
       </c>
       <c r="D42" t="n">
-        <v>150</v>
+        <v>35.30047117343465</v>
       </c>
       <c r="E42" t="n">
-        <v>150</v>
+        <v>38.07773859067359</v>
       </c>
       <c r="F42" t="n">
-        <v>150</v>
+        <v>40.07368035620007</v>
       </c>
       <c r="G42" t="n">
-        <v>150</v>
+        <v>34.29875308917761</v>
       </c>
       <c r="H42" t="n">
-        <v>150</v>
+        <v>35.49304050501351</v>
       </c>
       <c r="I42" t="n">
-        <v>150</v>
+        <v>34.51528314893056</v>
       </c>
       <c r="J42" t="n">
-        <v>150</v>
+        <v>34.31778722548955</v>
       </c>
       <c r="K42" t="n">
-        <v>150</v>
+        <v>34.74819614991129</v>
       </c>
       <c r="L42" t="n">
-        <v>150</v>
+        <v>34.04624974191886</v>
       </c>
     </row>
     <row r="43">
@@ -2137,37 +2137,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150</v>
+        <v>29.39329912416623</v>
       </c>
       <c r="C43" t="n">
-        <v>150</v>
+        <v>29.19772200675262</v>
       </c>
       <c r="D43" t="n">
-        <v>150</v>
+        <v>29.12433495981414</v>
       </c>
       <c r="E43" t="n">
-        <v>150</v>
+        <v>28.69249393106958</v>
       </c>
       <c r="F43" t="n">
-        <v>150</v>
+        <v>28.80628339013013</v>
       </c>
       <c r="G43" t="n">
-        <v>150</v>
+        <v>29.53140053404223</v>
       </c>
       <c r="H43" t="n">
-        <v>150</v>
+        <v>29.75232880156051</v>
       </c>
       <c r="I43" t="n">
-        <v>150</v>
+        <v>29.55878763617427</v>
       </c>
       <c r="J43" t="n">
-        <v>150</v>
+        <v>29.24988473098071</v>
       </c>
       <c r="K43" t="n">
-        <v>150</v>
+        <v>29.68723925469112</v>
       </c>
       <c r="L43" t="n">
-        <v>150</v>
+        <v>29.35448889634438</v>
       </c>
     </row>
     <row r="44">
@@ -2177,37 +2177,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>150</v>
+        <v>28.70592943077776</v>
       </c>
       <c r="C44" t="n">
-        <v>150</v>
+        <v>28.63611063142564</v>
       </c>
       <c r="D44" t="n">
-        <v>150</v>
+        <v>28.97710383551559</v>
       </c>
       <c r="E44" t="n">
-        <v>150</v>
+        <v>28.44266945869779</v>
       </c>
       <c r="F44" t="n">
-        <v>150</v>
+        <v>28.57874774736791</v>
       </c>
       <c r="G44" t="n">
-        <v>150</v>
+        <v>29.00994446957467</v>
       </c>
       <c r="H44" t="n">
-        <v>150</v>
+        <v>29.30646054147385</v>
       </c>
       <c r="I44" t="n">
-        <v>150</v>
+        <v>28.75457080193148</v>
       </c>
       <c r="J44" t="n">
-        <v>150</v>
+        <v>28.63207610230838</v>
       </c>
       <c r="K44" t="n">
-        <v>150</v>
+        <v>29.14226444168673</v>
       </c>
       <c r="L44" t="n">
-        <v>150</v>
+        <v>28.85716624687337</v>
       </c>
     </row>
     <row r="45">
@@ -2217,37 +2217,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150</v>
+        <v>28.49824228008936</v>
       </c>
       <c r="C45" t="n">
-        <v>150</v>
+        <v>28.42719039288266</v>
       </c>
       <c r="D45" t="n">
-        <v>150</v>
+        <v>28.88455435014984</v>
       </c>
       <c r="E45" t="n">
-        <v>150</v>
+        <v>28.31678903881962</v>
       </c>
       <c r="F45" t="n">
-        <v>150</v>
+        <v>28.4712074233119</v>
       </c>
       <c r="G45" t="n">
-        <v>150</v>
+        <v>28.71968950032322</v>
       </c>
       <c r="H45" t="n">
-        <v>150</v>
+        <v>29.18349171607576</v>
       </c>
       <c r="I45" t="n">
-        <v>150</v>
+        <v>28.57717746702813</v>
       </c>
       <c r="J45" t="n">
-        <v>150</v>
+        <v>28.43578507603827</v>
       </c>
       <c r="K45" t="n">
-        <v>150</v>
+        <v>28.91343889591855</v>
       </c>
       <c r="L45" t="n">
-        <v>150</v>
+        <v>28.60228613050706</v>
       </c>
     </row>
     <row r="46">
@@ -2257,37 +2257,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150</v>
+        <v>28.30361496829559</v>
       </c>
       <c r="C46" t="n">
-        <v>150</v>
+        <v>28.38933035358806</v>
       </c>
       <c r="D46" t="n">
-        <v>150</v>
+        <v>28.89921739978785</v>
       </c>
       <c r="E46" t="n">
-        <v>150</v>
+        <v>28.24888407942141</v>
       </c>
       <c r="F46" t="n">
-        <v>150</v>
+        <v>28.41834592224179</v>
       </c>
       <c r="G46" t="n">
-        <v>150</v>
+        <v>28.70279178793705</v>
       </c>
       <c r="H46" t="n">
-        <v>150</v>
+        <v>29.09399664523534</v>
       </c>
       <c r="I46" t="n">
-        <v>150</v>
+        <v>28.43992229432578</v>
       </c>
       <c r="J46" t="n">
-        <v>150</v>
+        <v>28.25199813848527</v>
       </c>
       <c r="K46" t="n">
-        <v>150</v>
+        <v>28.71785331495095</v>
       </c>
       <c r="L46" t="n">
-        <v>150</v>
+        <v>28.44744081923337</v>
       </c>
     </row>
     <row r="47">
@@ -2297,37 +2297,37 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>150</v>
+        <v>33.57109474466785</v>
       </c>
       <c r="C47" t="n">
-        <v>150</v>
+        <v>33.59668788841779</v>
       </c>
       <c r="D47" t="n">
-        <v>150</v>
+        <v>34.46891756585175</v>
       </c>
       <c r="E47" t="n">
-        <v>150</v>
+        <v>36.76042451724192</v>
       </c>
       <c r="F47" t="n">
-        <v>150</v>
+        <v>38.88616431238234</v>
       </c>
       <c r="G47" t="n">
-        <v>150</v>
+        <v>33.95900801591029</v>
       </c>
       <c r="H47" t="n">
-        <v>150</v>
+        <v>34.84708784341078</v>
       </c>
       <c r="I47" t="n">
-        <v>150</v>
+        <v>34.08660207806101</v>
       </c>
       <c r="J47" t="n">
-        <v>150</v>
+        <v>33.98797258902963</v>
       </c>
       <c r="K47" t="n">
-        <v>150</v>
+        <v>34.45948273154847</v>
       </c>
       <c r="L47" t="n">
-        <v>150</v>
+        <v>33.85403948569162</v>
       </c>
     </row>
     <row r="48">
@@ -2337,37 +2337,37 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>150</v>
+        <v>29.3900814735907</v>
       </c>
       <c r="C48" t="n">
-        <v>150</v>
+        <v>29.13691934194766</v>
       </c>
       <c r="D48" t="n">
-        <v>150</v>
+        <v>29.05608214867067</v>
       </c>
       <c r="E48" t="n">
-        <v>150</v>
+        <v>28.69832348380611</v>
       </c>
       <c r="F48" t="n">
-        <v>150</v>
+        <v>28.77361999496038</v>
       </c>
       <c r="G48" t="n">
-        <v>150</v>
+        <v>29.40005135576284</v>
       </c>
       <c r="H48" t="n">
-        <v>150</v>
+        <v>29.51786860719025</v>
       </c>
       <c r="I48" t="n">
-        <v>150</v>
+        <v>29.4801208024138</v>
       </c>
       <c r="J48" t="n">
-        <v>150</v>
+        <v>29.23336383885935</v>
       </c>
       <c r="K48" t="n">
-        <v>150</v>
+        <v>29.70861630993163</v>
       </c>
       <c r="L48" t="n">
-        <v>150</v>
+        <v>29.27989716217868</v>
       </c>
     </row>
     <row r="49">
@@ -2377,37 +2377,37 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>150</v>
+        <v>28.75903477735544</v>
       </c>
       <c r="C49" t="n">
-        <v>150</v>
+        <v>28.59787553426958</v>
       </c>
       <c r="D49" t="n">
-        <v>150</v>
+        <v>28.83666658668897</v>
       </c>
       <c r="E49" t="n">
-        <v>150</v>
+        <v>28.45446455306233</v>
       </c>
       <c r="F49" t="n">
-        <v>150</v>
+        <v>28.5475166177044</v>
       </c>
       <c r="G49" t="n">
-        <v>150</v>
+        <v>28.82692974796213</v>
       </c>
       <c r="H49" t="n">
-        <v>150</v>
+        <v>29.06313278700528</v>
       </c>
       <c r="I49" t="n">
-        <v>150</v>
+        <v>28.75347923469042</v>
       </c>
       <c r="J49" t="n">
-        <v>150</v>
+        <v>28.61719300493212</v>
       </c>
       <c r="K49" t="n">
-        <v>150</v>
+        <v>29.14912640595249</v>
       </c>
       <c r="L49" t="n">
-        <v>150</v>
+        <v>28.78293200074962</v>
       </c>
     </row>
     <row r="50">
@@ -2417,37 +2417,37 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>150</v>
+        <v>28.49859062766778</v>
       </c>
       <c r="C50" t="n">
-        <v>150</v>
+        <v>28.34536991421389</v>
       </c>
       <c r="D50" t="n">
-        <v>150</v>
+        <v>28.80009402060727</v>
       </c>
       <c r="E50" t="n">
-        <v>150</v>
+        <v>28.31596671350211</v>
       </c>
       <c r="F50" t="n">
-        <v>150</v>
+        <v>28.43415388939961</v>
       </c>
       <c r="G50" t="n">
-        <v>150</v>
+        <v>28.69558961181486</v>
       </c>
       <c r="H50" t="n">
-        <v>150</v>
+        <v>28.92933156423464</v>
       </c>
       <c r="I50" t="n">
-        <v>150</v>
+        <v>28.55738972747691</v>
       </c>
       <c r="J50" t="n">
-        <v>150</v>
+        <v>28.42031242116894</v>
       </c>
       <c r="K50" t="n">
-        <v>150</v>
+        <v>28.89090226091405</v>
       </c>
       <c r="L50" t="n">
-        <v>150</v>
+        <v>28.52605068708109</v>
       </c>
     </row>
     <row r="51">
@@ -2457,37 +2457,37 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>150</v>
+        <v>28.3706753521585</v>
       </c>
       <c r="C51" t="n">
-        <v>150</v>
+        <v>28.2334605031069</v>
       </c>
       <c r="D51" t="n">
-        <v>150</v>
+        <v>28.68369500326936</v>
       </c>
       <c r="E51" t="n">
-        <v>150</v>
+        <v>28.21933104006835</v>
       </c>
       <c r="F51" t="n">
-        <v>150</v>
+        <v>28.36221996807813</v>
       </c>
       <c r="G51" t="n">
-        <v>150</v>
+        <v>28.60073223907716</v>
       </c>
       <c r="H51" t="n">
-        <v>150</v>
+        <v>28.96588179327546</v>
       </c>
       <c r="I51" t="n">
-        <v>150</v>
+        <v>28.4032941184851</v>
       </c>
       <c r="J51" t="n">
-        <v>150</v>
+        <v>28.2912195202687</v>
       </c>
       <c r="K51" t="n">
-        <v>150</v>
+        <v>28.71194258231081</v>
       </c>
       <c r="L51" t="n">
-        <v>150</v>
+        <v>28.43781585317551</v>
       </c>
     </row>
     <row r="52">
@@ -2497,37 +2497,37 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>150</v>
+        <v>34.26662121966149</v>
       </c>
       <c r="C52" t="n">
-        <v>150</v>
+        <v>34.50311923076923</v>
       </c>
       <c r="D52" t="n">
-        <v>150</v>
+        <v>35.92427539689351</v>
       </c>
       <c r="E52" t="n">
-        <v>150</v>
+        <v>37.50772887812823</v>
       </c>
       <c r="F52" t="n">
-        <v>150</v>
+        <v>39.68747206975785</v>
       </c>
       <c r="G52" t="n">
-        <v>150</v>
+        <v>34.64735025659223</v>
       </c>
       <c r="H52" t="n">
-        <v>150</v>
+        <v>36.29958722239945</v>
       </c>
       <c r="I52" t="n">
-        <v>150</v>
+        <v>34.96498091251042</v>
       </c>
       <c r="J52" t="n">
-        <v>150</v>
+        <v>34.83337962105962</v>
       </c>
       <c r="K52" t="n">
-        <v>150</v>
+        <v>35.36642540090199</v>
       </c>
       <c r="L52" t="n">
-        <v>150</v>
+        <v>34.32297105492711</v>
       </c>
     </row>
     <row r="53">
@@ -2537,37 +2537,37 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>150</v>
+        <v>29.54398554081924</v>
       </c>
       <c r="C53" t="n">
-        <v>150</v>
+        <v>29.30153866835236</v>
       </c>
       <c r="D53" t="n">
-        <v>150</v>
+        <v>29.03088600995119</v>
       </c>
       <c r="E53" t="n">
-        <v>150</v>
+        <v>28.69497814703472</v>
       </c>
       <c r="F53" t="n">
-        <v>150</v>
+        <v>28.81793656951035</v>
       </c>
       <c r="G53" t="n">
-        <v>150</v>
+        <v>29.65957917853065</v>
       </c>
       <c r="H53" t="n">
-        <v>150</v>
+        <v>29.58771445914871</v>
       </c>
       <c r="I53" t="n">
-        <v>150</v>
+        <v>29.50752661236752</v>
       </c>
       <c r="J53" t="n">
-        <v>150</v>
+        <v>29.34984572941612</v>
       </c>
       <c r="K53" t="n">
-        <v>150</v>
+        <v>29.81710217025126</v>
       </c>
       <c r="L53" t="n">
-        <v>150</v>
+        <v>29.44400001100221</v>
       </c>
     </row>
     <row r="54">
@@ -2577,37 +2577,37 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>150</v>
+        <v>28.77187281813358</v>
       </c>
       <c r="C54" t="n">
-        <v>150</v>
+        <v>28.67781701696242</v>
       </c>
       <c r="D54" t="n">
-        <v>150</v>
+        <v>28.8409535694196</v>
       </c>
       <c r="E54" t="n">
-        <v>150</v>
+        <v>28.45937844580117</v>
       </c>
       <c r="F54" t="n">
-        <v>150</v>
+        <v>28.54543882438911</v>
       </c>
       <c r="G54" t="n">
-        <v>150</v>
+        <v>29.07517510290966</v>
       </c>
       <c r="H54" t="n">
-        <v>150</v>
+        <v>29.12772002219961</v>
       </c>
       <c r="I54" t="n">
-        <v>150</v>
+        <v>28.75052412451284</v>
       </c>
       <c r="J54" t="n">
-        <v>150</v>
+        <v>28.70280388343594</v>
       </c>
       <c r="K54" t="n">
-        <v>150</v>
+        <v>29.26040732227383</v>
       </c>
       <c r="L54" t="n">
-        <v>150</v>
+        <v>28.91056565074931</v>
       </c>
     </row>
     <row r="55">
@@ -2617,37 +2617,37 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>150</v>
+        <v>28.52072425654039</v>
       </c>
       <c r="C55" t="n">
-        <v>150</v>
+        <v>28.44443384161791</v>
       </c>
       <c r="D55" t="n">
-        <v>150</v>
+        <v>28.87862739200834</v>
       </c>
       <c r="E55" t="n">
-        <v>150</v>
+        <v>28.3239136124841</v>
       </c>
       <c r="F55" t="n">
-        <v>150</v>
+        <v>28.43116585852789</v>
       </c>
       <c r="G55" t="n">
-        <v>150</v>
+        <v>28.83977531952328</v>
       </c>
       <c r="H55" t="n">
-        <v>150</v>
+        <v>28.96106940405978</v>
       </c>
       <c r="I55" t="n">
-        <v>150</v>
+        <v>28.53271956054158</v>
       </c>
       <c r="J55" t="n">
-        <v>150</v>
+        <v>28.46817571431134</v>
       </c>
       <c r="K55" t="n">
-        <v>150</v>
+        <v>28.94486854605498</v>
       </c>
       <c r="L55" t="n">
-        <v>150</v>
+        <v>28.62908648077129</v>
       </c>
     </row>
     <row r="56">
@@ -2657,37 +2657,37 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>150</v>
+        <v>28.34722231631393</v>
       </c>
       <c r="C56" t="n">
-        <v>150</v>
+        <v>28.37044285480495</v>
       </c>
       <c r="D56" t="n">
-        <v>150</v>
+        <v>28.87201598544599</v>
       </c>
       <c r="E56" t="n">
-        <v>150</v>
+        <v>28.24578347922772</v>
       </c>
       <c r="F56" t="n">
-        <v>150</v>
+        <v>28.36956269896597</v>
       </c>
       <c r="G56" t="n">
-        <v>150</v>
+        <v>28.7249823598028</v>
       </c>
       <c r="H56" t="n">
-        <v>150</v>
+        <v>28.962004974062</v>
       </c>
       <c r="I56" t="n">
-        <v>150</v>
+        <v>28.41449075567476</v>
       </c>
       <c r="J56" t="n">
-        <v>150</v>
+        <v>28.33978337164912</v>
       </c>
       <c r="K56" t="n">
-        <v>150</v>
+        <v>28.79730095003525</v>
       </c>
       <c r="L56" t="n">
-        <v>150</v>
+        <v>28.50959272619638</v>
       </c>
     </row>
     <row r="57">
@@ -2697,37 +2697,37 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>150</v>
+        <v>33.68404046158034</v>
       </c>
       <c r="C57" t="n">
-        <v>150</v>
+        <v>33.67912558500448</v>
       </c>
       <c r="D57" t="n">
-        <v>150</v>
+        <v>34.70994874460667</v>
       </c>
       <c r="E57" t="n">
-        <v>150</v>
+        <v>38.07773859067359</v>
       </c>
       <c r="F57" t="n">
-        <v>150</v>
+        <v>40.07299110229145</v>
       </c>
       <c r="G57" t="n">
-        <v>150</v>
+        <v>34.05713785633624</v>
       </c>
       <c r="H57" t="n">
-        <v>150</v>
+        <v>34.98192846449109</v>
       </c>
       <c r="I57" t="n">
-        <v>150</v>
+        <v>34.16241266363103</v>
       </c>
       <c r="J57" t="n">
-        <v>150</v>
+        <v>34.05935872363187</v>
       </c>
       <c r="K57" t="n">
-        <v>150</v>
+        <v>34.56761855030722</v>
       </c>
       <c r="L57" t="n">
-        <v>150</v>
+        <v>33.97897809089922</v>
       </c>
     </row>
     <row r="58">
@@ -2737,37 +2737,37 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>150</v>
+        <v>29.41438704348517</v>
       </c>
       <c r="C58" t="n">
-        <v>150</v>
+        <v>29.08277825785364</v>
       </c>
       <c r="D58" t="n">
-        <v>150</v>
+        <v>29.12178998428553</v>
       </c>
       <c r="E58" t="n">
-        <v>150</v>
+        <v>28.70260828067236</v>
       </c>
       <c r="F58" t="n">
-        <v>150</v>
+        <v>28.81295591134568</v>
       </c>
       <c r="G58" t="n">
-        <v>150</v>
+        <v>29.19090723495087</v>
       </c>
       <c r="H58" t="n">
-        <v>150</v>
+        <v>29.64632734325786</v>
       </c>
       <c r="I58" t="n">
-        <v>150</v>
+        <v>29.57662624762602</v>
       </c>
       <c r="J58" t="n">
-        <v>150</v>
+        <v>29.28416360634902</v>
       </c>
       <c r="K58" t="n">
-        <v>150</v>
+        <v>29.65681445442151</v>
       </c>
       <c r="L58" t="n">
-        <v>150</v>
+        <v>29.29024268611954</v>
       </c>
     </row>
     <row r="59">
@@ -2777,37 +2777,37 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>150</v>
+        <v>28.69466065701008</v>
       </c>
       <c r="C59" t="n">
-        <v>150</v>
+        <v>28.58513994935015</v>
       </c>
       <c r="D59" t="n">
-        <v>150</v>
+        <v>28.72073844711539</v>
       </c>
       <c r="E59" t="n">
-        <v>150</v>
+        <v>28.46429862031209</v>
       </c>
       <c r="F59" t="n">
-        <v>150</v>
+        <v>28.57712477304389</v>
       </c>
       <c r="G59" t="n">
-        <v>150</v>
+        <v>28.73111099390243</v>
       </c>
       <c r="H59" t="n">
-        <v>150</v>
+        <v>29.22286984731553</v>
       </c>
       <c r="I59" t="n">
-        <v>150</v>
+        <v>28.77479176731786</v>
       </c>
       <c r="J59" t="n">
-        <v>150</v>
+        <v>28.67582189023434</v>
       </c>
       <c r="K59" t="n">
-        <v>150</v>
+        <v>29.18578499924895</v>
       </c>
       <c r="L59" t="n">
-        <v>150</v>
+        <v>28.79974768741249</v>
       </c>
     </row>
     <row r="60">
@@ -2817,37 +2817,37 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>150</v>
+        <v>28.47920504800843</v>
       </c>
       <c r="C60" t="n">
-        <v>150</v>
+        <v>28.40219212415425</v>
       </c>
       <c r="D60" t="n">
-        <v>150</v>
+        <v>28.72320090000201</v>
       </c>
       <c r="E60" t="n">
-        <v>150</v>
+        <v>28.3282964733834</v>
       </c>
       <c r="F60" t="n">
-        <v>150</v>
+        <v>28.45427303901696</v>
       </c>
       <c r="G60" t="n">
-        <v>150</v>
+        <v>28.41449358532807</v>
       </c>
       <c r="H60" t="n">
-        <v>150</v>
+        <v>28.99016297355452</v>
       </c>
       <c r="I60" t="n">
-        <v>150</v>
+        <v>28.54622884117332</v>
       </c>
       <c r="J60" t="n">
-        <v>150</v>
+        <v>28.40709398018868</v>
       </c>
       <c r="K60" t="n">
-        <v>150</v>
+        <v>28.93685415101287</v>
       </c>
       <c r="L60" t="n">
-        <v>150</v>
+        <v>28.54989316026351</v>
       </c>
     </row>
     <row r="61">
@@ -2857,37 +2857,37 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>150</v>
+        <v>28.34344731592254</v>
       </c>
       <c r="C61" t="n">
-        <v>150</v>
+        <v>28.27334464675362</v>
       </c>
       <c r="D61" t="n">
-        <v>150</v>
+        <v>28.71250018386059</v>
       </c>
       <c r="E61" t="n">
-        <v>150</v>
+        <v>28.24912973749981</v>
       </c>
       <c r="F61" t="n">
-        <v>150</v>
+        <v>28.36460404132245</v>
       </c>
       <c r="G61" t="n">
-        <v>150</v>
+        <v>28.3042287390791</v>
       </c>
       <c r="H61" t="n">
-        <v>150</v>
+        <v>29.0224469849225</v>
       </c>
       <c r="I61" t="n">
-        <v>150</v>
+        <v>28.44978014817215</v>
       </c>
       <c r="J61" t="n">
-        <v>150</v>
+        <v>28.27729426628742</v>
       </c>
       <c r="K61" t="n">
-        <v>150</v>
+        <v>28.81932400116555</v>
       </c>
       <c r="L61" t="n">
-        <v>150</v>
+        <v>28.45297853275171</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/results/report.xlsx
+++ b/dataset/results/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,2401 +493,3001 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.63215122251258</v>
+        <v>85.98658225550514</v>
       </c>
       <c r="C2" t="n">
-        <v>39.70496410501909</v>
+        <v>86.68398118433018</v>
       </c>
       <c r="D2" t="n">
-        <v>42.3561499894199</v>
+        <v>89.09235664921505</v>
       </c>
       <c r="E2" t="n">
-        <v>44.36215121994205</v>
+        <v>84.48724623874838</v>
       </c>
       <c r="F2" t="n">
-        <v>45.61714203179257</v>
+        <v>90.06533351907733</v>
       </c>
       <c r="G2" t="n">
-        <v>41.61700708264409</v>
+        <v>87.34111576251225</v>
       </c>
       <c r="H2" t="n">
-        <v>41.75156044762589</v>
+        <v>87.0501159882019</v>
       </c>
       <c r="I2" t="n">
-        <v>39.96648695696172</v>
+        <v>87.33048101532604</v>
       </c>
       <c r="J2" t="n">
-        <v>40.07890773454695</v>
+        <v>87.73890621536567</v>
       </c>
       <c r="K2" t="n">
-        <v>39.21130892526515</v>
+        <v>86.5645034474197</v>
       </c>
       <c r="L2" t="n">
-        <v>39.16987187312343</v>
+        <v>86.44042079731187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.38870017458644</v>
+        <v>79.00605558110081</v>
       </c>
       <c r="C3" t="n">
-        <v>29.60067403885919</v>
+        <v>79.31232900033528</v>
       </c>
       <c r="D3" t="n">
-        <v>29.56280360243512</v>
+        <v>79.38167491488868</v>
       </c>
       <c r="E3" t="n">
-        <v>28.62659787675441</v>
+        <v>82.99386446206638</v>
       </c>
       <c r="F3" t="n">
-        <v>29.06260180564178</v>
+        <v>83.69772733755092</v>
       </c>
       <c r="G3" t="n">
-        <v>30.29334938233103</v>
+        <v>81.39113632898716</v>
       </c>
       <c r="H3" t="n">
-        <v>30.02434182450315</v>
+        <v>79.94652046841389</v>
       </c>
       <c r="I3" t="n">
-        <v>29.58712226145234</v>
+        <v>80.4667113266442</v>
       </c>
       <c r="J3" t="n">
-        <v>29.46548304574551</v>
+        <v>80.27935568150636</v>
       </c>
       <c r="K3" t="n">
-        <v>30.24399674973071</v>
+        <v>80.73615970089953</v>
       </c>
       <c r="L3" t="n">
-        <v>29.7308835442346</v>
+        <v>80.04160099150944</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.66151616974967</v>
+        <v>78.67360563911588</v>
       </c>
       <c r="C4" t="n">
-        <v>28.96434156962244</v>
+        <v>78.84888730455286</v>
       </c>
       <c r="D4" t="n">
-        <v>29.2323850340825</v>
+        <v>78.91132112532371</v>
       </c>
       <c r="E4" t="n">
-        <v>28.38180021331071</v>
+        <v>82.89631750918652</v>
       </c>
       <c r="F4" t="n">
-        <v>28.95337244698749</v>
+        <v>83.28731341721885</v>
       </c>
       <c r="G4" t="n">
-        <v>29.5380458136437</v>
+        <v>81.13241144544969</v>
       </c>
       <c r="H4" t="n">
-        <v>29.75000179910711</v>
+        <v>79.62709726857989</v>
       </c>
       <c r="I4" t="n">
-        <v>29.04594442053319</v>
+        <v>80.06470862807333</v>
       </c>
       <c r="J4" t="n">
-        <v>28.72693938914398</v>
+        <v>79.33232864341109</v>
       </c>
       <c r="K4" t="n">
-        <v>29.48398139103183</v>
+        <v>80.35551152269734</v>
       </c>
       <c r="L4" t="n">
-        <v>29.06211030535014</v>
+        <v>79.62713580039846</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28.45287718709291</v>
+        <v>78.51228277323689</v>
       </c>
       <c r="C5" t="n">
-        <v>28.69262761104</v>
+        <v>78.80789969275131</v>
       </c>
       <c r="D5" t="n">
-        <v>29.13187036428563</v>
+        <v>78.77440303497318</v>
       </c>
       <c r="E5" t="n">
-        <v>28.26054986169298</v>
+        <v>82.8889842789315</v>
       </c>
       <c r="F5" t="n">
-        <v>28.94060037339934</v>
+        <v>83.15539242226187</v>
       </c>
       <c r="G5" t="n">
-        <v>29.30364946790251</v>
+        <v>81.08567383094478</v>
       </c>
       <c r="H5" t="n">
-        <v>29.59732787483131</v>
+        <v>79.59976462426513</v>
       </c>
       <c r="I5" t="n">
-        <v>28.83757261570667</v>
+        <v>79.98699980424824</v>
       </c>
       <c r="J5" t="n">
-        <v>28.48214495273318</v>
+        <v>79.0331473171631</v>
       </c>
       <c r="K5" t="n">
-        <v>29.3283154786586</v>
+        <v>80.2315094378187</v>
       </c>
       <c r="L5" t="n">
-        <v>28.77758962189331</v>
+        <v>79.42945648523553</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.33050135929527</v>
+        <v>78.48459547103036</v>
       </c>
       <c r="C6" t="n">
-        <v>28.63100447930245</v>
+        <v>78.80916437396887</v>
       </c>
       <c r="D6" t="n">
-        <v>28.84079436996184</v>
+        <v>78.71614909626621</v>
       </c>
       <c r="E6" t="n">
-        <v>28.20386866695134</v>
+        <v>82.88971095732404</v>
       </c>
       <c r="F6" t="n">
-        <v>28.98083196240849</v>
+        <v>83.12694973220461</v>
       </c>
       <c r="G6" t="n">
-        <v>29.22240204759417</v>
+        <v>81.08668028123694</v>
       </c>
       <c r="H6" t="n">
-        <v>29.5547726206377</v>
+        <v>79.60038581607532</v>
       </c>
       <c r="I6" t="n">
-        <v>28.67786437008673</v>
+        <v>79.96316280696331</v>
       </c>
       <c r="J6" t="n">
-        <v>28.3575803717812</v>
+        <v>79.00012725108864</v>
       </c>
       <c r="K6" t="n">
-        <v>29.20175834369477</v>
+        <v>80.22634917622776</v>
       </c>
       <c r="L6" t="n">
-        <v>28.64514721767002</v>
+        <v>79.39056106592157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.89145917609023</v>
+        <v>84.35637217585577</v>
       </c>
       <c r="C7" t="n">
-        <v>36.6248336832373</v>
+        <v>84.21740955182479</v>
       </c>
       <c r="D7" t="n">
-        <v>39.29945404584652</v>
+        <v>86.70340958502535</v>
       </c>
       <c r="E7" t="n">
-        <v>42.43569489052062</v>
+        <v>84.35320752653342</v>
       </c>
       <c r="F7" t="n">
-        <v>44.1908058012539</v>
+        <v>89.64952932345646</v>
       </c>
       <c r="G7" t="n">
-        <v>37.41146016165079</v>
+        <v>84.31083088318894</v>
       </c>
       <c r="H7" t="n">
-        <v>38.52471465750046</v>
+        <v>85.71472597695104</v>
       </c>
       <c r="I7" t="n">
-        <v>37.21733110132733</v>
+        <v>84.76193490904051</v>
       </c>
       <c r="J7" t="n">
-        <v>37.45885799314556</v>
+        <v>84.81321077102079</v>
       </c>
       <c r="K7" t="n">
-        <v>37.22015652863183</v>
+        <v>84.02144934104459</v>
       </c>
       <c r="L7" t="n">
-        <v>36.19832419452657</v>
+        <v>83.47366736899204</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.48868240858037</v>
+        <v>78.12654189309394</v>
       </c>
       <c r="C8" t="n">
-        <v>29.51324158989819</v>
+        <v>78.19115336764513</v>
       </c>
       <c r="D8" t="n">
-        <v>29.55511204625711</v>
+        <v>78.19459673156081</v>
       </c>
       <c r="E8" t="n">
-        <v>28.61503364571242</v>
+        <v>82.89430674281986</v>
       </c>
       <c r="F8" t="n">
-        <v>28.92483038500443</v>
+        <v>83.42437152228995</v>
       </c>
       <c r="G8" t="n">
-        <v>30.08123095825783</v>
+        <v>79.53669476416091</v>
       </c>
       <c r="H8" t="n">
-        <v>30.09022621765879</v>
+        <v>78.85906698611507</v>
       </c>
       <c r="I8" t="n">
-        <v>29.53387324325824</v>
+        <v>78.82015066981121</v>
       </c>
       <c r="J8" t="n">
-        <v>29.43866910018603</v>
+        <v>78.77283894397921</v>
       </c>
       <c r="K8" t="n">
-        <v>30.06846443876266</v>
+        <v>79.43268398220282</v>
       </c>
       <c r="L8" t="n">
-        <v>29.60936696241098</v>
+        <v>78.80763616537082</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28.68464043555787</v>
+        <v>77.61315654204489</v>
       </c>
       <c r="C9" t="n">
-        <v>28.85807969705529</v>
+        <v>77.67638581095787</v>
       </c>
       <c r="D9" t="n">
-        <v>29.27290146173852</v>
+        <v>77.81255855155614</v>
       </c>
       <c r="E9" t="n">
-        <v>28.37281375592521</v>
+        <v>82.70835864978744</v>
       </c>
       <c r="F9" t="n">
-        <v>28.73912642684721</v>
+        <v>82.9965397432513</v>
       </c>
       <c r="G9" t="n">
-        <v>29.4761778262714</v>
+        <v>79.16597547512242</v>
       </c>
       <c r="H9" t="n">
-        <v>29.64436441290748</v>
+        <v>78.59802969319853</v>
       </c>
       <c r="I9" t="n">
-        <v>28.89618993051576</v>
+        <v>78.3553560262088</v>
       </c>
       <c r="J9" t="n">
-        <v>28.68895319293852</v>
+        <v>78.06060849342691</v>
       </c>
       <c r="K9" t="n">
-        <v>29.46027241621834</v>
+        <v>79.07160855578168</v>
       </c>
       <c r="L9" t="n">
-        <v>28.97287668466788</v>
+        <v>78.24370807858676</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28.39925648377429</v>
+        <v>77.40141887340403</v>
       </c>
       <c r="C10" t="n">
-        <v>28.62948636560916</v>
+        <v>77.52488432924207</v>
       </c>
       <c r="D10" t="n">
-        <v>29.15396903426558</v>
+        <v>77.73744020063327</v>
       </c>
       <c r="E10" t="n">
-        <v>28.27164994680646</v>
+        <v>82.61466677089054</v>
       </c>
       <c r="F10" t="n">
-        <v>28.72216825381928</v>
+        <v>82.85773841040103</v>
       </c>
       <c r="G10" t="n">
-        <v>29.17989838558412</v>
+        <v>79.10845507374685</v>
       </c>
       <c r="H10" t="n">
-        <v>29.53750982243384</v>
+        <v>78.36831407031293</v>
       </c>
       <c r="I10" t="n">
-        <v>28.70247429313892</v>
+        <v>78.22714936832433</v>
       </c>
       <c r="J10" t="n">
-        <v>28.43025573901647</v>
+        <v>77.76354487416181</v>
       </c>
       <c r="K10" t="n">
-        <v>29.16528898328743</v>
+        <v>78.95739451905735</v>
       </c>
       <c r="L10" t="n">
-        <v>28.66720566160689</v>
+        <v>78.01959950271252</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.30701731597165</v>
+        <v>77.35636554078718</v>
       </c>
       <c r="C11" t="n">
-        <v>28.49347856485667</v>
+        <v>77.43026193015234</v>
       </c>
       <c r="D11" t="n">
-        <v>28.95178561558113</v>
+        <v>77.63882866486892</v>
       </c>
       <c r="E11" t="n">
-        <v>28.22383213401246</v>
+        <v>82.54585749238048</v>
       </c>
       <c r="F11" t="n">
-        <v>28.78586166984</v>
+        <v>82.82266390056223</v>
       </c>
       <c r="G11" t="n">
-        <v>29.04762189606448</v>
+        <v>79.08696971560025</v>
       </c>
       <c r="H11" t="n">
-        <v>29.45089805179579</v>
+        <v>78.27233139931229</v>
       </c>
       <c r="I11" t="n">
-        <v>28.64121757681877</v>
+        <v>78.14168761935927</v>
       </c>
       <c r="J11" t="n">
-        <v>28.2945371590966</v>
+        <v>77.67891287049451</v>
       </c>
       <c r="K11" t="n">
-        <v>29.01439711088983</v>
+        <v>78.85320923151082</v>
       </c>
       <c r="L11" t="n">
-        <v>28.57930852882701</v>
+        <v>77.9015308289455</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>36.89145917609023</v>
+        <v>81.74220911482807</v>
       </c>
       <c r="C12" t="n">
-        <v>36.6248336832373</v>
+        <v>81.89809225958587</v>
       </c>
       <c r="D12" t="n">
-        <v>39.29945404584652</v>
+        <v>82.95800024666157</v>
       </c>
       <c r="E12" t="n">
-        <v>39.91855969460168</v>
+        <v>84.48738580377695</v>
       </c>
       <c r="F12" t="n">
-        <v>42.14254668348734</v>
+        <v>89.02372145466677</v>
       </c>
       <c r="G12" t="n">
-        <v>37.41146016165079</v>
+        <v>81.9089440471208</v>
       </c>
       <c r="H12" t="n">
-        <v>38.52471465750046</v>
+        <v>83.24198489868751</v>
       </c>
       <c r="I12" t="n">
-        <v>37.21733110132733</v>
+        <v>82.4390624205449</v>
       </c>
       <c r="J12" t="n">
-        <v>37.45885799314556</v>
+        <v>82.10309319977384</v>
       </c>
       <c r="K12" t="n">
-        <v>37.22158068197049</v>
+        <v>82.44366220912475</v>
       </c>
       <c r="L12" t="n">
-        <v>36.19832419452657</v>
+        <v>81.96377967989294</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.48050055818105</v>
+        <v>77.5569376042469</v>
       </c>
       <c r="C13" t="n">
-        <v>29.39915761011931</v>
+        <v>77.55383059836983</v>
       </c>
       <c r="D13" t="n">
-        <v>29.56426353417947</v>
+        <v>77.72012017222059</v>
       </c>
       <c r="E13" t="n">
-        <v>28.65659025155078</v>
+        <v>82.88571157455978</v>
       </c>
       <c r="F13" t="n">
-        <v>28.88618540669079</v>
+        <v>83.32137398891331</v>
       </c>
       <c r="G13" t="n">
-        <v>30.18928443621865</v>
+        <v>78.50823074538461</v>
       </c>
       <c r="H13" t="n">
-        <v>29.88050288725857</v>
+        <v>78.29250575408409</v>
       </c>
       <c r="I13" t="n">
-        <v>29.64587269096778</v>
+        <v>78.10971565578649</v>
       </c>
       <c r="J13" t="n">
-        <v>29.43493714677105</v>
+        <v>77.95887304244332</v>
       </c>
       <c r="K13" t="n">
-        <v>30.10074915667172</v>
+        <v>78.6163899602399</v>
       </c>
       <c r="L13" t="n">
-        <v>29.54498576899065</v>
+        <v>78.07476193076624</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.73064001416958</v>
+        <v>77.09019342637137</v>
       </c>
       <c r="C14" t="n">
-        <v>28.87703123760808</v>
+        <v>77.00321262393604</v>
       </c>
       <c r="D14" t="n">
-        <v>29.34208747721886</v>
+        <v>77.40321783402557</v>
       </c>
       <c r="E14" t="n">
-        <v>28.38903145006085</v>
+        <v>82.67204281635456</v>
       </c>
       <c r="F14" t="n">
-        <v>28.67714811528871</v>
+        <v>82.89233020116447</v>
       </c>
       <c r="G14" t="n">
-        <v>29.50371958902233</v>
+        <v>78.04447737879363</v>
       </c>
       <c r="H14" t="n">
-        <v>29.42624408793443</v>
+        <v>77.99447623769998</v>
       </c>
       <c r="I14" t="n">
-        <v>28.94357307082387</v>
+        <v>77.49590430790576</v>
       </c>
       <c r="J14" t="n">
-        <v>28.73194275167585</v>
+        <v>77.33212799115071</v>
       </c>
       <c r="K14" t="n">
-        <v>29.37365391232191</v>
+        <v>78.16300541949605</v>
       </c>
       <c r="L14" t="n">
-        <v>28.9898084157011</v>
+        <v>77.47279685085091</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.47241991113926</v>
+        <v>76.87536258689403</v>
       </c>
       <c r="C15" t="n">
-        <v>28.63380568393644</v>
+        <v>76.84248103140344</v>
       </c>
       <c r="D15" t="n">
-        <v>29.20831839611</v>
+        <v>77.30060180674958</v>
       </c>
       <c r="E15" t="n">
-        <v>28.30263397721104</v>
+        <v>82.54698091854785</v>
       </c>
       <c r="F15" t="n">
-        <v>28.65643542492501</v>
+        <v>82.74382537199381</v>
       </c>
       <c r="G15" t="n">
-        <v>29.18211885975355</v>
+        <v>77.8909496581076</v>
       </c>
       <c r="H15" t="n">
-        <v>29.30074217759102</v>
+        <v>77.74865064403826</v>
       </c>
       <c r="I15" t="n">
-        <v>28.61339224329868</v>
+        <v>77.32153870238368</v>
       </c>
       <c r="J15" t="n">
-        <v>28.38991204365652</v>
+        <v>77.08897534103009</v>
       </c>
       <c r="K15" t="n">
-        <v>29.04536032018074</v>
+        <v>78.01860316773423</v>
       </c>
       <c r="L15" t="n">
-        <v>28.62924776818059</v>
+        <v>77.23957907620805</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.31039263279148</v>
+        <v>76.8396919531563</v>
       </c>
       <c r="C16" t="n">
-        <v>28.46874227495455</v>
+        <v>76.77163953096542</v>
       </c>
       <c r="D16" t="n">
-        <v>29.02386062619696</v>
+        <v>77.17754146604781</v>
       </c>
       <c r="E16" t="n">
-        <v>28.24509609928211</v>
+        <v>82.44727694443947</v>
       </c>
       <c r="F16" t="n">
-        <v>28.62184308745877</v>
+        <v>82.66828862217815</v>
       </c>
       <c r="G16" t="n">
-        <v>29.00014850741818</v>
+        <v>77.79765383482571</v>
       </c>
       <c r="H16" t="n">
-        <v>29.29180772439775</v>
+        <v>77.66633495603739</v>
       </c>
       <c r="I16" t="n">
-        <v>28.50950523501351</v>
+        <v>77.2369181042767</v>
       </c>
       <c r="J16" t="n">
-        <v>28.28769691727776</v>
+        <v>76.99762945056233</v>
       </c>
       <c r="K16" t="n">
-        <v>28.89071911675453</v>
+        <v>77.95672174014885</v>
       </c>
       <c r="L16" t="n">
-        <v>28.53406387262055</v>
+        <v>77.11184729618704</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.35901900142101</v>
+        <v>82.12727268549287</v>
       </c>
       <c r="C17" t="n">
-        <v>36.1872500678498</v>
+        <v>82.48600038404771</v>
       </c>
       <c r="D17" t="n">
-        <v>38.3995701916085</v>
+        <v>83.69558162812379</v>
       </c>
       <c r="E17" t="n">
-        <v>39.31825873761699</v>
+        <v>84.46219595630504</v>
       </c>
       <c r="F17" t="n">
-        <v>41.7293922321535</v>
+        <v>88.95280794844994</v>
       </c>
       <c r="G17" t="n">
-        <v>37.10524584139217</v>
+        <v>81.99234001948491</v>
       </c>
       <c r="H17" t="n">
-        <v>38.23861021716894</v>
+        <v>83.37242892682184</v>
       </c>
       <c r="I17" t="n">
-        <v>36.70802476262617</v>
+        <v>82.87719351902322</v>
       </c>
       <c r="J17" t="n">
-        <v>36.8205451995068</v>
+        <v>82.77051562451076</v>
       </c>
       <c r="K17" t="n">
-        <v>36.98291130710109</v>
+        <v>82.71421979401751</v>
       </c>
       <c r="L17" t="n">
-        <v>35.67516714807861</v>
+        <v>82.31223385905886</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>29.57415864899767</v>
+        <v>77.64938524256767</v>
       </c>
       <c r="C18" t="n">
-        <v>29.4691304219368</v>
+        <v>77.60354273789595</v>
       </c>
       <c r="D18" t="n">
-        <v>29.38134596005158</v>
+        <v>77.82988680115052</v>
       </c>
       <c r="E18" t="n">
-        <v>28.6718891783345</v>
+        <v>82.89297002839723</v>
       </c>
       <c r="F18" t="n">
-        <v>28.85985838165757</v>
+        <v>83.29399712209698</v>
       </c>
       <c r="G18" t="n">
-        <v>30.01142034780597</v>
+        <v>78.53885013368988</v>
       </c>
       <c r="H18" t="n">
-        <v>30.14219625848416</v>
+        <v>78.36029537919072</v>
       </c>
       <c r="I18" t="n">
-        <v>29.61042149466694</v>
+        <v>78.11285938271999</v>
       </c>
       <c r="J18" t="n">
-        <v>29.38508077641374</v>
+        <v>78.06440492376191</v>
       </c>
       <c r="K18" t="n">
-        <v>30.09080894286539</v>
+        <v>78.65658967706169</v>
       </c>
       <c r="L18" t="n">
-        <v>29.57693780075909</v>
+        <v>78.18901200218519</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.8338312045688</v>
+        <v>77.17035729629421</v>
       </c>
       <c r="C19" t="n">
-        <v>28.88023673315442</v>
+        <v>77.06512970690065</v>
       </c>
       <c r="D19" t="n">
-        <v>29.18609846644749</v>
+        <v>77.57359723682433</v>
       </c>
       <c r="E19" t="n">
-        <v>28.41322555480859</v>
+        <v>82.66498861180114</v>
       </c>
       <c r="F19" t="n">
-        <v>28.60367284239679</v>
+        <v>82.86743532099672</v>
       </c>
       <c r="G19" t="n">
-        <v>29.4126089610906</v>
+        <v>78.13650255855273</v>
       </c>
       <c r="H19" t="n">
-        <v>29.59991370083501</v>
+        <v>78.03368200239667</v>
       </c>
       <c r="I19" t="n">
-        <v>28.96760897094758</v>
+        <v>77.52309229172805</v>
       </c>
       <c r="J19" t="n">
-        <v>28.75950271943923</v>
+        <v>77.44628110264911</v>
       </c>
       <c r="K19" t="n">
-        <v>29.38874886676001</v>
+        <v>78.20384176404349</v>
       </c>
       <c r="L19" t="n">
-        <v>29.03223797275582</v>
+        <v>77.60802378233082</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>28.46811125570999</v>
+        <v>76.92345961307309</v>
       </c>
       <c r="C20" t="n">
-        <v>28.5867655542825</v>
+        <v>76.82598600904855</v>
       </c>
       <c r="D20" t="n">
-        <v>29.10382360739636</v>
+        <v>77.38435474146459</v>
       </c>
       <c r="E20" t="n">
-        <v>28.30877161481661</v>
+        <v>82.54008894348223</v>
       </c>
       <c r="F20" t="n">
-        <v>28.54726570561987</v>
+        <v>82.72601666196424</v>
       </c>
       <c r="G20" t="n">
-        <v>29.20932831898504</v>
+        <v>77.92338003850321</v>
       </c>
       <c r="H20" t="n">
-        <v>29.45151687129144</v>
+        <v>77.74154296146988</v>
       </c>
       <c r="I20" t="n">
-        <v>28.63713288051333</v>
+        <v>77.23880745704247</v>
       </c>
       <c r="J20" t="n">
-        <v>28.44456775745766</v>
+        <v>77.15366614387436</v>
       </c>
       <c r="K20" t="n">
-        <v>29.09300491562561</v>
+        <v>78.06455828406932</v>
       </c>
       <c r="L20" t="n">
-        <v>28.72723511026647</v>
+        <v>77.31457253645131</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>28.29249729874654</v>
+        <v>76.83420768464148</v>
       </c>
       <c r="C21" t="n">
-        <v>28.46882035294897</v>
+        <v>76.71773467473709</v>
       </c>
       <c r="D21" t="n">
-        <v>28.98003515406769</v>
+        <v>77.3580367518471</v>
       </c>
       <c r="E21" t="n">
-        <v>28.268787866257</v>
+        <v>82.44314036149915</v>
       </c>
       <c r="F21" t="n">
-        <v>28.53658967254171</v>
+        <v>82.64835688437205</v>
       </c>
       <c r="G21" t="n">
-        <v>29.04158928325543</v>
+        <v>77.7644202473638</v>
       </c>
       <c r="H21" t="n">
-        <v>29.39794198528078</v>
+        <v>77.57262343801051</v>
       </c>
       <c r="I21" t="n">
-        <v>28.49651754188532</v>
+        <v>77.06961545147428</v>
       </c>
       <c r="J21" t="n">
-        <v>28.31525136871214</v>
+        <v>77.05794492028343</v>
       </c>
       <c r="K21" t="n">
-        <v>28.93657731341783</v>
+        <v>77.94751060076001</v>
       </c>
       <c r="L21" t="n">
-        <v>28.578584834917</v>
+        <v>77.17901205132361</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36.89145917609023</v>
+        <v>81.43069148610194</v>
       </c>
       <c r="C22" t="n">
-        <v>36.6248336832373</v>
+        <v>81.45607574838492</v>
       </c>
       <c r="D22" t="n">
-        <v>39.29945404584652</v>
+        <v>82.05321033211348</v>
       </c>
       <c r="E22" t="n">
-        <v>41.01137592938055</v>
+        <v>84.27180947956688</v>
       </c>
       <c r="F22" t="n">
-        <v>42.92705469389042</v>
+        <v>88.07151672727636</v>
       </c>
       <c r="G22" t="n">
-        <v>37.41146016165079</v>
+        <v>81.10564869758127</v>
       </c>
       <c r="H22" t="n">
-        <v>38.52471465750046</v>
+        <v>82.05361952627644</v>
       </c>
       <c r="I22" t="n">
-        <v>37.21733110132733</v>
+        <v>81.71184366782052</v>
       </c>
       <c r="J22" t="n">
-        <v>37.45885799314556</v>
+        <v>81.67027721690891</v>
       </c>
       <c r="K22" t="n">
-        <v>37.22154843182147</v>
+        <v>81.56327107637922</v>
       </c>
       <c r="L22" t="n">
-        <v>36.19832419452657</v>
+        <v>81.53323953884707</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.66296235416061</v>
+        <v>77.46446844784865</v>
       </c>
       <c r="C23" t="n">
-        <v>29.45529007478688</v>
+        <v>77.40991062439316</v>
       </c>
       <c r="D23" t="n">
-        <v>29.41065542355631</v>
+        <v>77.66316143194587</v>
       </c>
       <c r="E23" t="n">
-        <v>28.67612034948041</v>
+        <v>82.84364204686078</v>
       </c>
       <c r="F23" t="n">
-        <v>28.83919197005591</v>
+        <v>83.34238158903263</v>
       </c>
       <c r="G23" t="n">
-        <v>29.96587719610833</v>
+        <v>78.23345424624176</v>
       </c>
       <c r="H23" t="n">
-        <v>30.0842889605911</v>
+        <v>78.1494666809387</v>
       </c>
       <c r="I23" t="n">
-        <v>29.71628029543911</v>
+        <v>77.87329363591797</v>
       </c>
       <c r="J23" t="n">
-        <v>29.47644250720434</v>
+        <v>77.84776286344677</v>
       </c>
       <c r="K23" t="n">
-        <v>30.04896267025817</v>
+        <v>78.31004939251515</v>
       </c>
       <c r="L23" t="n">
-        <v>29.62676964662322</v>
+        <v>77.93060069782159</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>28.80416395816887</v>
+        <v>77.03547143011545</v>
       </c>
       <c r="C24" t="n">
-        <v>28.83291972397375</v>
+        <v>76.93682420857003</v>
       </c>
       <c r="D24" t="n">
-        <v>29.17437702091848</v>
+        <v>77.32992599565591</v>
       </c>
       <c r="E24" t="n">
-        <v>28.43842754776728</v>
+        <v>82.59956952888137</v>
       </c>
       <c r="F24" t="n">
-        <v>28.58955843043702</v>
+        <v>82.94444108072577</v>
       </c>
       <c r="G24" t="n">
-        <v>29.35532869038942</v>
+        <v>77.84116848169799</v>
       </c>
       <c r="H24" t="n">
-        <v>29.47817733446412</v>
+        <v>77.75831675425889</v>
       </c>
       <c r="I24" t="n">
-        <v>28.97517567356059</v>
+        <v>77.26173442154449</v>
       </c>
       <c r="J24" t="n">
-        <v>28.74620785009253</v>
+        <v>77.22192466434065</v>
       </c>
       <c r="K24" t="n">
-        <v>29.40144426154881</v>
+        <v>77.94203704066875</v>
       </c>
       <c r="L24" t="n">
-        <v>28.97609013551328</v>
+        <v>77.36274498484016</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.4947401631731</v>
+        <v>76.81857212827215</v>
       </c>
       <c r="C25" t="n">
-        <v>28.60431278524931</v>
+        <v>76.73597120642714</v>
       </c>
       <c r="D25" t="n">
-        <v>29.09012695645229</v>
+        <v>77.2472153642493</v>
       </c>
       <c r="E25" t="n">
-        <v>28.31933515397456</v>
+        <v>82.48259858156992</v>
       </c>
       <c r="F25" t="n">
-        <v>28.48664251794193</v>
+        <v>82.79774498527144</v>
       </c>
       <c r="G25" t="n">
-        <v>29.22396328070477</v>
+        <v>77.57401794987973</v>
       </c>
       <c r="H25" t="n">
-        <v>29.53857637265178</v>
+        <v>77.63143591140442</v>
       </c>
       <c r="I25" t="n">
-        <v>28.78301747680514</v>
+        <v>77.03754633837914</v>
       </c>
       <c r="J25" t="n">
-        <v>28.50160575877639</v>
+        <v>76.97077670516643</v>
       </c>
       <c r="K25" t="n">
-        <v>29.1221021965049</v>
+        <v>77.76559233424086</v>
       </c>
       <c r="L25" t="n">
-        <v>28.69100713665619</v>
+        <v>77.10470941672132</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>28.34428251836729</v>
+        <v>76.74873424278715</v>
       </c>
       <c r="C26" t="n">
-        <v>28.5172974119765</v>
+        <v>76.68128261519227</v>
       </c>
       <c r="D26" t="n">
-        <v>29.03625312413993</v>
+        <v>77.16981588263248</v>
       </c>
       <c r="E26" t="n">
-        <v>28.24720263952806</v>
+        <v>82.411816003437</v>
       </c>
       <c r="F26" t="n">
-        <v>28.45549276910823</v>
+        <v>82.71392820104901</v>
       </c>
       <c r="G26" t="n">
-        <v>29.04104254214742</v>
+        <v>77.46017548723236</v>
       </c>
       <c r="H26" t="n">
-        <v>29.38092970577346</v>
+        <v>77.518591718376</v>
       </c>
       <c r="I26" t="n">
-        <v>28.61225784572663</v>
+        <v>76.94790380093484</v>
       </c>
       <c r="J26" t="n">
-        <v>28.36882902199406</v>
+        <v>76.88598184840517</v>
       </c>
       <c r="K26" t="n">
-        <v>28.95848038630364</v>
+        <v>77.69312693130269</v>
       </c>
       <c r="L26" t="n">
-        <v>28.51942754926046</v>
+        <v>76.99259415165736</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>35.51822575683825</v>
+        <v>81.31759143484896</v>
       </c>
       <c r="C27" t="n">
-        <v>35.41495113801405</v>
+        <v>80.95972163060645</v>
       </c>
       <c r="D27" t="n">
-        <v>37.2778331378892</v>
+        <v>81.6784882481189</v>
       </c>
       <c r="E27" t="n">
-        <v>38.81616041892635</v>
+        <v>84.35246583916425</v>
       </c>
       <c r="F27" t="n">
-        <v>41.06468034392713</v>
+        <v>87.92283130977792</v>
       </c>
       <c r="G27" t="n">
-        <v>36.16890070362808</v>
+        <v>81.00529852442156</v>
       </c>
       <c r="H27" t="n">
-        <v>37.43794370953896</v>
+        <v>81.75796363942416</v>
       </c>
       <c r="I27" t="n">
-        <v>35.67474174766492</v>
+        <v>81.51898404997084</v>
       </c>
       <c r="J27" t="n">
-        <v>35.86762766825055</v>
+        <v>81.43289274474438</v>
       </c>
       <c r="K27" t="n">
-        <v>36.36604034141</v>
+        <v>81.17317600366179</v>
       </c>
       <c r="L27" t="n">
-        <v>35.3853804498282</v>
+        <v>81.36846484390652</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.5922471205364</v>
+        <v>77.4892932359931</v>
       </c>
       <c r="C28" t="n">
-        <v>29.44972262740327</v>
+        <v>77.28838127763296</v>
       </c>
       <c r="D28" t="n">
-        <v>29.35683651060334</v>
+        <v>77.47336174278703</v>
       </c>
       <c r="E28" t="n">
-        <v>28.67939404095289</v>
+        <v>82.81672121672273</v>
       </c>
       <c r="F28" t="n">
-        <v>28.78708280429593</v>
+        <v>83.31538200426024</v>
       </c>
       <c r="G28" t="n">
-        <v>29.74505745109692</v>
+        <v>78.11246868379347</v>
       </c>
       <c r="H28" t="n">
-        <v>29.93231699094904</v>
+        <v>77.93794751636318</v>
       </c>
       <c r="I28" t="n">
-        <v>29.60614998575835</v>
+        <v>77.75353616834369</v>
       </c>
       <c r="J28" t="n">
-        <v>29.37548142703656</v>
+        <v>77.74497784501571</v>
       </c>
       <c r="K28" t="n">
-        <v>29.9919944741526</v>
+        <v>78.11036776939892</v>
       </c>
       <c r="L28" t="n">
-        <v>29.55346575778016</v>
+        <v>77.82776920455289</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>28.83518865244245</v>
+        <v>76.96222310124303</v>
       </c>
       <c r="C29" t="n">
-        <v>28.84046350348272</v>
+        <v>76.74007138337865</v>
       </c>
       <c r="D29" t="n">
-        <v>29.16643866842128</v>
+        <v>77.16095537383615</v>
       </c>
       <c r="E29" t="n">
-        <v>28.43699962403719</v>
+        <v>82.58194730284279</v>
       </c>
       <c r="F29" t="n">
-        <v>28.51893694545451</v>
+        <v>82.91654616671666</v>
       </c>
       <c r="G29" t="n">
-        <v>29.29443527894006</v>
+        <v>77.66012087597228</v>
       </c>
       <c r="H29" t="n">
-        <v>29.41392041560931</v>
+        <v>77.53602243058411</v>
       </c>
       <c r="I29" t="n">
-        <v>28.88866401111016</v>
+        <v>77.17250740708926</v>
       </c>
       <c r="J29" t="n">
-        <v>28.68418500657362</v>
+        <v>77.08132854612552</v>
       </c>
       <c r="K29" t="n">
-        <v>29.24064517477005</v>
+        <v>77.6496975032623</v>
       </c>
       <c r="L29" t="n">
-        <v>28.96574605819116</v>
+        <v>77.21277396375021</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>28.56001362346272</v>
+        <v>76.72998345387774</v>
       </c>
       <c r="C30" t="n">
-        <v>28.61196170714724</v>
+        <v>76.56627479028799</v>
       </c>
       <c r="D30" t="n">
-        <v>29.01369948592599</v>
+        <v>77.03176656968179</v>
       </c>
       <c r="E30" t="n">
-        <v>28.31668373237272</v>
+        <v>82.46525375035478</v>
       </c>
       <c r="F30" t="n">
-        <v>28.43703286757684</v>
+        <v>82.76418957859021</v>
       </c>
       <c r="G30" t="n">
-        <v>28.984679853602</v>
+        <v>77.37905829851996</v>
       </c>
       <c r="H30" t="n">
-        <v>29.29115324818952</v>
+        <v>77.39443700803845</v>
       </c>
       <c r="I30" t="n">
-        <v>28.62022340152495</v>
+        <v>76.892807643742</v>
       </c>
       <c r="J30" t="n">
-        <v>28.46074421461914</v>
+        <v>76.7662449074234</v>
       </c>
       <c r="K30" t="n">
-        <v>29.01140923779647</v>
+        <v>77.37561533213483</v>
       </c>
       <c r="L30" t="n">
-        <v>28.64384489721081</v>
+        <v>76.95079332290894</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>28.40211805645953</v>
+        <v>76.63139462825798</v>
       </c>
       <c r="C31" t="n">
-        <v>28.47902051739674</v>
+        <v>76.50865306728613</v>
       </c>
       <c r="D31" t="n">
-        <v>29.10863421571025</v>
+        <v>76.84614216022574</v>
       </c>
       <c r="E31" t="n">
-        <v>28.25080391915368</v>
+        <v>82.36684561890766</v>
       </c>
       <c r="F31" t="n">
-        <v>28.4109636118338</v>
+        <v>82.6735028082087</v>
       </c>
       <c r="G31" t="n">
-        <v>28.80508412860948</v>
+        <v>77.15759692925911</v>
       </c>
       <c r="H31" t="n">
-        <v>29.32831111324543</v>
+        <v>77.24674925173021</v>
       </c>
       <c r="I31" t="n">
-        <v>28.56522516167712</v>
+        <v>76.77289011873698</v>
       </c>
       <c r="J31" t="n">
-        <v>28.32686980782869</v>
+        <v>76.64383059368744</v>
       </c>
       <c r="K31" t="n">
-        <v>28.84916258641848</v>
+        <v>77.25861148420086</v>
       </c>
       <c r="L31" t="n">
-        <v>28.52329054408521</v>
+        <v>76.76331688175053</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>34.20066724119624</v>
+        <v>79.6610979075321</v>
       </c>
       <c r="C32" t="n">
-        <v>34.29936738570679</v>
+        <v>79.72041888632069</v>
       </c>
       <c r="D32" t="n">
-        <v>35.49986548264636</v>
+        <v>80.26878157396374</v>
       </c>
       <c r="E32" t="n">
-        <v>38.07773859067359</v>
+        <v>84.48686143394626</v>
       </c>
       <c r="F32" t="n">
-        <v>40.07348341534949</v>
+        <v>88.12714134934825</v>
       </c>
       <c r="G32" t="n">
-        <v>34.36344111201348</v>
+        <v>80.13844214728083</v>
       </c>
       <c r="H32" t="n">
-        <v>35.94172183529111</v>
+        <v>80.37824856211017</v>
       </c>
       <c r="I32" t="n">
-        <v>34.71750670249136</v>
+        <v>80.2664710891235</v>
       </c>
       <c r="J32" t="n">
-        <v>34.52436928472</v>
+        <v>79.85461830996483</v>
       </c>
       <c r="K32" t="n">
-        <v>35.04877755608629</v>
+        <v>79.78802941813424</v>
       </c>
       <c r="L32" t="n">
-        <v>34.28943686209208</v>
+        <v>79.60887866997277</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.44225368365855</v>
+        <v>77.20822382182484</v>
       </c>
       <c r="C33" t="n">
-        <v>29.29019595139239</v>
+        <v>77.03942325501858</v>
       </c>
       <c r="D33" t="n">
-        <v>29.22225634977539</v>
+        <v>77.43551611282845</v>
       </c>
       <c r="E33" t="n">
-        <v>28.68718004536795</v>
+        <v>82.84989445559302</v>
       </c>
       <c r="F33" t="n">
-        <v>28.81272136252025</v>
+        <v>83.29855066585819</v>
       </c>
       <c r="G33" t="n">
-        <v>29.54488390035676</v>
+        <v>77.86963201198782</v>
       </c>
       <c r="H33" t="n">
-        <v>29.74412824986242</v>
+        <v>77.69138932246878</v>
       </c>
       <c r="I33" t="n">
-        <v>29.46487394579394</v>
+        <v>77.55287538403311</v>
       </c>
       <c r="J33" t="n">
-        <v>29.31343398383753</v>
+        <v>77.47280901697994</v>
       </c>
       <c r="K33" t="n">
-        <v>29.77563475490988</v>
+        <v>77.6916845115594</v>
       </c>
       <c r="L33" t="n">
-        <v>29.38273287843105</v>
+        <v>77.40921176409864</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.80137213633681</v>
+        <v>76.81146042144007</v>
       </c>
       <c r="C34" t="n">
-        <v>28.67252273733039</v>
+        <v>76.57648041871903</v>
       </c>
       <c r="D34" t="n">
-        <v>29.11450557906785</v>
+        <v>77.19784555908988</v>
       </c>
       <c r="E34" t="n">
-        <v>28.42533619564739</v>
+        <v>82.60556660598567</v>
       </c>
       <c r="F34" t="n">
-        <v>28.57899901553049</v>
+        <v>82.89766169423373</v>
       </c>
       <c r="G34" t="n">
-        <v>29.0689865066804</v>
+        <v>77.29986770469543</v>
       </c>
       <c r="H34" t="n">
-        <v>29.26016493950561</v>
+        <v>77.35677757208468</v>
       </c>
       <c r="I34" t="n">
-        <v>28.77024016875716</v>
+        <v>77.05231622740537</v>
       </c>
       <c r="J34" t="n">
-        <v>28.63939340400449</v>
+        <v>76.88016893646794</v>
       </c>
       <c r="K34" t="n">
-        <v>29.08041913847854</v>
+        <v>77.32440909015867</v>
       </c>
       <c r="L34" t="n">
-        <v>28.83921829808265</v>
+        <v>76.93500645972505</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>28.50579607371454</v>
+        <v>76.63975854594027</v>
       </c>
       <c r="C35" t="n">
-        <v>28.47236255853669</v>
+        <v>76.44174676650815</v>
       </c>
       <c r="D35" t="n">
-        <v>29.01826572426224</v>
+        <v>77.00855621028084</v>
       </c>
       <c r="E35" t="n">
-        <v>28.3016640636794</v>
+        <v>82.49040840030875</v>
       </c>
       <c r="F35" t="n">
-        <v>28.4592374611523</v>
+        <v>82.75172586280004</v>
       </c>
       <c r="G35" t="n">
-        <v>28.77228606944428</v>
+        <v>77.03228397636111</v>
       </c>
       <c r="H35" t="n">
-        <v>29.27699882102986</v>
+        <v>77.24779951923907</v>
       </c>
       <c r="I35" t="n">
-        <v>28.53201449018466</v>
+        <v>76.78301827182716</v>
       </c>
       <c r="J35" t="n">
-        <v>28.39613544411623</v>
+        <v>76.62097143841392</v>
       </c>
       <c r="K35" t="n">
-        <v>28.85539708156717</v>
+        <v>77.14040481733149</v>
       </c>
       <c r="L35" t="n">
-        <v>28.60069531876179</v>
+        <v>76.76035321466225</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28.37781319183108</v>
+        <v>76.53012756793231</v>
       </c>
       <c r="C36" t="n">
-        <v>28.35431470545064</v>
+        <v>76.31844185261099</v>
       </c>
       <c r="D36" t="n">
-        <v>29.00587168424242</v>
+        <v>76.92253314790341</v>
       </c>
       <c r="E36" t="n">
-        <v>28.24216953114991</v>
+        <v>82.39292209115624</v>
       </c>
       <c r="F36" t="n">
-        <v>28.4184420399166</v>
+        <v>82.67214171629331</v>
       </c>
       <c r="G36" t="n">
-        <v>28.62892817222682</v>
+        <v>76.9521721274353</v>
       </c>
       <c r="H36" t="n">
-        <v>29.1700814874851</v>
+        <v>77.17971869402649</v>
       </c>
       <c r="I36" t="n">
-        <v>28.43691838287475</v>
+        <v>76.64943032909504</v>
       </c>
       <c r="J36" t="n">
-        <v>28.25260465714399</v>
+        <v>76.50378727234789</v>
       </c>
       <c r="K36" t="n">
-        <v>28.65782756693985</v>
+        <v>77.00303089997843</v>
       </c>
       <c r="L36" t="n">
-        <v>28.43819637398596</v>
+        <v>76.60674078755808</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.20066724119624</v>
+        <v>81.32227397374074</v>
       </c>
       <c r="C37" t="n">
-        <v>34.29936738570679</v>
+        <v>81.07235038418737</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49986548264636</v>
+        <v>81.6966436620084</v>
       </c>
       <c r="E37" t="n">
-        <v>38.56735073154577</v>
+        <v>84.52106051026958</v>
       </c>
       <c r="F37" t="n">
-        <v>40.60899279857126</v>
+        <v>88.25372494994419</v>
       </c>
       <c r="G37" t="n">
-        <v>34.36344111201348</v>
+        <v>81.00290200712784</v>
       </c>
       <c r="H37" t="n">
-        <v>35.94172183529111</v>
+        <v>81.34492752935739</v>
       </c>
       <c r="I37" t="n">
-        <v>34.71750670249136</v>
+        <v>81.54254152081739</v>
       </c>
       <c r="J37" t="n">
-        <v>34.52436928472</v>
+        <v>81.29546521097872</v>
       </c>
       <c r="K37" t="n">
-        <v>35.04749364839572</v>
+        <v>81.2063540419156</v>
       </c>
       <c r="L37" t="n">
-        <v>34.28943686209208</v>
+        <v>81.37349060013645</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.41218524916964</v>
+        <v>77.47472126086312</v>
       </c>
       <c r="C38" t="n">
-        <v>29.2619839999365</v>
+        <v>77.2899015489337</v>
       </c>
       <c r="D38" t="n">
-        <v>29.21500745472762</v>
+        <v>77.40064616475925</v>
       </c>
       <c r="E38" t="n">
-        <v>28.68719115589344</v>
+        <v>82.85128000177485</v>
       </c>
       <c r="F38" t="n">
-        <v>28.8120373664244</v>
+        <v>83.29234509209419</v>
       </c>
       <c r="G38" t="n">
-        <v>29.58192846966348</v>
+        <v>78.17010746016487</v>
       </c>
       <c r="H38" t="n">
-        <v>29.76511972065113</v>
+        <v>77.90981927794527</v>
       </c>
       <c r="I38" t="n">
-        <v>29.59629416110081</v>
+        <v>77.71759293233751</v>
       </c>
       <c r="J38" t="n">
-        <v>29.29534672056534</v>
+        <v>77.75213749270669</v>
       </c>
       <c r="K38" t="n">
-        <v>29.86775263482541</v>
+        <v>78.13270633670497</v>
       </c>
       <c r="L38" t="n">
-        <v>29.40622828536288</v>
+        <v>77.82650008477555</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.740749516374</v>
+        <v>76.98038050867987</v>
       </c>
       <c r="C39" t="n">
-        <v>28.65065544218841</v>
+        <v>76.6997525874766</v>
       </c>
       <c r="D39" t="n">
-        <v>28.92571162632888</v>
+        <v>77.18507829989686</v>
       </c>
       <c r="E39" t="n">
-        <v>28.4446468267274</v>
+        <v>82.61829921757536</v>
       </c>
       <c r="F39" t="n">
-        <v>28.56484341653729</v>
+        <v>82.90112178766191</v>
       </c>
       <c r="G39" t="n">
-        <v>29.00974812268981</v>
+        <v>77.53641218234772</v>
       </c>
       <c r="H39" t="n">
-        <v>29.27738883650314</v>
+        <v>77.5049340633815</v>
       </c>
       <c r="I39" t="n">
-        <v>28.7677010291824</v>
+        <v>77.14978570250406</v>
       </c>
       <c r="J39" t="n">
-        <v>28.64018840473746</v>
+        <v>77.07361512873629</v>
       </c>
       <c r="K39" t="n">
-        <v>29.24541025230195</v>
+        <v>77.60003979504566</v>
       </c>
       <c r="L39" t="n">
-        <v>28.87462866765037</v>
+        <v>77.23878357773988</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.54042973778846</v>
+        <v>76.72077974635675</v>
       </c>
       <c r="C40" t="n">
-        <v>28.46463405806058</v>
+        <v>76.49114017080134</v>
       </c>
       <c r="D40" t="n">
-        <v>28.8660935435521</v>
+        <v>77.0237056611179</v>
       </c>
       <c r="E40" t="n">
-        <v>28.31776648748297</v>
+        <v>82.48683358948759</v>
       </c>
       <c r="F40" t="n">
-        <v>28.45129343319133</v>
+        <v>82.74598931790644</v>
       </c>
       <c r="G40" t="n">
-        <v>28.78198263660051</v>
+        <v>77.27553978794894</v>
       </c>
       <c r="H40" t="n">
-        <v>29.21009207515324</v>
+        <v>77.38576588966824</v>
       </c>
       <c r="I40" t="n">
-        <v>28.54835643983585</v>
+        <v>76.83313431125855</v>
       </c>
       <c r="J40" t="n">
-        <v>28.404878460691</v>
+        <v>76.76688673806593</v>
       </c>
       <c r="K40" t="n">
-        <v>28.98433138927215</v>
+        <v>77.35461209529404</v>
       </c>
       <c r="L40" t="n">
-        <v>28.60298644963051</v>
+        <v>76.94689126698364</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>28.36866662170913</v>
+        <v>76.62215294408951</v>
       </c>
       <c r="C41" t="n">
-        <v>28.37781950501097</v>
+        <v>76.49863526651518</v>
       </c>
       <c r="D41" t="n">
-        <v>28.86885582111528</v>
+        <v>76.86227385039538</v>
       </c>
       <c r="E41" t="n">
-        <v>28.24081573401061</v>
+        <v>82.38960570398294</v>
       </c>
       <c r="F41" t="n">
-        <v>28.40801762358145</v>
+        <v>82.65149394136293</v>
       </c>
       <c r="G41" t="n">
-        <v>28.72261458353196</v>
+        <v>77.03040386317421</v>
       </c>
       <c r="H41" t="n">
-        <v>29.19426333769191</v>
+        <v>77.29129066744261</v>
       </c>
       <c r="I41" t="n">
-        <v>28.41818006672618</v>
+        <v>76.71374599838595</v>
       </c>
       <c r="J41" t="n">
-        <v>28.26065893671933</v>
+        <v>76.63859949280449</v>
       </c>
       <c r="K41" t="n">
-        <v>28.81494582137187</v>
+        <v>77.21976061210887</v>
       </c>
       <c r="L41" t="n">
-        <v>28.48342913679406</v>
+        <v>76.82722088999094</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>33.82822225416891</v>
+        <v>79.27662250852954</v>
       </c>
       <c r="C42" t="n">
-        <v>34.04697683777277</v>
+        <v>79.14330934640819</v>
       </c>
       <c r="D42" t="n">
-        <v>35.30047117343465</v>
+        <v>79.84887137311054</v>
       </c>
       <c r="E42" t="n">
-        <v>38.07773859067359</v>
+        <v>84.39150227700324</v>
       </c>
       <c r="F42" t="n">
-        <v>40.07368035620007</v>
+        <v>87.92635635829974</v>
       </c>
       <c r="G42" t="n">
-        <v>34.29875308917761</v>
+        <v>79.1859619265814</v>
       </c>
       <c r="H42" t="n">
-        <v>35.49304050501351</v>
+        <v>79.72610188504788</v>
       </c>
       <c r="I42" t="n">
-        <v>34.51528314893056</v>
+        <v>79.48241334136485</v>
       </c>
       <c r="J42" t="n">
-        <v>34.31778722548955</v>
+        <v>79.48593048588269</v>
       </c>
       <c r="K42" t="n">
-        <v>34.74819614991129</v>
+        <v>79.13142969732453</v>
       </c>
       <c r="L42" t="n">
-        <v>34.04624974191886</v>
+        <v>79.16832847414244</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.39329912416623</v>
+        <v>77.14694697713541</v>
       </c>
       <c r="C43" t="n">
-        <v>29.19772200675262</v>
+        <v>76.85941846299829</v>
       </c>
       <c r="D43" t="n">
-        <v>29.12433495981414</v>
+        <v>77.21438589975519</v>
       </c>
       <c r="E43" t="n">
-        <v>28.69249393106958</v>
+        <v>82.82075262598445</v>
       </c>
       <c r="F43" t="n">
-        <v>28.80628339013013</v>
+        <v>83.30930852492492</v>
       </c>
       <c r="G43" t="n">
-        <v>29.53140053404223</v>
+        <v>77.49039336471841</v>
       </c>
       <c r="H43" t="n">
-        <v>29.75232880156051</v>
+        <v>77.56995305943161</v>
       </c>
       <c r="I43" t="n">
-        <v>29.55878763617427</v>
+        <v>77.28672999138445</v>
       </c>
       <c r="J43" t="n">
-        <v>29.24988473098071</v>
+        <v>77.23327179650424</v>
       </c>
       <c r="K43" t="n">
-        <v>29.68723925469112</v>
+        <v>77.46696624682227</v>
       </c>
       <c r="L43" t="n">
-        <v>29.35448889634438</v>
+        <v>77.23884451139264</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>28.70592943077776</v>
+        <v>76.77104875164855</v>
       </c>
       <c r="C44" t="n">
-        <v>28.63611063142564</v>
+        <v>76.46809294150454</v>
       </c>
       <c r="D44" t="n">
-        <v>28.97710383551559</v>
+        <v>76.98410389427723</v>
       </c>
       <c r="E44" t="n">
-        <v>28.44266945869779</v>
+        <v>82.58418870832301</v>
       </c>
       <c r="F44" t="n">
-        <v>28.57874774736791</v>
+        <v>82.91790500104202</v>
       </c>
       <c r="G44" t="n">
-        <v>29.00994446957467</v>
+        <v>77.11823201900451</v>
       </c>
       <c r="H44" t="n">
-        <v>29.30646054147385</v>
+        <v>77.35338941628504</v>
       </c>
       <c r="I44" t="n">
-        <v>28.75457080193148</v>
+        <v>76.90239431395975</v>
       </c>
       <c r="J44" t="n">
-        <v>28.63207610230838</v>
+        <v>76.75478769687206</v>
       </c>
       <c r="K44" t="n">
-        <v>29.14226444168673</v>
+        <v>77.08748482489432</v>
       </c>
       <c r="L44" t="n">
-        <v>28.85716624687337</v>
+        <v>76.79355059593036</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.49824228008936</v>
+        <v>76.58032230028101</v>
       </c>
       <c r="C45" t="n">
-        <v>28.42719039288266</v>
+        <v>76.34808296916222</v>
       </c>
       <c r="D45" t="n">
-        <v>28.88455435014984</v>
+        <v>76.86167514285782</v>
       </c>
       <c r="E45" t="n">
-        <v>28.31678903881962</v>
+        <v>82.47796564455614</v>
       </c>
       <c r="F45" t="n">
-        <v>28.4712074233119</v>
+        <v>82.76453710000561</v>
       </c>
       <c r="G45" t="n">
-        <v>28.71968950032322</v>
+        <v>76.96732075342508</v>
       </c>
       <c r="H45" t="n">
-        <v>29.18349171607576</v>
+        <v>77.22757727715337</v>
       </c>
       <c r="I45" t="n">
-        <v>28.57717746702813</v>
+        <v>76.63286257672053</v>
       </c>
       <c r="J45" t="n">
-        <v>28.43578507603827</v>
+        <v>76.51285197796932</v>
       </c>
       <c r="K45" t="n">
-        <v>28.91343889591855</v>
+        <v>76.90769760904418</v>
       </c>
       <c r="L45" t="n">
-        <v>28.60228613050706</v>
+        <v>76.6034765355102</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.30361496829559</v>
+        <v>76.49108055607196</v>
       </c>
       <c r="C46" t="n">
-        <v>28.38933035358806</v>
+        <v>76.25354475741918</v>
       </c>
       <c r="D46" t="n">
-        <v>28.89921739978785</v>
+        <v>76.79168856405801</v>
       </c>
       <c r="E46" t="n">
-        <v>28.24888407942141</v>
+        <v>82.37642169629171</v>
       </c>
       <c r="F46" t="n">
-        <v>28.41834592224179</v>
+        <v>82.68898734613158</v>
       </c>
       <c r="G46" t="n">
-        <v>28.70279178793705</v>
+        <v>76.82970444556625</v>
       </c>
       <c r="H46" t="n">
-        <v>29.09399664523534</v>
+        <v>77.12295256593666</v>
       </c>
       <c r="I46" t="n">
-        <v>28.43992229432578</v>
+        <v>76.48916777359642</v>
       </c>
       <c r="J46" t="n">
-        <v>28.25199813848527</v>
+        <v>76.4204882965855</v>
       </c>
       <c r="K46" t="n">
-        <v>28.71785331495095</v>
+        <v>76.83576008225303</v>
       </c>
       <c r="L46" t="n">
-        <v>28.44744081923337</v>
+        <v>76.49812074907807</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>33.57109474466785</v>
+        <v>79.56932189764362</v>
       </c>
       <c r="C47" t="n">
-        <v>33.59668788841779</v>
+        <v>79.38297929230822</v>
       </c>
       <c r="D47" t="n">
-        <v>34.46891756585175</v>
+        <v>80.30992716341643</v>
       </c>
       <c r="E47" t="n">
-        <v>36.76042451724192</v>
+        <v>84.08491272387576</v>
       </c>
       <c r="F47" t="n">
-        <v>38.88616431238234</v>
+        <v>87.15557737306702</v>
       </c>
       <c r="G47" t="n">
-        <v>33.95900801591029</v>
+        <v>79.59554202461155</v>
       </c>
       <c r="H47" t="n">
-        <v>34.84708784341078</v>
+        <v>80.11869231033566</v>
       </c>
       <c r="I47" t="n">
-        <v>34.08660207806101</v>
+        <v>79.88883612300046</v>
       </c>
       <c r="J47" t="n">
-        <v>33.98797258902963</v>
+        <v>79.79779704163576</v>
       </c>
       <c r="K47" t="n">
-        <v>34.45948273154847</v>
+        <v>79.48149827372464</v>
       </c>
       <c r="L47" t="n">
-        <v>33.85403948569162</v>
+        <v>79.37027459350487</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>29.3900814735907</v>
+        <v>77.19537470144486</v>
       </c>
       <c r="C48" t="n">
-        <v>29.13691934194766</v>
+        <v>76.9592472130836</v>
       </c>
       <c r="D48" t="n">
-        <v>29.05608214867067</v>
+        <v>77.36836428229654</v>
       </c>
       <c r="E48" t="n">
-        <v>28.69832348380611</v>
+        <v>82.73214071883476</v>
       </c>
       <c r="F48" t="n">
-        <v>28.77361999496038</v>
+        <v>83.25220794745474</v>
       </c>
       <c r="G48" t="n">
-        <v>29.40005135576284</v>
+        <v>77.67809738237852</v>
       </c>
       <c r="H48" t="n">
-        <v>29.51786860719025</v>
+        <v>77.64184621365328</v>
       </c>
       <c r="I48" t="n">
-        <v>29.4801208024138</v>
+        <v>77.44341881939205</v>
       </c>
       <c r="J48" t="n">
-        <v>29.23336383885935</v>
+        <v>77.38987846255645</v>
       </c>
       <c r="K48" t="n">
-        <v>29.70861630993163</v>
+        <v>77.61177991508721</v>
       </c>
       <c r="L48" t="n">
-        <v>29.27989716217868</v>
+        <v>77.35392207644234</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>28.75903477735544</v>
+        <v>76.7813615842837</v>
       </c>
       <c r="C49" t="n">
-        <v>28.59787553426958</v>
+        <v>76.52732227964553</v>
       </c>
       <c r="D49" t="n">
-        <v>28.83666658668897</v>
+        <v>77.07934215427048</v>
       </c>
       <c r="E49" t="n">
-        <v>28.45446455306233</v>
+        <v>82.535632504134</v>
       </c>
       <c r="F49" t="n">
-        <v>28.5475166177044</v>
+        <v>82.88759553477995</v>
       </c>
       <c r="G49" t="n">
-        <v>28.82692974796213</v>
+        <v>77.21783855232923</v>
       </c>
       <c r="H49" t="n">
-        <v>29.06313278700528</v>
+        <v>77.35370646803239</v>
       </c>
       <c r="I49" t="n">
-        <v>28.75347923469042</v>
+        <v>76.96175414573365</v>
       </c>
       <c r="J49" t="n">
-        <v>28.61719300493212</v>
+        <v>76.84036726869317</v>
       </c>
       <c r="K49" t="n">
-        <v>29.14912640595249</v>
+        <v>77.25233351646227</v>
       </c>
       <c r="L49" t="n">
-        <v>28.78293200074962</v>
+        <v>76.90036240176548</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>28.49859062766778</v>
+        <v>76.5970903410731</v>
       </c>
       <c r="C50" t="n">
-        <v>28.34536991421389</v>
+        <v>76.42159125232597</v>
       </c>
       <c r="D50" t="n">
-        <v>28.80009402060727</v>
+        <v>76.95757286926695</v>
       </c>
       <c r="E50" t="n">
-        <v>28.31596671350211</v>
+        <v>82.42113153157192</v>
       </c>
       <c r="F50" t="n">
-        <v>28.43415388939961</v>
+        <v>82.75945342321972</v>
       </c>
       <c r="G50" t="n">
-        <v>28.69558961181486</v>
+        <v>77.02503883140476</v>
       </c>
       <c r="H50" t="n">
-        <v>28.92933156423464</v>
+        <v>77.23200387535819</v>
       </c>
       <c r="I50" t="n">
-        <v>28.55738972747691</v>
+        <v>76.74284640814405</v>
       </c>
       <c r="J50" t="n">
-        <v>28.42031242116894</v>
+        <v>76.61509868392857</v>
       </c>
       <c r="K50" t="n">
-        <v>28.89090226091405</v>
+        <v>77.07655860633639</v>
       </c>
       <c r="L50" t="n">
-        <v>28.52605068708109</v>
+        <v>76.67108811407347</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>28.3706753521585</v>
+        <v>76.49813880128963</v>
       </c>
       <c r="C51" t="n">
-        <v>28.2334605031069</v>
+        <v>76.31522408777116</v>
       </c>
       <c r="D51" t="n">
-        <v>28.68369500326936</v>
+        <v>76.86608773479426</v>
       </c>
       <c r="E51" t="n">
-        <v>28.21933104006835</v>
+        <v>82.34628679541981</v>
       </c>
       <c r="F51" t="n">
-        <v>28.36221996807813</v>
+        <v>82.66587680877089</v>
       </c>
       <c r="G51" t="n">
-        <v>28.60073223907716</v>
+        <v>76.83124024067337</v>
       </c>
       <c r="H51" t="n">
-        <v>28.96588179327546</v>
+        <v>77.08377189474305</v>
       </c>
       <c r="I51" t="n">
-        <v>28.4032941184851</v>
+        <v>76.59921329153215</v>
       </c>
       <c r="J51" t="n">
-        <v>28.2912195202687</v>
+        <v>76.49469912738209</v>
       </c>
       <c r="K51" t="n">
-        <v>28.71194258231081</v>
+        <v>76.96832723026081</v>
       </c>
       <c r="L51" t="n">
-        <v>28.43781585317551</v>
+        <v>76.55817848792469</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>34.26662121966149</v>
+        <v>78.03773603212635</v>
       </c>
       <c r="C52" t="n">
-        <v>34.50311923076923</v>
+        <v>77.79455792100688</v>
       </c>
       <c r="D52" t="n">
-        <v>35.92427539689351</v>
+        <v>78.37843350149159</v>
       </c>
       <c r="E52" t="n">
-        <v>37.50772887812823</v>
+        <v>83.8018796857309</v>
       </c>
       <c r="F52" t="n">
-        <v>39.68747206975785</v>
+        <v>86.35907045217445</v>
       </c>
       <c r="G52" t="n">
-        <v>34.64735025659223</v>
+        <v>78.14767972405353</v>
       </c>
       <c r="H52" t="n">
-        <v>36.29958722239945</v>
+        <v>78.55326087347035</v>
       </c>
       <c r="I52" t="n">
-        <v>34.96498091251042</v>
+        <v>77.98641210789054</v>
       </c>
       <c r="J52" t="n">
-        <v>34.83337962105962</v>
+        <v>78.08588019668959</v>
       </c>
       <c r="K52" t="n">
-        <v>35.36642540090199</v>
+        <v>77.96814924596643</v>
       </c>
       <c r="L52" t="n">
-        <v>34.32297105492711</v>
+        <v>77.91091207903794</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>29.54398554081924</v>
+        <v>76.7493161089332</v>
       </c>
       <c r="C53" t="n">
-        <v>29.30153866835236</v>
+        <v>76.52834573420614</v>
       </c>
       <c r="D53" t="n">
-        <v>29.03088600995119</v>
+        <v>76.84259452590302</v>
       </c>
       <c r="E53" t="n">
-        <v>28.69497814703472</v>
+        <v>82.65881413962703</v>
       </c>
       <c r="F53" t="n">
-        <v>28.81793656951035</v>
+        <v>83.17672541068241</v>
       </c>
       <c r="G53" t="n">
-        <v>29.65957917853065</v>
+        <v>77.08239992347681</v>
       </c>
       <c r="H53" t="n">
-        <v>29.58771445914871</v>
+        <v>77.23580792698628</v>
       </c>
       <c r="I53" t="n">
-        <v>29.50752661236752</v>
+        <v>76.73552678845547</v>
       </c>
       <c r="J53" t="n">
-        <v>29.34984572941612</v>
+        <v>76.83308406198233</v>
       </c>
       <c r="K53" t="n">
-        <v>29.81710217025126</v>
+        <v>76.87103967539478</v>
       </c>
       <c r="L53" t="n">
-        <v>29.44400001100221</v>
+        <v>76.84018547153416</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>28.77187281813358</v>
+        <v>76.53887460293237</v>
       </c>
       <c r="C54" t="n">
-        <v>28.67781701696242</v>
+        <v>76.24701822402143</v>
       </c>
       <c r="D54" t="n">
-        <v>28.8409535694196</v>
+        <v>76.67868270854729</v>
       </c>
       <c r="E54" t="n">
-        <v>28.45937844580117</v>
+        <v>82.46832782126214</v>
       </c>
       <c r="F54" t="n">
-        <v>28.54543882438911</v>
+        <v>82.87879127997725</v>
       </c>
       <c r="G54" t="n">
-        <v>29.07517510290966</v>
+        <v>76.8383799327591</v>
       </c>
       <c r="H54" t="n">
-        <v>29.12772002219961</v>
+        <v>77.05604182529514</v>
       </c>
       <c r="I54" t="n">
-        <v>28.75052412451284</v>
+        <v>76.52621380930935</v>
       </c>
       <c r="J54" t="n">
-        <v>28.70280388343594</v>
+        <v>76.50241859809645</v>
       </c>
       <c r="K54" t="n">
-        <v>29.26040732227383</v>
+        <v>76.71051044597706</v>
       </c>
       <c r="L54" t="n">
-        <v>28.91056565074931</v>
+        <v>76.55114998401497</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>28.52072425654039</v>
+        <v>76.39276582293542</v>
       </c>
       <c r="C55" t="n">
-        <v>28.44443384161791</v>
+        <v>76.19402886386165</v>
       </c>
       <c r="D55" t="n">
-        <v>28.87862739200834</v>
+        <v>76.59886792168453</v>
       </c>
       <c r="E55" t="n">
-        <v>28.3239136124841</v>
+        <v>82.37366529225187</v>
       </c>
       <c r="F55" t="n">
-        <v>28.43116585852789</v>
+        <v>82.73191865677516</v>
       </c>
       <c r="G55" t="n">
-        <v>28.83977531952328</v>
+        <v>76.74539976314557</v>
       </c>
       <c r="H55" t="n">
-        <v>28.96106940405978</v>
+        <v>76.95018768132711</v>
       </c>
       <c r="I55" t="n">
-        <v>28.53271956054158</v>
+        <v>76.38824470468727</v>
       </c>
       <c r="J55" t="n">
-        <v>28.46817571431134</v>
+        <v>76.32404533232447</v>
       </c>
       <c r="K55" t="n">
-        <v>28.94486854605498</v>
+        <v>76.58559131496629</v>
       </c>
       <c r="L55" t="n">
-        <v>28.62908648077129</v>
+        <v>76.41995294904973</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>28.34722231631393</v>
+        <v>76.31980306125946</v>
       </c>
       <c r="C56" t="n">
-        <v>28.37044285480495</v>
+        <v>76.09832989134678</v>
       </c>
       <c r="D56" t="n">
-        <v>28.87201598544599</v>
+        <v>76.53437880841747</v>
       </c>
       <c r="E56" t="n">
-        <v>28.24578347922772</v>
+        <v>82.29846236800827</v>
       </c>
       <c r="F56" t="n">
-        <v>28.36956269896597</v>
+        <v>82.64724465446957</v>
       </c>
       <c r="G56" t="n">
-        <v>28.7249823598028</v>
+        <v>76.66202843594192</v>
       </c>
       <c r="H56" t="n">
-        <v>28.962004974062</v>
+        <v>76.93901696358003</v>
       </c>
       <c r="I56" t="n">
-        <v>28.41449075567476</v>
+        <v>76.31678805522361</v>
       </c>
       <c r="J56" t="n">
-        <v>28.33978337164912</v>
+        <v>76.26105465837499</v>
       </c>
       <c r="K56" t="n">
-        <v>28.79730095003525</v>
+        <v>76.53070815046711</v>
       </c>
       <c r="L56" t="n">
-        <v>28.50959272619638</v>
+        <v>76.34469304529914</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>33.68404046158034</v>
+        <v>78.13037418169604</v>
       </c>
       <c r="C57" t="n">
-        <v>33.67912558500448</v>
+        <v>77.82451982970703</v>
       </c>
       <c r="D57" t="n">
-        <v>34.70994874460667</v>
+        <v>78.50691729627303</v>
       </c>
       <c r="E57" t="n">
-        <v>38.07773859067359</v>
+        <v>84.14164334935394</v>
       </c>
       <c r="F57" t="n">
-        <v>40.07299110229145</v>
+        <v>86.97723719173274</v>
       </c>
       <c r="G57" t="n">
-        <v>34.05713785633624</v>
+        <v>78.22183964208273</v>
       </c>
       <c r="H57" t="n">
-        <v>34.98192846449109</v>
+        <v>78.63120597559248</v>
       </c>
       <c r="I57" t="n">
-        <v>34.16241266363103</v>
+        <v>78.05846985944956</v>
       </c>
       <c r="J57" t="n">
-        <v>34.05935872363187</v>
+        <v>78.26561417461896</v>
       </c>
       <c r="K57" t="n">
-        <v>34.56761855030722</v>
+        <v>78.06905594110609</v>
       </c>
       <c r="L57" t="n">
-        <v>33.97897809089922</v>
+        <v>78.04298973780752</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>29.41438704348517</v>
+        <v>76.80245196573827</v>
       </c>
       <c r="C58" t="n">
-        <v>29.08277825785364</v>
+        <v>76.51534120892292</v>
       </c>
       <c r="D58" t="n">
-        <v>29.12178998428553</v>
+        <v>76.87088912094175</v>
       </c>
       <c r="E58" t="n">
-        <v>28.70260828067236</v>
+        <v>82.69897013689389</v>
       </c>
       <c r="F58" t="n">
-        <v>28.81295591134568</v>
+        <v>83.15878798169152</v>
       </c>
       <c r="G58" t="n">
-        <v>29.19090723495087</v>
+        <v>77.12743185098363</v>
       </c>
       <c r="H58" t="n">
-        <v>29.64632734325786</v>
+        <v>77.29225923007827</v>
       </c>
       <c r="I58" t="n">
-        <v>29.57662624762602</v>
+        <v>76.84047019029323</v>
       </c>
       <c r="J58" t="n">
-        <v>29.28416360634902</v>
+        <v>76.87659568151054</v>
       </c>
       <c r="K58" t="n">
-        <v>29.65681445442151</v>
+        <v>76.98319623342211</v>
       </c>
       <c r="L58" t="n">
-        <v>29.29024268611954</v>
+        <v>76.9232520983259</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>28.69466065701008</v>
+        <v>76.55057931199067</v>
       </c>
       <c r="C59" t="n">
-        <v>28.58513994935015</v>
+        <v>76.24101843229325</v>
       </c>
       <c r="D59" t="n">
-        <v>28.72073844711539</v>
+        <v>76.71675249554059</v>
       </c>
       <c r="E59" t="n">
-        <v>28.46429862031209</v>
+        <v>82.51720176811887</v>
       </c>
       <c r="F59" t="n">
-        <v>28.57712477304389</v>
+        <v>82.86305576584176</v>
       </c>
       <c r="G59" t="n">
-        <v>28.73111099390243</v>
+        <v>76.87505663974149</v>
       </c>
       <c r="H59" t="n">
-        <v>29.22286984731553</v>
+        <v>77.09635034035885</v>
       </c>
       <c r="I59" t="n">
-        <v>28.77479176731786</v>
+        <v>76.56160189637414</v>
       </c>
       <c r="J59" t="n">
-        <v>28.67582189023434</v>
+        <v>76.51517252055298</v>
       </c>
       <c r="K59" t="n">
-        <v>29.18578499924895</v>
+        <v>76.73339406841981</v>
       </c>
       <c r="L59" t="n">
-        <v>28.79974768741249</v>
+        <v>76.59104122160065</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>28.47920504800843</v>
+        <v>76.42778924549589</v>
       </c>
       <c r="C60" t="n">
-        <v>28.40219212415425</v>
+        <v>76.18446879900661</v>
       </c>
       <c r="D60" t="n">
-        <v>28.72320090000201</v>
+        <v>76.55895223374696</v>
       </c>
       <c r="E60" t="n">
-        <v>28.3282964733834</v>
+        <v>82.40020933437654</v>
       </c>
       <c r="F60" t="n">
-        <v>28.45427303901696</v>
+        <v>82.74165994566258</v>
       </c>
       <c r="G60" t="n">
-        <v>28.41449358532807</v>
+        <v>76.63938913589392</v>
       </c>
       <c r="H60" t="n">
-        <v>28.99016297355452</v>
+        <v>76.95704036408139</v>
       </c>
       <c r="I60" t="n">
-        <v>28.54622884117332</v>
+        <v>76.39569300449352</v>
       </c>
       <c r="J60" t="n">
-        <v>28.40709398018868</v>
+        <v>76.37256264065691</v>
       </c>
       <c r="K60" t="n">
-        <v>28.93685415101287</v>
+        <v>76.56244601464786</v>
       </c>
       <c r="L60" t="n">
-        <v>28.54989316026351</v>
+        <v>76.43999807984163</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DWT_Trivial</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>28.34344731592254</v>
+        <v>76.35538672788886</v>
       </c>
       <c r="C61" t="n">
-        <v>28.27334464675362</v>
+        <v>76.09827163248536</v>
       </c>
       <c r="D61" t="n">
-        <v>28.71250018386059</v>
+        <v>76.48289131289198</v>
       </c>
       <c r="E61" t="n">
-        <v>28.24912973749981</v>
+        <v>82.32027608285223</v>
       </c>
       <c r="F61" t="n">
-        <v>28.36460404132245</v>
+        <v>82.64923614096051</v>
       </c>
       <c r="G61" t="n">
-        <v>28.3042287390791</v>
+        <v>76.36743318311674</v>
       </c>
       <c r="H61" t="n">
-        <v>29.0224469849225</v>
+        <v>76.84589091824429</v>
       </c>
       <c r="I61" t="n">
-        <v>28.44978014817215</v>
+        <v>76.30716550604889</v>
       </c>
       <c r="J61" t="n">
-        <v>28.27729426628742</v>
+        <v>76.30183194053518</v>
       </c>
       <c r="K61" t="n">
-        <v>28.81932400116555</v>
+        <v>76.48148355735442</v>
       </c>
       <c r="L61" t="n">
-        <v>28.45297853275171</v>
+        <v>76.33058319168592</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>DWT_Trivial</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>78.25820024228184</v>
+      </c>
+      <c r="C62" t="n">
+        <v>78.03705119145494</v>
+      </c>
+      <c r="D62" t="n">
+        <v>78.65505374743354</v>
+      </c>
+      <c r="E62" t="n">
+        <v>83.75887906272325</v>
+      </c>
+      <c r="F62" t="n">
+        <v>85.81759290592626</v>
+      </c>
+      <c r="G62" t="n">
+        <v>78.39780885096572</v>
+      </c>
+      <c r="H62" t="n">
+        <v>78.87839425009912</v>
+      </c>
+      <c r="I62" t="n">
+        <v>78.34697646087071</v>
+      </c>
+      <c r="J62" t="n">
+        <v>78.4581116174212</v>
+      </c>
+      <c r="K62" t="n">
+        <v>78.13184553871872</v>
+      </c>
+      <c r="L62" t="n">
+        <v>78.23395642271345</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>DWT_Trivial</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>76.8312214990509</v>
+      </c>
+      <c r="C63" t="n">
+        <v>76.56759530558566</v>
+      </c>
+      <c r="D63" t="n">
+        <v>76.90698351733016</v>
+      </c>
+      <c r="E63" t="n">
+        <v>82.58978643701738</v>
+      </c>
+      <c r="F63" t="n">
+        <v>83.09799803798326</v>
+      </c>
+      <c r="G63" t="n">
+        <v>77.14787500392019</v>
+      </c>
+      <c r="H63" t="n">
+        <v>77.33061305317635</v>
+      </c>
+      <c r="I63" t="n">
+        <v>76.84977927447511</v>
+      </c>
+      <c r="J63" t="n">
+        <v>76.96759691178099</v>
+      </c>
+      <c r="K63" t="n">
+        <v>77.06017994986385</v>
+      </c>
+      <c r="L63" t="n">
+        <v>76.99717768571007</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>DWT_Trivial</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>76.54766316817428</v>
+      </c>
+      <c r="C64" t="n">
+        <v>76.30617227069499</v>
+      </c>
+      <c r="D64" t="n">
+        <v>76.72072639539455</v>
+      </c>
+      <c r="E64" t="n">
+        <v>82.41233122102153</v>
+      </c>
+      <c r="F64" t="n">
+        <v>82.85569777643664</v>
+      </c>
+      <c r="G64" t="n">
+        <v>76.84271704316201</v>
+      </c>
+      <c r="H64" t="n">
+        <v>77.13885148561103</v>
+      </c>
+      <c r="I64" t="n">
+        <v>76.5938418491823</v>
+      </c>
+      <c r="J64" t="n">
+        <v>76.56476078319398</v>
+      </c>
+      <c r="K64" t="n">
+        <v>76.81355941155333</v>
+      </c>
+      <c r="L64" t="n">
+        <v>76.58463573422057</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>DWT_Trivial</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>76.45679177566642</v>
+      </c>
+      <c r="C65" t="n">
+        <v>76.19147771364324</v>
+      </c>
+      <c r="D65" t="n">
+        <v>76.64629907645056</v>
+      </c>
+      <c r="E65" t="n">
+        <v>82.31867632580901</v>
+      </c>
+      <c r="F65" t="n">
+        <v>82.73218958130462</v>
+      </c>
+      <c r="G65" t="n">
+        <v>76.64250392407929</v>
+      </c>
+      <c r="H65" t="n">
+        <v>77.02518149937866</v>
+      </c>
+      <c r="I65" t="n">
+        <v>76.49369952334467</v>
+      </c>
+      <c r="J65" t="n">
+        <v>76.41271008297349</v>
+      </c>
+      <c r="K65" t="n">
+        <v>76.63962010315419</v>
+      </c>
+      <c r="L65" t="n">
+        <v>76.45265424984282</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>DWT_Trivial</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>76.37000760361697</v>
+      </c>
+      <c r="C66" t="n">
+        <v>76.11770753002781</v>
+      </c>
+      <c r="D66" t="n">
+        <v>76.59633462794798</v>
+      </c>
+      <c r="E66" t="n">
+        <v>82.25452059351537</v>
+      </c>
+      <c r="F66" t="n">
+        <v>82.66522038371049</v>
+      </c>
+      <c r="G66" t="n">
+        <v>76.44818981550956</v>
+      </c>
+      <c r="H66" t="n">
+        <v>76.96596187694925</v>
+      </c>
+      <c r="I66" t="n">
+        <v>76.36936048525027</v>
+      </c>
+      <c r="J66" t="n">
+        <v>76.285725632793</v>
+      </c>
+      <c r="K66" t="n">
+        <v>76.59227137369582</v>
+      </c>
+      <c r="L66" t="n">
+        <v>76.39218102985227</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>DWT_Trivial</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>78.52109285798915</v>
+      </c>
+      <c r="C67" t="n">
+        <v>78.18235888063963</v>
+      </c>
+      <c r="D67" t="n">
+        <v>78.73532697319986</v>
+      </c>
+      <c r="E67" t="n">
+        <v>83.90412176315705</v>
+      </c>
+      <c r="F67" t="n">
+        <v>86.17074606772732</v>
+      </c>
+      <c r="G67" t="n">
+        <v>78.5588424040053</v>
+      </c>
+      <c r="H67" t="n">
+        <v>79.03074947474903</v>
+      </c>
+      <c r="I67" t="n">
+        <v>78.5370077360635</v>
+      </c>
+      <c r="J67" t="n">
+        <v>78.63080205640078</v>
+      </c>
+      <c r="K67" t="n">
+        <v>78.43405279921495</v>
+      </c>
+      <c r="L67" t="n">
+        <v>78.43285914920992</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>DWT_Trivial</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>76.93842295108767</v>
+      </c>
+      <c r="C68" t="n">
+        <v>76.6271711373314</v>
+      </c>
+      <c r="D68" t="n">
+        <v>77.0038085446833</v>
+      </c>
+      <c r="E68" t="n">
+        <v>82.64401561647914</v>
+      </c>
+      <c r="F68" t="n">
+        <v>83.14342800920437</v>
+      </c>
+      <c r="G68" t="n">
+        <v>77.26663353179248</v>
+      </c>
+      <c r="H68" t="n">
+        <v>77.36527141256708</v>
+      </c>
+      <c r="I68" t="n">
+        <v>76.96156024317938</v>
+      </c>
+      <c r="J68" t="n">
+        <v>77.0573115155874</v>
+      </c>
+      <c r="K68" t="n">
+        <v>77.16316718844817</v>
+      </c>
+      <c r="L68" t="n">
+        <v>77.00623753345994</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>DWT_Trivial</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>76.64026214189802</v>
+      </c>
+      <c r="C69" t="n">
+        <v>76.32444890725033</v>
+      </c>
+      <c r="D69" t="n">
+        <v>76.76960134927762</v>
+      </c>
+      <c r="E69" t="n">
+        <v>82.44586407628094</v>
+      </c>
+      <c r="F69" t="n">
+        <v>82.86085055296164</v>
+      </c>
+      <c r="G69" t="n">
+        <v>76.95240800928377</v>
+      </c>
+      <c r="H69" t="n">
+        <v>77.11697001596018</v>
+      </c>
+      <c r="I69" t="n">
+        <v>76.6284015510624</v>
+      </c>
+      <c r="J69" t="n">
+        <v>76.61054470364367</v>
+      </c>
+      <c r="K69" t="n">
+        <v>76.82744708573583</v>
+      </c>
+      <c r="L69" t="n">
+        <v>76.64770883093804</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>DWT_Trivial</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>76.4663308594602</v>
+      </c>
+      <c r="C70" t="n">
+        <v>76.19500260495431</v>
+      </c>
+      <c r="D70" t="n">
+        <v>76.67897947243705</v>
+      </c>
+      <c r="E70" t="n">
+        <v>82.35387814595866</v>
+      </c>
+      <c r="F70" t="n">
+        <v>82.7260812954171</v>
+      </c>
+      <c r="G70" t="n">
+        <v>76.68126378543347</v>
+      </c>
+      <c r="H70" t="n">
+        <v>76.96937650438838</v>
+      </c>
+      <c r="I70" t="n">
+        <v>76.4188626808795</v>
+      </c>
+      <c r="J70" t="n">
+        <v>76.44163094220946</v>
+      </c>
+      <c r="K70" t="n">
+        <v>76.64512391229407</v>
+      </c>
+      <c r="L70" t="n">
+        <v>76.47998775513906</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>DWT_Trivial</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>76.34719098030976</v>
+      </c>
+      <c r="C71" t="n">
+        <v>76.13255556108909</v>
+      </c>
+      <c r="D71" t="n">
+        <v>76.60001357495767</v>
+      </c>
+      <c r="E71" t="n">
+        <v>82.27438488101825</v>
+      </c>
+      <c r="F71" t="n">
+        <v>82.64334426666036</v>
+      </c>
+      <c r="G71" t="n">
+        <v>76.4744074219759</v>
+      </c>
+      <c r="H71" t="n">
+        <v>76.89292094031846</v>
+      </c>
+      <c r="I71" t="n">
+        <v>76.31453183416926</v>
+      </c>
+      <c r="J71" t="n">
+        <v>76.326243101617</v>
+      </c>
+      <c r="K71" t="n">
+        <v>76.55746400433958</v>
+      </c>
+      <c r="L71" t="n">
+        <v>76.38613848904933</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>DWT_Trivial</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>78.57636509814294</v>
+      </c>
+      <c r="C72" t="n">
+        <v>78.56797230869422</v>
+      </c>
+      <c r="D72" t="n">
+        <v>79.08479892569076</v>
+      </c>
+      <c r="E72" t="n">
+        <v>84.11348711150421</v>
+      </c>
+      <c r="F72" t="n">
+        <v>86.56760218432066</v>
+      </c>
+      <c r="G72" t="n">
+        <v>78.65155714083835</v>
+      </c>
+      <c r="H72" t="n">
+        <v>79.19513308007228</v>
+      </c>
+      <c r="I72" t="n">
+        <v>78.8515281699745</v>
+      </c>
+      <c r="J72" t="n">
+        <v>78.84027895396687</v>
+      </c>
+      <c r="K72" t="n">
+        <v>78.80104019347165</v>
+      </c>
+      <c r="L72" t="n">
+        <v>78.80722258961595</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>DWT_Trivial</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>76.95474747903801</v>
+      </c>
+      <c r="C73" t="n">
+        <v>76.7105811705615</v>
+      </c>
+      <c r="D73" t="n">
+        <v>77.09249607139746</v>
+      </c>
+      <c r="E73" t="n">
+        <v>82.67138402041623</v>
+      </c>
+      <c r="F73" t="n">
+        <v>83.20109523465773</v>
+      </c>
+      <c r="G73" t="n">
+        <v>77.35718625775584</v>
+      </c>
+      <c r="H73" t="n">
+        <v>77.41620714840374</v>
+      </c>
+      <c r="I73" t="n">
+        <v>77.02989609746595</v>
+      </c>
+      <c r="J73" t="n">
+        <v>77.09829270948894</v>
+      </c>
+      <c r="K73" t="n">
+        <v>77.20297034045376</v>
+      </c>
+      <c r="L73" t="n">
+        <v>77.10926821970263</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>DWT_Trivial</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>76.62559929023818</v>
+      </c>
+      <c r="C74" t="n">
+        <v>76.37023614032881</v>
+      </c>
+      <c r="D74" t="n">
+        <v>76.83231089642001</v>
+      </c>
+      <c r="E74" t="n">
+        <v>82.46683519381351</v>
+      </c>
+      <c r="F74" t="n">
+        <v>82.87475596397908</v>
+      </c>
+      <c r="G74" t="n">
+        <v>76.85702193052462</v>
+      </c>
+      <c r="H74" t="n">
+        <v>77.16419338693632</v>
+      </c>
+      <c r="I74" t="n">
+        <v>76.7366899984102</v>
+      </c>
+      <c r="J74" t="n">
+        <v>76.6216593013559</v>
+      </c>
+      <c r="K74" t="n">
+        <v>76.91398301661505</v>
+      </c>
+      <c r="L74" t="n">
+        <v>76.70495960825909</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>DWT_Trivial</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>76.45808216456663</v>
+      </c>
+      <c r="C75" t="n">
+        <v>76.24561150416375</v>
+      </c>
+      <c r="D75" t="n">
+        <v>76.7064489961878</v>
+      </c>
+      <c r="E75" t="n">
+        <v>82.37312476265275</v>
+      </c>
+      <c r="F75" t="n">
+        <v>82.73846422305365</v>
+      </c>
+      <c r="G75" t="n">
+        <v>76.6840913360553</v>
+      </c>
+      <c r="H75" t="n">
+        <v>76.96102029722479</v>
+      </c>
+      <c r="I75" t="n">
+        <v>76.51427690899914</v>
+      </c>
+      <c r="J75" t="n">
+        <v>76.40175701178498</v>
+      </c>
+      <c r="K75" t="n">
+        <v>76.7134366348825</v>
+      </c>
+      <c r="L75" t="n">
+        <v>76.53961968149383</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>DWT_Trivial</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>76.38889125787682</v>
+      </c>
+      <c r="C76" t="n">
+        <v>76.14938721688088</v>
+      </c>
+      <c r="D76" t="n">
+        <v>76.64046445757074</v>
+      </c>
+      <c r="E76" t="n">
+        <v>82.29702945930359</v>
+      </c>
+      <c r="F76" t="n">
+        <v>82.64308365082874</v>
+      </c>
+      <c r="G76" t="n">
+        <v>76.60756880461433</v>
+      </c>
+      <c r="H76" t="n">
+        <v>76.90398347912149</v>
+      </c>
+      <c r="I76" t="n">
+        <v>76.4169166973191</v>
+      </c>
+      <c r="J76" t="n">
+        <v>76.30150942738541</v>
+      </c>
+      <c r="K76" t="n">
+        <v>76.67704652843014</v>
+      </c>
+      <c r="L76" t="n">
+        <v>76.44089974412934</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/results/report.xlsx
+++ b/dataset/results/report.xlsx
@@ -493,3001 +493,3001 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85.98658225550514</v>
+        <v>86.79695052874959</v>
       </c>
       <c r="C2" t="n">
-        <v>86.68398118433018</v>
+        <v>87.86976341125609</v>
       </c>
       <c r="D2" t="n">
-        <v>89.09235664921505</v>
+        <v>90.52094929565689</v>
       </c>
       <c r="E2" t="n">
-        <v>84.48724623874838</v>
+        <v>98.54755043945866</v>
       </c>
       <c r="F2" t="n">
-        <v>90.06533351907733</v>
+        <v>99.80254125130918</v>
       </c>
       <c r="G2" t="n">
-        <v>87.34111576251225</v>
+        <v>89.78180638888108</v>
       </c>
       <c r="H2" t="n">
-        <v>87.0501159882019</v>
+        <v>89.91635975386289</v>
       </c>
       <c r="I2" t="n">
-        <v>87.33048101532604</v>
+        <v>88.13128626319872</v>
       </c>
       <c r="J2" t="n">
-        <v>87.73890621536567</v>
+        <v>88.24370704078393</v>
       </c>
       <c r="K2" t="n">
-        <v>86.5645034474197</v>
+        <v>87.37610823150214</v>
       </c>
       <c r="L2" t="n">
-        <v>86.44042079731187</v>
+        <v>87.33467117936043</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.00605558110081</v>
+        <v>77.55349948082343</v>
       </c>
       <c r="C3" t="n">
-        <v>79.31232900033528</v>
+        <v>77.76547334509618</v>
       </c>
       <c r="D3" t="n">
-        <v>79.38167491488868</v>
+        <v>77.72760290867211</v>
       </c>
       <c r="E3" t="n">
-        <v>82.99386446206638</v>
+        <v>82.81199709627103</v>
       </c>
       <c r="F3" t="n">
-        <v>83.69772733755092</v>
+        <v>83.24800102515839</v>
       </c>
       <c r="G3" t="n">
-        <v>81.39113632898716</v>
+        <v>78.45814868856803</v>
       </c>
       <c r="H3" t="n">
-        <v>79.94652046841389</v>
+        <v>78.18914113074014</v>
       </c>
       <c r="I3" t="n">
-        <v>80.4667113266442</v>
+        <v>77.75192156768934</v>
       </c>
       <c r="J3" t="n">
-        <v>80.27935568150636</v>
+        <v>77.6302823519825</v>
       </c>
       <c r="K3" t="n">
-        <v>80.73615970089953</v>
+        <v>78.4087960559677</v>
       </c>
       <c r="L3" t="n">
-        <v>80.04160099150944</v>
+        <v>77.89568285047159</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78.67360563911588</v>
+        <v>76.82631547598666</v>
       </c>
       <c r="C4" t="n">
-        <v>78.84888730455286</v>
+        <v>77.12914087585942</v>
       </c>
       <c r="D4" t="n">
-        <v>78.91132112532371</v>
+        <v>77.3971843403195</v>
       </c>
       <c r="E4" t="n">
-        <v>82.89631750918652</v>
+        <v>82.56719943282732</v>
       </c>
       <c r="F4" t="n">
-        <v>83.28731341721885</v>
+        <v>83.13877166650411</v>
       </c>
       <c r="G4" t="n">
-        <v>81.13241144544969</v>
+        <v>77.70284511988069</v>
       </c>
       <c r="H4" t="n">
-        <v>79.62709726857989</v>
+        <v>77.9148011053441</v>
       </c>
       <c r="I4" t="n">
-        <v>80.06470862807333</v>
+        <v>77.21074372677018</v>
       </c>
       <c r="J4" t="n">
-        <v>79.33232864341109</v>
+        <v>76.89173869538097</v>
       </c>
       <c r="K4" t="n">
-        <v>80.35551152269734</v>
+        <v>77.64878069726882</v>
       </c>
       <c r="L4" t="n">
-        <v>79.62713580039846</v>
+        <v>77.22690961158713</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78.51228277323689</v>
+        <v>76.6176764933299</v>
       </c>
       <c r="C5" t="n">
-        <v>78.80789969275131</v>
+        <v>76.85742691727698</v>
       </c>
       <c r="D5" t="n">
-        <v>78.77440303497318</v>
+        <v>77.29666967052262</v>
       </c>
       <c r="E5" t="n">
-        <v>82.8889842789315</v>
+        <v>82.44594908120959</v>
       </c>
       <c r="F5" t="n">
-        <v>83.15539242226187</v>
+        <v>83.12599959291596</v>
       </c>
       <c r="G5" t="n">
-        <v>81.08567383094478</v>
+        <v>77.4684487741395</v>
       </c>
       <c r="H5" t="n">
-        <v>79.59976462426513</v>
+        <v>77.76212718106831</v>
       </c>
       <c r="I5" t="n">
-        <v>79.98699980424824</v>
+        <v>77.00237192194366</v>
       </c>
       <c r="J5" t="n">
-        <v>79.0331473171631</v>
+        <v>76.64694425897017</v>
       </c>
       <c r="K5" t="n">
-        <v>80.2315094378187</v>
+        <v>77.4931147848956</v>
       </c>
       <c r="L5" t="n">
-        <v>79.42945648523553</v>
+        <v>76.9423889281303</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.48459547103036</v>
+        <v>76.49530066553227</v>
       </c>
       <c r="C6" t="n">
-        <v>78.80916437396887</v>
+        <v>76.79580378553945</v>
       </c>
       <c r="D6" t="n">
-        <v>78.71614909626621</v>
+        <v>77.00559367619883</v>
       </c>
       <c r="E6" t="n">
-        <v>82.88971095732404</v>
+        <v>82.38926788646795</v>
       </c>
       <c r="F6" t="n">
-        <v>83.12694973220461</v>
+        <v>83.1662311819251</v>
       </c>
       <c r="G6" t="n">
-        <v>81.08668028123694</v>
+        <v>77.38720135383116</v>
       </c>
       <c r="H6" t="n">
-        <v>79.60038581607532</v>
+        <v>77.71957192687469</v>
       </c>
       <c r="I6" t="n">
-        <v>79.96316280696331</v>
+        <v>76.84266367632372</v>
       </c>
       <c r="J6" t="n">
-        <v>79.00012725108864</v>
+        <v>76.5223796780182</v>
       </c>
       <c r="K6" t="n">
-        <v>80.22634917622776</v>
+        <v>77.36655764993176</v>
       </c>
       <c r="L6" t="n">
-        <v>79.39056106592157</v>
+        <v>76.809946523907</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.35637217585577</v>
+        <v>85.05625848232722</v>
       </c>
       <c r="C7" t="n">
-        <v>84.21740955182479</v>
+        <v>84.78963298947428</v>
       </c>
       <c r="D7" t="n">
-        <v>86.70340958502535</v>
+        <v>87.4642533520835</v>
       </c>
       <c r="E7" t="n">
-        <v>84.35320752653342</v>
+        <v>95.19677514889716</v>
       </c>
       <c r="F7" t="n">
-        <v>89.64952932345646</v>
+        <v>97.11245391340704</v>
       </c>
       <c r="G7" t="n">
-        <v>84.31083088318894</v>
+        <v>85.57625946788778</v>
       </c>
       <c r="H7" t="n">
-        <v>85.71472597695104</v>
+        <v>86.68951396373744</v>
       </c>
       <c r="I7" t="n">
-        <v>84.76193490904051</v>
+        <v>85.38213040756432</v>
       </c>
       <c r="J7" t="n">
-        <v>84.81321077102079</v>
+        <v>85.62365729938256</v>
       </c>
       <c r="K7" t="n">
-        <v>84.02144934104459</v>
+        <v>85.38634773805846</v>
       </c>
       <c r="L7" t="n">
-        <v>83.47366736899204</v>
+        <v>84.36312350076356</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78.12654189309394</v>
+        <v>77.8277616603976</v>
       </c>
       <c r="C8" t="n">
-        <v>78.19115336764513</v>
+        <v>77.62008938102386</v>
       </c>
       <c r="D8" t="n">
-        <v>78.19459673156081</v>
+        <v>77.57545472979329</v>
       </c>
       <c r="E8" t="n">
-        <v>82.89430674281986</v>
+        <v>82.86151956899702</v>
       </c>
       <c r="F8" t="n">
-        <v>83.42437152228995</v>
+        <v>83.02459118957252</v>
       </c>
       <c r="G8" t="n">
-        <v>79.53669476416091</v>
+        <v>78.13067650234532</v>
       </c>
       <c r="H8" t="n">
-        <v>78.85906698611507</v>
+        <v>78.2490882668281</v>
       </c>
       <c r="I8" t="n">
-        <v>78.82015066981121</v>
+        <v>77.88107960167609</v>
       </c>
       <c r="J8" t="n">
-        <v>78.77283894397921</v>
+        <v>77.64124181344133</v>
       </c>
       <c r="K8" t="n">
-        <v>79.43268398220282</v>
+        <v>78.21376197649516</v>
       </c>
       <c r="L8" t="n">
-        <v>78.80763616537082</v>
+        <v>77.7915689528602</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77.61315654204489</v>
+        <v>76.96896326440586</v>
       </c>
       <c r="C9" t="n">
-        <v>77.67638581095787</v>
+        <v>76.99771903021073</v>
       </c>
       <c r="D9" t="n">
-        <v>77.81255855155614</v>
+        <v>77.33917632715547</v>
       </c>
       <c r="E9" t="n">
-        <v>82.70835864978744</v>
+        <v>82.6238267672839</v>
       </c>
       <c r="F9" t="n">
-        <v>82.9965397432513</v>
+        <v>82.77495764995363</v>
       </c>
       <c r="G9" t="n">
-        <v>79.16597547512242</v>
+        <v>77.52012799662641</v>
       </c>
       <c r="H9" t="n">
-        <v>78.59802969319853</v>
+        <v>77.64297664070111</v>
       </c>
       <c r="I9" t="n">
-        <v>78.3553560262088</v>
+        <v>77.13997497979759</v>
       </c>
       <c r="J9" t="n">
-        <v>78.06060849342691</v>
+        <v>76.91100715632953</v>
       </c>
       <c r="K9" t="n">
-        <v>79.07160855578168</v>
+        <v>77.5662435677858</v>
       </c>
       <c r="L9" t="n">
-        <v>78.24370807858676</v>
+        <v>77.14088944175028</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.40141887340403</v>
+        <v>76.65953946941009</v>
       </c>
       <c r="C10" t="n">
-        <v>77.52488432924207</v>
+        <v>76.76911209148629</v>
       </c>
       <c r="D10" t="n">
-        <v>77.73744020063327</v>
+        <v>77.25492626268928</v>
       </c>
       <c r="E10" t="n">
-        <v>82.61466677089054</v>
+        <v>82.50473437349116</v>
       </c>
       <c r="F10" t="n">
-        <v>82.85773841040103</v>
+        <v>82.67204173745854</v>
       </c>
       <c r="G10" t="n">
-        <v>79.10845507374685</v>
+        <v>77.38876258694177</v>
       </c>
       <c r="H10" t="n">
-        <v>78.36831407031293</v>
+        <v>77.70337567888876</v>
       </c>
       <c r="I10" t="n">
-        <v>78.22714936832433</v>
+        <v>76.94781678304213</v>
       </c>
       <c r="J10" t="n">
-        <v>77.76354487416181</v>
+        <v>76.66640506501338</v>
       </c>
       <c r="K10" t="n">
-        <v>78.95739451905735</v>
+        <v>77.28690150274188</v>
       </c>
       <c r="L10" t="n">
-        <v>78.01959950271252</v>
+        <v>76.85580644289318</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77.35636554078718</v>
+        <v>76.50908182460428</v>
       </c>
       <c r="C11" t="n">
-        <v>77.43026193015234</v>
+        <v>76.68209671821349</v>
       </c>
       <c r="D11" t="n">
-        <v>77.63882866486892</v>
+        <v>77.20105243037692</v>
       </c>
       <c r="E11" t="n">
-        <v>82.54585749238048</v>
+        <v>82.43260185904468</v>
       </c>
       <c r="F11" t="n">
-        <v>82.82266390056223</v>
+        <v>82.64089198862484</v>
       </c>
       <c r="G11" t="n">
-        <v>79.08696971560025</v>
+        <v>77.20584184838442</v>
       </c>
       <c r="H11" t="n">
-        <v>78.27233139931229</v>
+        <v>77.54572901201045</v>
       </c>
       <c r="I11" t="n">
-        <v>78.14168761935927</v>
+        <v>76.77705715196362</v>
       </c>
       <c r="J11" t="n">
-        <v>77.67891287049451</v>
+        <v>76.53362832823105</v>
       </c>
       <c r="K11" t="n">
-        <v>78.85320923151082</v>
+        <v>77.12327969254063</v>
       </c>
       <c r="L11" t="n">
-        <v>77.9015308289455</v>
+        <v>76.68422685549746</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>81.74220911482807</v>
+        <v>81.99302156040589</v>
       </c>
       <c r="C12" t="n">
-        <v>81.89809225958587</v>
+        <v>82.21177614400978</v>
       </c>
       <c r="D12" t="n">
-        <v>82.95800024666157</v>
+        <v>83.46527047967164</v>
       </c>
       <c r="E12" t="n">
-        <v>84.48738580377695</v>
+        <v>92.26313781019019</v>
       </c>
       <c r="F12" t="n">
-        <v>89.02372145466677</v>
+        <v>94.25907957571668</v>
       </c>
       <c r="G12" t="n">
-        <v>81.9089440471208</v>
+        <v>82.4635523954146</v>
       </c>
       <c r="H12" t="n">
-        <v>83.24198489868751</v>
+        <v>83.6578398112505</v>
       </c>
       <c r="I12" t="n">
-        <v>82.4390624205449</v>
+        <v>82.68008245516755</v>
       </c>
       <c r="J12" t="n">
-        <v>82.10309319977384</v>
+        <v>82.48258653172654</v>
       </c>
       <c r="K12" t="n">
-        <v>82.44366220912475</v>
+        <v>82.91299545614828</v>
       </c>
       <c r="L12" t="n">
-        <v>81.96377967989294</v>
+        <v>82.21104904815584</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.5569376042469</v>
+        <v>77.55809843040322</v>
       </c>
       <c r="C13" t="n">
-        <v>77.55383059836983</v>
+        <v>77.36252131298961</v>
       </c>
       <c r="D13" t="n">
-        <v>77.72012017222059</v>
+        <v>77.28913426605114</v>
       </c>
       <c r="E13" t="n">
-        <v>82.88571157455978</v>
+        <v>82.87789315058619</v>
       </c>
       <c r="F13" t="n">
-        <v>83.32137398891331</v>
+        <v>82.99168260964674</v>
       </c>
       <c r="G13" t="n">
-        <v>78.50823074538461</v>
+        <v>77.69619984027923</v>
       </c>
       <c r="H13" t="n">
-        <v>78.29250575408409</v>
+        <v>77.91712810779751</v>
       </c>
       <c r="I13" t="n">
-        <v>78.10971565578649</v>
+        <v>77.72358694241126</v>
       </c>
       <c r="J13" t="n">
-        <v>77.95887304244332</v>
+        <v>77.4146840372177</v>
       </c>
       <c r="K13" t="n">
-        <v>78.6163899602399</v>
+        <v>77.85203856092811</v>
       </c>
       <c r="L13" t="n">
-        <v>78.07476193076624</v>
+        <v>77.51928820258136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>77.09019342637137</v>
+        <v>76.87072873701474</v>
       </c>
       <c r="C14" t="n">
-        <v>77.00321262393604</v>
+        <v>76.80090993766262</v>
       </c>
       <c r="D14" t="n">
-        <v>77.40321783402557</v>
+        <v>77.14190314175258</v>
       </c>
       <c r="E14" t="n">
-        <v>82.67204281635456</v>
+        <v>82.6280686782144</v>
       </c>
       <c r="F14" t="n">
-        <v>82.89233020116447</v>
+        <v>82.76414696688451</v>
       </c>
       <c r="G14" t="n">
-        <v>78.04447737879363</v>
+        <v>77.17474377581166</v>
       </c>
       <c r="H14" t="n">
-        <v>77.99447623769998</v>
+        <v>77.47125984771084</v>
       </c>
       <c r="I14" t="n">
-        <v>77.49590430790576</v>
+        <v>76.91937010816847</v>
       </c>
       <c r="J14" t="n">
-        <v>77.33212799115071</v>
+        <v>76.79687540854538</v>
       </c>
       <c r="K14" t="n">
-        <v>78.16300541949605</v>
+        <v>77.30706374792372</v>
       </c>
       <c r="L14" t="n">
-        <v>77.47279685085091</v>
+        <v>77.02196555311035</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>76.87536258689403</v>
+        <v>76.66304158632636</v>
       </c>
       <c r="C15" t="n">
-        <v>76.84248103140344</v>
+        <v>76.59198969911967</v>
       </c>
       <c r="D15" t="n">
-        <v>77.30060180674958</v>
+        <v>77.04935365638684</v>
       </c>
       <c r="E15" t="n">
-        <v>82.54698091854785</v>
+        <v>82.50218825833625</v>
       </c>
       <c r="F15" t="n">
-        <v>82.74382537199381</v>
+        <v>82.65660664282851</v>
       </c>
       <c r="G15" t="n">
-        <v>77.8909496581076</v>
+        <v>76.88448880656021</v>
       </c>
       <c r="H15" t="n">
-        <v>77.74865064403826</v>
+        <v>77.34829102231275</v>
       </c>
       <c r="I15" t="n">
-        <v>77.32153870238368</v>
+        <v>76.74197677326512</v>
       </c>
       <c r="J15" t="n">
-        <v>77.08897534103009</v>
+        <v>76.60058438227526</v>
       </c>
       <c r="K15" t="n">
-        <v>78.01860316773423</v>
+        <v>77.07823820215555</v>
       </c>
       <c r="L15" t="n">
-        <v>77.23957907620805</v>
+        <v>76.76708543674405</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>76.8396919531563</v>
+        <v>76.46841427453258</v>
       </c>
       <c r="C16" t="n">
-        <v>76.77163953096542</v>
+        <v>76.55412965982505</v>
       </c>
       <c r="D16" t="n">
-        <v>77.17754146604781</v>
+        <v>77.06401670602484</v>
       </c>
       <c r="E16" t="n">
-        <v>82.44727694443947</v>
+        <v>82.43428329893803</v>
       </c>
       <c r="F16" t="n">
-        <v>82.66828862217815</v>
+        <v>82.6037451417584</v>
       </c>
       <c r="G16" t="n">
-        <v>77.79765383482571</v>
+        <v>76.86759109417405</v>
       </c>
       <c r="H16" t="n">
-        <v>77.66633495603739</v>
+        <v>77.25879595147232</v>
       </c>
       <c r="I16" t="n">
-        <v>77.2369181042767</v>
+        <v>76.60472160056277</v>
       </c>
       <c r="J16" t="n">
-        <v>76.99762945056233</v>
+        <v>76.41679744472226</v>
       </c>
       <c r="K16" t="n">
-        <v>77.95672174014885</v>
+        <v>76.88265262118794</v>
       </c>
       <c r="L16" t="n">
-        <v>77.11184729618704</v>
+        <v>76.61224012547036</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.12727268549287</v>
+        <v>82.43142052589849</v>
       </c>
       <c r="C17" t="n">
-        <v>82.48600038404771</v>
+        <v>82.66791853700622</v>
       </c>
       <c r="D17" t="n">
-        <v>83.69558162812379</v>
+        <v>84.08907470313051</v>
       </c>
       <c r="E17" t="n">
-        <v>84.46219595630504</v>
+        <v>92.26313781019019</v>
       </c>
       <c r="F17" t="n">
-        <v>88.95280794844994</v>
+        <v>94.26401637903058</v>
       </c>
       <c r="G17" t="n">
-        <v>81.99234001948491</v>
+        <v>82.81214956282922</v>
       </c>
       <c r="H17" t="n">
-        <v>83.37242892682184</v>
+        <v>84.46438652863645</v>
       </c>
       <c r="I17" t="n">
-        <v>82.87719351902322</v>
+        <v>83.12978021874741</v>
       </c>
       <c r="J17" t="n">
-        <v>82.77051562451076</v>
+        <v>82.99817892729661</v>
       </c>
       <c r="K17" t="n">
-        <v>82.71421979401751</v>
+        <v>83.52942978021751</v>
       </c>
       <c r="L17" t="n">
-        <v>82.31223385905886</v>
+        <v>82.4877703611641</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>77.64938524256767</v>
+        <v>77.63851537902882</v>
       </c>
       <c r="C18" t="n">
-        <v>77.60354273789595</v>
+        <v>77.43002098606893</v>
       </c>
       <c r="D18" t="n">
-        <v>77.82988680115052</v>
+        <v>77.16974942632498</v>
       </c>
       <c r="E18" t="n">
-        <v>82.89297002839723</v>
+        <v>82.89764919355521</v>
       </c>
       <c r="F18" t="n">
-        <v>83.29399712209698</v>
+        <v>83.0082584382487</v>
       </c>
       <c r="G18" t="n">
-        <v>78.53885013368988</v>
+        <v>77.60825418691249</v>
       </c>
       <c r="H18" t="n">
-        <v>78.36029537919072</v>
+        <v>77.86500415269062</v>
       </c>
       <c r="I18" t="n">
-        <v>78.11285938271999</v>
+        <v>77.81603033661405</v>
       </c>
       <c r="J18" t="n">
-        <v>78.06440492376191</v>
+        <v>77.58853212889611</v>
       </c>
       <c r="K18" t="n">
-        <v>78.65658967706169</v>
+        <v>78.01619359314626</v>
       </c>
       <c r="L18" t="n">
-        <v>78.18901200218519</v>
+        <v>77.60501171713474</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>77.17035729629421</v>
+        <v>76.96044566454303</v>
       </c>
       <c r="C19" t="n">
-        <v>77.06512970690065</v>
+        <v>76.88248269947654</v>
       </c>
       <c r="D19" t="n">
-        <v>77.57359723682433</v>
+        <v>76.90985356604877</v>
       </c>
       <c r="E19" t="n">
-        <v>82.66498861180114</v>
+        <v>82.64909053979702</v>
       </c>
       <c r="F19" t="n">
-        <v>82.86743532099672</v>
+        <v>82.74644147996007</v>
       </c>
       <c r="G19" t="n">
-        <v>78.13650255855273</v>
+        <v>77.02594430383061</v>
       </c>
       <c r="H19" t="n">
-        <v>78.03368200239667</v>
+        <v>77.19542769188973</v>
       </c>
       <c r="I19" t="n">
-        <v>77.52309229172805</v>
+        <v>77.01875276922824</v>
       </c>
       <c r="J19" t="n">
-        <v>77.44628110264911</v>
+        <v>76.95742623088998</v>
       </c>
       <c r="K19" t="n">
-        <v>78.20384176404349</v>
+        <v>77.44757946554701</v>
       </c>
       <c r="L19" t="n">
-        <v>77.60802378233082</v>
+        <v>77.03915586083143</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.92345961307309</v>
+        <v>76.71375767291191</v>
       </c>
       <c r="C20" t="n">
-        <v>76.82598600904855</v>
+        <v>76.65211924379912</v>
       </c>
       <c r="D20" t="n">
-        <v>77.38435474146459</v>
+        <v>76.84252913467026</v>
       </c>
       <c r="E20" t="n">
-        <v>82.54008894348223</v>
+        <v>82.51947770459577</v>
       </c>
       <c r="F20" t="n">
-        <v>82.72601666196424</v>
+        <v>82.60985310522281</v>
       </c>
       <c r="G20" t="n">
-        <v>77.92338003850321</v>
+        <v>76.79284313782971</v>
       </c>
       <c r="H20" t="n">
-        <v>77.74154296146988</v>
+        <v>77.09096614484838</v>
       </c>
       <c r="I20" t="n">
-        <v>77.23880745704247</v>
+        <v>76.76833766917022</v>
       </c>
       <c r="J20" t="n">
-        <v>77.15366614387436</v>
+        <v>76.69019027280922</v>
       </c>
       <c r="K20" t="n">
-        <v>78.06455828406932</v>
+        <v>77.17017978946829</v>
       </c>
       <c r="L20" t="n">
-        <v>77.31457253645131</v>
+        <v>76.81836582787264</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>76.83420768464148</v>
+        <v>76.55591718058034</v>
       </c>
       <c r="C21" t="n">
-        <v>76.71773467473709</v>
+        <v>76.56191683617523</v>
       </c>
       <c r="D21" t="n">
-        <v>77.3580367518471</v>
+        <v>76.78594106768256</v>
       </c>
       <c r="E21" t="n">
-        <v>82.44314036149915</v>
+        <v>82.43141150932394</v>
       </c>
       <c r="F21" t="n">
-        <v>82.64835688437205</v>
+        <v>82.55298571885648</v>
       </c>
       <c r="G21" t="n">
-        <v>77.7644202473638</v>
+        <v>76.63682995146172</v>
       </c>
       <c r="H21" t="n">
-        <v>77.57262343801051</v>
+        <v>77.07732810905524</v>
       </c>
       <c r="I21" t="n">
-        <v>77.06961545147428</v>
+        <v>76.63313187380808</v>
       </c>
       <c r="J21" t="n">
-        <v>77.05794492028343</v>
+        <v>76.53560982071068</v>
       </c>
       <c r="K21" t="n">
-        <v>77.94751060076001</v>
+        <v>77.00180894536187</v>
       </c>
       <c r="L21" t="n">
-        <v>77.17901205132361</v>
+        <v>76.66876870564731</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.43069148610194</v>
+        <v>81.55867994615008</v>
       </c>
       <c r="C22" t="n">
-        <v>81.45607574838492</v>
+        <v>81.57884485025933</v>
       </c>
       <c r="D22" t="n">
-        <v>82.05321033211348</v>
+        <v>82.26386287673455</v>
       </c>
       <c r="E22" t="n">
-        <v>84.27180947956688</v>
+        <v>89.46253424700373</v>
       </c>
       <c r="F22" t="n">
-        <v>88.07151672727636</v>
+        <v>91.08210845095023</v>
       </c>
       <c r="G22" t="n">
-        <v>81.10564869758127</v>
+        <v>81.77872168647249</v>
       </c>
       <c r="H22" t="n">
-        <v>82.05361952627644</v>
+        <v>82.47577511689957</v>
       </c>
       <c r="I22" t="n">
-        <v>81.71184366782052</v>
+        <v>81.94158281231047</v>
       </c>
       <c r="J22" t="n">
-        <v>81.67027721690891</v>
+        <v>81.85858842699353</v>
       </c>
       <c r="K22" t="n">
-        <v>81.56327107637922</v>
+        <v>82.1376014468519</v>
       </c>
       <c r="L22" t="n">
-        <v>81.53323953884707</v>
+        <v>81.72428818697192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>77.46446844784865</v>
+        <v>77.4837924126011</v>
       </c>
       <c r="C23" t="n">
-        <v>77.40991062439316</v>
+        <v>77.27441471389754</v>
       </c>
       <c r="D23" t="n">
-        <v>77.66316143194587</v>
+        <v>77.26519925558406</v>
       </c>
       <c r="E23" t="n">
-        <v>82.84364204686078</v>
+        <v>82.87303632640734</v>
       </c>
       <c r="F23" t="n">
-        <v>83.34238158903263</v>
+        <v>83.04149068498558</v>
       </c>
       <c r="G23" t="n">
-        <v>78.23345424624176</v>
+        <v>77.38557083946465</v>
       </c>
       <c r="H23" t="n">
-        <v>78.1494666809387</v>
+        <v>77.85277261086885</v>
       </c>
       <c r="I23" t="n">
-        <v>77.87329363591797</v>
+        <v>77.56314853230262</v>
       </c>
       <c r="J23" t="n">
-        <v>77.84776286344677</v>
+        <v>77.33404155528893</v>
       </c>
       <c r="K23" t="n">
-        <v>78.31004939251515</v>
+        <v>77.78163268625758</v>
       </c>
       <c r="L23" t="n">
-        <v>77.93060069782159</v>
+        <v>77.36457546008275</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77.03547143011545</v>
+        <v>76.83998640486172</v>
       </c>
       <c r="C24" t="n">
-        <v>76.93682420857003</v>
+        <v>76.75537332141386</v>
       </c>
       <c r="D24" t="n">
-        <v>77.32992599565591</v>
+        <v>76.90259626192972</v>
       </c>
       <c r="E24" t="n">
-        <v>82.59956952888137</v>
+        <v>82.61541853973441</v>
       </c>
       <c r="F24" t="n">
-        <v>82.94444108072577</v>
+        <v>82.79200615445014</v>
       </c>
       <c r="G24" t="n">
-        <v>77.84116848169799</v>
+        <v>76.89187096917804</v>
       </c>
       <c r="H24" t="n">
-        <v>77.75831675425889</v>
+        <v>77.32461149092886</v>
       </c>
       <c r="I24" t="n">
-        <v>77.26173442154449</v>
+        <v>76.91547859091318</v>
       </c>
       <c r="J24" t="n">
-        <v>77.22192466434065</v>
+        <v>76.80842718800081</v>
       </c>
       <c r="K24" t="n">
-        <v>77.94203704066875</v>
+        <v>77.27157799843825</v>
       </c>
       <c r="L24" t="n">
-        <v>77.36274498484016</v>
+        <v>76.88686789677672</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.81857212827215</v>
+        <v>76.57314769524348</v>
       </c>
       <c r="C25" t="n">
-        <v>76.73597120642714</v>
+        <v>76.53888301326585</v>
       </c>
       <c r="D25" t="n">
-        <v>77.2472153642493</v>
+        <v>76.7922420376342</v>
       </c>
       <c r="E25" t="n">
-        <v>82.48259858156992</v>
+        <v>82.49995316271237</v>
       </c>
       <c r="F25" t="n">
-        <v>82.79774498527144</v>
+        <v>82.6695023994739</v>
       </c>
       <c r="G25" t="n">
-        <v>77.57401794987973</v>
+        <v>76.66572378989828</v>
       </c>
       <c r="H25" t="n">
-        <v>77.63143591140442</v>
+        <v>77.23713128421034</v>
       </c>
       <c r="I25" t="n">
-        <v>77.03754633837914</v>
+        <v>76.55405581115784</v>
       </c>
       <c r="J25" t="n">
-        <v>76.97077670516643</v>
+        <v>76.5608100681131</v>
       </c>
       <c r="K25" t="n">
-        <v>77.76559233424086</v>
+        <v>77.0008890022053</v>
       </c>
       <c r="L25" t="n">
-        <v>77.10470941672132</v>
+        <v>76.66148986786693</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>76.74873424278715</v>
+        <v>76.48673642959326</v>
       </c>
       <c r="C26" t="n">
-        <v>76.68128261519227</v>
+        <v>76.42607006978105</v>
       </c>
       <c r="D26" t="n">
-        <v>77.16981588263248</v>
+        <v>76.8010320290519</v>
       </c>
       <c r="E26" t="n">
-        <v>82.411816003437</v>
+        <v>82.40770339877199</v>
       </c>
       <c r="F26" t="n">
-        <v>82.71392820104901</v>
+        <v>82.58891701631427</v>
       </c>
       <c r="G26" t="n">
-        <v>77.46017548723236</v>
+        <v>76.61343779573066</v>
       </c>
       <c r="H26" t="n">
-        <v>77.518591718376</v>
+        <v>77.10526992259493</v>
       </c>
       <c r="I26" t="n">
-        <v>76.94790380093484</v>
+        <v>76.54491882225827</v>
       </c>
       <c r="J26" t="n">
-        <v>76.88598184840517</v>
+        <v>76.46527850125105</v>
       </c>
       <c r="K26" t="n">
-        <v>77.69312693130269</v>
+        <v>76.82249295081147</v>
       </c>
       <c r="L26" t="n">
-        <v>76.99259415165736</v>
+        <v>76.55104596431374</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>81.31759143484896</v>
+        <v>81.46483460678505</v>
       </c>
       <c r="C27" t="n">
-        <v>80.95972163060645</v>
+        <v>81.20308696625086</v>
       </c>
       <c r="D27" t="n">
-        <v>81.6784882481189</v>
+        <v>81.86586830831638</v>
       </c>
       <c r="E27" t="n">
-        <v>84.35246583916425</v>
+        <v>89.15083970337295</v>
       </c>
       <c r="F27" t="n">
-        <v>87.92283130977792</v>
+        <v>90.70961012968029</v>
       </c>
       <c r="G27" t="n">
-        <v>81.00529852442156</v>
+        <v>81.55171453375765</v>
       </c>
       <c r="H27" t="n">
-        <v>81.75796363942416</v>
+        <v>82.10099391301307</v>
       </c>
       <c r="I27" t="n">
-        <v>81.51898404997084</v>
+        <v>81.69331698472354</v>
       </c>
       <c r="J27" t="n">
-        <v>81.43289274474438</v>
+        <v>81.6193583933687</v>
       </c>
       <c r="K27" t="n">
-        <v>81.17317600366179</v>
+        <v>81.7759120054879</v>
       </c>
       <c r="L27" t="n">
-        <v>81.36846484390652</v>
+        <v>81.51428741027451</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>77.4892932359931</v>
+        <v>77.4119753171049</v>
       </c>
       <c r="C28" t="n">
-        <v>77.28838127763296</v>
+        <v>77.23439037407009</v>
       </c>
       <c r="D28" t="n">
-        <v>77.47336174278703</v>
+        <v>77.01025814161547</v>
       </c>
       <c r="E28" t="n">
-        <v>82.81672121672273</v>
+        <v>82.87067507712352</v>
       </c>
       <c r="F28" t="n">
-        <v>83.31538200426024</v>
+        <v>83.04102259500367</v>
       </c>
       <c r="G28" t="n">
-        <v>78.11246868379347</v>
+        <v>77.30935125973295</v>
       </c>
       <c r="H28" t="n">
-        <v>77.93794751636318</v>
+        <v>77.62748894372433</v>
       </c>
       <c r="I28" t="n">
-        <v>77.75353616834369</v>
+        <v>77.56860515972375</v>
       </c>
       <c r="J28" t="n">
-        <v>77.74497784501571</v>
+        <v>77.32356011749896</v>
       </c>
       <c r="K28" t="n">
-        <v>78.11036776939892</v>
+        <v>77.69682566320081</v>
       </c>
       <c r="L28" t="n">
-        <v>77.82776920455289</v>
+        <v>77.26384081721692</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>76.96222310124303</v>
+        <v>76.85391828611306</v>
       </c>
       <c r="C29" t="n">
-        <v>76.74007138337865</v>
+        <v>76.727567238978</v>
       </c>
       <c r="D29" t="n">
-        <v>77.16095537383615</v>
+        <v>76.79994226148303</v>
       </c>
       <c r="E29" t="n">
-        <v>82.58194730284279</v>
+        <v>82.62276133631737</v>
       </c>
       <c r="F29" t="n">
-        <v>82.91654616671666</v>
+        <v>82.79626594456758</v>
       </c>
       <c r="G29" t="n">
-        <v>77.66012087597228</v>
+        <v>76.85349930952054</v>
       </c>
       <c r="H29" t="n">
-        <v>77.53602243058411</v>
+        <v>77.17677997816114</v>
       </c>
       <c r="I29" t="n">
-        <v>77.17250740708926</v>
+        <v>76.90145556970873</v>
       </c>
       <c r="J29" t="n">
-        <v>77.08132854612552</v>
+        <v>76.7869145334937</v>
       </c>
       <c r="K29" t="n">
-        <v>77.6496975032623</v>
+        <v>77.05901054383648</v>
       </c>
       <c r="L29" t="n">
-        <v>77.21277396375021</v>
+        <v>76.84921315049576</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>76.72998345387774</v>
+        <v>76.64621717817579</v>
       </c>
       <c r="C30" t="n">
-        <v>76.56627479028799</v>
+        <v>76.51889773666288</v>
       </c>
       <c r="D30" t="n">
-        <v>77.03176656968179</v>
+        <v>76.74875042511529</v>
       </c>
       <c r="E30" t="n">
-        <v>82.46525375035478</v>
+        <v>82.48917365643054</v>
       </c>
       <c r="F30" t="n">
-        <v>82.76418957859021</v>
+        <v>82.67067750810683</v>
       </c>
       <c r="G30" t="n">
-        <v>77.37905829851996</v>
+        <v>76.61726542533144</v>
       </c>
       <c r="H30" t="n">
-        <v>77.39443700803845</v>
+        <v>77.03050667922348</v>
       </c>
       <c r="I30" t="n">
-        <v>76.892807643742</v>
+        <v>76.62687717727184</v>
       </c>
       <c r="J30" t="n">
-        <v>76.7662449074234</v>
+        <v>76.5543983389047</v>
       </c>
       <c r="K30" t="n">
-        <v>77.37561533213483</v>
+        <v>76.83504646567098</v>
       </c>
       <c r="L30" t="n">
-        <v>76.95079332290894</v>
+        <v>76.66067889738051</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>76.63139462825798</v>
+        <v>76.49201715643761</v>
       </c>
       <c r="C31" t="n">
-        <v>76.50865306728613</v>
+        <v>76.39459457172232</v>
       </c>
       <c r="D31" t="n">
-        <v>76.84614216022574</v>
+        <v>76.73633352139376</v>
       </c>
       <c r="E31" t="n">
-        <v>82.36684561890766</v>
+        <v>82.41279059869349</v>
       </c>
       <c r="F31" t="n">
-        <v>82.6735028082087</v>
+        <v>82.57507808542817</v>
       </c>
       <c r="G31" t="n">
-        <v>77.15759692925911</v>
+        <v>76.51474943433558</v>
       </c>
       <c r="H31" t="n">
-        <v>77.24674925173021</v>
+        <v>76.9417467768548</v>
       </c>
       <c r="I31" t="n">
-        <v>76.77289011873698</v>
+        <v>76.46714356199577</v>
       </c>
       <c r="J31" t="n">
-        <v>76.64383059368744</v>
+        <v>76.3877363309839</v>
       </c>
       <c r="K31" t="n">
-        <v>77.25861148420086</v>
+        <v>76.74437456688766</v>
       </c>
       <c r="L31" t="n">
-        <v>76.76331688175053</v>
+        <v>76.52349066196759</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.6610979075321</v>
+        <v>79.83665586892725</v>
       </c>
       <c r="C32" t="n">
-        <v>79.72041888632069</v>
+        <v>79.94244885947262</v>
       </c>
       <c r="D32" t="n">
-        <v>80.26878157396374</v>
+        <v>80.59423023279666</v>
       </c>
       <c r="E32" t="n">
-        <v>84.48686143394626</v>
+        <v>89.74655719868656</v>
       </c>
       <c r="F32" t="n">
-        <v>88.12714134934825</v>
+        <v>91.56638443335996</v>
       </c>
       <c r="G32" t="n">
-        <v>80.13844214728083</v>
+        <v>80.34212508616716</v>
       </c>
       <c r="H32" t="n">
-        <v>80.37824856211017</v>
+        <v>80.48343138845826</v>
       </c>
       <c r="I32" t="n">
-        <v>80.2664710891235</v>
+        <v>80.36764276050215</v>
       </c>
       <c r="J32" t="n">
-        <v>79.85461830996483</v>
+        <v>80.17197845535077</v>
       </c>
       <c r="K32" t="n">
-        <v>79.78802941813424</v>
+        <v>80.06140157726529</v>
       </c>
       <c r="L32" t="n">
-        <v>79.60887866997277</v>
+        <v>79.6716420363789</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>77.20822382182484</v>
+        <v>77.20720923896133</v>
       </c>
       <c r="C33" t="n">
-        <v>77.03942325501858</v>
+        <v>76.94861155988185</v>
       </c>
       <c r="D33" t="n">
-        <v>77.43551611282845</v>
+        <v>77.0183833300984</v>
       </c>
       <c r="E33" t="n">
-        <v>82.84989445559302</v>
+        <v>82.91270788308645</v>
       </c>
       <c r="F33" t="n">
-        <v>83.29855066585819</v>
+        <v>83.04249359713813</v>
       </c>
       <c r="G33" t="n">
-        <v>77.86963201198782</v>
+        <v>77.07734556327557</v>
       </c>
       <c r="H33" t="n">
-        <v>77.69138932246878</v>
+        <v>77.13227650547623</v>
       </c>
       <c r="I33" t="n">
-        <v>77.55287538403311</v>
+        <v>77.30461776157236</v>
       </c>
       <c r="J33" t="n">
-        <v>77.47280901697994</v>
+        <v>77.07263626189911</v>
       </c>
       <c r="K33" t="n">
-        <v>77.6916845115594</v>
+        <v>77.25038543114174</v>
       </c>
       <c r="L33" t="n">
-        <v>77.40921176409864</v>
+        <v>77.05022163729389</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.81146042144007</v>
+        <v>76.70752793792465</v>
       </c>
       <c r="C34" t="n">
-        <v>76.57648041871903</v>
+        <v>76.49121157091464</v>
       </c>
       <c r="D34" t="n">
-        <v>77.19784555908988</v>
+        <v>76.75870293717041</v>
       </c>
       <c r="E34" t="n">
-        <v>82.60556660598567</v>
+        <v>82.64423162096438</v>
       </c>
       <c r="F34" t="n">
-        <v>82.89766169423373</v>
+        <v>82.75699412905325</v>
       </c>
       <c r="G34" t="n">
-        <v>77.29986770469543</v>
+        <v>76.70959113117294</v>
       </c>
       <c r="H34" t="n">
-        <v>77.35677757208468</v>
+        <v>76.91914442881344</v>
       </c>
       <c r="I34" t="n">
-        <v>77.05231622740537</v>
+        <v>76.7835988179185</v>
       </c>
       <c r="J34" t="n">
-        <v>76.88016893646794</v>
+        <v>76.68539887650024</v>
       </c>
       <c r="K34" t="n">
-        <v>77.32440909015867</v>
+        <v>76.84424541697736</v>
       </c>
       <c r="L34" t="n">
-        <v>76.93500645972505</v>
+        <v>76.68363770281097</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>76.63975854594027</v>
+        <v>76.5087915735446</v>
       </c>
       <c r="C35" t="n">
-        <v>76.44174676650815</v>
+        <v>76.36584413922304</v>
       </c>
       <c r="D35" t="n">
-        <v>77.00855621028084</v>
+        <v>76.63796988939119</v>
       </c>
       <c r="E35" t="n">
-        <v>82.49040840030875</v>
+        <v>82.52987559741776</v>
       </c>
       <c r="F35" t="n">
-        <v>82.75172586280004</v>
+        <v>82.63656477167565</v>
       </c>
       <c r="G35" t="n">
-        <v>77.03228397636111</v>
+        <v>76.43211170546662</v>
       </c>
       <c r="H35" t="n">
-        <v>77.24779951923907</v>
+        <v>76.91369343757654</v>
       </c>
       <c r="I35" t="n">
-        <v>76.78301827182716</v>
+        <v>76.59531987798935</v>
       </c>
       <c r="J35" t="n">
-        <v>76.62097143841392</v>
+        <v>76.48809185720161</v>
       </c>
       <c r="K35" t="n">
-        <v>77.14040481733149</v>
+        <v>76.68090748384766</v>
       </c>
       <c r="L35" t="n">
-        <v>76.76035321466225</v>
+        <v>76.53353662732376</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>76.53012756793231</v>
+        <v>76.42135522216006</v>
       </c>
       <c r="C36" t="n">
-        <v>76.31844185261099</v>
+        <v>76.29374714257509</v>
       </c>
       <c r="D36" t="n">
-        <v>76.92253314790341</v>
+        <v>76.61877143716869</v>
       </c>
       <c r="E36" t="n">
-        <v>82.39292209115624</v>
+        <v>82.42310567332326</v>
       </c>
       <c r="F36" t="n">
-        <v>82.67214171629331</v>
+        <v>82.53405194274674</v>
       </c>
       <c r="G36" t="n">
-        <v>76.9521721274353</v>
+        <v>76.39769327242222</v>
       </c>
       <c r="H36" t="n">
-        <v>77.17971869402649</v>
+        <v>76.71050898775033</v>
       </c>
       <c r="I36" t="n">
-        <v>76.64943032909504</v>
+        <v>76.47098579502762</v>
       </c>
       <c r="J36" t="n">
-        <v>76.50378727234789</v>
+        <v>76.33671812506006</v>
       </c>
       <c r="K36" t="n">
-        <v>77.00303089997843</v>
+        <v>76.53462666338343</v>
       </c>
       <c r="L36" t="n">
-        <v>76.60674078755808</v>
+        <v>76.40747249779825</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>81.32227397374074</v>
+        <v>81.46483460678505</v>
       </c>
       <c r="C37" t="n">
-        <v>81.07235038418737</v>
+        <v>81.20308696625086</v>
       </c>
       <c r="D37" t="n">
-        <v>81.6966436620084</v>
+        <v>81.86586830831638</v>
       </c>
       <c r="E37" t="n">
-        <v>84.52106051026958</v>
+        <v>89.74655719868656</v>
       </c>
       <c r="F37" t="n">
-        <v>88.25372494994419</v>
+        <v>91.5708963639695</v>
       </c>
       <c r="G37" t="n">
-        <v>81.00290200712784</v>
+        <v>81.55171453375765</v>
       </c>
       <c r="H37" t="n">
-        <v>81.34492752935739</v>
+        <v>82.10099391301307</v>
       </c>
       <c r="I37" t="n">
-        <v>81.54254152081739</v>
+        <v>81.69331698472354</v>
       </c>
       <c r="J37" t="n">
-        <v>81.29546521097872</v>
+        <v>81.6193583933687</v>
       </c>
       <c r="K37" t="n">
-        <v>81.2063540419156</v>
+        <v>81.77649720581216</v>
       </c>
       <c r="L37" t="n">
-        <v>81.37349060013645</v>
+        <v>81.51428741027451</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>77.47472126086312</v>
+        <v>77.47181324518918</v>
       </c>
       <c r="C38" t="n">
-        <v>77.2899015489337</v>
+        <v>77.14230095683347</v>
       </c>
       <c r="D38" t="n">
-        <v>77.40064616475925</v>
+        <v>77.0779398419922</v>
       </c>
       <c r="E38" t="n">
-        <v>82.85128000177485</v>
+        <v>82.91721411517167</v>
       </c>
       <c r="F38" t="n">
-        <v>83.29234509209419</v>
+        <v>83.03872379379183</v>
       </c>
       <c r="G38" t="n">
-        <v>78.17010746016487</v>
+        <v>77.40337348256259</v>
       </c>
       <c r="H38" t="n">
-        <v>77.90981927794527</v>
+        <v>77.48016707494666</v>
       </c>
       <c r="I38" t="n">
-        <v>77.71759293233751</v>
+        <v>77.50374709859373</v>
       </c>
       <c r="J38" t="n">
-        <v>77.75213749270669</v>
+        <v>77.31689167371242</v>
       </c>
       <c r="K38" t="n">
-        <v>78.13270633670497</v>
+        <v>77.6818571911539</v>
       </c>
       <c r="L38" t="n">
-        <v>77.82650008477555</v>
+        <v>77.35122985291414</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>76.98038050867987</v>
+        <v>76.86892028864895</v>
       </c>
       <c r="C39" t="n">
-        <v>76.6997525874766</v>
+        <v>76.65817917783045</v>
       </c>
       <c r="D39" t="n">
-        <v>77.18507829989686</v>
+        <v>76.78021894937433</v>
       </c>
       <c r="E39" t="n">
-        <v>82.61829921757536</v>
+        <v>82.65250593994445</v>
       </c>
       <c r="F39" t="n">
-        <v>82.90112178766191</v>
+        <v>82.77148619924949</v>
       </c>
       <c r="G39" t="n">
-        <v>77.53641218234772</v>
+        <v>76.86983236044999</v>
       </c>
       <c r="H39" t="n">
-        <v>77.5049340633815</v>
+        <v>77.02910278333873</v>
       </c>
       <c r="I39" t="n">
-        <v>77.14978570250406</v>
+        <v>76.95163951326306</v>
       </c>
       <c r="J39" t="n">
-        <v>77.07361512873629</v>
+        <v>76.85141482367321</v>
       </c>
       <c r="K39" t="n">
-        <v>77.60003979504566</v>
+        <v>77.12100154304586</v>
       </c>
       <c r="L39" t="n">
-        <v>77.23878357773988</v>
+        <v>76.87484763873135</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>76.72077974635675</v>
+        <v>76.63216362815704</v>
       </c>
       <c r="C40" t="n">
-        <v>76.49114017080134</v>
+        <v>76.504549996642</v>
       </c>
       <c r="D40" t="n">
-        <v>77.0237056611179</v>
+        <v>76.73629904883063</v>
       </c>
       <c r="E40" t="n">
-        <v>82.48683358948759</v>
+        <v>82.5227113314304</v>
       </c>
       <c r="F40" t="n">
-        <v>82.74598931790644</v>
+        <v>82.62664487565503</v>
       </c>
       <c r="G40" t="n">
-        <v>77.27553978794894</v>
+        <v>76.63814915213931</v>
       </c>
       <c r="H40" t="n">
-        <v>77.38576588966824</v>
+        <v>76.9172361858642</v>
       </c>
       <c r="I40" t="n">
-        <v>76.83313431125855</v>
+        <v>76.62402586762605</v>
       </c>
       <c r="J40" t="n">
-        <v>76.76688673806593</v>
+        <v>76.6275702682377</v>
       </c>
       <c r="K40" t="n">
-        <v>77.35461209529404</v>
+        <v>76.88293558593411</v>
       </c>
       <c r="L40" t="n">
-        <v>76.94689126698364</v>
+        <v>76.68655888710282</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>76.62215294408951</v>
+        <v>76.51270289240071</v>
       </c>
       <c r="C41" t="n">
-        <v>76.49863526651518</v>
+        <v>76.42422324360663</v>
       </c>
       <c r="D41" t="n">
-        <v>76.86227385039538</v>
+        <v>76.63074674055591</v>
       </c>
       <c r="E41" t="n">
-        <v>82.38960570398294</v>
+        <v>82.44323623073188</v>
       </c>
       <c r="F41" t="n">
-        <v>82.65149394136293</v>
+        <v>82.527790060459</v>
       </c>
       <c r="G41" t="n">
-        <v>77.03040386317421</v>
+        <v>76.51887262155154</v>
       </c>
       <c r="H41" t="n">
-        <v>77.29129066744261</v>
+        <v>76.86244222816643</v>
       </c>
       <c r="I41" t="n">
-        <v>76.71374599838595</v>
+        <v>76.46240597266062</v>
       </c>
       <c r="J41" t="n">
-        <v>76.63859949280449</v>
+        <v>76.44243355154759</v>
       </c>
       <c r="K41" t="n">
-        <v>77.21976061210887</v>
+        <v>76.76555591289423</v>
       </c>
       <c r="L41" t="n">
-        <v>76.82722088999094</v>
+        <v>76.5606825718969</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79.27662250852954</v>
+        <v>79.34791929700243</v>
       </c>
       <c r="C42" t="n">
-        <v>79.14330934640819</v>
+        <v>79.19097617112494</v>
       </c>
       <c r="D42" t="n">
-        <v>79.84887137311054</v>
+        <v>79.92888597508765</v>
       </c>
       <c r="E42" t="n">
-        <v>84.39150227700324</v>
+        <v>89.15083970337295</v>
       </c>
       <c r="F42" t="n">
-        <v>87.92635635829974</v>
+        <v>90.7095803748841</v>
       </c>
       <c r="G42" t="n">
-        <v>79.1859619265814</v>
+        <v>79.41701639085089</v>
       </c>
       <c r="H42" t="n">
-        <v>79.72610188504788</v>
+        <v>79.8852089315814</v>
       </c>
       <c r="I42" t="n">
-        <v>79.48241334136485</v>
+        <v>79.59921583693408</v>
       </c>
       <c r="J42" t="n">
-        <v>79.48593048588269</v>
+        <v>79.56633604997964</v>
       </c>
       <c r="K42" t="n">
-        <v>79.13142969732453</v>
+        <v>79.39017591956103</v>
       </c>
       <c r="L42" t="n">
-        <v>79.16832847414244</v>
+        <v>79.237405166447</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>77.14694697713541</v>
+        <v>77.00346299428949</v>
       </c>
       <c r="C43" t="n">
-        <v>76.85941846299829</v>
+        <v>76.78599745151702</v>
       </c>
       <c r="D43" t="n">
-        <v>77.21438589975519</v>
+        <v>76.83674327926947</v>
       </c>
       <c r="E43" t="n">
-        <v>82.82075262598445</v>
+        <v>82.8697684620634</v>
       </c>
       <c r="F43" t="n">
-        <v>83.30930852492492</v>
+        <v>83.06437909598711</v>
       </c>
       <c r="G43" t="n">
-        <v>77.49039336471841</v>
+        <v>76.84448678833421</v>
       </c>
       <c r="H43" t="n">
-        <v>77.56995305943161</v>
+        <v>77.21402973238665</v>
       </c>
       <c r="I43" t="n">
-        <v>77.28672999138445</v>
+        <v>77.07285817188313</v>
       </c>
       <c r="J43" t="n">
-        <v>77.23327179650424</v>
+        <v>77.00571073405573</v>
       </c>
       <c r="K43" t="n">
-        <v>77.46696624682227</v>
+        <v>77.01896254950262</v>
       </c>
       <c r="L43" t="n">
-        <v>77.23884451139264</v>
+        <v>76.86530791623233</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>76.77104875164855</v>
+        <v>76.53783114709395</v>
       </c>
       <c r="C44" t="n">
-        <v>76.46809294150454</v>
+        <v>76.41260251900762</v>
       </c>
       <c r="D44" t="n">
-        <v>76.98410389427723</v>
+        <v>76.62577160785382</v>
       </c>
       <c r="E44" t="n">
-        <v>82.58418870832301</v>
+        <v>82.64111194421851</v>
       </c>
       <c r="F44" t="n">
-        <v>82.91790500104202</v>
+        <v>82.80954870777956</v>
       </c>
       <c r="G44" t="n">
-        <v>77.11823201900451</v>
+        <v>76.57622380142261</v>
       </c>
       <c r="H44" t="n">
-        <v>77.35338941628504</v>
+        <v>76.84422586723667</v>
       </c>
       <c r="I44" t="n">
-        <v>76.90239431395975</v>
+        <v>76.69775003847199</v>
       </c>
       <c r="J44" t="n">
-        <v>76.75478769687206</v>
+        <v>76.64760390989919</v>
       </c>
       <c r="K44" t="n">
-        <v>77.08748482489432</v>
+        <v>76.68284359638992</v>
       </c>
       <c r="L44" t="n">
-        <v>76.79355059593036</v>
+        <v>76.59546827658224</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>76.58032230028101</v>
+        <v>76.41435587151656</v>
       </c>
       <c r="C45" t="n">
-        <v>76.34808296916222</v>
+        <v>76.28714805387999</v>
       </c>
       <c r="D45" t="n">
-        <v>76.86167514285782</v>
+        <v>76.49401928836598</v>
       </c>
       <c r="E45" t="n">
-        <v>82.47796564455614</v>
+        <v>82.50235201579841</v>
       </c>
       <c r="F45" t="n">
-        <v>82.76453710000561</v>
+        <v>82.66815136360991</v>
       </c>
       <c r="G45" t="n">
-        <v>76.96732075342508</v>
+        <v>76.41024563080313</v>
       </c>
       <c r="H45" t="n">
-        <v>77.22757727715337</v>
+        <v>76.76140210829888</v>
       </c>
       <c r="I45" t="n">
-        <v>76.63286257672053</v>
+        <v>76.47469469346493</v>
       </c>
       <c r="J45" t="n">
-        <v>76.51285197796932</v>
+        <v>76.42007978976147</v>
       </c>
       <c r="K45" t="n">
-        <v>76.90769760904418</v>
+        <v>76.52499803229546</v>
       </c>
       <c r="L45" t="n">
-        <v>76.6034765355102</v>
+        <v>76.4508304261836</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>76.49108055607196</v>
+        <v>76.33190878515018</v>
       </c>
       <c r="C46" t="n">
-        <v>76.25354475741918</v>
+        <v>76.2316535450918</v>
       </c>
       <c r="D46" t="n">
-        <v>76.79168856405801</v>
+        <v>76.42652284981048</v>
       </c>
       <c r="E46" t="n">
-        <v>82.37642169629171</v>
+        <v>82.41547347416582</v>
       </c>
       <c r="F46" t="n">
-        <v>82.68898734613158</v>
+        <v>82.585261285504</v>
       </c>
       <c r="G46" t="n">
-        <v>76.82970444556625</v>
+        <v>76.3016308647108</v>
       </c>
       <c r="H46" t="n">
-        <v>77.12295256593666</v>
+        <v>76.62182860520448</v>
       </c>
       <c r="I46" t="n">
-        <v>76.48916777359642</v>
+        <v>76.36441927683889</v>
       </c>
       <c r="J46" t="n">
-        <v>76.4204882965855</v>
+        <v>76.37748341519682</v>
       </c>
       <c r="K46" t="n">
-        <v>76.83576008225303</v>
+        <v>76.4297824832332</v>
       </c>
       <c r="L46" t="n">
-        <v>76.49812074907807</v>
+        <v>76.37274813997695</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>79.56932189764362</v>
+        <v>79.68209620297762</v>
       </c>
       <c r="C47" t="n">
-        <v>79.38297929230822</v>
+        <v>79.53448975545059</v>
       </c>
       <c r="D47" t="n">
-        <v>80.30992716341643</v>
+        <v>80.39658119576175</v>
       </c>
       <c r="E47" t="n">
-        <v>84.08491272387576</v>
+        <v>87.98263667624154</v>
       </c>
       <c r="F47" t="n">
-        <v>87.15557737306702</v>
+        <v>89.1756478611493</v>
       </c>
       <c r="G47" t="n">
-        <v>79.59554202461155</v>
+        <v>79.87278824443678</v>
       </c>
       <c r="H47" t="n">
-        <v>80.11869231033566</v>
+        <v>80.28593773531466</v>
       </c>
       <c r="I47" t="n">
-        <v>79.88883612300046</v>
+        <v>79.99742946276695</v>
       </c>
       <c r="J47" t="n">
-        <v>79.79779704163576</v>
+        <v>79.87399351921164</v>
       </c>
       <c r="K47" t="n">
-        <v>79.48149827372464</v>
+        <v>79.74772867443394</v>
       </c>
       <c r="L47" t="n">
-        <v>79.37027459350487</v>
+        <v>79.46800445705153</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>77.19537470144486</v>
+        <v>77.05982751462874</v>
       </c>
       <c r="C48" t="n">
-        <v>76.9592472130836</v>
+        <v>76.88039866508474</v>
       </c>
       <c r="D48" t="n">
-        <v>77.36836428229654</v>
+        <v>76.95045889968468</v>
       </c>
       <c r="E48" t="n">
-        <v>82.73214071883476</v>
+        <v>82.82067093769444</v>
       </c>
       <c r="F48" t="n">
-        <v>83.25220794745474</v>
+        <v>83.02353566469094</v>
       </c>
       <c r="G48" t="n">
-        <v>77.67809738237852</v>
+        <v>76.97718825141864</v>
       </c>
       <c r="H48" t="n">
-        <v>77.64184621365328</v>
+        <v>77.20166796353718</v>
       </c>
       <c r="I48" t="n">
-        <v>77.44341881939205</v>
+        <v>77.23481156028313</v>
       </c>
       <c r="J48" t="n">
-        <v>77.38987846255645</v>
+        <v>77.06815293959568</v>
       </c>
       <c r="K48" t="n">
-        <v>77.61177991508721</v>
+        <v>77.14856933955913</v>
       </c>
       <c r="L48" t="n">
-        <v>77.35392207644234</v>
+        <v>76.97618747026893</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>76.7813615842837</v>
+        <v>76.61212607885997</v>
       </c>
       <c r="C49" t="n">
-        <v>76.52732227964553</v>
+        <v>76.47396205062476</v>
       </c>
       <c r="D49" t="n">
-        <v>77.07934215427048</v>
+        <v>76.69119041636326</v>
       </c>
       <c r="E49" t="n">
-        <v>82.535632504134</v>
+        <v>82.57932789440099</v>
       </c>
       <c r="F49" t="n">
-        <v>82.88759553477995</v>
+        <v>82.77490848805185</v>
       </c>
       <c r="G49" t="n">
-        <v>77.21783855232923</v>
+        <v>76.62851602587747</v>
       </c>
       <c r="H49" t="n">
-        <v>77.35370646803239</v>
+        <v>76.8065535503226</v>
       </c>
       <c r="I49" t="n">
-        <v>76.96175414573365</v>
+        <v>76.80992488996517</v>
       </c>
       <c r="J49" t="n">
-        <v>76.84036726869317</v>
+        <v>76.65566937679981</v>
       </c>
       <c r="K49" t="n">
-        <v>77.25233351646227</v>
+        <v>76.75224943034414</v>
       </c>
       <c r="L49" t="n">
-        <v>76.90036240176548</v>
+        <v>76.63134308006198</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>76.5970903410731</v>
+        <v>76.42328408727934</v>
       </c>
       <c r="C50" t="n">
-        <v>76.42159125232597</v>
+        <v>76.33273347635193</v>
       </c>
       <c r="D50" t="n">
-        <v>76.95757286926695</v>
+        <v>76.51651175208434</v>
       </c>
       <c r="E50" t="n">
-        <v>82.42113153157192</v>
+        <v>82.47545630862001</v>
       </c>
       <c r="F50" t="n">
-        <v>82.75945342321972</v>
+        <v>82.64443780896474</v>
       </c>
       <c r="G50" t="n">
-        <v>77.02503883140476</v>
+        <v>76.42965877610445</v>
       </c>
       <c r="H50" t="n">
-        <v>77.23200387535819</v>
+        <v>76.69039129913583</v>
       </c>
       <c r="I50" t="n">
-        <v>76.74284640814405</v>
+        <v>76.58242149353163</v>
       </c>
       <c r="J50" t="n">
-        <v>76.61509868392857</v>
+        <v>76.46375864871473</v>
       </c>
       <c r="K50" t="n">
-        <v>77.07655860633639</v>
+        <v>76.62514815077309</v>
       </c>
       <c r="L50" t="n">
-        <v>76.67108811407347</v>
+        <v>76.48628840731364</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>76.49813880128963</v>
+        <v>76.33278627796231</v>
       </c>
       <c r="C51" t="n">
-        <v>76.31522408777116</v>
+        <v>76.29232255883628</v>
       </c>
       <c r="D51" t="n">
-        <v>76.86608773479426</v>
+        <v>76.48172218649185</v>
       </c>
       <c r="E51" t="n">
-        <v>82.34628679541981</v>
+        <v>82.39985633521323</v>
       </c>
       <c r="F51" t="n">
-        <v>82.66587680877089</v>
+        <v>82.55062798554987</v>
       </c>
       <c r="G51" t="n">
-        <v>76.83124024067337</v>
+        <v>76.33542985246218</v>
       </c>
       <c r="H51" t="n">
-        <v>77.08377189474305</v>
+        <v>76.66511766036197</v>
       </c>
       <c r="I51" t="n">
-        <v>76.59921329153215</v>
+        <v>76.48059832321951</v>
       </c>
       <c r="J51" t="n">
-        <v>76.49469912738209</v>
+        <v>76.35596322730856</v>
       </c>
       <c r="K51" t="n">
-        <v>76.96832723026081</v>
+        <v>76.55121675473067</v>
       </c>
       <c r="L51" t="n">
-        <v>76.55817848792469</v>
+        <v>76.3886989744113</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>78.03773603212635</v>
+        <v>78.0654944968832</v>
       </c>
       <c r="C52" t="n">
-        <v>77.79455792100688</v>
+        <v>77.89179654355328</v>
       </c>
       <c r="D52" t="n">
-        <v>78.37843350149159</v>
+        <v>78.42958886336181</v>
       </c>
       <c r="E52" t="n">
-        <v>83.8018796857309</v>
+        <v>87.03275776374036</v>
       </c>
       <c r="F52" t="n">
-        <v>86.35907045217445</v>
+        <v>87.54669480954971</v>
       </c>
       <c r="G52" t="n">
-        <v>78.14767972405353</v>
+        <v>78.18524744073079</v>
       </c>
       <c r="H52" t="n">
-        <v>78.55326087347035</v>
+        <v>78.59261015188227</v>
       </c>
       <c r="I52" t="n">
-        <v>77.98641210789054</v>
+        <v>78.01705146910369</v>
       </c>
       <c r="J52" t="n">
-        <v>78.08588019668959</v>
+        <v>78.10124506870886</v>
       </c>
       <c r="K52" t="n">
-        <v>77.96814924596643</v>
+        <v>78.0919089845827</v>
       </c>
       <c r="L52" t="n">
-        <v>77.91091207903794</v>
+        <v>77.93248115795276</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>76.7493161089332</v>
+        <v>76.63399502620402</v>
       </c>
       <c r="C53" t="n">
-        <v>76.52834573420614</v>
+        <v>76.43967062198051</v>
       </c>
       <c r="D53" t="n">
-        <v>76.84259452590302</v>
+        <v>76.51215814659645</v>
       </c>
       <c r="E53" t="n">
-        <v>82.65881413962703</v>
+        <v>82.71346343579408</v>
       </c>
       <c r="F53" t="n">
-        <v>83.17672541068241</v>
+        <v>82.96764439267641</v>
       </c>
       <c r="G53" t="n">
-        <v>77.08239992347681</v>
+        <v>76.73124041708253</v>
       </c>
       <c r="H53" t="n">
-        <v>77.23580792698628</v>
+        <v>76.88954232297803</v>
       </c>
       <c r="I53" t="n">
-        <v>76.73552678845547</v>
+        <v>76.6347372595441</v>
       </c>
       <c r="J53" t="n">
-        <v>76.83308406198233</v>
+        <v>76.573946722169</v>
       </c>
       <c r="K53" t="n">
-        <v>76.87103967539478</v>
+        <v>76.64948640606366</v>
       </c>
       <c r="L53" t="n">
-        <v>76.84018547153416</v>
+        <v>76.56177310242619</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>76.53887460293237</v>
+        <v>76.46015680744766</v>
       </c>
       <c r="C54" t="n">
-        <v>76.24701822402143</v>
+        <v>76.16604765427566</v>
       </c>
       <c r="D54" t="n">
-        <v>76.67868270854729</v>
+        <v>76.35549691533552</v>
       </c>
       <c r="E54" t="n">
-        <v>82.46832782126214</v>
+        <v>82.5221778142859</v>
       </c>
       <c r="F54" t="n">
-        <v>82.87879127997725</v>
+        <v>82.75303775032481</v>
       </c>
       <c r="G54" t="n">
-        <v>76.8383799327591</v>
+        <v>76.48088323826475</v>
       </c>
       <c r="H54" t="n">
-        <v>77.05604182529514</v>
+        <v>76.63184068889628</v>
       </c>
       <c r="I54" t="n">
-        <v>76.52621380930935</v>
+        <v>76.46319245706283</v>
       </c>
       <c r="J54" t="n">
-        <v>76.50241859809645</v>
+        <v>76.29229673387609</v>
       </c>
       <c r="K54" t="n">
-        <v>76.71051044597706</v>
+        <v>76.43306918868011</v>
       </c>
       <c r="L54" t="n">
-        <v>76.55114998401497</v>
+        <v>76.36898034817</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>76.39276582293542</v>
+        <v>76.36470744380497</v>
       </c>
       <c r="C55" t="n">
-        <v>76.19402886386165</v>
+        <v>76.11728582645041</v>
       </c>
       <c r="D55" t="n">
-        <v>76.59886792168453</v>
+        <v>76.27712301084192</v>
       </c>
       <c r="E55" t="n">
-        <v>82.37366529225187</v>
+        <v>82.41969117303611</v>
       </c>
       <c r="F55" t="n">
-        <v>82.73191865677516</v>
+        <v>82.62617316603196</v>
       </c>
       <c r="G55" t="n">
-        <v>76.74539976314557</v>
+        <v>76.36563064944249</v>
       </c>
       <c r="H55" t="n">
-        <v>76.95018768132711</v>
+        <v>76.47122108792209</v>
       </c>
       <c r="I55" t="n">
-        <v>76.38824470468727</v>
+        <v>76.29719761764122</v>
       </c>
       <c r="J55" t="n">
-        <v>76.32404533232447</v>
+        <v>76.20877162617218</v>
       </c>
       <c r="K55" t="n">
-        <v>76.58559131496629</v>
+        <v>76.31210382831239</v>
       </c>
       <c r="L55" t="n">
-        <v>76.41995294904973</v>
+        <v>76.28198763414541</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>76.31980306125946</v>
+        <v>76.26301818833041</v>
       </c>
       <c r="C56" t="n">
-        <v>76.09832989134678</v>
+        <v>76.05915237514606</v>
       </c>
       <c r="D56" t="n">
-        <v>76.53437880841747</v>
+        <v>76.2475916569604</v>
       </c>
       <c r="E56" t="n">
-        <v>82.29846236800827</v>
+        <v>82.34559403976591</v>
       </c>
       <c r="F56" t="n">
-        <v>82.64724465446957</v>
+        <v>82.5251238346373</v>
       </c>
       <c r="G56" t="n">
-        <v>76.66202843594192</v>
+        <v>76.26336942894383</v>
       </c>
       <c r="H56" t="n">
-        <v>76.93901696358003</v>
+        <v>76.42757952015793</v>
       </c>
       <c r="I56" t="n">
-        <v>76.31678805522361</v>
+        <v>76.23277618751933</v>
       </c>
       <c r="J56" t="n">
-        <v>76.26105465837499</v>
+        <v>76.14230639208617</v>
       </c>
       <c r="K56" t="n">
-        <v>76.53070815046711</v>
+        <v>76.27319791675919</v>
       </c>
       <c r="L56" t="n">
-        <v>76.34469304529914</v>
+        <v>76.23563014190479</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>78.13037418169604</v>
+        <v>78.16224859426336</v>
       </c>
       <c r="C57" t="n">
-        <v>77.82451982970703</v>
+        <v>77.8856300197867</v>
       </c>
       <c r="D57" t="n">
-        <v>78.50691729627303</v>
+        <v>78.54673161942034</v>
       </c>
       <c r="E57" t="n">
-        <v>84.14164334935394</v>
+        <v>87.66077566363238</v>
       </c>
       <c r="F57" t="n">
-        <v>86.97723719173274</v>
+        <v>88.45481818239826</v>
       </c>
       <c r="G57" t="n">
-        <v>78.22183964208273</v>
+        <v>78.29673006519593</v>
       </c>
       <c r="H57" t="n">
-        <v>78.63120597559248</v>
+        <v>78.66415743570012</v>
       </c>
       <c r="I57" t="n">
-        <v>78.05846985944956</v>
+        <v>78.10269955583044</v>
       </c>
       <c r="J57" t="n">
-        <v>78.26561417461896</v>
+        <v>78.3018092961189</v>
       </c>
       <c r="K57" t="n">
-        <v>78.06905594110609</v>
+        <v>78.18944654529992</v>
       </c>
       <c r="L57" t="n">
-        <v>78.04298973780752</v>
+        <v>78.06795052456879</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>76.80245196573827</v>
+        <v>76.68140501061457</v>
       </c>
       <c r="C58" t="n">
-        <v>76.51534120892292</v>
+        <v>76.44123140635305</v>
       </c>
       <c r="D58" t="n">
-        <v>76.87088912094175</v>
+        <v>76.5723290394092</v>
       </c>
       <c r="E58" t="n">
-        <v>82.69897013689389</v>
+        <v>82.77545942778106</v>
       </c>
       <c r="F58" t="n">
-        <v>83.15878798169152</v>
+        <v>82.97358554030251</v>
       </c>
       <c r="G58" t="n">
-        <v>77.12743185098363</v>
+        <v>76.77440299028302</v>
       </c>
       <c r="H58" t="n">
-        <v>77.29225923007827</v>
+        <v>76.99690119764684</v>
       </c>
       <c r="I58" t="n">
-        <v>76.84047019029323</v>
+        <v>76.67691267984709</v>
       </c>
       <c r="J58" t="n">
-        <v>76.87659568151054</v>
+        <v>76.64058212066529</v>
       </c>
       <c r="K58" t="n">
-        <v>76.98319623342211</v>
+        <v>76.73415568628715</v>
       </c>
       <c r="L58" t="n">
-        <v>76.9232520983259</v>
+        <v>76.5698761150547</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>76.55057931199067</v>
+        <v>76.44025704935781</v>
       </c>
       <c r="C59" t="n">
-        <v>76.24101843229325</v>
+        <v>76.19441406113211</v>
       </c>
       <c r="D59" t="n">
-        <v>76.71675249554059</v>
+        <v>76.39151569478695</v>
       </c>
       <c r="E59" t="n">
-        <v>82.51720176811887</v>
+        <v>82.55349591328014</v>
       </c>
       <c r="F59" t="n">
-        <v>82.86305576584176</v>
+        <v>82.74120060762849</v>
       </c>
       <c r="G59" t="n">
-        <v>76.87505663974149</v>
+        <v>76.47079605197848</v>
       </c>
       <c r="H59" t="n">
-        <v>77.09635034035885</v>
+        <v>76.708861504339</v>
       </c>
       <c r="I59" t="n">
-        <v>76.56160189637414</v>
+        <v>76.4931086096021</v>
       </c>
       <c r="J59" t="n">
-        <v>76.51517252055298</v>
+        <v>76.34216305489667</v>
       </c>
       <c r="K59" t="n">
-        <v>76.73339406841981</v>
+        <v>76.53901477728331</v>
       </c>
       <c r="L59" t="n">
-        <v>76.59104122160065</v>
+        <v>76.40261341383129</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>76.42778924549589</v>
+        <v>76.39581846048033</v>
       </c>
       <c r="C60" t="n">
-        <v>76.18446879900661</v>
+        <v>76.11902378839252</v>
       </c>
       <c r="D60" t="n">
-        <v>76.55895223374696</v>
+        <v>76.33322208285611</v>
       </c>
       <c r="E60" t="n">
-        <v>82.40020933437654</v>
+        <v>82.45620745385673</v>
       </c>
       <c r="F60" t="n">
-        <v>82.74165994566258</v>
+        <v>82.5901619224978</v>
       </c>
       <c r="G60" t="n">
-        <v>76.63938913589392</v>
+        <v>76.38470898313048</v>
       </c>
       <c r="H60" t="n">
-        <v>76.95704036408139</v>
+        <v>76.57022130474732</v>
       </c>
       <c r="I60" t="n">
-        <v>76.39569300449352</v>
+        <v>76.34643796242347</v>
       </c>
       <c r="J60" t="n">
-        <v>76.37256264065691</v>
+        <v>76.25438423882822</v>
       </c>
       <c r="K60" t="n">
-        <v>76.56244601464786</v>
+        <v>76.40462502674394</v>
       </c>
       <c r="L60" t="n">
-        <v>76.43999807984163</v>
+        <v>76.29989921080249</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>76.35538672788886</v>
+        <v>76.30775823362139</v>
       </c>
       <c r="C61" t="n">
-        <v>76.09827163248536</v>
+        <v>76.04476793795078</v>
       </c>
       <c r="D61" t="n">
-        <v>76.48289131289198</v>
+        <v>76.30469579278764</v>
       </c>
       <c r="E61" t="n">
-        <v>82.32027608285223</v>
+        <v>82.37850670228104</v>
       </c>
       <c r="F61" t="n">
-        <v>82.64923614096051</v>
+        <v>82.49795397847599</v>
       </c>
       <c r="G61" t="n">
-        <v>76.36743318311674</v>
+        <v>76.29189481134065</v>
       </c>
       <c r="H61" t="n">
-        <v>76.84589091824429</v>
+        <v>76.49453748254395</v>
       </c>
       <c r="I61" t="n">
-        <v>76.30716550604889</v>
+        <v>76.26708945520348</v>
       </c>
       <c r="J61" t="n">
-        <v>76.30183194053518</v>
+        <v>76.19638784294682</v>
       </c>
       <c r="K61" t="n">
-        <v>76.48148355735442</v>
+        <v>76.31883424736159</v>
       </c>
       <c r="L61" t="n">
-        <v>76.33058319168592</v>
+        <v>76.23018129233846</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>78.25820024228184</v>
+        <v>78.32637883397653</v>
       </c>
       <c r="C62" t="n">
-        <v>78.03705119145494</v>
+        <v>78.13483630587396</v>
       </c>
       <c r="D62" t="n">
-        <v>78.65505374743354</v>
+        <v>78.69440330549307</v>
       </c>
       <c r="E62" t="n">
-        <v>83.75887906272325</v>
+        <v>86.02735716580381</v>
       </c>
       <c r="F62" t="n">
-        <v>85.81759290592626</v>
+        <v>86.65739385389274</v>
       </c>
       <c r="G62" t="n">
-        <v>78.39780885096572</v>
+        <v>78.53371358097972</v>
       </c>
       <c r="H62" t="n">
-        <v>78.87839425009912</v>
+        <v>78.92598386097536</v>
       </c>
       <c r="I62" t="n">
-        <v>78.34697646087071</v>
+        <v>78.41728074902804</v>
       </c>
       <c r="J62" t="n">
-        <v>78.4581116174212</v>
+        <v>78.49749109506826</v>
       </c>
       <c r="K62" t="n">
-        <v>78.13184553871872</v>
+        <v>78.36015999418153</v>
       </c>
       <c r="L62" t="n">
-        <v>78.23395642271345</v>
+        <v>78.20937147440124</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>76.8312214990509</v>
+        <v>76.67084029505668</v>
       </c>
       <c r="C63" t="n">
-        <v>76.56759530558566</v>
+        <v>76.52641856846424</v>
       </c>
       <c r="D63" t="n">
-        <v>76.90698351733016</v>
+        <v>76.62869919185808</v>
       </c>
       <c r="E63" t="n">
-        <v>82.58978643701738</v>
+        <v>82.6487791414079</v>
       </c>
       <c r="F63" t="n">
-        <v>83.09799803798326</v>
+        <v>82.95408448801129</v>
       </c>
       <c r="G63" t="n">
-        <v>77.14787500392019</v>
+        <v>76.81453311410016</v>
       </c>
       <c r="H63" t="n">
-        <v>77.33061305317635</v>
+        <v>77.01630112654924</v>
       </c>
       <c r="I63" t="n">
-        <v>76.84977927447511</v>
+        <v>76.74599514946772</v>
       </c>
       <c r="J63" t="n">
-        <v>76.96759691178099</v>
+        <v>76.69679707964774</v>
       </c>
       <c r="K63" t="n">
-        <v>77.06017994986385</v>
+        <v>76.79972195919321</v>
       </c>
       <c r="L63" t="n">
-        <v>76.99717768571007</v>
+        <v>76.63199105673972</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>76.54766316817428</v>
+        <v>76.50298923208713</v>
       </c>
       <c r="C64" t="n">
-        <v>76.30617227069499</v>
+        <v>76.23904061948429</v>
       </c>
       <c r="D64" t="n">
-        <v>76.72072639539455</v>
+        <v>76.44291409148678</v>
       </c>
       <c r="E64" t="n">
-        <v>82.41233122102153</v>
+        <v>82.47356611023085</v>
       </c>
       <c r="F64" t="n">
-        <v>82.85569777643664</v>
+        <v>82.76501783482134</v>
       </c>
       <c r="G64" t="n">
-        <v>76.84271704316201</v>
+        <v>76.47049730972439</v>
       </c>
       <c r="H64" t="n">
-        <v>77.13885148561103</v>
+        <v>76.77794198626609</v>
       </c>
       <c r="I64" t="n">
-        <v>76.5938418491823</v>
+        <v>76.4621959461948</v>
       </c>
       <c r="J64" t="n">
-        <v>76.56476078319398</v>
+        <v>76.39861673162528</v>
       </c>
       <c r="K64" t="n">
-        <v>76.81355941155333</v>
+        <v>76.5784037637456</v>
       </c>
       <c r="L64" t="n">
-        <v>76.58463573422057</v>
+        <v>76.42700982883201</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>76.45679177566642</v>
+        <v>76.4342868650907</v>
       </c>
       <c r="C65" t="n">
-        <v>76.19147771364324</v>
+        <v>76.12995414226022</v>
       </c>
       <c r="D65" t="n">
-        <v>76.64629907645056</v>
+        <v>76.35073721640343</v>
       </c>
       <c r="E65" t="n">
-        <v>82.31867632580901</v>
+        <v>82.38289673608085</v>
       </c>
       <c r="F65" t="n">
-        <v>82.73218958130462</v>
+        <v>82.63871499340767</v>
       </c>
       <c r="G65" t="n">
-        <v>76.64250392407929</v>
+        <v>76.4495353239169</v>
       </c>
       <c r="H65" t="n">
-        <v>77.02518149937866</v>
+        <v>76.60931221468653</v>
       </c>
       <c r="I65" t="n">
-        <v>76.49369952334467</v>
+        <v>76.4026826940207</v>
       </c>
       <c r="J65" t="n">
-        <v>76.41271008297349</v>
+        <v>76.33190811690638</v>
       </c>
       <c r="K65" t="n">
-        <v>76.63962010315419</v>
+        <v>76.43498615721268</v>
       </c>
       <c r="L65" t="n">
-        <v>76.45265424984282</v>
+        <v>76.32579865418013</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>76.37000760361697</v>
+        <v>76.30833110328078</v>
       </c>
       <c r="C66" t="n">
-        <v>76.11770753002781</v>
+        <v>76.08394849585339</v>
       </c>
       <c r="D66" t="n">
-        <v>76.59633462794798</v>
+        <v>76.29689533474168</v>
       </c>
       <c r="E66" t="n">
-        <v>82.25452059351537</v>
+        <v>82.31514531841901</v>
       </c>
       <c r="F66" t="n">
-        <v>82.66522038371049</v>
+        <v>82.55745195357946</v>
       </c>
       <c r="G66" t="n">
-        <v>76.44818981550956</v>
+        <v>76.38748927337504</v>
       </c>
       <c r="H66" t="n">
-        <v>76.96596187694925</v>
+        <v>76.53494735548821</v>
       </c>
       <c r="I66" t="n">
-        <v>76.36936048525027</v>
+        <v>76.31946388517775</v>
       </c>
       <c r="J66" t="n">
-        <v>76.285725632793</v>
+        <v>76.23785881070492</v>
       </c>
       <c r="K66" t="n">
-        <v>76.59227137369582</v>
+        <v>76.37032445714711</v>
       </c>
       <c r="L66" t="n">
-        <v>76.39218102985227</v>
+        <v>76.27045028588847</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>78.52109285798915</v>
+        <v>78.57015345593558</v>
       </c>
       <c r="C67" t="n">
-        <v>78.18235888063963</v>
+        <v>78.23768055259907</v>
       </c>
       <c r="D67" t="n">
-        <v>78.73532697319986</v>
+        <v>78.89572359018575</v>
       </c>
       <c r="E67" t="n">
-        <v>83.90412176315705</v>
+        <v>86.59158114381245</v>
       </c>
       <c r="F67" t="n">
-        <v>86.17074606772732</v>
+        <v>87.13963904791596</v>
       </c>
       <c r="G67" t="n">
-        <v>78.5588424040053</v>
+        <v>78.69643465458368</v>
       </c>
       <c r="H67" t="n">
-        <v>79.03074947474903</v>
+        <v>79.08751163738816</v>
       </c>
       <c r="I67" t="n">
-        <v>78.5370077360635</v>
+        <v>78.59376078870616</v>
       </c>
       <c r="J67" t="n">
-        <v>78.63080205640078</v>
+        <v>78.66601455032492</v>
       </c>
       <c r="K67" t="n">
-        <v>78.43405279921495</v>
+        <v>78.61049574591084</v>
       </c>
       <c r="L67" t="n">
-        <v>78.43285914920992</v>
+        <v>78.46856840193587</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>76.93842295108767</v>
+        <v>76.7141225176633</v>
       </c>
       <c r="C68" t="n">
-        <v>76.6271711373314</v>
+        <v>76.5510157428406</v>
       </c>
       <c r="D68" t="n">
-        <v>77.0038085446833</v>
+        <v>76.65495954990571</v>
       </c>
       <c r="E68" t="n">
-        <v>82.64401561647914</v>
+        <v>82.69348694531921</v>
       </c>
       <c r="F68" t="n">
-        <v>83.14342800920437</v>
+        <v>82.96390435953612</v>
       </c>
       <c r="G68" t="n">
-        <v>77.26663353179248</v>
+        <v>76.81261727841951</v>
       </c>
       <c r="H68" t="n">
-        <v>77.36527141256708</v>
+        <v>76.97474988084625</v>
       </c>
       <c r="I68" t="n">
-        <v>76.96156024317938</v>
+        <v>76.79764154682316</v>
       </c>
       <c r="J68" t="n">
-        <v>77.0573115155874</v>
+        <v>76.7571063486464</v>
       </c>
       <c r="K68" t="n">
-        <v>77.16316718844817</v>
+        <v>76.87869683887884</v>
       </c>
       <c r="L68" t="n">
-        <v>77.00623753345994</v>
+        <v>76.6864733257373</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>76.64026214189802</v>
+        <v>76.49822767480985</v>
       </c>
       <c r="C69" t="n">
-        <v>76.32444890725033</v>
+        <v>76.26440424103437</v>
       </c>
       <c r="D69" t="n">
-        <v>76.76960134927762</v>
+        <v>76.41429866360392</v>
       </c>
       <c r="E69" t="n">
-        <v>82.44586407628094</v>
+        <v>82.50505689566468</v>
       </c>
       <c r="F69" t="n">
-        <v>82.86085055296164</v>
+        <v>82.75865777867729</v>
       </c>
       <c r="G69" t="n">
-        <v>76.95240800928377</v>
+        <v>76.52531032873311</v>
       </c>
       <c r="H69" t="n">
-        <v>77.11697001596018</v>
+        <v>76.75594576284904</v>
       </c>
       <c r="I69" t="n">
-        <v>76.6284015510624</v>
+        <v>76.52767249207328</v>
       </c>
       <c r="J69" t="n">
-        <v>76.61054470364367</v>
+        <v>76.43685057409</v>
       </c>
       <c r="K69" t="n">
-        <v>76.82744708573583</v>
+        <v>76.57350303566292</v>
       </c>
       <c r="L69" t="n">
-        <v>76.64770883093804</v>
+        <v>76.46267110253886</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>76.4663308594602</v>
+        <v>76.3972292421472</v>
       </c>
       <c r="C70" t="n">
-        <v>76.19500260495431</v>
+        <v>76.19113935550131</v>
       </c>
       <c r="D70" t="n">
-        <v>76.67897947243705</v>
+        <v>76.30915265847801</v>
       </c>
       <c r="E70" t="n">
-        <v>82.35387814595866</v>
+        <v>82.40677883178229</v>
       </c>
       <c r="F70" t="n">
-        <v>82.7260812954171</v>
+        <v>82.61949945719272</v>
       </c>
       <c r="G70" t="n">
-        <v>76.68126378543347</v>
+        <v>76.41885859033235</v>
       </c>
       <c r="H70" t="n">
-        <v>76.96937650438838</v>
+        <v>76.58469877198765</v>
       </c>
       <c r="I70" t="n">
-        <v>76.4188626808795</v>
+        <v>76.39447999813207</v>
       </c>
       <c r="J70" t="n">
-        <v>76.44163094220946</v>
+        <v>76.33727877005869</v>
       </c>
       <c r="K70" t="n">
-        <v>76.64512391229407</v>
+        <v>76.41910334818517</v>
       </c>
       <c r="L70" t="n">
-        <v>76.47998775513906</v>
+        <v>76.3386974314782</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>76.34719098030976</v>
+        <v>76.31854644333188</v>
       </c>
       <c r="C71" t="n">
-        <v>76.13255556108909</v>
+        <v>76.11538962053442</v>
       </c>
       <c r="D71" t="n">
-        <v>76.60001357495767</v>
+        <v>76.2854816659422</v>
       </c>
       <c r="E71" t="n">
-        <v>82.27438488101825</v>
+        <v>82.34588544073078</v>
       </c>
       <c r="F71" t="n">
-        <v>82.64334426666036</v>
+        <v>82.53742718734784</v>
       </c>
       <c r="G71" t="n">
-        <v>76.4744074219759</v>
+        <v>76.48805445086614</v>
       </c>
       <c r="H71" t="n">
-        <v>76.89292094031846</v>
+        <v>76.55982400700989</v>
       </c>
       <c r="I71" t="n">
-        <v>76.31453183416926</v>
+        <v>76.29702128339291</v>
       </c>
       <c r="J71" t="n">
-        <v>76.326243101617</v>
+        <v>76.24411683132045</v>
       </c>
       <c r="K71" t="n">
-        <v>76.55746400433958</v>
+        <v>76.38138904131861</v>
       </c>
       <c r="L71" t="n">
-        <v>76.38613848904933</v>
+        <v>76.25024091683392</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>78.57636509814294</v>
+        <v>78.67514470643671</v>
       </c>
       <c r="C72" t="n">
-        <v>78.56797230869422</v>
+        <v>78.59553401858155</v>
       </c>
       <c r="D72" t="n">
-        <v>79.08479892569076</v>
+        <v>79.14501529828806</v>
       </c>
       <c r="E72" t="n">
-        <v>84.11348711150421</v>
+        <v>87.1440346762259</v>
       </c>
       <c r="F72" t="n">
-        <v>86.56760218432066</v>
+        <v>87.80369426783297</v>
       </c>
       <c r="G72" t="n">
-        <v>78.65155714083835</v>
+        <v>78.79496438010609</v>
       </c>
       <c r="H72" t="n">
-        <v>79.19513308007228</v>
+        <v>79.25115937167702</v>
       </c>
       <c r="I72" t="n">
-        <v>78.8515281699745</v>
+        <v>78.90535625519979</v>
       </c>
       <c r="J72" t="n">
-        <v>78.84027895396687</v>
+        <v>78.88246071638494</v>
       </c>
       <c r="K72" t="n">
-        <v>78.80104019347165</v>
+        <v>78.97914409189991</v>
       </c>
       <c r="L72" t="n">
-        <v>78.80722258961595</v>
+        <v>78.8673245081911</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>76.95474747903801</v>
+        <v>76.75819721358046</v>
       </c>
       <c r="C73" t="n">
-        <v>76.7105811705615</v>
+        <v>76.62157358040514</v>
       </c>
       <c r="D73" t="n">
-        <v>77.09249607139746</v>
+        <v>76.68642256979162</v>
       </c>
       <c r="E73" t="n">
-        <v>82.67138402041623</v>
+        <v>82.73393002715046</v>
       </c>
       <c r="F73" t="n">
-        <v>83.20109523465773</v>
+        <v>82.99136210327005</v>
       </c>
       <c r="G73" t="n">
-        <v>77.35718625775584</v>
+        <v>76.87447433949008</v>
       </c>
       <c r="H73" t="n">
-        <v>77.41620714840374</v>
+        <v>77.01198965651223</v>
       </c>
       <c r="I73" t="n">
-        <v>77.02989609746595</v>
+        <v>76.86074893202776</v>
       </c>
       <c r="J73" t="n">
-        <v>77.09829270948894</v>
+        <v>76.78267131581178</v>
       </c>
       <c r="K73" t="n">
-        <v>77.20297034045376</v>
+        <v>76.88516657027817</v>
       </c>
       <c r="L73" t="n">
-        <v>77.10926821970263</v>
+        <v>76.75409094337502</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>76.62559929023818</v>
+        <v>76.47669438085111</v>
       </c>
       <c r="C74" t="n">
-        <v>76.37023614032881</v>
+        <v>76.31794291626159</v>
       </c>
       <c r="D74" t="n">
-        <v>76.83231089642001</v>
+        <v>76.43145253258137</v>
       </c>
       <c r="E74" t="n">
-        <v>82.46683519381351</v>
+        <v>82.53753230832601</v>
       </c>
       <c r="F74" t="n">
-        <v>82.87475596397908</v>
+        <v>82.76199084618605</v>
       </c>
       <c r="G74" t="n">
-        <v>76.85702193052462</v>
+        <v>76.60458925098018</v>
       </c>
       <c r="H74" t="n">
-        <v>77.16419338693632</v>
+        <v>76.79607891680655</v>
       </c>
       <c r="I74" t="n">
-        <v>76.7366899984102</v>
+        <v>76.5607184958664</v>
       </c>
       <c r="J74" t="n">
-        <v>76.6216593013559</v>
+        <v>76.50128867212064</v>
       </c>
       <c r="K74" t="n">
-        <v>76.91398301661505</v>
+        <v>76.60884068425828</v>
       </c>
       <c r="L74" t="n">
-        <v>76.70495960825909</v>
+        <v>76.50713396445101</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>76.45808216456663</v>
+        <v>76.39679917648566</v>
       </c>
       <c r="C75" t="n">
-        <v>76.24561150416375</v>
+        <v>76.19801066814459</v>
       </c>
       <c r="D75" t="n">
-        <v>76.7064489961878</v>
+        <v>76.33710816039923</v>
       </c>
       <c r="E75" t="n">
-        <v>82.37312476265275</v>
+        <v>82.42609516127527</v>
       </c>
       <c r="F75" t="n">
-        <v>82.73846422305365</v>
+        <v>82.62718230627711</v>
       </c>
       <c r="G75" t="n">
-        <v>76.6840913360553</v>
+        <v>76.38510335257669</v>
       </c>
       <c r="H75" t="n">
-        <v>76.96102029722479</v>
+        <v>76.61203626926212</v>
       </c>
       <c r="I75" t="n">
-        <v>76.51427690899914</v>
+        <v>76.42860433295496</v>
       </c>
       <c r="J75" t="n">
-        <v>76.40175701178498</v>
+        <v>76.36766562700132</v>
       </c>
       <c r="K75" t="n">
-        <v>76.7134366348825</v>
+        <v>76.43612360270878</v>
       </c>
       <c r="L75" t="n">
-        <v>76.53961968149383</v>
+        <v>76.36819052431986</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>DWT_Trivial</t>
+          <t>FFT_Trivial</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>76.38889125787682</v>
+        <v>76.34754976583065</v>
       </c>
       <c r="C76" t="n">
-        <v>76.14938721688088</v>
+        <v>76.13108014776112</v>
       </c>
       <c r="D76" t="n">
-        <v>76.64046445757074</v>
+        <v>76.29987864741422</v>
       </c>
       <c r="E76" t="n">
-        <v>82.29702945930359</v>
+        <v>82.35609664484153</v>
       </c>
       <c r="F76" t="n">
-        <v>82.64308365082874</v>
+        <v>82.54833462169242</v>
       </c>
       <c r="G76" t="n">
-        <v>76.60756880461433</v>
+        <v>76.26349967144699</v>
       </c>
       <c r="H76" t="n">
-        <v>76.90398347912149</v>
+        <v>76.5320248914674</v>
       </c>
       <c r="I76" t="n">
-        <v>76.4169166973191</v>
+        <v>76.39891124852328</v>
       </c>
       <c r="J76" t="n">
-        <v>76.30150942738541</v>
+        <v>76.31640849667934</v>
       </c>
       <c r="K76" t="n">
-        <v>76.67704652843014</v>
+        <v>76.35549624345236</v>
       </c>
       <c r="L76" t="n">
-        <v>76.44089974412934</v>
+        <v>76.3225014207612</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/results/report.xlsx
+++ b/dataset/results/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,3053 +441,4853 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Parrots.tif</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lena256.tif</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>boats.tif</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>foreman.tif</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>house.tif</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>fingerprint.tif</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>flinstones.tif</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>peppers256.tif</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Monarch.tif</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cameraman.tif</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>fingerprint.tif</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>flinstones.tif</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>foreman.tif</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>house.tif</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>lena256.tif</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Monarch.tif</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Parrots.tif</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>peppers256.tif</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86.79695052874959</v>
+        <v>79.03062258899521</v>
       </c>
       <c r="C2" t="n">
-        <v>87.86976341125609</v>
+        <v>80.16273734942159</v>
       </c>
       <c r="D2" t="n">
-        <v>90.52094929565689</v>
+        <v>79.64430071388944</v>
       </c>
       <c r="E2" t="n">
-        <v>98.54755043945866</v>
+        <v>78.93435634197293</v>
       </c>
       <c r="F2" t="n">
-        <v>99.80254125130918</v>
+        <v>80.25593321655299</v>
       </c>
       <c r="G2" t="n">
-        <v>89.78180638888108</v>
+        <v>78.99141632403266</v>
       </c>
       <c r="H2" t="n">
-        <v>89.91635975386289</v>
+        <v>83.06632939719859</v>
       </c>
       <c r="I2" t="n">
-        <v>88.13128626319872</v>
+        <v>83.51801414053939</v>
       </c>
       <c r="J2" t="n">
-        <v>88.24370704078393</v>
+        <v>79.60691370015427</v>
       </c>
       <c r="K2" t="n">
-        <v>87.37610823150214</v>
+        <v>79.24803648451993</v>
       </c>
       <c r="L2" t="n">
-        <v>87.33467117936043</v>
+        <v>78.07632640170399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.55349948082343</v>
+        <v>77.84595281350863</v>
       </c>
       <c r="C3" t="n">
-        <v>77.76547334509618</v>
+        <v>79.3201460063289</v>
       </c>
       <c r="D3" t="n">
-        <v>77.72760290867211</v>
+        <v>78.55015928396314</v>
       </c>
       <c r="E3" t="n">
-        <v>82.81199709627103</v>
+        <v>77.8817870677692</v>
       </c>
       <c r="F3" t="n">
-        <v>83.24800102515839</v>
+        <v>79.5175396774184</v>
       </c>
       <c r="G3" t="n">
-        <v>78.45814868856803</v>
+        <v>78.57977587320482</v>
       </c>
       <c r="H3" t="n">
-        <v>78.18914113074014</v>
+        <v>82.93746563774184</v>
       </c>
       <c r="I3" t="n">
-        <v>77.75192156768934</v>
+        <v>83.15000354412734</v>
       </c>
       <c r="J3" t="n">
-        <v>77.6302823519825</v>
+        <v>78.56533514313095</v>
       </c>
       <c r="K3" t="n">
-        <v>78.4087960559677</v>
+        <v>78.05571804236394</v>
       </c>
       <c r="L3" t="n">
-        <v>77.89568285047159</v>
+        <v>77.58476126382304</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.82631547598666</v>
+        <v>77.40908587842564</v>
       </c>
       <c r="C4" t="n">
-        <v>77.12914087585942</v>
+        <v>78.98516692757914</v>
       </c>
       <c r="D4" t="n">
-        <v>77.3971843403195</v>
+        <v>78.12272610395968</v>
       </c>
       <c r="E4" t="n">
-        <v>82.56719943282732</v>
+        <v>77.50249833470215</v>
       </c>
       <c r="F4" t="n">
-        <v>83.13877166650411</v>
+        <v>78.99667978626441</v>
       </c>
       <c r="G4" t="n">
-        <v>77.70284511988069</v>
+        <v>78.2952395892717</v>
       </c>
       <c r="H4" t="n">
-        <v>77.9148011053441</v>
+        <v>82.8810986437521</v>
       </c>
       <c r="I4" t="n">
-        <v>77.21074372677018</v>
+        <v>82.99708154741455</v>
       </c>
       <c r="J4" t="n">
-        <v>76.89173869538097</v>
+        <v>78.11195619648436</v>
       </c>
       <c r="K4" t="n">
-        <v>77.64878069726882</v>
+        <v>77.59330504318524</v>
       </c>
       <c r="L4" t="n">
-        <v>77.22690961158713</v>
+        <v>77.31711719981399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76.6176764933299</v>
+        <v>77.2436700413767</v>
       </c>
       <c r="C5" t="n">
-        <v>76.85742691727698</v>
+        <v>78.80057533463908</v>
       </c>
       <c r="D5" t="n">
-        <v>77.29666967052262</v>
+        <v>77.83811702423051</v>
       </c>
       <c r="E5" t="n">
-        <v>82.44594908120959</v>
+        <v>77.35294051059898</v>
       </c>
       <c r="F5" t="n">
-        <v>83.12599959291596</v>
+        <v>78.77881929668121</v>
       </c>
       <c r="G5" t="n">
-        <v>77.4684487741395</v>
+        <v>78.13519258321054</v>
       </c>
       <c r="H5" t="n">
-        <v>77.76212718106831</v>
+        <v>82.80201152249701</v>
       </c>
       <c r="I5" t="n">
-        <v>77.00237192194366</v>
+        <v>82.91317070829068</v>
       </c>
       <c r="J5" t="n">
-        <v>76.64694425897017</v>
+        <v>77.85845858576056</v>
       </c>
       <c r="K5" t="n">
-        <v>77.4931147848956</v>
+        <v>77.33488331925801</v>
       </c>
       <c r="L5" t="n">
-        <v>76.9423889281303</v>
+        <v>76.99930138924582</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76.49530066553227</v>
+        <v>77.1879908980352</v>
       </c>
       <c r="C6" t="n">
-        <v>76.79580378553945</v>
+        <v>78.65992700379931</v>
       </c>
       <c r="D6" t="n">
-        <v>77.00559367619883</v>
+        <v>77.68061358747835</v>
       </c>
       <c r="E6" t="n">
-        <v>82.38926788646795</v>
+        <v>77.26092740619401</v>
       </c>
       <c r="F6" t="n">
-        <v>83.1662311819251</v>
+        <v>78.61232327186798</v>
       </c>
       <c r="G6" t="n">
-        <v>77.38720135383116</v>
+        <v>77.97373288054169</v>
       </c>
       <c r="H6" t="n">
-        <v>77.71957192687469</v>
+        <v>82.72455274432576</v>
       </c>
       <c r="I6" t="n">
-        <v>76.84266367632372</v>
+        <v>82.87951323685982</v>
       </c>
       <c r="J6" t="n">
-        <v>76.5223796780182</v>
+        <v>77.67826046775204</v>
       </c>
       <c r="K6" t="n">
-        <v>77.36655764993176</v>
+        <v>77.18191651905445</v>
       </c>
       <c r="L6" t="n">
-        <v>76.809946523907</v>
+        <v>76.78122225861678</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85.05625848232722</v>
+        <v>77.10253754098092</v>
       </c>
       <c r="C7" t="n">
-        <v>84.78963298947428</v>
+        <v>78.5456022739225</v>
       </c>
       <c r="D7" t="n">
-        <v>87.4642533520835</v>
+        <v>77.5950556820209</v>
       </c>
       <c r="E7" t="n">
-        <v>95.19677514889716</v>
+        <v>77.13885872783764</v>
       </c>
       <c r="F7" t="n">
-        <v>97.11245391340704</v>
+        <v>78.47347852925651</v>
       </c>
       <c r="G7" t="n">
-        <v>85.57625946788778</v>
+        <v>77.84590357099067</v>
       </c>
       <c r="H7" t="n">
-        <v>86.68951396373744</v>
+        <v>82.6347101174897</v>
       </c>
       <c r="I7" t="n">
-        <v>85.38213040756432</v>
+        <v>82.86125642041073</v>
       </c>
       <c r="J7" t="n">
-        <v>85.62365729938256</v>
+        <v>77.53332246440681</v>
       </c>
       <c r="K7" t="n">
-        <v>85.38634773805846</v>
+        <v>77.12887111187602</v>
       </c>
       <c r="L7" t="n">
-        <v>84.36312350076356</v>
+        <v>76.70783178015125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77.8277616603976</v>
+        <v>77.09267918925066</v>
       </c>
       <c r="C8" t="n">
-        <v>77.62008938102386</v>
+        <v>78.48517691594677</v>
       </c>
       <c r="D8" t="n">
-        <v>77.57545472979329</v>
+        <v>77.45730143729942</v>
       </c>
       <c r="E8" t="n">
-        <v>82.86151956899702</v>
+        <v>77.08437420547223</v>
       </c>
       <c r="F8" t="n">
-        <v>83.02459118957252</v>
+        <v>78.30697345099969</v>
       </c>
       <c r="G8" t="n">
-        <v>78.13067650234532</v>
+        <v>77.68550343959309</v>
       </c>
       <c r="H8" t="n">
-        <v>78.2490882668281</v>
+        <v>82.55738049968696</v>
       </c>
       <c r="I8" t="n">
-        <v>77.88107960167609</v>
+        <v>82.87223730057713</v>
       </c>
       <c r="J8" t="n">
-        <v>77.64124181344133</v>
+        <v>77.48153656219213</v>
       </c>
       <c r="K8" t="n">
-        <v>78.21376197649516</v>
+        <v>77.04440451448265</v>
       </c>
       <c r="L8" t="n">
-        <v>77.7915689528602</v>
+        <v>76.67892011803679</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76.96896326440586</v>
+        <v>77.04292764019714</v>
       </c>
       <c r="C9" t="n">
-        <v>76.99771903021073</v>
+        <v>78.4060210611844</v>
       </c>
       <c r="D9" t="n">
-        <v>77.33917632715547</v>
+        <v>77.35808584017198</v>
       </c>
       <c r="E9" t="n">
-        <v>82.6238267672839</v>
+        <v>77.04214374681798</v>
       </c>
       <c r="F9" t="n">
-        <v>82.77495764995363</v>
+        <v>78.2375302824791</v>
       </c>
       <c r="G9" t="n">
-        <v>77.52012799662641</v>
+        <v>77.60883518347551</v>
       </c>
       <c r="H9" t="n">
-        <v>77.64297664070111</v>
+        <v>82.48469197457746</v>
       </c>
       <c r="I9" t="n">
-        <v>77.13997497979759</v>
+        <v>82.86914784948564</v>
       </c>
       <c r="J9" t="n">
-        <v>76.91100715632953</v>
+        <v>77.3982024385498</v>
       </c>
       <c r="K9" t="n">
-        <v>77.5662435677858</v>
+        <v>76.98587395148817</v>
       </c>
       <c r="L9" t="n">
-        <v>77.14088944175028</v>
+        <v>76.64217734410602</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>76.65953946941009</v>
+        <v>79.23120872199151</v>
       </c>
       <c r="C10" t="n">
-        <v>76.76911209148629</v>
+        <v>79.7453537759238</v>
       </c>
       <c r="D10" t="n">
-        <v>77.25492626268928</v>
+        <v>79.70316747301881</v>
       </c>
       <c r="E10" t="n">
-        <v>82.50473437349116</v>
+        <v>78.7938428229867</v>
       </c>
       <c r="F10" t="n">
-        <v>82.67204173745854</v>
+        <v>79.84128906629138</v>
       </c>
       <c r="G10" t="n">
-        <v>77.38876258694177</v>
+        <v>78.91416857386146</v>
       </c>
       <c r="H10" t="n">
-        <v>77.70337567888876</v>
+        <v>83.07336795855149</v>
       </c>
       <c r="I10" t="n">
-        <v>76.94781678304213</v>
+        <v>83.35046914955805</v>
       </c>
       <c r="J10" t="n">
-        <v>76.66640506501338</v>
+        <v>79.18122519334966</v>
       </c>
       <c r="K10" t="n">
-        <v>77.28690150274188</v>
+        <v>79.0079646034861</v>
       </c>
       <c r="L10" t="n">
-        <v>76.85580644289318</v>
+        <v>77.97936178715953</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>76.50908182460428</v>
+        <v>77.93186776997381</v>
       </c>
       <c r="C11" t="n">
-        <v>76.68209671821349</v>
+        <v>78.81346941350694</v>
       </c>
       <c r="D11" t="n">
-        <v>77.20105243037692</v>
+        <v>78.41259987048241</v>
       </c>
       <c r="E11" t="n">
-        <v>82.43260185904468</v>
+        <v>77.71516731947824</v>
       </c>
       <c r="F11" t="n">
-        <v>82.64089198862484</v>
+        <v>78.92296968587856</v>
       </c>
       <c r="G11" t="n">
-        <v>77.20584184838442</v>
+        <v>78.32080068473557</v>
       </c>
       <c r="H11" t="n">
-        <v>77.54572901201045</v>
+        <v>82.84849249677386</v>
       </c>
       <c r="I11" t="n">
-        <v>76.77705715196362</v>
+        <v>83.00771368388018</v>
       </c>
       <c r="J11" t="n">
-        <v>76.53362832823105</v>
+        <v>78.27431462708159</v>
       </c>
       <c r="K11" t="n">
-        <v>77.12327969254063</v>
+        <v>77.91693847491592</v>
       </c>
       <c r="L11" t="n">
-        <v>76.68422685549746</v>
+        <v>77.43881549473329</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>81.99302156040589</v>
+        <v>77.42801736545391</v>
       </c>
       <c r="C12" t="n">
-        <v>82.21177614400978</v>
+        <v>78.52284661866035</v>
       </c>
       <c r="D12" t="n">
-        <v>83.46527047967164</v>
+        <v>77.87149006225449</v>
       </c>
       <c r="E12" t="n">
-        <v>92.26313781019019</v>
+        <v>77.36700118066597</v>
       </c>
       <c r="F12" t="n">
-        <v>94.25907957571668</v>
+        <v>78.50154742705024</v>
       </c>
       <c r="G12" t="n">
-        <v>82.4635523954146</v>
+        <v>78.10881714729163</v>
       </c>
       <c r="H12" t="n">
-        <v>83.6578398112505</v>
+        <v>82.75712542251713</v>
       </c>
       <c r="I12" t="n">
-        <v>82.68008245516755</v>
+        <v>82.82642525199532</v>
       </c>
       <c r="J12" t="n">
-        <v>82.48258653172654</v>
+        <v>77.77286243087636</v>
       </c>
       <c r="K12" t="n">
-        <v>82.91299545614828</v>
+        <v>77.45265570230706</v>
       </c>
       <c r="L12" t="n">
-        <v>82.21104904815584</v>
+        <v>77.31704509725887</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.55809843040322</v>
+        <v>77.14954046664107</v>
       </c>
       <c r="C13" t="n">
-        <v>77.36252131298961</v>
+        <v>78.23421219263669</v>
       </c>
       <c r="D13" t="n">
-        <v>77.28913426605114</v>
+        <v>77.54461831211269</v>
       </c>
       <c r="E13" t="n">
-        <v>82.87789315058619</v>
+        <v>77.11057275637059</v>
       </c>
       <c r="F13" t="n">
-        <v>82.99168260964674</v>
+        <v>78.00664332390933</v>
       </c>
       <c r="G13" t="n">
-        <v>77.69619984027923</v>
+        <v>77.94362221024605</v>
       </c>
       <c r="H13" t="n">
-        <v>77.91712810779751</v>
+        <v>82.66684546831436</v>
       </c>
       <c r="I13" t="n">
-        <v>77.72358694241126</v>
+        <v>82.7712444550822</v>
       </c>
       <c r="J13" t="n">
-        <v>77.4146840372177</v>
+        <v>77.48927491741368</v>
       </c>
       <c r="K13" t="n">
-        <v>77.85203856092811</v>
+        <v>77.12464378740859</v>
       </c>
       <c r="L13" t="n">
-        <v>77.51928820258136</v>
+        <v>77.1836796454467</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>76.87072873701474</v>
+        <v>76.98609535648318</v>
       </c>
       <c r="C14" t="n">
-        <v>76.80090993766262</v>
+        <v>78.08130410852905</v>
       </c>
       <c r="D14" t="n">
-        <v>77.14190314175258</v>
+        <v>77.28602403537045</v>
       </c>
       <c r="E14" t="n">
-        <v>82.6280686782144</v>
+        <v>77.00951527083544</v>
       </c>
       <c r="F14" t="n">
-        <v>82.76414696688451</v>
+        <v>77.84917846734947</v>
       </c>
       <c r="G14" t="n">
-        <v>77.17474377581166</v>
+        <v>77.77820226424639</v>
       </c>
       <c r="H14" t="n">
-        <v>77.47125984771084</v>
+        <v>82.60863904764446</v>
       </c>
       <c r="I14" t="n">
-        <v>76.91937010816847</v>
+        <v>82.68689996546884</v>
       </c>
       <c r="J14" t="n">
-        <v>76.79687540854538</v>
+        <v>77.30394316260869</v>
       </c>
       <c r="K14" t="n">
-        <v>77.30706374792372</v>
+        <v>76.93453122121893</v>
       </c>
       <c r="L14" t="n">
-        <v>77.02196555311035</v>
+        <v>77.10598862570723</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>76.66304158632636</v>
+        <v>76.83133020158697</v>
       </c>
       <c r="C15" t="n">
-        <v>76.59198969911967</v>
+        <v>77.94729152585371</v>
       </c>
       <c r="D15" t="n">
-        <v>77.04935365638684</v>
+        <v>77.13262281650726</v>
       </c>
       <c r="E15" t="n">
-        <v>82.50218825833625</v>
+        <v>76.95885037614784</v>
       </c>
       <c r="F15" t="n">
-        <v>82.65660664282851</v>
+        <v>77.60808743373646</v>
       </c>
       <c r="G15" t="n">
-        <v>76.88448880656021</v>
+        <v>77.76317136096228</v>
       </c>
       <c r="H15" t="n">
-        <v>77.34829102231275</v>
+        <v>82.54546922589464</v>
       </c>
       <c r="I15" t="n">
-        <v>76.74197677326512</v>
+        <v>82.62943507765857</v>
       </c>
       <c r="J15" t="n">
-        <v>76.60058438227526</v>
+        <v>77.18954074070243</v>
       </c>
       <c r="K15" t="n">
-        <v>77.07823820215555</v>
+        <v>76.83346957130924</v>
       </c>
       <c r="L15" t="n">
-        <v>76.76708543674405</v>
+        <v>77.0489351008918</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>76.46841427453258</v>
+        <v>76.72936975437997</v>
       </c>
       <c r="C16" t="n">
-        <v>76.55412965982505</v>
+        <v>77.90371061808287</v>
       </c>
       <c r="D16" t="n">
-        <v>77.06401670602484</v>
+        <v>77.03139445184999</v>
       </c>
       <c r="E16" t="n">
-        <v>82.43428329893803</v>
+        <v>76.86550890258391</v>
       </c>
       <c r="F16" t="n">
-        <v>82.6037451417584</v>
+        <v>77.46776647095693</v>
       </c>
       <c r="G16" t="n">
-        <v>76.86759109417405</v>
+        <v>77.62026918198667</v>
       </c>
       <c r="H16" t="n">
-        <v>77.25879595147232</v>
+        <v>82.50487106183127</v>
       </c>
       <c r="I16" t="n">
-        <v>76.60472160056277</v>
+        <v>82.58508379675388</v>
       </c>
       <c r="J16" t="n">
-        <v>76.41679744472226</v>
+        <v>77.08126581242614</v>
       </c>
       <c r="K16" t="n">
-        <v>76.88265262118794</v>
+        <v>76.70639290728953</v>
       </c>
       <c r="L16" t="n">
-        <v>76.61224012547036</v>
+        <v>76.88726276661862</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.43142052589849</v>
+        <v>76.66681431447513</v>
       </c>
       <c r="C17" t="n">
-        <v>82.66791853700622</v>
+        <v>77.90337187306304</v>
       </c>
       <c r="D17" t="n">
-        <v>84.08907470313051</v>
+        <v>76.97134883527632</v>
       </c>
       <c r="E17" t="n">
-        <v>92.26313781019019</v>
+        <v>76.82561014774637</v>
       </c>
       <c r="F17" t="n">
-        <v>94.26401637903058</v>
+        <v>77.42831582826396</v>
       </c>
       <c r="G17" t="n">
-        <v>82.81214956282922</v>
+        <v>77.54973413108979</v>
       </c>
       <c r="H17" t="n">
-        <v>84.46438652863645</v>
+        <v>82.44290769123685</v>
       </c>
       <c r="I17" t="n">
-        <v>83.12978021874741</v>
+        <v>82.52624503937949</v>
       </c>
       <c r="J17" t="n">
-        <v>82.99817892729661</v>
+        <v>77.03383892275707</v>
       </c>
       <c r="K17" t="n">
-        <v>83.52942978021751</v>
+        <v>76.68491031476999</v>
       </c>
       <c r="L17" t="n">
-        <v>82.4877703611641</v>
+        <v>76.75124027963786</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>77.63851537902882</v>
+        <v>78.33335922720109</v>
       </c>
       <c r="C18" t="n">
-        <v>77.43002098606893</v>
+        <v>78.5045053782933</v>
       </c>
       <c r="D18" t="n">
-        <v>77.16974942632498</v>
+        <v>78.45299338652113</v>
       </c>
       <c r="E18" t="n">
-        <v>82.89764919355521</v>
+        <v>78.22828985853457</v>
       </c>
       <c r="F18" t="n">
-        <v>83.0082584382487</v>
+        <v>79.00447505572686</v>
       </c>
       <c r="G18" t="n">
-        <v>77.60825418691249</v>
+        <v>78.34385620894525</v>
       </c>
       <c r="H18" t="n">
-        <v>77.86500415269062</v>
+        <v>83.05530470342251</v>
       </c>
       <c r="I18" t="n">
-        <v>77.81603033661405</v>
+        <v>83.26457909651808</v>
       </c>
       <c r="J18" t="n">
-        <v>77.58853212889611</v>
+        <v>78.22300352732744</v>
       </c>
       <c r="K18" t="n">
-        <v>78.01619359314626</v>
+        <v>78.11481340474595</v>
       </c>
       <c r="L18" t="n">
-        <v>77.60501171713474</v>
+        <v>77.63502471904145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76.96044566454303</v>
+        <v>77.54294528784271</v>
       </c>
       <c r="C19" t="n">
-        <v>76.88248269947654</v>
+        <v>77.90655212638791</v>
       </c>
       <c r="D19" t="n">
-        <v>76.90985356604877</v>
+        <v>77.78288502694076</v>
       </c>
       <c r="E19" t="n">
-        <v>82.64909053979702</v>
+        <v>77.34984593040225</v>
       </c>
       <c r="F19" t="n">
-        <v>82.74644147996007</v>
+        <v>78.21692729136848</v>
       </c>
       <c r="G19" t="n">
-        <v>77.02594430383061</v>
+        <v>77.87468517652366</v>
       </c>
       <c r="H19" t="n">
-        <v>77.19542769188973</v>
+        <v>82.83165737304486</v>
       </c>
       <c r="I19" t="n">
-        <v>77.01875276922824</v>
+        <v>82.92355551340208</v>
       </c>
       <c r="J19" t="n">
-        <v>76.95742623088998</v>
+        <v>77.62864806662257</v>
       </c>
       <c r="K19" t="n">
-        <v>77.44757946554701</v>
+        <v>77.36941043697287</v>
       </c>
       <c r="L19" t="n">
-        <v>77.03915586083143</v>
+        <v>77.36534686356873</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.71375767291191</v>
+        <v>77.21949581732065</v>
       </c>
       <c r="C20" t="n">
-        <v>76.65211924379912</v>
+        <v>77.66399682301605</v>
       </c>
       <c r="D20" t="n">
-        <v>76.84252913467026</v>
+        <v>77.40494139677119</v>
       </c>
       <c r="E20" t="n">
-        <v>82.51947770459577</v>
+        <v>77.06925829023761</v>
       </c>
       <c r="F20" t="n">
-        <v>82.60985310522281</v>
+        <v>77.93327724254833</v>
       </c>
       <c r="G20" t="n">
-        <v>76.79284313782971</v>
+        <v>77.73299898983899</v>
       </c>
       <c r="H20" t="n">
-        <v>77.09096614484838</v>
+        <v>82.70987225993336</v>
       </c>
       <c r="I20" t="n">
-        <v>76.76833766917022</v>
+        <v>82.79741182404513</v>
       </c>
       <c r="J20" t="n">
-        <v>76.69019027280922</v>
+        <v>77.28681824395544</v>
       </c>
       <c r="K20" t="n">
-        <v>77.17017978946829</v>
+        <v>77.06023447715228</v>
       </c>
       <c r="L20" t="n">
-        <v>76.81836582787264</v>
+        <v>77.16881833451814</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>76.55591718058034</v>
+        <v>76.98554846779662</v>
       </c>
       <c r="C21" t="n">
-        <v>76.56191683617523</v>
+        <v>77.51299053267444</v>
       </c>
       <c r="D21" t="n">
-        <v>76.78594106768256</v>
+        <v>77.21017026059599</v>
       </c>
       <c r="E21" t="n">
-        <v>82.43141150932394</v>
+        <v>76.85560741281721</v>
       </c>
       <c r="F21" t="n">
-        <v>82.55298571885648</v>
+        <v>77.64995819025471</v>
       </c>
       <c r="G21" t="n">
-        <v>76.63682995146172</v>
+        <v>77.5632958226868</v>
       </c>
       <c r="H21" t="n">
-        <v>77.07732810905524</v>
+        <v>82.63096079001878</v>
       </c>
       <c r="I21" t="n">
-        <v>76.63313187380808</v>
+        <v>82.72765081807833</v>
       </c>
       <c r="J21" t="n">
-        <v>76.53560982071068</v>
+        <v>77.07672201509871</v>
       </c>
       <c r="K21" t="n">
-        <v>77.00180894536187</v>
+        <v>76.886604417065</v>
       </c>
       <c r="L21" t="n">
-        <v>76.66876870564731</v>
+        <v>77.03249990784894</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.55867994615008</v>
+        <v>76.83730327568108</v>
       </c>
       <c r="C22" t="n">
-        <v>81.57884485025933</v>
+        <v>77.38801343179992</v>
       </c>
       <c r="D22" t="n">
-        <v>82.26386287673455</v>
+        <v>77.05036276956831</v>
       </c>
       <c r="E22" t="n">
-        <v>89.46253424700373</v>
+        <v>76.80166934226419</v>
       </c>
       <c r="F22" t="n">
-        <v>91.08210845095023</v>
+        <v>77.45944336812693</v>
       </c>
       <c r="G22" t="n">
-        <v>81.77872168647249</v>
+        <v>77.46936562506251</v>
       </c>
       <c r="H22" t="n">
-        <v>82.47577511689957</v>
+        <v>82.57612132780159</v>
       </c>
       <c r="I22" t="n">
-        <v>81.94158281231047</v>
+        <v>82.65282637775323</v>
       </c>
       <c r="J22" t="n">
-        <v>81.85858842699353</v>
+        <v>76.98777684905528</v>
       </c>
       <c r="K22" t="n">
-        <v>82.1376014468519</v>
+        <v>76.74643696417293</v>
       </c>
       <c r="L22" t="n">
-        <v>81.72428818697192</v>
+        <v>77.03331976005688</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>77.4837924126011</v>
+        <v>76.67129909650886</v>
       </c>
       <c r="C23" t="n">
-        <v>77.27441471389754</v>
+        <v>77.32439985217434</v>
       </c>
       <c r="D23" t="n">
-        <v>77.26519925558406</v>
+        <v>76.92748628943561</v>
       </c>
       <c r="E23" t="n">
-        <v>82.87303632640734</v>
+        <v>76.71615307375311</v>
       </c>
       <c r="F23" t="n">
-        <v>83.04149068498558</v>
+        <v>77.21765827479415</v>
       </c>
       <c r="G23" t="n">
-        <v>77.38557083946465</v>
+        <v>77.42667582632171</v>
       </c>
       <c r="H23" t="n">
-        <v>77.85277261086885</v>
+        <v>82.50889647196713</v>
       </c>
       <c r="I23" t="n">
-        <v>77.56314853230262</v>
+        <v>82.6148241772497</v>
       </c>
       <c r="J23" t="n">
-        <v>77.33404155528893</v>
+        <v>76.90111349664025</v>
       </c>
       <c r="K23" t="n">
-        <v>77.78163268625758</v>
+        <v>76.64506070954157</v>
       </c>
       <c r="L23" t="n">
-        <v>77.36457546008275</v>
+        <v>76.88799564907002</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>76.83998640486172</v>
+        <v>76.58677031954456</v>
       </c>
       <c r="C24" t="n">
-        <v>76.75537332141386</v>
+        <v>77.29346314944294</v>
       </c>
       <c r="D24" t="n">
-        <v>76.90259626192972</v>
+        <v>76.81522544186808</v>
       </c>
       <c r="E24" t="n">
-        <v>82.61541853973441</v>
+        <v>76.71826127267121</v>
       </c>
       <c r="F24" t="n">
-        <v>82.79200615445014</v>
+        <v>77.20994122251585</v>
       </c>
       <c r="G24" t="n">
-        <v>76.89187096917804</v>
+        <v>77.38061830803944</v>
       </c>
       <c r="H24" t="n">
-        <v>77.32461149092886</v>
+        <v>82.46981581283745</v>
       </c>
       <c r="I24" t="n">
-        <v>76.91547859091318</v>
+        <v>82.55549370173614</v>
       </c>
       <c r="J24" t="n">
-        <v>76.80842718800081</v>
+        <v>76.82639260481213</v>
       </c>
       <c r="K24" t="n">
-        <v>77.27157799843825</v>
+        <v>76.58791916491104</v>
       </c>
       <c r="L24" t="n">
-        <v>76.88686789677672</v>
+        <v>76.89026951083498</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.57314769524348</v>
+        <v>76.53800632364495</v>
       </c>
       <c r="C25" t="n">
-        <v>76.53888301326585</v>
+        <v>77.20229256579591</v>
       </c>
       <c r="D25" t="n">
-        <v>76.7922420376342</v>
+        <v>76.68744868019438</v>
       </c>
       <c r="E25" t="n">
-        <v>82.49995316271237</v>
+        <v>76.64222327914554</v>
       </c>
       <c r="F25" t="n">
-        <v>82.6695023994739</v>
+        <v>77.15622729376862</v>
       </c>
       <c r="G25" t="n">
-        <v>76.66572378989828</v>
+        <v>77.40619664929669</v>
       </c>
       <c r="H25" t="n">
-        <v>77.23713128421034</v>
+        <v>82.43417298714932</v>
       </c>
       <c r="I25" t="n">
-        <v>76.55405581115784</v>
+        <v>82.52785946365634</v>
       </c>
       <c r="J25" t="n">
-        <v>76.5608100681131</v>
+        <v>76.74695676047911</v>
       </c>
       <c r="K25" t="n">
-        <v>77.0008890022053</v>
+        <v>76.49579541851713</v>
       </c>
       <c r="L25" t="n">
-        <v>76.66148986786693</v>
+        <v>76.84122226812748</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>76.48673642959326</v>
+        <v>79.22055218915364</v>
       </c>
       <c r="C26" t="n">
-        <v>76.42607006978105</v>
+        <v>79.51565871249468</v>
       </c>
       <c r="D26" t="n">
-        <v>76.8010320290519</v>
+        <v>79.5432227277558</v>
       </c>
       <c r="E26" t="n">
-        <v>82.40770339877199</v>
+        <v>78.7568107905406</v>
       </c>
       <c r="F26" t="n">
-        <v>82.58891701631427</v>
+        <v>79.47960388224917</v>
       </c>
       <c r="G26" t="n">
-        <v>76.61343779573066</v>
+        <v>79.12637941543935</v>
       </c>
       <c r="H26" t="n">
-        <v>77.10526992259493</v>
+        <v>83.07569741027423</v>
       </c>
       <c r="I26" t="n">
-        <v>76.54491882225827</v>
+        <v>83.28353023483859</v>
       </c>
       <c r="J26" t="n">
-        <v>76.46527850125105</v>
+        <v>79.02611557414784</v>
       </c>
       <c r="K26" t="n">
-        <v>76.82249295081147</v>
+        <v>78.89573926710005</v>
       </c>
       <c r="L26" t="n">
-        <v>76.55104596431374</v>
+        <v>77.87935199751605</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>81.46483460678505</v>
+        <v>77.91650148447212</v>
       </c>
       <c r="C27" t="n">
-        <v>81.20308696625086</v>
+        <v>78.41969548928795</v>
       </c>
       <c r="D27" t="n">
-        <v>81.86586830831638</v>
+        <v>78.21896173399641</v>
       </c>
       <c r="E27" t="n">
-        <v>89.15083970337295</v>
+        <v>77.58433415910042</v>
       </c>
       <c r="F27" t="n">
-        <v>90.70961012968029</v>
+        <v>78.47043447116093</v>
       </c>
       <c r="G27" t="n">
-        <v>81.55171453375765</v>
+        <v>78.19545158468988</v>
       </c>
       <c r="H27" t="n">
-        <v>82.10099391301307</v>
+        <v>82.83838071605608</v>
       </c>
       <c r="I27" t="n">
-        <v>81.69331698472354</v>
+        <v>82.92301670777532</v>
       </c>
       <c r="J27" t="n">
-        <v>81.6193583933687</v>
+        <v>78.05664738095214</v>
       </c>
       <c r="K27" t="n">
-        <v>81.7759120054879</v>
+        <v>77.82608246895478</v>
       </c>
       <c r="L27" t="n">
-        <v>81.51428741027451</v>
+        <v>77.28961578061767</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>77.4119753171049</v>
+        <v>77.45367650711282</v>
       </c>
       <c r="C28" t="n">
-        <v>77.23439037407009</v>
+        <v>78.04793233629687</v>
       </c>
       <c r="D28" t="n">
-        <v>77.01025814161547</v>
+        <v>77.7616302619075</v>
       </c>
       <c r="E28" t="n">
-        <v>82.87067507712352</v>
+        <v>77.26406112042559</v>
       </c>
       <c r="F28" t="n">
-        <v>83.04102259500367</v>
+        <v>77.84699934903144</v>
       </c>
       <c r="G28" t="n">
-        <v>77.30935125973295</v>
+        <v>77.80768975671643</v>
       </c>
       <c r="H28" t="n">
-        <v>77.62748894372433</v>
+        <v>82.72407937941176</v>
       </c>
       <c r="I28" t="n">
-        <v>77.56860515972375</v>
+        <v>82.79282032003368</v>
       </c>
       <c r="J28" t="n">
-        <v>77.32356011749896</v>
+        <v>77.59790790151355</v>
       </c>
       <c r="K28" t="n">
-        <v>77.69682566320081</v>
+        <v>77.28469152316012</v>
       </c>
       <c r="L28" t="n">
-        <v>77.26384081721692</v>
+        <v>77.17014574789242</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>76.85391828611306</v>
+        <v>77.14376046104114</v>
       </c>
       <c r="C29" t="n">
-        <v>76.727567238978</v>
+        <v>77.8504153664995</v>
       </c>
       <c r="D29" t="n">
-        <v>76.79994226148303</v>
+        <v>77.52222291874337</v>
       </c>
       <c r="E29" t="n">
-        <v>82.62276133631737</v>
+        <v>76.99011445916834</v>
       </c>
       <c r="F29" t="n">
-        <v>82.79626594456758</v>
+        <v>77.48875592310344</v>
       </c>
       <c r="G29" t="n">
-        <v>76.85349930952054</v>
+        <v>77.67834793505641</v>
       </c>
       <c r="H29" t="n">
-        <v>77.17677997816114</v>
+        <v>82.62926859427225</v>
       </c>
       <c r="I29" t="n">
-        <v>76.90145556970873</v>
+        <v>82.71505818747288</v>
       </c>
       <c r="J29" t="n">
-        <v>76.7869145334937</v>
+        <v>77.38100286757326</v>
       </c>
       <c r="K29" t="n">
-        <v>77.05901054383648</v>
+        <v>77.02380910236757</v>
       </c>
       <c r="L29" t="n">
-        <v>76.84921315049576</v>
+        <v>77.06993779292824</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>76.64621717817579</v>
+        <v>76.90647090849973</v>
       </c>
       <c r="C30" t="n">
-        <v>76.51889773666288</v>
+        <v>77.69871740437191</v>
       </c>
       <c r="D30" t="n">
-        <v>76.74875042511529</v>
+        <v>77.11267026872159</v>
       </c>
       <c r="E30" t="n">
-        <v>82.48917365643054</v>
+        <v>76.8767418885478</v>
       </c>
       <c r="F30" t="n">
-        <v>82.67067750810683</v>
+        <v>77.43107693653685</v>
       </c>
       <c r="G30" t="n">
-        <v>76.61726542533144</v>
+        <v>77.53781451984463</v>
       </c>
       <c r="H30" t="n">
-        <v>77.03050667922348</v>
+        <v>82.56129415585957</v>
       </c>
       <c r="I30" t="n">
-        <v>76.62687717727184</v>
+        <v>82.63679289124029</v>
       </c>
       <c r="J30" t="n">
-        <v>76.5543983389047</v>
+        <v>77.15151403995208</v>
       </c>
       <c r="K30" t="n">
-        <v>76.83504646567098</v>
+        <v>76.84896022533465</v>
       </c>
       <c r="L30" t="n">
-        <v>76.66067889738051</v>
+        <v>77.00902868514453</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>76.49201715643761</v>
+        <v>76.79273465129567</v>
       </c>
       <c r="C31" t="n">
-        <v>76.39459457172232</v>
+        <v>77.58499132928428</v>
       </c>
       <c r="D31" t="n">
-        <v>76.73633352139376</v>
+        <v>76.99657644400789</v>
       </c>
       <c r="E31" t="n">
-        <v>82.41279059869349</v>
+        <v>76.77923883485767</v>
       </c>
       <c r="F31" t="n">
-        <v>82.57507808542817</v>
+        <v>77.16752210743188</v>
       </c>
       <c r="G31" t="n">
-        <v>76.51474943433558</v>
+        <v>77.51357558974046</v>
       </c>
       <c r="H31" t="n">
-        <v>76.9417467768548</v>
+        <v>82.50492954499214</v>
       </c>
       <c r="I31" t="n">
-        <v>76.46714356199577</v>
+        <v>82.57153676500988</v>
       </c>
       <c r="J31" t="n">
-        <v>76.3877363309839</v>
+        <v>77.01232025430676</v>
       </c>
       <c r="K31" t="n">
-        <v>76.74437456688766</v>
+        <v>76.73909368123738</v>
       </c>
       <c r="L31" t="n">
-        <v>76.52349066196759</v>
+        <v>76.96606240532267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.83665586892725</v>
+        <v>76.66707850656817</v>
       </c>
       <c r="C32" t="n">
-        <v>79.94244885947262</v>
+        <v>77.52914052311129</v>
       </c>
       <c r="D32" t="n">
-        <v>80.59423023279666</v>
+        <v>76.90815008047907</v>
       </c>
       <c r="E32" t="n">
-        <v>89.74655719868656</v>
+        <v>76.71502235582756</v>
       </c>
       <c r="F32" t="n">
-        <v>91.56638443335996</v>
+        <v>77.13952586917185</v>
       </c>
       <c r="G32" t="n">
-        <v>80.34212508616716</v>
+        <v>77.40299206803979</v>
       </c>
       <c r="H32" t="n">
-        <v>80.48343138845826</v>
+        <v>82.46716760682833</v>
       </c>
       <c r="I32" t="n">
-        <v>80.36764276050215</v>
+        <v>82.53369555963879</v>
       </c>
       <c r="J32" t="n">
-        <v>80.17197845535077</v>
+        <v>76.86198769866495</v>
       </c>
       <c r="K32" t="n">
-        <v>80.06140157726529</v>
+        <v>76.65482206135407</v>
       </c>
       <c r="L32" t="n">
-        <v>79.6716420363789</v>
+        <v>76.96556597244529</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>77.20720923896133</v>
+        <v>76.64375807584133</v>
       </c>
       <c r="C33" t="n">
-        <v>76.94861155988185</v>
+        <v>77.4501972397958</v>
       </c>
       <c r="D33" t="n">
-        <v>77.0183833300984</v>
+        <v>76.85983197409585</v>
       </c>
       <c r="E33" t="n">
-        <v>82.91270788308645</v>
+        <v>76.66170398934436</v>
       </c>
       <c r="F33" t="n">
-        <v>83.04249359713813</v>
+        <v>77.01137307680287</v>
       </c>
       <c r="G33" t="n">
-        <v>77.07734556327557</v>
+        <v>77.4546724555627</v>
       </c>
       <c r="H33" t="n">
-        <v>77.13227650547623</v>
+        <v>82.43389160263717</v>
       </c>
       <c r="I33" t="n">
-        <v>77.30461776157236</v>
+        <v>82.48521608338926</v>
       </c>
       <c r="J33" t="n">
-        <v>77.07263626189911</v>
+        <v>76.81584392504908</v>
       </c>
       <c r="K33" t="n">
-        <v>77.25038543114174</v>
+        <v>76.54978386970467</v>
       </c>
       <c r="L33" t="n">
-        <v>77.05022163729389</v>
+        <v>76.84683352680914</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.70752793792465</v>
+        <v>78.6882942586861</v>
       </c>
       <c r="C34" t="n">
-        <v>76.49121157091464</v>
+        <v>78.61721325552568</v>
       </c>
       <c r="D34" t="n">
-        <v>76.75870293717041</v>
+        <v>78.46474803102899</v>
       </c>
       <c r="E34" t="n">
-        <v>82.64423162096438</v>
+        <v>78.3858605676713</v>
       </c>
       <c r="F34" t="n">
-        <v>82.75699412905325</v>
+        <v>78.92514725711096</v>
       </c>
       <c r="G34" t="n">
-        <v>76.70959113117294</v>
+        <v>78.48694696233198</v>
       </c>
       <c r="H34" t="n">
-        <v>76.91914442881344</v>
+        <v>83.06431808322881</v>
       </c>
       <c r="I34" t="n">
-        <v>76.7835988179185</v>
+        <v>83.09894841866384</v>
       </c>
       <c r="J34" t="n">
-        <v>76.68539887650024</v>
+        <v>78.37286724873947</v>
       </c>
       <c r="K34" t="n">
-        <v>76.84424541697736</v>
+        <v>78.31943287549366</v>
       </c>
       <c r="L34" t="n">
-        <v>76.68363770281097</v>
+        <v>77.70081145266136</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>76.5087915735446</v>
+        <v>77.63518619492362</v>
       </c>
       <c r="C35" t="n">
-        <v>76.36584413922304</v>
+        <v>77.94832980618159</v>
       </c>
       <c r="D35" t="n">
-        <v>76.63796988939119</v>
+        <v>77.63698358321838</v>
       </c>
       <c r="E35" t="n">
-        <v>82.52987559741776</v>
+        <v>77.40977529707597</v>
       </c>
       <c r="F35" t="n">
-        <v>82.63656477167565</v>
+        <v>78.14319019443755</v>
       </c>
       <c r="G35" t="n">
-        <v>76.43211170546662</v>
+        <v>77.84427793443353</v>
       </c>
       <c r="H35" t="n">
-        <v>76.91369343757654</v>
+        <v>82.79209599356888</v>
       </c>
       <c r="I35" t="n">
-        <v>76.59531987798935</v>
+        <v>82.83271597356794</v>
       </c>
       <c r="J35" t="n">
-        <v>76.48809185720161</v>
+        <v>77.68305189658463</v>
       </c>
       <c r="K35" t="n">
-        <v>76.68090748384766</v>
+        <v>77.50286146306834</v>
       </c>
       <c r="L35" t="n">
-        <v>76.53353662732376</v>
+        <v>77.29053647178978</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>76.42135522216006</v>
+        <v>77.25382799860344</v>
       </c>
       <c r="C36" t="n">
-        <v>76.29374714257509</v>
+        <v>77.73613533730392</v>
       </c>
       <c r="D36" t="n">
-        <v>76.61877143716869</v>
+        <v>77.30387545771835</v>
       </c>
       <c r="E36" t="n">
-        <v>82.42310567332326</v>
+        <v>77.08554489784771</v>
       </c>
       <c r="F36" t="n">
-        <v>82.53405194274674</v>
+        <v>77.73718898627821</v>
       </c>
       <c r="G36" t="n">
-        <v>76.39769327242222</v>
+        <v>77.62318659365323</v>
       </c>
       <c r="H36" t="n">
-        <v>76.71050898775033</v>
+        <v>82.66119745952597</v>
       </c>
       <c r="I36" t="n">
-        <v>76.47098579502762</v>
+        <v>82.71748493841569</v>
       </c>
       <c r="J36" t="n">
-        <v>76.33671812506006</v>
+        <v>77.29510031484965</v>
       </c>
       <c r="K36" t="n">
-        <v>76.53462666338343</v>
+        <v>77.12353467595221</v>
       </c>
       <c r="L36" t="n">
-        <v>76.40747249779825</v>
+        <v>77.06491293809526</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>81.46483460678505</v>
+        <v>76.97095940699656</v>
       </c>
       <c r="C37" t="n">
-        <v>81.20308696625086</v>
+        <v>77.47030090822999</v>
       </c>
       <c r="D37" t="n">
-        <v>81.86586830831638</v>
+        <v>77.14046277620891</v>
       </c>
       <c r="E37" t="n">
-        <v>89.74655719868656</v>
+        <v>76.90090247613581</v>
       </c>
       <c r="F37" t="n">
-        <v>91.5708963639695</v>
+        <v>77.57723646318372</v>
       </c>
       <c r="G37" t="n">
-        <v>81.55171453375765</v>
+        <v>77.41047167818776</v>
       </c>
       <c r="H37" t="n">
-        <v>82.10099391301307</v>
+        <v>82.5881962771315</v>
       </c>
       <c r="I37" t="n">
-        <v>81.69331698472354</v>
+        <v>82.63250663903224</v>
       </c>
       <c r="J37" t="n">
-        <v>81.6193583933687</v>
+        <v>77.08524126639306</v>
       </c>
       <c r="K37" t="n">
-        <v>81.77649720581216</v>
+        <v>76.94223972523466</v>
       </c>
       <c r="L37" t="n">
-        <v>81.51428741027451</v>
+        <v>77.01923574870747</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>77.47181324518918</v>
+        <v>76.83299856455007</v>
       </c>
       <c r="C38" t="n">
-        <v>77.14230095683347</v>
+        <v>77.4857121145649</v>
       </c>
       <c r="D38" t="n">
-        <v>77.0779398419922</v>
+        <v>76.99579152830188</v>
       </c>
       <c r="E38" t="n">
-        <v>82.91721411517167</v>
+        <v>76.79328677192434</v>
       </c>
       <c r="F38" t="n">
-        <v>83.03872379379183</v>
+        <v>77.37629520796595</v>
       </c>
       <c r="G38" t="n">
-        <v>77.40337348256259</v>
+        <v>77.27143944687424</v>
       </c>
       <c r="H38" t="n">
-        <v>77.48016707494666</v>
+        <v>82.53109098410847</v>
       </c>
       <c r="I38" t="n">
-        <v>77.50374709859373</v>
+        <v>82.57690884982739</v>
       </c>
       <c r="J38" t="n">
-        <v>77.31689167371242</v>
+        <v>76.98661900478989</v>
       </c>
       <c r="K38" t="n">
-        <v>77.6818571911539</v>
+        <v>76.74273916334901</v>
       </c>
       <c r="L38" t="n">
-        <v>77.35122985291414</v>
+        <v>76.95571787280203</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>76.86892028864895</v>
+        <v>76.70715271846741</v>
       </c>
       <c r="C39" t="n">
-        <v>76.65817917783045</v>
+        <v>77.41850311574625</v>
       </c>
       <c r="D39" t="n">
-        <v>76.78021894937433</v>
+        <v>76.8644443852304</v>
       </c>
       <c r="E39" t="n">
-        <v>82.65250593994445</v>
+        <v>76.7430587018837</v>
       </c>
       <c r="F39" t="n">
-        <v>82.77148619924949</v>
+        <v>77.16123684437463</v>
       </c>
       <c r="G39" t="n">
-        <v>76.86983236044999</v>
+        <v>77.26655977640291</v>
       </c>
       <c r="H39" t="n">
-        <v>77.02910278333873</v>
+        <v>82.48195396189718</v>
       </c>
       <c r="I39" t="n">
-        <v>76.95163951326306</v>
+        <v>82.51587872216093</v>
       </c>
       <c r="J39" t="n">
-        <v>76.85141482367321</v>
+        <v>76.84658675874898</v>
       </c>
       <c r="K39" t="n">
-        <v>77.12100154304586</v>
+        <v>76.62863551218413</v>
       </c>
       <c r="L39" t="n">
-        <v>76.87484763873135</v>
+        <v>76.86060703616374</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>76.63216362815704</v>
+        <v>76.60572929737907</v>
       </c>
       <c r="C40" t="n">
-        <v>76.504549996642</v>
+        <v>77.29847166640909</v>
       </c>
       <c r="D40" t="n">
-        <v>76.73629904883063</v>
+        <v>76.74404170574115</v>
       </c>
       <c r="E40" t="n">
-        <v>82.5227113314304</v>
+        <v>76.69317106083115</v>
       </c>
       <c r="F40" t="n">
-        <v>82.62664487565503</v>
+        <v>76.96353211814598</v>
       </c>
       <c r="G40" t="n">
-        <v>76.63814915213931</v>
+        <v>77.22651792937843</v>
       </c>
       <c r="H40" t="n">
-        <v>76.9172361858642</v>
+        <v>82.4390187922608</v>
       </c>
       <c r="I40" t="n">
-        <v>76.62402586762605</v>
+        <v>82.48498183699698</v>
       </c>
       <c r="J40" t="n">
-        <v>76.6275702682377</v>
+        <v>76.73966471476176</v>
       </c>
       <c r="K40" t="n">
-        <v>76.88293558593411</v>
+        <v>76.59162432984792</v>
       </c>
       <c r="L40" t="n">
-        <v>76.68655888710282</v>
+        <v>76.76857707506331</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>76.51270289240071</v>
+        <v>76.55326887335329</v>
       </c>
       <c r="C41" t="n">
-        <v>76.42422324360663</v>
+        <v>77.29246180534273</v>
       </c>
       <c r="D41" t="n">
-        <v>76.63074674055591</v>
+        <v>76.68665097621867</v>
       </c>
       <c r="E41" t="n">
-        <v>82.44323623073188</v>
+        <v>76.64449551672617</v>
       </c>
       <c r="F41" t="n">
-        <v>82.527790060459</v>
+        <v>76.89610205449951</v>
       </c>
       <c r="G41" t="n">
-        <v>76.51887262155154</v>
+        <v>77.13320381327682</v>
       </c>
       <c r="H41" t="n">
-        <v>76.86244222816643</v>
+        <v>82.40034023848814</v>
       </c>
       <c r="I41" t="n">
-        <v>76.46240597266062</v>
+        <v>82.46196340910979</v>
       </c>
       <c r="J41" t="n">
-        <v>76.44243355154759</v>
+        <v>76.67936312410306</v>
       </c>
       <c r="K41" t="n">
-        <v>76.76555591289423</v>
+        <v>76.52825204732605</v>
       </c>
       <c r="L41" t="n">
-        <v>76.5606825718969</v>
+        <v>76.73407138129681</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79.34791929700243</v>
+        <v>78.69273886034399</v>
       </c>
       <c r="C42" t="n">
-        <v>79.19097617112494</v>
+        <v>78.72601388520232</v>
       </c>
       <c r="D42" t="n">
-        <v>79.92888597508765</v>
+        <v>78.61649399443567</v>
       </c>
       <c r="E42" t="n">
-        <v>89.15083970337295</v>
+        <v>78.37068890670433</v>
       </c>
       <c r="F42" t="n">
-        <v>90.7095803748841</v>
+        <v>78.95871451009855</v>
       </c>
       <c r="G42" t="n">
-        <v>79.41701639085089</v>
+        <v>78.69940623486164</v>
       </c>
       <c r="H42" t="n">
-        <v>79.8852089315814</v>
+        <v>83.04012688464752</v>
       </c>
       <c r="I42" t="n">
-        <v>79.59921583693408</v>
+        <v>83.0790428556146</v>
       </c>
       <c r="J42" t="n">
-        <v>79.56633604997964</v>
+        <v>78.39647354803169</v>
       </c>
       <c r="K42" t="n">
-        <v>79.39017591956103</v>
+        <v>78.41022897060647</v>
       </c>
       <c r="L42" t="n">
-        <v>79.237405166447</v>
+        <v>77.58666100660322</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>77.00346299428949</v>
+        <v>77.65637529719133</v>
       </c>
       <c r="C43" t="n">
-        <v>76.78599745151702</v>
+        <v>78.05547058358391</v>
       </c>
       <c r="D43" t="n">
-        <v>76.83674327926947</v>
+        <v>77.72775680510232</v>
       </c>
       <c r="E43" t="n">
-        <v>82.8697684620634</v>
+        <v>77.4102994997728</v>
       </c>
       <c r="F43" t="n">
-        <v>83.06437909598711</v>
+        <v>78.12015518982972</v>
       </c>
       <c r="G43" t="n">
-        <v>76.84448678833421</v>
+        <v>78.01161455583204</v>
       </c>
       <c r="H43" t="n">
-        <v>77.21402973238665</v>
+        <v>82.78007408171732</v>
       </c>
       <c r="I43" t="n">
-        <v>77.07285817188313</v>
+        <v>82.82277783305915</v>
       </c>
       <c r="J43" t="n">
-        <v>77.00571073405573</v>
+        <v>77.6553311015233</v>
       </c>
       <c r="K43" t="n">
-        <v>77.01896254950262</v>
+        <v>77.59099785172799</v>
       </c>
       <c r="L43" t="n">
-        <v>76.86530791623233</v>
+        <v>77.31939743174701</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>76.53783114709395</v>
+        <v>77.26409756263504</v>
       </c>
       <c r="C44" t="n">
-        <v>76.41260251900762</v>
+        <v>77.78040589190108</v>
       </c>
       <c r="D44" t="n">
-        <v>76.62577160785382</v>
+        <v>77.33585491769827</v>
       </c>
       <c r="E44" t="n">
-        <v>82.64111194421851</v>
+        <v>77.07132563919265</v>
       </c>
       <c r="F44" t="n">
-        <v>82.80954870777956</v>
+        <v>77.70656681425673</v>
       </c>
       <c r="G44" t="n">
-        <v>76.57622380142261</v>
+        <v>77.46447191722248</v>
       </c>
       <c r="H44" t="n">
-        <v>76.84422586723667</v>
+        <v>82.65675231701454</v>
       </c>
       <c r="I44" t="n">
-        <v>76.69775003847199</v>
+        <v>82.72902814580725</v>
       </c>
       <c r="J44" t="n">
-        <v>76.64760390989919</v>
+        <v>77.3043945555201</v>
       </c>
       <c r="K44" t="n">
-        <v>76.68284359638992</v>
+        <v>77.13851835624196</v>
       </c>
       <c r="L44" t="n">
-        <v>76.59546827658224</v>
+        <v>77.12516676395433</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>76.41435587151656</v>
+        <v>76.93955264347566</v>
       </c>
       <c r="C45" t="n">
-        <v>76.28714805387999</v>
+        <v>77.55919042185451</v>
       </c>
       <c r="D45" t="n">
-        <v>76.49401928836598</v>
+        <v>77.07793428760905</v>
       </c>
       <c r="E45" t="n">
-        <v>82.50235201579841</v>
+        <v>76.91800779516501</v>
       </c>
       <c r="F45" t="n">
-        <v>82.66815136360991</v>
+        <v>77.43858097315052</v>
       </c>
       <c r="G45" t="n">
-        <v>76.41024563080313</v>
+        <v>77.41299774616557</v>
       </c>
       <c r="H45" t="n">
-        <v>76.76140210829888</v>
+        <v>82.57927614543947</v>
       </c>
       <c r="I45" t="n">
-        <v>76.47469469346493</v>
+        <v>82.62297219693397</v>
       </c>
       <c r="J45" t="n">
-        <v>76.42007978976147</v>
+        <v>77.12540180306644</v>
       </c>
       <c r="K45" t="n">
-        <v>76.52499803229546</v>
+        <v>76.92622027266492</v>
       </c>
       <c r="L45" t="n">
-        <v>76.4508304261836</v>
+        <v>76.98324514444073</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>76.33190878515018</v>
+        <v>76.79569002013626</v>
       </c>
       <c r="C46" t="n">
-        <v>76.2316535450918</v>
+        <v>77.48829193364463</v>
       </c>
       <c r="D46" t="n">
-        <v>76.42652284981048</v>
+        <v>76.91366211224161</v>
       </c>
       <c r="E46" t="n">
-        <v>82.41547347416582</v>
+        <v>76.7873256508983</v>
       </c>
       <c r="F46" t="n">
-        <v>82.585261285504</v>
+        <v>77.13496897727659</v>
       </c>
       <c r="G46" t="n">
-        <v>76.3016308647108</v>
+        <v>77.43321371941352</v>
       </c>
       <c r="H46" t="n">
-        <v>76.62182860520448</v>
+        <v>82.52225407664248</v>
       </c>
       <c r="I46" t="n">
-        <v>76.36441927683889</v>
+        <v>82.55578080073603</v>
       </c>
       <c r="J46" t="n">
-        <v>76.37748341519682</v>
+        <v>76.97554572734978</v>
       </c>
       <c r="K46" t="n">
-        <v>76.4297824832332</v>
+        <v>76.8015971186618</v>
       </c>
       <c r="L46" t="n">
-        <v>76.37274813997695</v>
+        <v>76.94542485880751</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>79.68209620297762</v>
+        <v>76.71545446117074</v>
       </c>
       <c r="C47" t="n">
-        <v>79.53448975545059</v>
+        <v>77.4264875280336</v>
       </c>
       <c r="D47" t="n">
-        <v>80.39658119576175</v>
+        <v>76.83949366019587</v>
       </c>
       <c r="E47" t="n">
-        <v>87.98263667624154</v>
+        <v>76.73915019406114</v>
       </c>
       <c r="F47" t="n">
-        <v>89.1756478611493</v>
+        <v>76.99640122731024</v>
       </c>
       <c r="G47" t="n">
-        <v>79.87278824443678</v>
+        <v>77.30814878528055</v>
       </c>
       <c r="H47" t="n">
-        <v>80.28593773531466</v>
+        <v>82.47507067640385</v>
       </c>
       <c r="I47" t="n">
-        <v>79.99742946276695</v>
+        <v>82.53216445530965</v>
       </c>
       <c r="J47" t="n">
-        <v>79.87399351921164</v>
+        <v>76.86311580453901</v>
       </c>
       <c r="K47" t="n">
-        <v>79.74772867443394</v>
+        <v>76.65396051754138</v>
       </c>
       <c r="L47" t="n">
-        <v>79.46800445705153</v>
+        <v>76.87691991930616</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>77.05982751462874</v>
+        <v>76.66055420157436</v>
       </c>
       <c r="C48" t="n">
-        <v>76.88039866508474</v>
+        <v>77.29392095982676</v>
       </c>
       <c r="D48" t="n">
-        <v>76.95045889968468</v>
+        <v>76.73555172159296</v>
       </c>
       <c r="E48" t="n">
-        <v>82.82067093769444</v>
+        <v>76.65751503770389</v>
       </c>
       <c r="F48" t="n">
-        <v>83.02353566469094</v>
+        <v>76.86548018967849</v>
       </c>
       <c r="G48" t="n">
-        <v>76.97718825141864</v>
+        <v>77.1868711878565</v>
       </c>
       <c r="H48" t="n">
-        <v>77.20166796353718</v>
+        <v>82.44732833943898</v>
       </c>
       <c r="I48" t="n">
-        <v>77.23481156028313</v>
+        <v>82.4773079576044</v>
       </c>
       <c r="J48" t="n">
-        <v>77.06815293959568</v>
+        <v>76.76463890003697</v>
       </c>
       <c r="K48" t="n">
-        <v>77.14856933955913</v>
+        <v>76.59500179665338</v>
       </c>
       <c r="L48" t="n">
-        <v>76.97618747026893</v>
+        <v>76.83575032645139</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>76.61212607885997</v>
+        <v>76.59519775472128</v>
       </c>
       <c r="C49" t="n">
-        <v>76.47396205062476</v>
+        <v>77.26293404761878</v>
       </c>
       <c r="D49" t="n">
-        <v>76.69119041636326</v>
+        <v>76.67442963249147</v>
       </c>
       <c r="E49" t="n">
-        <v>82.57932789440099</v>
+        <v>76.64267978500665</v>
       </c>
       <c r="F49" t="n">
-        <v>82.77490848805185</v>
+        <v>76.81143803369946</v>
       </c>
       <c r="G49" t="n">
-        <v>76.62851602587747</v>
+        <v>77.24047768709761</v>
       </c>
       <c r="H49" t="n">
-        <v>76.8065535503226</v>
+        <v>82.39998537081468</v>
       </c>
       <c r="I49" t="n">
-        <v>76.80992488996517</v>
+        <v>82.44996874325145</v>
       </c>
       <c r="J49" t="n">
-        <v>76.65566937679981</v>
+        <v>76.68259583012922</v>
       </c>
       <c r="K49" t="n">
-        <v>76.75224943034414</v>
+        <v>76.50154089947976</v>
       </c>
       <c r="L49" t="n">
-        <v>76.63134308006198</v>
+        <v>76.66611276757862</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>76.42328408727934</v>
+        <v>77.88788120152378</v>
       </c>
       <c r="C50" t="n">
-        <v>76.33273347635193</v>
+        <v>77.87364147927138</v>
       </c>
       <c r="D50" t="n">
-        <v>76.51651175208434</v>
+        <v>77.88501270206753</v>
       </c>
       <c r="E50" t="n">
-        <v>82.47545630862001</v>
+        <v>77.77721784745705</v>
       </c>
       <c r="F50" t="n">
-        <v>82.64443780896474</v>
+        <v>78.24905605517604</v>
       </c>
       <c r="G50" t="n">
-        <v>76.42965877610445</v>
+        <v>77.97467507731508</v>
       </c>
       <c r="H50" t="n">
-        <v>76.69039129913583</v>
+        <v>83.07322635365648</v>
       </c>
       <c r="I50" t="n">
-        <v>76.58242149353163</v>
+        <v>83.20486986607463</v>
       </c>
       <c r="J50" t="n">
-        <v>76.46375864871473</v>
+        <v>77.74403885501913</v>
       </c>
       <c r="K50" t="n">
-        <v>76.62514815077309</v>
+        <v>77.61881300819203</v>
       </c>
       <c r="L50" t="n">
-        <v>76.48628840731364</v>
+        <v>77.36584707751695</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>76.33278627796231</v>
+        <v>77.2243187602383</v>
       </c>
       <c r="C51" t="n">
-        <v>76.29232255883628</v>
+        <v>77.33443042996636</v>
       </c>
       <c r="D51" t="n">
-        <v>76.48172218649185</v>
+        <v>77.35380031978936</v>
       </c>
       <c r="E51" t="n">
-        <v>82.39985633521323</v>
+        <v>77.14385310617388</v>
       </c>
       <c r="F51" t="n">
-        <v>82.55062798554987</v>
+        <v>77.58594114711867</v>
       </c>
       <c r="G51" t="n">
-        <v>76.33542985246218</v>
+        <v>77.44874253392405</v>
       </c>
       <c r="H51" t="n">
-        <v>76.66511766036197</v>
+        <v>82.8407811098165</v>
       </c>
       <c r="I51" t="n">
-        <v>76.48059832321951</v>
+        <v>82.900592581078</v>
       </c>
       <c r="J51" t="n">
-        <v>76.35596322730856</v>
+        <v>77.26587946271694</v>
       </c>
       <c r="K51" t="n">
-        <v>76.55121675473067</v>
+        <v>77.11218638356934</v>
       </c>
       <c r="L51" t="n">
-        <v>76.3886989744113</v>
+        <v>77.00788077763819</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>78.0654944968832</v>
+        <v>76.93989622045363</v>
       </c>
       <c r="C52" t="n">
-        <v>77.89179654355328</v>
+        <v>77.21650795257884</v>
       </c>
       <c r="D52" t="n">
-        <v>78.42958886336181</v>
+        <v>77.08692899492986</v>
       </c>
       <c r="E52" t="n">
-        <v>87.03275776374036</v>
+        <v>76.86595322121181</v>
       </c>
       <c r="F52" t="n">
-        <v>87.54669480954971</v>
+        <v>77.28227889383471</v>
       </c>
       <c r="G52" t="n">
-        <v>78.18524744073079</v>
+        <v>77.28482467276488</v>
       </c>
       <c r="H52" t="n">
-        <v>78.59261015188227</v>
+        <v>82.71271265450507</v>
       </c>
       <c r="I52" t="n">
-        <v>78.01705146910369</v>
+        <v>82.7866707155697</v>
       </c>
       <c r="J52" t="n">
-        <v>78.10124506870886</v>
+        <v>77.01783314320855</v>
       </c>
       <c r="K52" t="n">
-        <v>78.0919089845827</v>
+        <v>76.85864210417748</v>
       </c>
       <c r="L52" t="n">
-        <v>77.93248115795276</v>
+        <v>76.89766532054443</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>76.63399502620402</v>
+        <v>76.79982615482936</v>
       </c>
       <c r="C53" t="n">
-        <v>76.43967062198051</v>
+        <v>77.07630477967543</v>
       </c>
       <c r="D53" t="n">
-        <v>76.51215814659645</v>
+        <v>76.91769959383775</v>
       </c>
       <c r="E53" t="n">
-        <v>82.71346343579408</v>
+        <v>76.71364676618231</v>
       </c>
       <c r="F53" t="n">
-        <v>82.96764439267641</v>
+        <v>77.04243965781431</v>
       </c>
       <c r="G53" t="n">
-        <v>76.73124041708253</v>
+        <v>77.13528494981257</v>
       </c>
       <c r="H53" t="n">
-        <v>76.88954232297803</v>
+        <v>82.61938984629472</v>
       </c>
       <c r="I53" t="n">
-        <v>76.6347372595441</v>
+        <v>82.69058631642436</v>
       </c>
       <c r="J53" t="n">
-        <v>76.573946722169</v>
+        <v>76.87470982472749</v>
       </c>
       <c r="K53" t="n">
-        <v>76.64948640606366</v>
+        <v>76.69388062428118</v>
       </c>
       <c r="L53" t="n">
-        <v>76.56177310242619</v>
+        <v>76.84156341329683</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>76.46015680744766</v>
+        <v>76.65581481204521</v>
       </c>
       <c r="C54" t="n">
-        <v>76.16604765427566</v>
+        <v>76.9715454982141</v>
       </c>
       <c r="D54" t="n">
-        <v>76.35549691533552</v>
+        <v>76.78562503500308</v>
       </c>
       <c r="E54" t="n">
-        <v>82.5221778142859</v>
+        <v>76.63735328203921</v>
       </c>
       <c r="F54" t="n">
-        <v>82.75303775032481</v>
+        <v>76.91761241430422</v>
       </c>
       <c r="G54" t="n">
-        <v>76.48088323826475</v>
+        <v>77.01947999865018</v>
       </c>
       <c r="H54" t="n">
-        <v>76.63184068889628</v>
+        <v>82.55741097252674</v>
       </c>
       <c r="I54" t="n">
-        <v>76.46319245706283</v>
+        <v>82.61424746251278</v>
       </c>
       <c r="J54" t="n">
-        <v>76.29229673387609</v>
+        <v>76.81306517676906</v>
       </c>
       <c r="K54" t="n">
-        <v>76.43306918868011</v>
+        <v>76.61392123478794</v>
       </c>
       <c r="L54" t="n">
-        <v>76.36898034817</v>
+        <v>76.78599448392853</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>76.36470744380497</v>
+        <v>76.55661874255722</v>
       </c>
       <c r="C55" t="n">
-        <v>76.11728582645041</v>
+        <v>76.94172447630093</v>
       </c>
       <c r="D55" t="n">
-        <v>76.27712301084192</v>
+        <v>76.6825885857144</v>
       </c>
       <c r="E55" t="n">
-        <v>82.41969117303611</v>
+        <v>76.60829371611976</v>
       </c>
       <c r="F55" t="n">
-        <v>82.62617316603196</v>
+        <v>76.81008379004911</v>
       </c>
       <c r="G55" t="n">
-        <v>76.36563064944249</v>
+        <v>77.06573102007283</v>
       </c>
       <c r="H55" t="n">
-        <v>76.47122108792209</v>
+        <v>82.51460567531639</v>
       </c>
       <c r="I55" t="n">
-        <v>76.29719761764122</v>
+        <v>82.53800843536294</v>
       </c>
       <c r="J55" t="n">
-        <v>76.20877162617218</v>
+        <v>76.66451377970505</v>
       </c>
       <c r="K55" t="n">
-        <v>76.31210382831239</v>
+        <v>76.53671648906288</v>
       </c>
       <c r="L55" t="n">
-        <v>76.28198763414541</v>
+        <v>76.68250382695886</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>76.26301818833041</v>
+        <v>76.47516362212737</v>
       </c>
       <c r="C56" t="n">
-        <v>76.05915237514606</v>
+        <v>76.88012799601005</v>
       </c>
       <c r="D56" t="n">
-        <v>76.2475916569604</v>
+        <v>76.65196170328755</v>
       </c>
       <c r="E56" t="n">
-        <v>82.34559403976591</v>
+        <v>76.52511680010649</v>
       </c>
       <c r="F56" t="n">
-        <v>82.5251238346373</v>
+        <v>76.85052769522804</v>
       </c>
       <c r="G56" t="n">
-        <v>76.26336942894383</v>
+        <v>77.0217172469517</v>
       </c>
       <c r="H56" t="n">
-        <v>76.42757952015793</v>
+        <v>82.46323705371654</v>
       </c>
       <c r="I56" t="n">
-        <v>76.23277618751933</v>
+        <v>82.49270277294066</v>
       </c>
       <c r="J56" t="n">
-        <v>76.14230639208617</v>
+        <v>76.56513588620886</v>
       </c>
       <c r="K56" t="n">
-        <v>76.27319791675919</v>
+        <v>76.52814577808758</v>
       </c>
       <c r="L56" t="n">
-        <v>76.23563014190479</v>
+        <v>76.64024564139004</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>78.16224859426336</v>
+        <v>76.45933852975851</v>
       </c>
       <c r="C57" t="n">
-        <v>77.8856300197867</v>
+        <v>76.86074591291855</v>
       </c>
       <c r="D57" t="n">
-        <v>78.54673161942034</v>
+        <v>76.5855133872392</v>
       </c>
       <c r="E57" t="n">
-        <v>87.66077566363238</v>
+        <v>76.49320570258426</v>
       </c>
       <c r="F57" t="n">
-        <v>88.45481818239826</v>
+        <v>76.88441139794983</v>
       </c>
       <c r="G57" t="n">
-        <v>78.29673006519593</v>
+        <v>76.96727124790092</v>
       </c>
       <c r="H57" t="n">
-        <v>78.66415743570012</v>
+        <v>82.43493637488422</v>
       </c>
       <c r="I57" t="n">
-        <v>78.10269955583044</v>
+        <v>82.45397708026751</v>
       </c>
       <c r="J57" t="n">
-        <v>78.3018092961189</v>
+        <v>76.52755435338729</v>
       </c>
       <c r="K57" t="n">
-        <v>78.18944654529992</v>
+        <v>76.45485484861872</v>
       </c>
       <c r="L57" t="n">
-        <v>78.06795052456879</v>
+        <v>76.57215529797062</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>76.68140501061457</v>
+        <v>78.86016724181408</v>
       </c>
       <c r="C58" t="n">
-        <v>76.44123140635305</v>
+        <v>79.4187666880068</v>
       </c>
       <c r="D58" t="n">
-        <v>76.5723290394092</v>
+        <v>79.28129448994608</v>
       </c>
       <c r="E58" t="n">
-        <v>82.77545942778106</v>
+        <v>78.59105958023081</v>
       </c>
       <c r="F58" t="n">
-        <v>82.97358554030251</v>
+        <v>79.14260468762728</v>
       </c>
       <c r="G58" t="n">
-        <v>76.77440299028302</v>
+        <v>79.13077533624616</v>
       </c>
       <c r="H58" t="n">
-        <v>76.99690119764684</v>
+        <v>83.07796670988667</v>
       </c>
       <c r="I58" t="n">
-        <v>76.67691267984709</v>
+        <v>83.21873485037436</v>
       </c>
       <c r="J58" t="n">
-        <v>76.64058212066529</v>
+        <v>78.86946116470727</v>
       </c>
       <c r="K58" t="n">
-        <v>76.73415568628715</v>
+        <v>78.80081011752583</v>
       </c>
       <c r="L58" t="n">
-        <v>76.5698761150547</v>
+        <v>77.88016799008292</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>76.44025704935781</v>
+        <v>77.68702505925599</v>
       </c>
       <c r="C59" t="n">
-        <v>76.19441406113211</v>
+        <v>78.42334337394479</v>
       </c>
       <c r="D59" t="n">
-        <v>76.39151569478695</v>
+        <v>78.00666396006275</v>
       </c>
       <c r="E59" t="n">
-        <v>82.55349591328014</v>
+        <v>77.50289296479156</v>
       </c>
       <c r="F59" t="n">
-        <v>82.74120060762849</v>
+        <v>77.87424479147808</v>
       </c>
       <c r="G59" t="n">
-        <v>76.47079605197848</v>
+        <v>77.97157713087374</v>
       </c>
       <c r="H59" t="n">
-        <v>76.708861504339</v>
+        <v>82.84562705369886</v>
       </c>
       <c r="I59" t="n">
-        <v>76.4931086096021</v>
+        <v>82.94361043404932</v>
       </c>
       <c r="J59" t="n">
-        <v>76.34216305489667</v>
+        <v>77.85535794760503</v>
       </c>
       <c r="K59" t="n">
-        <v>76.53901477728331</v>
+        <v>77.72675703644279</v>
       </c>
       <c r="L59" t="n">
-        <v>76.40261341383129</v>
+        <v>77.27618424207942</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>76.39581846048033</v>
+        <v>77.26237269064839</v>
       </c>
       <c r="C60" t="n">
-        <v>76.11902378839252</v>
+        <v>78.06585808073179</v>
       </c>
       <c r="D60" t="n">
-        <v>76.33322208285611</v>
+        <v>77.51582269583224</v>
       </c>
       <c r="E60" t="n">
-        <v>82.45620745385673</v>
+        <v>77.14502141004557</v>
       </c>
       <c r="F60" t="n">
-        <v>82.5901619224978</v>
+        <v>77.47832117070945</v>
       </c>
       <c r="G60" t="n">
-        <v>76.38470898313048</v>
+        <v>77.57371019383268</v>
       </c>
       <c r="H60" t="n">
-        <v>76.57022130474732</v>
+        <v>82.71833850192056</v>
       </c>
       <c r="I60" t="n">
-        <v>76.34643796242347</v>
+        <v>82.79658069820101</v>
       </c>
       <c r="J60" t="n">
-        <v>76.25438423882822</v>
+        <v>77.48323226007938</v>
       </c>
       <c r="K60" t="n">
-        <v>76.40462502674394</v>
+        <v>77.30155490477173</v>
       </c>
       <c r="L60" t="n">
-        <v>76.29989921080249</v>
+        <v>77.10528828797142</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>76.30775823362139</v>
+        <v>77.0597777334815</v>
       </c>
       <c r="C61" t="n">
-        <v>76.04476793795078</v>
+        <v>77.69374682535651</v>
       </c>
       <c r="D61" t="n">
-        <v>76.30469579278764</v>
+        <v>77.26189501479585</v>
       </c>
       <c r="E61" t="n">
-        <v>82.37850670228104</v>
+        <v>76.92262195748698</v>
       </c>
       <c r="F61" t="n">
-        <v>82.49795397847599</v>
+        <v>77.25333391167034</v>
       </c>
       <c r="G61" t="n">
-        <v>76.29189481134065</v>
+        <v>77.40338545575803</v>
       </c>
       <c r="H61" t="n">
-        <v>76.49453748254395</v>
+        <v>82.62862586803175</v>
       </c>
       <c r="I61" t="n">
-        <v>76.26708945520348</v>
+        <v>82.68125142052304</v>
       </c>
       <c r="J61" t="n">
-        <v>76.19638784294682</v>
+        <v>77.22262109690023</v>
       </c>
       <c r="K61" t="n">
-        <v>76.31883424736159</v>
+        <v>77.10565241755712</v>
       </c>
       <c r="L61" t="n">
-        <v>76.23018129233846</v>
+        <v>76.97171739201237</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>78.32637883397653</v>
+        <v>76.90323722315651</v>
       </c>
       <c r="C62" t="n">
-        <v>78.13483630587396</v>
+        <v>77.54839337535242</v>
       </c>
       <c r="D62" t="n">
-        <v>78.69440330549307</v>
+        <v>77.10481320864776</v>
       </c>
       <c r="E62" t="n">
-        <v>86.02735716580381</v>
+        <v>76.75932964431186</v>
       </c>
       <c r="F62" t="n">
-        <v>86.65739385389274</v>
+        <v>77.10220798331603</v>
       </c>
       <c r="G62" t="n">
-        <v>78.53371358097972</v>
+        <v>77.04625919103998</v>
       </c>
       <c r="H62" t="n">
-        <v>78.92598386097536</v>
+        <v>82.55912953136082</v>
       </c>
       <c r="I62" t="n">
-        <v>78.41728074902804</v>
+        <v>82.60621230439418</v>
       </c>
       <c r="J62" t="n">
-        <v>78.49749109506826</v>
+        <v>77.02482013520283</v>
       </c>
       <c r="K62" t="n">
-        <v>78.36015999418153</v>
+        <v>76.93765923035224</v>
       </c>
       <c r="L62" t="n">
-        <v>78.20937147440124</v>
+        <v>76.88027962926796</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>76.67084029505668</v>
+        <v>76.76654549983914</v>
       </c>
       <c r="C63" t="n">
-        <v>76.52641856846424</v>
+        <v>77.43007691832548</v>
       </c>
       <c r="D63" t="n">
-        <v>76.62869919185808</v>
+        <v>77.007879996852</v>
       </c>
       <c r="E63" t="n">
-        <v>82.6487791414079</v>
+        <v>76.73284804349561</v>
       </c>
       <c r="F63" t="n">
-        <v>82.95408448801129</v>
+        <v>76.97384572202328</v>
       </c>
       <c r="G63" t="n">
-        <v>76.81453311410016</v>
+        <v>77.05785014063612</v>
       </c>
       <c r="H63" t="n">
-        <v>77.01630112654924</v>
+        <v>82.49784514697667</v>
       </c>
       <c r="I63" t="n">
-        <v>76.74599514946772</v>
+        <v>82.55229575699354</v>
       </c>
       <c r="J63" t="n">
-        <v>76.69679707964774</v>
+        <v>76.88252593785282</v>
       </c>
       <c r="K63" t="n">
-        <v>76.79972195919321</v>
+        <v>76.78739837968901</v>
       </c>
       <c r="L63" t="n">
-        <v>76.63199105673972</v>
+        <v>76.79534130684722</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>76.50298923208713</v>
+        <v>76.64116402588171</v>
       </c>
       <c r="C64" t="n">
-        <v>76.23904061948429</v>
+        <v>77.29141818528699</v>
       </c>
       <c r="D64" t="n">
-        <v>76.44291409148678</v>
+        <v>76.84612861986817</v>
       </c>
       <c r="E64" t="n">
-        <v>82.47356611023085</v>
+        <v>76.66419563979822</v>
       </c>
       <c r="F64" t="n">
-        <v>82.76501783482134</v>
+        <v>76.91687986946694</v>
       </c>
       <c r="G64" t="n">
-        <v>76.47049730972439</v>
+        <v>77.03427487886049</v>
       </c>
       <c r="H64" t="n">
-        <v>76.77794198626609</v>
+        <v>82.45975114045648</v>
       </c>
       <c r="I64" t="n">
-        <v>76.4621959461948</v>
+        <v>82.51297207393746</v>
       </c>
       <c r="J64" t="n">
-        <v>76.39861673162528</v>
+        <v>76.77819229010085</v>
       </c>
       <c r="K64" t="n">
-        <v>76.5784037637456</v>
+        <v>76.67592088186323</v>
       </c>
       <c r="L64" t="n">
-        <v>76.42700982883201</v>
+        <v>76.77164544655895</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>76.4342868650907</v>
+        <v>76.60846748498921</v>
       </c>
       <c r="C65" t="n">
-        <v>76.12995414226022</v>
+        <v>77.26050616236691</v>
       </c>
       <c r="D65" t="n">
-        <v>76.35073721640343</v>
+        <v>76.74410269163612</v>
       </c>
       <c r="E65" t="n">
-        <v>82.38289673608085</v>
+        <v>76.62022584089996</v>
       </c>
       <c r="F65" t="n">
-        <v>82.63871499340767</v>
+        <v>76.8261110537844</v>
       </c>
       <c r="G65" t="n">
-        <v>76.4495353239169</v>
+        <v>77.06519141678721</v>
       </c>
       <c r="H65" t="n">
-        <v>76.60931221468653</v>
+        <v>82.42745673963528</v>
       </c>
       <c r="I65" t="n">
-        <v>76.4026826940207</v>
+        <v>82.45891609479644</v>
       </c>
       <c r="J65" t="n">
-        <v>76.33190811690638</v>
+        <v>76.69580509066654</v>
       </c>
       <c r="K65" t="n">
-        <v>76.43498615721268</v>
+        <v>76.59217913567684</v>
       </c>
       <c r="L65" t="n">
-        <v>76.32579865418013</v>
+        <v>76.7304580685621</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>76.30833110328078</v>
+        <v>77.6907560587711</v>
       </c>
       <c r="C66" t="n">
-        <v>76.08394849585339</v>
+        <v>77.75394964713543</v>
       </c>
       <c r="D66" t="n">
-        <v>76.29689533474168</v>
+        <v>77.83928553491174</v>
       </c>
       <c r="E66" t="n">
-        <v>82.31514531841901</v>
+        <v>77.66865525747707</v>
       </c>
       <c r="F66" t="n">
-        <v>82.55745195357946</v>
+        <v>78.0718920380539</v>
       </c>
       <c r="G66" t="n">
-        <v>76.38748927337504</v>
+        <v>77.82788802672738</v>
       </c>
       <c r="H66" t="n">
-        <v>76.53494735548821</v>
+        <v>83.0643470149783</v>
       </c>
       <c r="I66" t="n">
-        <v>76.31946388517775</v>
+        <v>83.22973019269683</v>
       </c>
       <c r="J66" t="n">
-        <v>76.23785881070492</v>
+        <v>77.64312575975976</v>
       </c>
       <c r="K66" t="n">
-        <v>76.37032445714711</v>
+        <v>77.54874532788634</v>
       </c>
       <c r="L66" t="n">
-        <v>76.27045028588847</v>
+        <v>77.12107767582009</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>78.57015345593558</v>
+        <v>77.09320470074418</v>
       </c>
       <c r="C67" t="n">
-        <v>78.23768055259907</v>
+        <v>77.26029845206291</v>
       </c>
       <c r="D67" t="n">
-        <v>78.89572359018575</v>
+        <v>77.27281354285503</v>
       </c>
       <c r="E67" t="n">
-        <v>86.59158114381245</v>
+        <v>77.05623525538232</v>
       </c>
       <c r="F67" t="n">
-        <v>87.13963904791596</v>
+        <v>77.48168372287961</v>
       </c>
       <c r="G67" t="n">
-        <v>78.69643465458368</v>
+        <v>77.2173772206561</v>
       </c>
       <c r="H67" t="n">
-        <v>79.08751163738816</v>
+        <v>82.83126806549387</v>
       </c>
       <c r="I67" t="n">
-        <v>78.59376078870616</v>
+        <v>82.88862476554065</v>
       </c>
       <c r="J67" t="n">
-        <v>78.66601455032492</v>
+        <v>77.19774930795923</v>
       </c>
       <c r="K67" t="n">
-        <v>78.61049574591084</v>
+        <v>77.05491457562874</v>
       </c>
       <c r="L67" t="n">
-        <v>78.46856840193587</v>
+        <v>76.84471914913549</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>76.7141225176633</v>
+        <v>76.81354447916488</v>
       </c>
       <c r="C68" t="n">
-        <v>76.5510157428406</v>
+        <v>77.06220661237565</v>
       </c>
       <c r="D68" t="n">
-        <v>76.65495954990571</v>
+        <v>77.06186587091292</v>
       </c>
       <c r="E68" t="n">
-        <v>82.69348694531921</v>
+        <v>76.81545923010741</v>
       </c>
       <c r="F68" t="n">
-        <v>82.96390435953612</v>
+        <v>77.09703568945045</v>
       </c>
       <c r="G68" t="n">
-        <v>76.81261727841951</v>
+        <v>76.93655614454536</v>
       </c>
       <c r="H68" t="n">
-        <v>76.97474988084625</v>
+        <v>82.70655066243522</v>
       </c>
       <c r="I68" t="n">
-        <v>76.79764154682316</v>
+        <v>82.7702472646593</v>
       </c>
       <c r="J68" t="n">
-        <v>76.7571063486464</v>
+        <v>76.96704229219188</v>
       </c>
       <c r="K68" t="n">
-        <v>76.87869683887884</v>
+        <v>76.80266868280333</v>
       </c>
       <c r="L68" t="n">
-        <v>76.6864733257373</v>
+        <v>76.76966860805669</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>76.49822767480985</v>
+        <v>76.7031591869593</v>
       </c>
       <c r="C69" t="n">
-        <v>76.26440424103437</v>
+        <v>76.97258548219506</v>
       </c>
       <c r="D69" t="n">
-        <v>76.41429866360392</v>
+        <v>76.84224803874511</v>
       </c>
       <c r="E69" t="n">
-        <v>82.50505689566468</v>
+        <v>76.72046330434416</v>
       </c>
       <c r="F69" t="n">
-        <v>82.75865777867729</v>
+        <v>77.01040188733252</v>
       </c>
       <c r="G69" t="n">
-        <v>76.52531032873311</v>
+        <v>77.00396611854981</v>
       </c>
       <c r="H69" t="n">
-        <v>76.75594576284904</v>
+        <v>82.62028031503071</v>
       </c>
       <c r="I69" t="n">
-        <v>76.52767249207328</v>
+        <v>82.66652130068046</v>
       </c>
       <c r="J69" t="n">
-        <v>76.43685057409</v>
+        <v>76.81513880149961</v>
       </c>
       <c r="K69" t="n">
-        <v>76.57350303566292</v>
+        <v>76.65891763072045</v>
       </c>
       <c r="L69" t="n">
-        <v>76.46267110253886</v>
+        <v>76.71895157055087</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>76.3972292421472</v>
+        <v>76.61520781560958</v>
       </c>
       <c r="C70" t="n">
-        <v>76.19113935550131</v>
+        <v>76.88106896588104</v>
       </c>
       <c r="D70" t="n">
-        <v>76.30915265847801</v>
+        <v>76.71965805245769</v>
       </c>
       <c r="E70" t="n">
-        <v>82.40677883178229</v>
+        <v>76.59046173780865</v>
       </c>
       <c r="F70" t="n">
-        <v>82.61949945719272</v>
+        <v>76.87573444772282</v>
       </c>
       <c r="G70" t="n">
-        <v>76.41885859033235</v>
+        <v>76.92886921369686</v>
       </c>
       <c r="H70" t="n">
-        <v>76.58469877198765</v>
+        <v>82.53435104146422</v>
       </c>
       <c r="I70" t="n">
-        <v>76.39447999813207</v>
+        <v>82.6020146795162</v>
       </c>
       <c r="J70" t="n">
-        <v>76.33727877005869</v>
+        <v>76.72614303420524</v>
       </c>
       <c r="K70" t="n">
-        <v>76.41910334818517</v>
+        <v>76.56799817089419</v>
       </c>
       <c r="L70" t="n">
-        <v>76.3386974314782</v>
+        <v>76.58797232674164</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>76.31854644333188</v>
+        <v>76.48546242247882</v>
       </c>
       <c r="C71" t="n">
-        <v>76.11538962053442</v>
+        <v>76.87283765345862</v>
       </c>
       <c r="D71" t="n">
-        <v>76.2854816659422</v>
+        <v>76.66069619650347</v>
       </c>
       <c r="E71" t="n">
-        <v>82.34588544073078</v>
+        <v>76.524974279123</v>
       </c>
       <c r="F71" t="n">
-        <v>82.53742718734784</v>
+        <v>76.79902242465553</v>
       </c>
       <c r="G71" t="n">
-        <v>76.48805445086614</v>
+        <v>76.78926896704279</v>
       </c>
       <c r="H71" t="n">
-        <v>76.55982400700989</v>
+        <v>82.49295538151682</v>
       </c>
       <c r="I71" t="n">
-        <v>76.29702128339291</v>
+        <v>82.53548961669085</v>
       </c>
       <c r="J71" t="n">
-        <v>76.24411683132045</v>
+        <v>76.6394601462594</v>
       </c>
       <c r="K71" t="n">
-        <v>76.38138904131861</v>
+        <v>76.48312932747328</v>
       </c>
       <c r="L71" t="n">
-        <v>76.25024091683392</v>
+        <v>76.55325832555762</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>78.67514470643671</v>
+        <v>76.44314169814496</v>
       </c>
       <c r="C72" t="n">
-        <v>78.59553401858155</v>
+        <v>76.85241889814102</v>
       </c>
       <c r="D72" t="n">
-        <v>79.14501529828806</v>
+        <v>76.62000589980001</v>
       </c>
       <c r="E72" t="n">
-        <v>87.1440346762259</v>
+        <v>76.55447852384009</v>
       </c>
       <c r="F72" t="n">
-        <v>87.80369426783297</v>
+        <v>76.70076948540651</v>
       </c>
       <c r="G72" t="n">
-        <v>78.79496438010609</v>
+        <v>76.81590518059249</v>
       </c>
       <c r="H72" t="n">
-        <v>79.25115937167702</v>
+        <v>82.4514448167472</v>
       </c>
       <c r="I72" t="n">
-        <v>78.90535625519979</v>
+        <v>82.49664282679355</v>
       </c>
       <c r="J72" t="n">
-        <v>78.88246071638494</v>
+        <v>76.54435177535957</v>
       </c>
       <c r="K72" t="n">
-        <v>78.97914409189991</v>
+        <v>76.44060442160803</v>
       </c>
       <c r="L72" t="n">
-        <v>78.8673245081911</v>
+        <v>76.49258919901561</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>76.75819721358046</v>
+        <v>76.42036826388278</v>
       </c>
       <c r="C73" t="n">
-        <v>76.62157358040514</v>
+        <v>76.79191885993041</v>
       </c>
       <c r="D73" t="n">
-        <v>76.68642256979162</v>
+        <v>76.60835068875349</v>
       </c>
       <c r="E73" t="n">
-        <v>82.73393002715046</v>
+        <v>76.46276889478773</v>
       </c>
       <c r="F73" t="n">
-        <v>82.99136210327005</v>
+        <v>76.59232742698741</v>
       </c>
       <c r="G73" t="n">
-        <v>76.87447433949008</v>
+        <v>76.8470810612974</v>
       </c>
       <c r="H73" t="n">
-        <v>77.01198965651223</v>
+        <v>82.40849040856382</v>
       </c>
       <c r="I73" t="n">
-        <v>76.86074893202776</v>
+        <v>82.45233090684815</v>
       </c>
       <c r="J73" t="n">
-        <v>76.78267131581178</v>
+        <v>76.52082366107263</v>
       </c>
       <c r="K73" t="n">
-        <v>76.88516657027817</v>
+        <v>76.4005056509566</v>
       </c>
       <c r="L73" t="n">
-        <v>76.75409094337502</v>
+        <v>76.49328476561604</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>76.47669438085111</v>
+        <v>78.55150036047634</v>
       </c>
       <c r="C74" t="n">
-        <v>76.31794291626159</v>
+        <v>78.93987144527324</v>
       </c>
       <c r="D74" t="n">
-        <v>76.43145253258137</v>
+        <v>78.88592093088691</v>
       </c>
       <c r="E74" t="n">
-        <v>82.53753230832601</v>
+        <v>78.43648773468149</v>
       </c>
       <c r="F74" t="n">
-        <v>82.76199084618605</v>
+        <v>78.9452227945021</v>
       </c>
       <c r="G74" t="n">
-        <v>76.60458925098018</v>
+        <v>78.75655034495013</v>
       </c>
       <c r="H74" t="n">
-        <v>76.79607891680655</v>
+        <v>83.02729113076995</v>
       </c>
       <c r="I74" t="n">
-        <v>76.5607184958664</v>
+        <v>83.09787903188671</v>
       </c>
       <c r="J74" t="n">
-        <v>76.50128867212064</v>
+        <v>78.47937254089628</v>
       </c>
       <c r="K74" t="n">
-        <v>76.60884068425828</v>
+        <v>78.43940494660151</v>
       </c>
       <c r="L74" t="n">
-        <v>76.50713396445101</v>
+        <v>77.82703276819554</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>76.39679917648566</v>
+        <v>77.50494019162258</v>
       </c>
       <c r="C75" t="n">
-        <v>76.19801066814459</v>
+        <v>78.18915445374606</v>
       </c>
       <c r="D75" t="n">
-        <v>76.33710816039923</v>
+        <v>77.8922511547036</v>
       </c>
       <c r="E75" t="n">
-        <v>82.42609516127527</v>
+        <v>77.38826143130908</v>
       </c>
       <c r="F75" t="n">
-        <v>82.62718230627711</v>
+        <v>77.87401317830243</v>
       </c>
       <c r="G75" t="n">
-        <v>76.38510335257669</v>
+        <v>77.80571055216679</v>
       </c>
       <c r="H75" t="n">
-        <v>76.61203626926212</v>
+        <v>82.77636885218757</v>
       </c>
       <c r="I75" t="n">
-        <v>76.42860433295496</v>
+        <v>82.86166570693238</v>
       </c>
       <c r="J75" t="n">
-        <v>76.36766562700132</v>
+        <v>77.67413055463456</v>
       </c>
       <c r="K75" t="n">
-        <v>76.43612360270878</v>
+        <v>77.56447166298565</v>
       </c>
       <c r="L75" t="n">
-        <v>76.36819052431986</v>
+        <v>77.28475393652907</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>FFT_Trivial</t>
+          <t>DCT_CosineWindow</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>76.34754976583065</v>
+        <v>77.12157858261058</v>
       </c>
       <c r="C76" t="n">
-        <v>76.13108014776112</v>
+        <v>77.7873420703033</v>
       </c>
       <c r="D76" t="n">
-        <v>76.29987864741422</v>
+        <v>77.4580834270883</v>
       </c>
       <c r="E76" t="n">
-        <v>82.35609664484153</v>
+        <v>77.05717489551448</v>
       </c>
       <c r="F76" t="n">
-        <v>82.54833462169242</v>
+        <v>77.4500943657948</v>
       </c>
       <c r="G76" t="n">
-        <v>76.26349967144699</v>
+        <v>77.45559505815119</v>
       </c>
       <c r="H76" t="n">
-        <v>76.5320248914674</v>
+        <v>82.66997093098426</v>
       </c>
       <c r="I76" t="n">
-        <v>76.39891124852328</v>
+        <v>82.73894335851658</v>
       </c>
       <c r="J76" t="n">
-        <v>76.31640849667934</v>
+        <v>77.39735002125464</v>
       </c>
       <c r="K76" t="n">
-        <v>76.35549624345236</v>
+        <v>77.13285022368935</v>
       </c>
       <c r="L76" t="n">
-        <v>76.3225014207612</v>
+        <v>77.13096061470539</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>76.93013600301155</v>
+      </c>
+      <c r="C77" t="n">
+        <v>77.53458365007576</v>
+      </c>
+      <c r="D77" t="n">
+        <v>77.1583283864835</v>
+      </c>
+      <c r="E77" t="n">
+        <v>76.84346575132264</v>
+      </c>
+      <c r="F77" t="n">
+        <v>77.30779990407167</v>
+      </c>
+      <c r="G77" t="n">
+        <v>77.33595512088938</v>
+      </c>
+      <c r="H77" t="n">
+        <v>82.59224797545755</v>
+      </c>
+      <c r="I77" t="n">
+        <v>82.64715579565448</v>
+      </c>
+      <c r="J77" t="n">
+        <v>77.10634083365473</v>
+      </c>
+      <c r="K77" t="n">
+        <v>76.92841764510595</v>
+      </c>
+      <c r="L77" t="n">
+        <v>76.96619154903252</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>76.7521309110702</v>
+      </c>
+      <c r="C78" t="n">
+        <v>77.38366594066206</v>
+      </c>
+      <c r="D78" t="n">
+        <v>76.97494514808338</v>
+      </c>
+      <c r="E78" t="n">
+        <v>76.77114782542473</v>
+      </c>
+      <c r="F78" t="n">
+        <v>77.16348117296504</v>
+      </c>
+      <c r="G78" t="n">
+        <v>77.19328983686032</v>
+      </c>
+      <c r="H78" t="n">
+        <v>82.52514643320801</v>
+      </c>
+      <c r="I78" t="n">
+        <v>82.56613622012364</v>
+      </c>
+      <c r="J78" t="n">
+        <v>76.94804395731263</v>
+      </c>
+      <c r="K78" t="n">
+        <v>76.8052194583564</v>
+      </c>
+      <c r="L78" t="n">
+        <v>76.93144228713965</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>76.65750639446719</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77.34706674450182</v>
+      </c>
+      <c r="D79" t="n">
+        <v>76.85180648302249</v>
+      </c>
+      <c r="E79" t="n">
+        <v>76.69171017551002</v>
+      </c>
+      <c r="F79" t="n">
+        <v>77.02953904894117</v>
+      </c>
+      <c r="G79" t="n">
+        <v>77.07128681782849</v>
+      </c>
+      <c r="H79" t="n">
+        <v>82.48660063423388</v>
+      </c>
+      <c r="I79" t="n">
+        <v>82.5237088768133</v>
+      </c>
+      <c r="J79" t="n">
+        <v>76.86483344400048</v>
+      </c>
+      <c r="K79" t="n">
+        <v>76.70728240230318</v>
+      </c>
+      <c r="L79" t="n">
+        <v>76.85721272963409</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>76.59068160627658</v>
+      </c>
+      <c r="C80" t="n">
+        <v>77.26101679127839</v>
+      </c>
+      <c r="D80" t="n">
+        <v>76.81729412045448</v>
+      </c>
+      <c r="E80" t="n">
+        <v>76.65938165950435</v>
+      </c>
+      <c r="F80" t="n">
+        <v>76.89108498749488</v>
+      </c>
+      <c r="G80" t="n">
+        <v>77.05880909013509</v>
+      </c>
+      <c r="H80" t="n">
+        <v>82.44072181361261</v>
+      </c>
+      <c r="I80" t="n">
+        <v>82.46096521373131</v>
+      </c>
+      <c r="J80" t="n">
+        <v>76.76758185383649</v>
+      </c>
+      <c r="K80" t="n">
+        <v>76.58249582611973</v>
+      </c>
+      <c r="L80" t="n">
+        <v>76.81878441862385</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>76.52575121495347</v>
+      </c>
+      <c r="C81" t="n">
+        <v>77.22371231710758</v>
+      </c>
+      <c r="D81" t="n">
+        <v>76.7158617890166</v>
+      </c>
+      <c r="E81" t="n">
+        <v>76.59442391383888</v>
+      </c>
+      <c r="F81" t="n">
+        <v>76.85093659524931</v>
+      </c>
+      <c r="G81" t="n">
+        <v>76.94439751342691</v>
+      </c>
+      <c r="H81" t="n">
+        <v>82.39694172641207</v>
+      </c>
+      <c r="I81" t="n">
+        <v>82.42953238738268</v>
+      </c>
+      <c r="J81" t="n">
+        <v>76.70481834321264</v>
+      </c>
+      <c r="K81" t="n">
+        <v>76.52656812561999</v>
+      </c>
+      <c r="L81" t="n">
+        <v>76.7364479429264</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>77.19713432990707</v>
+      </c>
+      <c r="C82" t="n">
+        <v>77.23740785755616</v>
+      </c>
+      <c r="D82" t="n">
+        <v>77.17086229831426</v>
+      </c>
+      <c r="E82" t="n">
+        <v>77.27441305348704</v>
+      </c>
+      <c r="F82" t="n">
+        <v>77.62861924241125</v>
+      </c>
+      <c r="G82" t="n">
+        <v>77.28606898669571</v>
+      </c>
+      <c r="H82" t="n">
+        <v>82.82827956235522</v>
+      </c>
+      <c r="I82" t="n">
+        <v>82.9477420732556</v>
+      </c>
+      <c r="J82" t="n">
+        <v>77.26430462644812</v>
+      </c>
+      <c r="K82" t="n">
+        <v>77.10779788835843</v>
+      </c>
+      <c r="L82" t="n">
+        <v>76.8967199872595</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>76.80582981047168</v>
+      </c>
+      <c r="C83" t="n">
+        <v>76.91158521189485</v>
+      </c>
+      <c r="D83" t="n">
+        <v>76.73399587473821</v>
+      </c>
+      <c r="E83" t="n">
+        <v>76.83607753298824</v>
+      </c>
+      <c r="F83" t="n">
+        <v>77.18009236767618</v>
+      </c>
+      <c r="G83" t="n">
+        <v>76.85514982901555</v>
+      </c>
+      <c r="H83" t="n">
+        <v>82.64556200948365</v>
+      </c>
+      <c r="I83" t="n">
+        <v>82.74444204340936</v>
+      </c>
+      <c r="J83" t="n">
+        <v>76.92175996878161</v>
+      </c>
+      <c r="K83" t="n">
+        <v>76.73087706166525</v>
+      </c>
+      <c r="L83" t="n">
+        <v>76.71675687651593</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>76.6233233373151</v>
+      </c>
+      <c r="C84" t="n">
+        <v>76.75839330349247</v>
+      </c>
+      <c r="D84" t="n">
+        <v>76.6064916301787</v>
+      </c>
+      <c r="E84" t="n">
+        <v>76.65618418186187</v>
+      </c>
+      <c r="F84" t="n">
+        <v>76.96838139012419</v>
+      </c>
+      <c r="G84" t="n">
+        <v>76.78453022638203</v>
+      </c>
+      <c r="H84" t="n">
+        <v>82.55737174316334</v>
+      </c>
+      <c r="I84" t="n">
+        <v>82.631943428062</v>
+      </c>
+      <c r="J84" t="n">
+        <v>76.799605858429</v>
+      </c>
+      <c r="K84" t="n">
+        <v>76.54118735723512</v>
+      </c>
+      <c r="L84" t="n">
+        <v>76.61541966728971</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>76.54038311656733</v>
+      </c>
+      <c r="C85" t="n">
+        <v>76.69255745818515</v>
+      </c>
+      <c r="D85" t="n">
+        <v>76.54079818992773</v>
+      </c>
+      <c r="E85" t="n">
+        <v>76.54990753314577</v>
+      </c>
+      <c r="F85" t="n">
+        <v>76.81117237465421</v>
+      </c>
+      <c r="G85" t="n">
+        <v>76.68657193898473</v>
+      </c>
+      <c r="H85" t="n">
+        <v>82.49632179227822</v>
+      </c>
+      <c r="I85" t="n">
+        <v>82.54384370415985</v>
+      </c>
+      <c r="J85" t="n">
+        <v>76.65431461511305</v>
+      </c>
+      <c r="K85" t="n">
+        <v>76.4758349895817</v>
+      </c>
+      <c r="L85" t="n">
+        <v>76.55318941392298</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>76.46148330913876</v>
+      </c>
+      <c r="C86" t="n">
+        <v>76.65314231712728</v>
+      </c>
+      <c r="D86" t="n">
+        <v>76.46098969579103</v>
+      </c>
+      <c r="E86" t="n">
+        <v>76.48134591926376</v>
+      </c>
+      <c r="F86" t="n">
+        <v>76.69518602995917</v>
+      </c>
+      <c r="G86" t="n">
+        <v>76.51607947188835</v>
+      </c>
+      <c r="H86" t="n">
+        <v>82.44258327008113</v>
+      </c>
+      <c r="I86" t="n">
+        <v>82.48352342072832</v>
+      </c>
+      <c r="J86" t="n">
+        <v>76.54334418657159</v>
+      </c>
+      <c r="K86" t="n">
+        <v>76.43450923051263</v>
+      </c>
+      <c r="L86" t="n">
+        <v>76.53151969708122</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>76.39042644561242</v>
+      </c>
+      <c r="C87" t="n">
+        <v>76.5863692520188</v>
+      </c>
+      <c r="D87" t="n">
+        <v>76.44958132570619</v>
+      </c>
+      <c r="E87" t="n">
+        <v>76.44003301927199</v>
+      </c>
+      <c r="F87" t="n">
+        <v>76.62627787508822</v>
+      </c>
+      <c r="G87" t="n">
+        <v>76.49326257233901</v>
+      </c>
+      <c r="H87" t="n">
+        <v>82.41030762437909</v>
+      </c>
+      <c r="I87" t="n">
+        <v>82.42099253176036</v>
+      </c>
+      <c r="J87" t="n">
+        <v>76.5151028165281</v>
+      </c>
+      <c r="K87" t="n">
+        <v>76.38195953910616</v>
+      </c>
+      <c r="L87" t="n">
+        <v>76.56456196353029</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>76.32044150381327</v>
+      </c>
+      <c r="C88" t="n">
+        <v>76.59175131878924</v>
+      </c>
+      <c r="D88" t="n">
+        <v>76.43300284196506</v>
+      </c>
+      <c r="E88" t="n">
+        <v>76.39730589870075</v>
+      </c>
+      <c r="F88" t="n">
+        <v>76.61057177958162</v>
+      </c>
+      <c r="G88" t="n">
+        <v>76.4557774799969</v>
+      </c>
+      <c r="H88" t="n">
+        <v>82.37701320599919</v>
+      </c>
+      <c r="I88" t="n">
+        <v>82.41128831597997</v>
+      </c>
+      <c r="J88" t="n">
+        <v>76.45397021408614</v>
+      </c>
+      <c r="K88" t="n">
+        <v>76.35427291664838</v>
+      </c>
+      <c r="L88" t="n">
+        <v>76.47701773284838</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>76.31971176764586</v>
+      </c>
+      <c r="C89" t="n">
+        <v>76.53541583258767</v>
+      </c>
+      <c r="D89" t="n">
+        <v>76.40479355266096</v>
+      </c>
+      <c r="E89" t="n">
+        <v>76.36097958210316</v>
+      </c>
+      <c r="F89" t="n">
+        <v>76.54733240680972</v>
+      </c>
+      <c r="G89" t="n">
+        <v>76.47138462744292</v>
+      </c>
+      <c r="H89" t="n">
+        <v>82.35716166608341</v>
+      </c>
+      <c r="I89" t="n">
+        <v>82.38399174100834</v>
+      </c>
+      <c r="J89" t="n">
+        <v>76.41551449391442</v>
+      </c>
+      <c r="K89" t="n">
+        <v>76.33492026754369</v>
+      </c>
+      <c r="L89" t="n">
+        <v>76.50048970143072</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>77.32911713945856</v>
+      </c>
+      <c r="C90" t="n">
+        <v>77.40783150287226</v>
+      </c>
+      <c r="D90" t="n">
+        <v>77.42337534057596</v>
+      </c>
+      <c r="E90" t="n">
+        <v>77.49456871155471</v>
+      </c>
+      <c r="F90" t="n">
+        <v>77.6987860606926</v>
+      </c>
+      <c r="G90" t="n">
+        <v>77.4713779925865</v>
+      </c>
+      <c r="H90" t="n">
+        <v>83.01028865801653</v>
+      </c>
+      <c r="I90" t="n">
+        <v>83.12195658854422</v>
+      </c>
+      <c r="J90" t="n">
+        <v>77.42013230698477</v>
+      </c>
+      <c r="K90" t="n">
+        <v>77.32619911041607</v>
+      </c>
+      <c r="L90" t="n">
+        <v>76.92367939042488</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>76.88872257797448</v>
+      </c>
+      <c r="C91" t="n">
+        <v>77.07455774425746</v>
+      </c>
+      <c r="D91" t="n">
+        <v>76.92887841422413</v>
+      </c>
+      <c r="E91" t="n">
+        <v>76.93808794235879</v>
+      </c>
+      <c r="F91" t="n">
+        <v>77.27451350946539</v>
+      </c>
+      <c r="G91" t="n">
+        <v>76.9020315932629</v>
+      </c>
+      <c r="H91" t="n">
+        <v>82.77799074488256</v>
+      </c>
+      <c r="I91" t="n">
+        <v>82.86060735116996</v>
+      </c>
+      <c r="J91" t="n">
+        <v>77.03993685532683</v>
+      </c>
+      <c r="K91" t="n">
+        <v>76.84150029190587</v>
+      </c>
+      <c r="L91" t="n">
+        <v>76.68604699422856</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>76.68727317274781</v>
+      </c>
+      <c r="C92" t="n">
+        <v>76.91666655239514</v>
+      </c>
+      <c r="D92" t="n">
+        <v>76.81018226625851</v>
+      </c>
+      <c r="E92" t="n">
+        <v>76.79487590373547</v>
+      </c>
+      <c r="F92" t="n">
+        <v>77.02763816167945</v>
+      </c>
+      <c r="G92" t="n">
+        <v>76.84759272745274</v>
+      </c>
+      <c r="H92" t="n">
+        <v>82.68256922603555</v>
+      </c>
+      <c r="I92" t="n">
+        <v>82.73942218159081</v>
+      </c>
+      <c r="J92" t="n">
+        <v>76.84030641838355</v>
+      </c>
+      <c r="K92" t="n">
+        <v>76.66917456687825</v>
+      </c>
+      <c r="L92" t="n">
+        <v>76.57359558436146</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>76.62067004162984</v>
+      </c>
+      <c r="C93" t="n">
+        <v>76.79255335108215</v>
+      </c>
+      <c r="D93" t="n">
+        <v>76.69043194096801</v>
+      </c>
+      <c r="E93" t="n">
+        <v>76.61629999674096</v>
+      </c>
+      <c r="F93" t="n">
+        <v>76.8582422844875</v>
+      </c>
+      <c r="G93" t="n">
+        <v>76.71636844721115</v>
+      </c>
+      <c r="H93" t="n">
+        <v>82.59271883943056</v>
+      </c>
+      <c r="I93" t="n">
+        <v>82.62764860791761</v>
+      </c>
+      <c r="J93" t="n">
+        <v>76.70783178015125</v>
+      </c>
+      <c r="K93" t="n">
+        <v>76.56115031114427</v>
+      </c>
+      <c r="L93" t="n">
+        <v>76.55700510742224</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>76.50107119858249</v>
+      </c>
+      <c r="C94" t="n">
+        <v>76.74182034560519</v>
+      </c>
+      <c r="D94" t="n">
+        <v>76.60478920002399</v>
+      </c>
+      <c r="E94" t="n">
+        <v>76.48337842646956</v>
+      </c>
+      <c r="F94" t="n">
+        <v>76.68630148300254</v>
+      </c>
+      <c r="G94" t="n">
+        <v>76.59677355057821</v>
+      </c>
+      <c r="H94" t="n">
+        <v>82.53389360470585</v>
+      </c>
+      <c r="I94" t="n">
+        <v>82.57466099930062</v>
+      </c>
+      <c r="J94" t="n">
+        <v>76.60760227035958</v>
+      </c>
+      <c r="K94" t="n">
+        <v>76.50411612428138</v>
+      </c>
+      <c r="L94" t="n">
+        <v>76.55253762019865</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>76.45018763362488</v>
+      </c>
+      <c r="C95" t="n">
+        <v>76.6981593443231</v>
+      </c>
+      <c r="D95" t="n">
+        <v>76.54493847372567</v>
+      </c>
+      <c r="E95" t="n">
+        <v>76.49539433813939</v>
+      </c>
+      <c r="F95" t="n">
+        <v>76.61980382088069</v>
+      </c>
+      <c r="G95" t="n">
+        <v>76.57756148835338</v>
+      </c>
+      <c r="H95" t="n">
+        <v>82.4821527596298</v>
+      </c>
+      <c r="I95" t="n">
+        <v>82.52292625086295</v>
+      </c>
+      <c r="J95" t="n">
+        <v>76.54173435402438</v>
+      </c>
+      <c r="K95" t="n">
+        <v>76.4416816577944</v>
+      </c>
+      <c r="L95" t="n">
+        <v>76.50900247346704</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>76.36654327385055</v>
+      </c>
+      <c r="C96" t="n">
+        <v>76.67233826230147</v>
+      </c>
+      <c r="D96" t="n">
+        <v>76.45441766404396</v>
+      </c>
+      <c r="E96" t="n">
+        <v>76.47160337980526</v>
+      </c>
+      <c r="F96" t="n">
+        <v>76.58557147868491</v>
+      </c>
+      <c r="G96" t="n">
+        <v>76.55625985517054</v>
+      </c>
+      <c r="H96" t="n">
+        <v>82.44434246229638</v>
+      </c>
+      <c r="I96" t="n">
+        <v>82.4600074907614</v>
+      </c>
+      <c r="J96" t="n">
+        <v>76.49298655293268</v>
+      </c>
+      <c r="K96" t="n">
+        <v>76.40622764660706</v>
+      </c>
+      <c r="L96" t="n">
+        <v>76.49828877641001</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>76.30228721591202</v>
+      </c>
+      <c r="C97" t="n">
+        <v>76.66289518771214</v>
+      </c>
+      <c r="D97" t="n">
+        <v>76.45956906338165</v>
+      </c>
+      <c r="E97" t="n">
+        <v>76.44242121313377</v>
+      </c>
+      <c r="F97" t="n">
+        <v>76.54346135236486</v>
+      </c>
+      <c r="G97" t="n">
+        <v>76.50072729301033</v>
+      </c>
+      <c r="H97" t="n">
+        <v>82.40749579816017</v>
+      </c>
+      <c r="I97" t="n">
+        <v>82.41056835295117</v>
+      </c>
+      <c r="J97" t="n">
+        <v>76.43165287226321</v>
+      </c>
+      <c r="K97" t="n">
+        <v>76.37220178286091</v>
+      </c>
+      <c r="L97" t="n">
+        <v>76.41042730322143</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>77.66650759539752</v>
+      </c>
+      <c r="C98" t="n">
+        <v>77.63990863596601</v>
+      </c>
+      <c r="D98" t="n">
+        <v>77.71247123115597</v>
+      </c>
+      <c r="E98" t="n">
+        <v>77.77586463861115</v>
+      </c>
+      <c r="F98" t="n">
+        <v>78.07070013316357</v>
+      </c>
+      <c r="G98" t="n">
+        <v>77.81436695543172</v>
+      </c>
+      <c r="H98" t="n">
+        <v>82.74456765546661</v>
+      </c>
+      <c r="I98" t="n">
+        <v>82.83827440727734</v>
+      </c>
+      <c r="J98" t="n">
+        <v>77.70244014263579</v>
+      </c>
+      <c r="K98" t="n">
+        <v>77.59292712650155</v>
+      </c>
+      <c r="L98" t="n">
+        <v>77.04765052143296</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>77.07590582587697</v>
+      </c>
+      <c r="C99" t="n">
+        <v>77.20107691941978</v>
+      </c>
+      <c r="D99" t="n">
+        <v>77.13434674743488</v>
+      </c>
+      <c r="E99" t="n">
+        <v>77.10564123768573</v>
+      </c>
+      <c r="F99" t="n">
+        <v>77.44645471352869</v>
+      </c>
+      <c r="G99" t="n">
+        <v>77.1970250458382</v>
+      </c>
+      <c r="H99" t="n">
+        <v>82.59630840510384</v>
+      </c>
+      <c r="I99" t="n">
+        <v>82.65408974171173</v>
+      </c>
+      <c r="J99" t="n">
+        <v>77.20279557879489</v>
+      </c>
+      <c r="K99" t="n">
+        <v>77.02661941520662</v>
+      </c>
+      <c r="L99" t="n">
+        <v>76.80309768043104</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>76.84915744547521</v>
+      </c>
+      <c r="C100" t="n">
+        <v>76.98449139667952</v>
+      </c>
+      <c r="D100" t="n">
+        <v>76.93189723932834</v>
+      </c>
+      <c r="E100" t="n">
+        <v>76.85416094931432</v>
+      </c>
+      <c r="F100" t="n">
+        <v>77.14274149499789</v>
+      </c>
+      <c r="G100" t="n">
+        <v>76.90897502746076</v>
+      </c>
+      <c r="H100" t="n">
+        <v>82.50233749007172</v>
+      </c>
+      <c r="I100" t="n">
+        <v>82.56849238198286</v>
+      </c>
+      <c r="J100" t="n">
+        <v>77.01724624967845</v>
+      </c>
+      <c r="K100" t="n">
+        <v>76.79790117190834</v>
+      </c>
+      <c r="L100" t="n">
+        <v>76.65311065723634</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>76.67874712630262</v>
+      </c>
+      <c r="C101" t="n">
+        <v>76.92713602874063</v>
+      </c>
+      <c r="D101" t="n">
+        <v>76.77661739344474</v>
+      </c>
+      <c r="E101" t="n">
+        <v>76.76136669847499</v>
+      </c>
+      <c r="F101" t="n">
+        <v>77.06731936192068</v>
+      </c>
+      <c r="G101" t="n">
+        <v>76.72037488009747</v>
+      </c>
+      <c r="H101" t="n">
+        <v>82.45537822117662</v>
+      </c>
+      <c r="I101" t="n">
+        <v>82.49313432148182</v>
+      </c>
+      <c r="J101" t="n">
+        <v>76.87052448304107</v>
+      </c>
+      <c r="K101" t="n">
+        <v>76.72201650302001</v>
+      </c>
+      <c r="L101" t="n">
+        <v>76.6078443706655</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>76.57503564184425</v>
+      </c>
+      <c r="C102" t="n">
+        <v>76.83281707557954</v>
+      </c>
+      <c r="D102" t="n">
+        <v>76.70499747389782</v>
+      </c>
+      <c r="E102" t="n">
+        <v>76.6601109477797</v>
+      </c>
+      <c r="F102" t="n">
+        <v>76.78867726955949</v>
+      </c>
+      <c r="G102" t="n">
+        <v>76.66419780393655</v>
+      </c>
+      <c r="H102" t="n">
+        <v>82.41215744257906</v>
+      </c>
+      <c r="I102" t="n">
+        <v>82.45151677063782</v>
+      </c>
+      <c r="J102" t="n">
+        <v>76.77215569682149</v>
+      </c>
+      <c r="K102" t="n">
+        <v>76.6450061260864</v>
+      </c>
+      <c r="L102" t="n">
+        <v>76.56604557505914</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>76.48744283371343</v>
+      </c>
+      <c r="C103" t="n">
+        <v>76.77084099980007</v>
+      </c>
+      <c r="D103" t="n">
+        <v>76.57426538487249</v>
+      </c>
+      <c r="E103" t="n">
+        <v>76.54172804213007</v>
+      </c>
+      <c r="F103" t="n">
+        <v>76.66951690637225</v>
+      </c>
+      <c r="G103" t="n">
+        <v>76.70754761051873</v>
+      </c>
+      <c r="H103" t="n">
+        <v>82.36947257958971</v>
+      </c>
+      <c r="I103" t="n">
+        <v>82.40937607087614</v>
+      </c>
+      <c r="J103" t="n">
+        <v>76.6786732992922</v>
+      </c>
+      <c r="K103" t="n">
+        <v>76.54130516610694</v>
+      </c>
+      <c r="L103" t="n">
+        <v>76.52285867207203</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>76.41507443983265</v>
+      </c>
+      <c r="C104" t="n">
+        <v>76.75072070632115</v>
+      </c>
+      <c r="D104" t="n">
+        <v>76.58624312889739</v>
+      </c>
+      <c r="E104" t="n">
+        <v>76.49684756313636</v>
+      </c>
+      <c r="F104" t="n">
+        <v>76.63406809760215</v>
+      </c>
+      <c r="G104" t="n">
+        <v>76.64566332775215</v>
+      </c>
+      <c r="H104" t="n">
+        <v>82.34877348556766</v>
+      </c>
+      <c r="I104" t="n">
+        <v>82.36401102871287</v>
+      </c>
+      <c r="J104" t="n">
+        <v>76.62744795002953</v>
+      </c>
+      <c r="K104" t="n">
+        <v>76.50306221748178</v>
+      </c>
+      <c r="L104" t="n">
+        <v>76.49924776754843</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>76.34373876563693</v>
+      </c>
+      <c r="C105" t="n">
+        <v>76.75828714845599</v>
+      </c>
+      <c r="D105" t="n">
+        <v>76.5351413226862</v>
+      </c>
+      <c r="E105" t="n">
+        <v>76.46790953030577</v>
+      </c>
+      <c r="F105" t="n">
+        <v>76.60035192740095</v>
+      </c>
+      <c r="G105" t="n">
+        <v>76.68740879151554</v>
+      </c>
+      <c r="H105" t="n">
+        <v>82.31954087414367</v>
+      </c>
+      <c r="I105" t="n">
+        <v>82.32235702995759</v>
+      </c>
+      <c r="J105" t="n">
+        <v>76.56188301604159</v>
+      </c>
+      <c r="K105" t="n">
+        <v>76.42249114974049</v>
+      </c>
+      <c r="L105" t="n">
+        <v>76.43762422719371</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>78.15094756931254</v>
+      </c>
+      <c r="C106" t="n">
+        <v>78.33392500976286</v>
+      </c>
+      <c r="D106" t="n">
+        <v>78.28780955037045</v>
+      </c>
+      <c r="E106" t="n">
+        <v>78.27700670348975</v>
+      </c>
+      <c r="F106" t="n">
+        <v>78.36940250932895</v>
+      </c>
+      <c r="G106" t="n">
+        <v>78.27447558202527</v>
+      </c>
+      <c r="H106" t="n">
+        <v>82.90905965861</v>
+      </c>
+      <c r="I106" t="n">
+        <v>83.00117148114947</v>
+      </c>
+      <c r="J106" t="n">
+        <v>78.20307367695892</v>
+      </c>
+      <c r="K106" t="n">
+        <v>78.06712837282559</v>
+      </c>
+      <c r="L106" t="n">
+        <v>77.33461814600511</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>77.27881703308427</v>
+      </c>
+      <c r="C107" t="n">
+        <v>77.6687770780126</v>
+      </c>
+      <c r="D107" t="n">
+        <v>77.58833757314738</v>
+      </c>
+      <c r="E107" t="n">
+        <v>77.32611761528554</v>
+      </c>
+      <c r="F107" t="n">
+        <v>77.66915256130964</v>
+      </c>
+      <c r="G107" t="n">
+        <v>77.42875366817427</v>
+      </c>
+      <c r="H107" t="n">
+        <v>82.71244257924724</v>
+      </c>
+      <c r="I107" t="n">
+        <v>82.79083046849007</v>
+      </c>
+      <c r="J107" t="n">
+        <v>77.52075355545836</v>
+      </c>
+      <c r="K107" t="n">
+        <v>77.30990951517003</v>
+      </c>
+      <c r="L107" t="n">
+        <v>77.00847968199962</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>76.97588828846138</v>
+      </c>
+      <c r="C108" t="n">
+        <v>77.42561664718014</v>
+      </c>
+      <c r="D108" t="n">
+        <v>77.15930654942541</v>
+      </c>
+      <c r="E108" t="n">
+        <v>76.99762711372665</v>
+      </c>
+      <c r="F108" t="n">
+        <v>77.3228741747653</v>
+      </c>
+      <c r="G108" t="n">
+        <v>77.1223601125844</v>
+      </c>
+      <c r="H108" t="n">
+        <v>82.61573802765292</v>
+      </c>
+      <c r="I108" t="n">
+        <v>82.66340172842094</v>
+      </c>
+      <c r="J108" t="n">
+        <v>77.25242024680776</v>
+      </c>
+      <c r="K108" t="n">
+        <v>77.00972226201513</v>
+      </c>
+      <c r="L108" t="n">
+        <v>76.84557876656903</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>76.78365591284928</v>
+      </c>
+      <c r="C109" t="n">
+        <v>77.25710708631442</v>
+      </c>
+      <c r="D109" t="n">
+        <v>76.98021835742328</v>
+      </c>
+      <c r="E109" t="n">
+        <v>76.81629514467495</v>
+      </c>
+      <c r="F109" t="n">
+        <v>77.03293258833875</v>
+      </c>
+      <c r="G109" t="n">
+        <v>77.04323856079546</v>
+      </c>
+      <c r="H109" t="n">
+        <v>82.54510334750209</v>
+      </c>
+      <c r="I109" t="n">
+        <v>82.59373913157194</v>
+      </c>
+      <c r="J109" t="n">
+        <v>77.03978347674527</v>
+      </c>
+      <c r="K109" t="n">
+        <v>76.85962823195578</v>
+      </c>
+      <c r="L109" t="n">
+        <v>76.68385002045952</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>76.68974035590581</v>
+      </c>
+      <c r="C110" t="n">
+        <v>77.13105700342606</v>
+      </c>
+      <c r="D110" t="n">
+        <v>76.81081943145327</v>
+      </c>
+      <c r="E110" t="n">
+        <v>76.70513073444411</v>
+      </c>
+      <c r="F110" t="n">
+        <v>76.87788671586165</v>
+      </c>
+      <c r="G110" t="n">
+        <v>76.9649103349894</v>
+      </c>
+      <c r="H110" t="n">
+        <v>82.48057243995001</v>
+      </c>
+      <c r="I110" t="n">
+        <v>82.5102127147676</v>
+      </c>
+      <c r="J110" t="n">
+        <v>76.87718432738974</v>
+      </c>
+      <c r="K110" t="n">
+        <v>76.78700061261711</v>
+      </c>
+      <c r="L110" t="n">
+        <v>76.63437830653925</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>76.59837549736378</v>
+      </c>
+      <c r="C111" t="n">
+        <v>77.04390613135494</v>
+      </c>
+      <c r="D111" t="n">
+        <v>76.71444871482198</v>
+      </c>
+      <c r="E111" t="n">
+        <v>76.64518567950907</v>
+      </c>
+      <c r="F111" t="n">
+        <v>76.77061107962466</v>
+      </c>
+      <c r="G111" t="n">
+        <v>76.8188225422861</v>
+      </c>
+      <c r="H111" t="n">
+        <v>82.44788296603576</v>
+      </c>
+      <c r="I111" t="n">
+        <v>82.4730947626776</v>
+      </c>
+      <c r="J111" t="n">
+        <v>76.78986817073456</v>
+      </c>
+      <c r="K111" t="n">
+        <v>76.61317114293688</v>
+      </c>
+      <c r="L111" t="n">
+        <v>76.60010526870919</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>76.51334385730947</v>
+      </c>
+      <c r="C112" t="n">
+        <v>77.03540464082673</v>
+      </c>
+      <c r="D112" t="n">
+        <v>76.67369865894759</v>
+      </c>
+      <c r="E112" t="n">
+        <v>76.52429247873461</v>
+      </c>
+      <c r="F112" t="n">
+        <v>76.7785455540831</v>
+      </c>
+      <c r="G112" t="n">
+        <v>76.84360558462048</v>
+      </c>
+      <c r="H112" t="n">
+        <v>82.41346484713374</v>
+      </c>
+      <c r="I112" t="n">
+        <v>82.42014318511951</v>
+      </c>
+      <c r="J112" t="n">
+        <v>76.6908274929482</v>
+      </c>
+      <c r="K112" t="n">
+        <v>76.53447752861568</v>
+      </c>
+      <c r="L112" t="n">
+        <v>76.5793735374593</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>76.46485197942285</v>
+      </c>
+      <c r="C113" t="n">
+        <v>76.96142505727745</v>
+      </c>
+      <c r="D113" t="n">
+        <v>76.54702203370506</v>
+      </c>
+      <c r="E113" t="n">
+        <v>76.52967015154101</v>
+      </c>
+      <c r="F113" t="n">
+        <v>76.66652126773016</v>
+      </c>
+      <c r="G113" t="n">
+        <v>76.79339973122691</v>
+      </c>
+      <c r="H113" t="n">
+        <v>82.37256113915195</v>
+      </c>
+      <c r="I113" t="n">
+        <v>82.38531947667505</v>
+      </c>
+      <c r="J113" t="n">
+        <v>76.65455717421692</v>
+      </c>
+      <c r="K113" t="n">
+        <v>76.45998956069997</v>
+      </c>
+      <c r="L113" t="n">
+        <v>76.52354723129338</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>78.45559479058289</v>
+      </c>
+      <c r="C114" t="n">
+        <v>78.91264050158796</v>
+      </c>
+      <c r="D114" t="n">
+        <v>78.87335730610245</v>
+      </c>
+      <c r="E114" t="n">
+        <v>78.40293777831458</v>
+      </c>
+      <c r="F114" t="n">
+        <v>78.90399438556864</v>
+      </c>
+      <c r="G114" t="n">
+        <v>78.76980968043024</v>
+      </c>
+      <c r="H114" t="n">
+        <v>83.00632840394573</v>
+      </c>
+      <c r="I114" t="n">
+        <v>83.14659438423345</v>
+      </c>
+      <c r="J114" t="n">
+        <v>78.53298139269978</v>
+      </c>
+      <c r="K114" t="n">
+        <v>78.49920673083983</v>
+      </c>
+      <c r="L114" t="n">
+        <v>77.70410060607408</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>77.45798123216325</v>
+      </c>
+      <c r="C115" t="n">
+        <v>78.08323898039322</v>
+      </c>
+      <c r="D115" t="n">
+        <v>77.76845928469052</v>
+      </c>
+      <c r="E115" t="n">
+        <v>77.37204433281433</v>
+      </c>
+      <c r="F115" t="n">
+        <v>77.90625156816699</v>
+      </c>
+      <c r="G115" t="n">
+        <v>77.65478825522695</v>
+      </c>
+      <c r="H115" t="n">
+        <v>82.78775589393436</v>
+      </c>
+      <c r="I115" t="n">
+        <v>82.8660051257007</v>
+      </c>
+      <c r="J115" t="n">
+        <v>77.72653960571265</v>
+      </c>
+      <c r="K115" t="n">
+        <v>77.55392621989921</v>
+      </c>
+      <c r="L115" t="n">
+        <v>77.18541013985059</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>77.07944613546429</v>
+      </c>
+      <c r="C116" t="n">
+        <v>77.72295080780283</v>
+      </c>
+      <c r="D116" t="n">
+        <v>77.32852614749102</v>
+      </c>
+      <c r="E116" t="n">
+        <v>77.03864707089083</v>
+      </c>
+      <c r="F116" t="n">
+        <v>77.41326432003837</v>
+      </c>
+      <c r="G116" t="n">
+        <v>77.31492196217151</v>
+      </c>
+      <c r="H116" t="n">
+        <v>82.6792882499424</v>
+      </c>
+      <c r="I116" t="n">
+        <v>82.73367413204129</v>
+      </c>
+      <c r="J116" t="n">
+        <v>77.35504341275552</v>
+      </c>
+      <c r="K116" t="n">
+        <v>77.16738197605267</v>
+      </c>
+      <c r="L116" t="n">
+        <v>76.9906728109376</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>76.91416258059851</v>
+      </c>
+      <c r="C117" t="n">
+        <v>77.51367910129503</v>
+      </c>
+      <c r="D117" t="n">
+        <v>77.11199284460331</v>
+      </c>
+      <c r="E117" t="n">
+        <v>76.83027327852378</v>
+      </c>
+      <c r="F117" t="n">
+        <v>77.1864505573961</v>
+      </c>
+      <c r="G117" t="n">
+        <v>77.10961989443956</v>
+      </c>
+      <c r="H117" t="n">
+        <v>82.60262020978311</v>
+      </c>
+      <c r="I117" t="n">
+        <v>82.64096447276029</v>
+      </c>
+      <c r="J117" t="n">
+        <v>77.10875834191145</v>
+      </c>
+      <c r="K117" t="n">
+        <v>76.91992708910112</v>
+      </c>
+      <c r="L117" t="n">
+        <v>76.89277494796411</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>76.75619553893301</v>
+      </c>
+      <c r="C118" t="n">
+        <v>77.4353377693928</v>
+      </c>
+      <c r="D118" t="n">
+        <v>76.95328072933098</v>
+      </c>
+      <c r="E118" t="n">
+        <v>76.74728543324677</v>
+      </c>
+      <c r="F118" t="n">
+        <v>77.06729640715437</v>
+      </c>
+      <c r="G118" t="n">
+        <v>77.04818873762044</v>
+      </c>
+      <c r="H118" t="n">
+        <v>82.54436958789441</v>
+      </c>
+      <c r="I118" t="n">
+        <v>82.55719539053622</v>
+      </c>
+      <c r="J118" t="n">
+        <v>76.99756635644073</v>
+      </c>
+      <c r="K118" t="n">
+        <v>76.81604562339224</v>
+      </c>
+      <c r="L118" t="n">
+        <v>76.81353178667504</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>76.66216543178315</v>
+      </c>
+      <c r="C119" t="n">
+        <v>77.2692373194357</v>
+      </c>
+      <c r="D119" t="n">
+        <v>76.8306038204347</v>
+      </c>
+      <c r="E119" t="n">
+        <v>76.64067826238953</v>
+      </c>
+      <c r="F119" t="n">
+        <v>76.93707308511212</v>
+      </c>
+      <c r="G119" t="n">
+        <v>77.0106854865857</v>
+      </c>
+      <c r="H119" t="n">
+        <v>82.47467150407738</v>
+      </c>
+      <c r="I119" t="n">
+        <v>82.50964175693804</v>
+      </c>
+      <c r="J119" t="n">
+        <v>76.87125378946037</v>
+      </c>
+      <c r="K119" t="n">
+        <v>76.69316016772063</v>
+      </c>
+      <c r="L119" t="n">
+        <v>76.74783327647415</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>76.65036647795537</v>
+      </c>
+      <c r="C120" t="n">
+        <v>77.13632388162182</v>
+      </c>
+      <c r="D120" t="n">
+        <v>76.75318371102274</v>
+      </c>
+      <c r="E120" t="n">
+        <v>76.59328612122007</v>
+      </c>
+      <c r="F120" t="n">
+        <v>76.87019996592807</v>
+      </c>
+      <c r="G120" t="n">
+        <v>76.90942686872535</v>
+      </c>
+      <c r="H120" t="n">
+        <v>82.43682243607421</v>
+      </c>
+      <c r="I120" t="n">
+        <v>82.45918078534869</v>
+      </c>
+      <c r="J120" t="n">
+        <v>76.72769606984289</v>
+      </c>
+      <c r="K120" t="n">
+        <v>76.61338859919748</v>
+      </c>
+      <c r="L120" t="n">
+        <v>76.62890526282061</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>DCT_CosineWindow</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>76.6334133644111</v>
+      </c>
+      <c r="C121" t="n">
+        <v>77.07755739963233</v>
+      </c>
+      <c r="D121" t="n">
+        <v>76.63161872683271</v>
+      </c>
+      <c r="E121" t="n">
+        <v>76.55130039528609</v>
+      </c>
+      <c r="F121" t="n">
+        <v>76.78464295815473</v>
+      </c>
+      <c r="G121" t="n">
+        <v>76.82657906753415</v>
+      </c>
+      <c r="H121" t="n">
+        <v>82.39611715074957</v>
+      </c>
+      <c r="I121" t="n">
+        <v>82.40412397419473</v>
+      </c>
+      <c r="J121" t="n">
+        <v>76.61820394485113</v>
+      </c>
+      <c r="K121" t="n">
+        <v>76.50700455560651</v>
+      </c>
+      <c r="L121" t="n">
+        <v>76.64719502949018</v>
       </c>
     </row>
   </sheetData>
